--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m19/subjects</t>
+          <t>http://purl.org/eLTER_CL</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -453,6 +453,13 @@
       <c r="Q1" t="inlineStr"/>
       <c r="R1" t="inlineStr"/>
       <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +485,13 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -487,12 +501,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nicest-2-subjects</t>
+          <t>vocab</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m19/subjects/</t>
+          <t>http://purl.org/eLTER_CL/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,6 +529,13 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -552,6 +573,13 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -589,6 +617,13 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -626,16 +661,35 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>iop</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The I-ADOPT Framework is an ontology designed to facilitate interoperability between existing variable description models.</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -651,24 +705,35 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NICEST-2 controlled vocabulary of subjects</t>
+          <t>qudt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Title of the vocabulary</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>http://qudt.org/schema/qudt/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -684,24 +749,35 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Subjects ...</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>http://qudt.org/vocab/unit/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -717,23 +793,22 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator, repeat this row as needed.</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -750,19 +825,30 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-8497-1661</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>eLTER_CL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Title of the vocabulary</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -779,21 +865,28 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>eLTER_CL is a thesaurus for controlled lists used by the eLTER community</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -812,21 +905,24 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:version</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>An ORCID ID of the vocabulary creator, repeat this row as needed.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -845,21 +941,28 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-11-12T12:00+02:00</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -878,21 +981,28 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-11-12T12:00+02:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -911,15 +1021,30 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+          <t>pav:createdOn</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-11-12T12:00+02:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Date when vocabulary was initially created</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -936,63 +1061,38 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
+          <t>2021-11-12T12:00+02:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1001,18 +1101,21 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10000</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>oceanography</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -1030,45 +1133,115 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10001</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>numerical modelling</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10002</t>
+          <t>vocab:10000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>Test Term 1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1088,16 +1261,23 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10003</t>
+          <t>vocab:10001</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>observations</t>
+          <t>Test Term 2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1117,16 +1297,23 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10004</t>
+          <t>vocab:10002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>meteorology</t>
+          <t>Test Term 3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1146,16 +1333,23 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10005</t>
+          <t>vocab:10003</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>timeseries</t>
+          <t>Test Term 4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1175,16 +1369,23 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10006</t>
+          <t>vocab:10004</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>hydrology</t>
+          <t>Test Term 5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1204,16 +1405,23 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10007</t>
+          <t>vocab:10005</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>atmosphere</t>
+          <t>Test Term 6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1233,33 +1441,32 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10008</t>
+          <t>vocab:10006</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sea ice</t>
+          <t>Test Term 7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>nicest-2-subjects:10000</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>to be reviewed</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1270,16 +1477,23 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10009</t>
+          <t>vocab:10007</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>land ice</t>
+          <t>Test Term 8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1299,16 +1513,23 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10010</t>
+          <t>vocab:10008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cryosphere</t>
+          <t>Test Term 9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1328,16 +1549,23 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10011</t>
+          <t>vocab:10009</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>plant ecology</t>
+          <t>Test Term 10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1357,16 +1585,23 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10012</t>
+          <t>vocab:10010</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ocean ecology</t>
+          <t>Test Term 11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1386,16 +1621,23 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10013</t>
+          <t>vocab:10011</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>biogeochemistry</t>
+          <t>Test Term 12</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1415,16 +1657,23 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10014</t>
+          <t>vocab:10012</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>chemistry</t>
+          <t>Test Term 13</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1444,16 +1693,23 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10015</t>
+          <t>vocab:10013</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>geospatial domain</t>
+          <t>Test Term 14</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1473,16 +1729,23 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10016</t>
+          <t>vocab:10014</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>Test Term 15</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1502,16 +1765,23 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10017</t>
+          <t>vocab:10015</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bioprospecting</t>
+          <t>Test Term 16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1531,16 +1801,23 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10018</t>
+          <t>vocab:10016</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>Test Term 17</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1560,16 +1837,23 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10019</t>
+          <t>vocab:10017</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>Test Term 18</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1589,16 +1873,23 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10020</t>
+          <t>vocab:10018</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>aerosols</t>
+          <t>Test Term 19</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1618,25 +1909,28 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10021</t>
+          <t>vocab:10019</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Earth System Modelling</t>
+          <t>Test Term 20</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ESM</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1651,6 +1945,49 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vocab:10020</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Test Term 21</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/eLTER_CL</t>
+          <t>http://vocabs.lter-europe.net/eLTER_CL</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/eLTER_CL/</t>
+          <t>http://vocabs.lter-europe.net/eLTER_CL/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vocab</t>
+          <t>cl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1236,12 +1236,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vocab:10000</t>
+          <t>cl:10000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Test Term 1</t>
+          <t xml:space="preserve">resource type </t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1272,18 +1272,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vocab:10001</t>
+          <t>cl:10001</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Test Term 2</t>
+          <t>INSPIRE data theme</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>cl:10000</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1308,18 +1312,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vocab:10002</t>
+          <t>cl:10002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Test Term 3</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>cl:10000</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1344,18 +1352,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vocab:10003</t>
+          <t>cl:10003</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Test Term 4</t>
+          <t>spatial reference method</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>cl:10000</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1380,12 +1392,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vocab:10004</t>
+          <t>cl:10004</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Test Term 5</t>
+          <t>coordinate reference system</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1416,12 +1428,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vocab:10005</t>
+          <t>cl:10005</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Test Term 6</t>
+          <t>administrative unit level</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1452,12 +1464,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vocab:10006</t>
+          <t>cl:10006</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Test Term 7</t>
+          <t>spatial scale</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1488,12 +1500,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vocab:10007</t>
+          <t>cl:10007</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Test Term 8</t>
+          <t>sampling time span</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1524,12 +1536,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vocab:10008</t>
+          <t>cl:10008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Test Term 9</t>
+          <t>sampling time unit</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1560,12 +1572,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vocab:10009</t>
+          <t>cl:10009</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Test Term 10</t>
+          <t>method</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1596,12 +1608,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vocab:10010</t>
+          <t>cl:10010</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Test Term 11</t>
+          <t>data reliability</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1632,12 +1644,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vocab:10011</t>
+          <t>cl:10011</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Test Term 12</t>
+          <t>data completeness</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1668,12 +1680,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vocab:10012</t>
+          <t>cl:10012</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Test Term 13</t>
+          <t>processing step</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1704,12 +1716,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>vocab:10013</t>
+          <t>cl:10013</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Test Term 14</t>
+          <t>resource provider</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1740,12 +1752,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>vocab:10014</t>
+          <t>cl:10014</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Test Term 15</t>
+          <t>resource provider programme</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1776,18 +1788,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vocab:10015</t>
+          <t>cl:10015</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Test Term 16</t>
+          <t>geometry observation dataset</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>cl:10000</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1812,18 +1828,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>vocab:10016</t>
+          <t>cl:10016</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Test Term 17</t>
+          <t>statistical dataset</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>cl:10000</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -1848,18 +1868,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>vocab:10017</t>
+          <t>cl:10017</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Test Term 18</t>
+          <t>measurement dataset</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>cl:10000</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1884,18 +1908,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>vocab:10018</t>
+          <t>cl:10018</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Test Term 19</t>
+          <t>category observation dataset</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>cl:10000</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -1920,18 +1948,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>vocab:10019</t>
+          <t>cl:10019</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Test Term 20</t>
+          <t>count observation dataset</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>cl:10000</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -1956,18 +1988,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vocab:10020</t>
+          <t>cl:10020</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Test Term 21</t>
+          <t>truth observation dataset</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>cl:10000</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -1989,6 +2025,46 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>cl:10021</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>temporal observation dataset</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>cl:10000</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sampling time span</t>
+          <t>spatial design</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>resource provider</t>
+          <t>resource provider programme</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>resource provider programme</t>
+          <t>access and use condition</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -2065,6 +2065,5686 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>cl:10022</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>addresses</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Location of properties based on address identifiers, usually by road name, house number, postal code.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ad</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ad</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>cl:10023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>administrative units</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Units of administration, dividing areas where Member States have and/or exercise jurisdictional rights, for local, regional and national governance, separated by administrative boundaries.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/au</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/au</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>cl:10024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>coordinate reference systems</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Systems for uniquely referencing spatial information in space as a set of coordinates (x, y, z) and/or latitude and longitude and height, based on a geodetic horizontal and vertical datum.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/rs</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/rs</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>cl:10025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>geographical grid systems</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Harmonised multi-resolution grid with a common point of origin and standardised location and size of grid cells.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/gg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/gg</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>cl:10026</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cadastral parcels</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Areas defined by cadastral registers or equivalent.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/cp</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/cp</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>cl:10027</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>geographical names</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Names of areas, regions, localities, cities, suburbs, towns or settlements, or any geographical or topographical feature of public or historical interest.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/gn</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/gn</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>cl:10028</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>hydrography</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Hydrographic elements, including marine areas and all other water bodies and items related to them, including river basins and sub-basins. Where appropriate, according to the definitions set out in Directive 2000/60/EC of the European Parliament and of the Council of 23 October 2000 establishing a framework for Community action in the field of water policy (2) and in the form of networks.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/hy</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/hy</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>cl:10029</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>protected sites</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Area designated or managed within a framework of international, Community and Member States' legislation to achieve specific conservation objectives.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ps</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ps</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>cl:10030</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>transport networks</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Road, rail, air and water transport networks and related infrastructure. Includes links between different networks. Also includes the trans-European transport network as defined in Decision No 1692/96/EC of the European Parliament and of the Council of 23 July 1996 on Community Guidelines for the development of the trans-European transport network (1) and future revisions of that Decision.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/tn</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/tn</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>cl:10031</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>elevation</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Digital elevation models for land, ice and ocean surface. Includes terrestrial elevation, bathymetry and shoreline.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/el</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/el</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>cl:10032</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>geology</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Geology characterised according to composition and structure. Includes bedrock, aquifers and geomorphology.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ge</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ge</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>cl:10033</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>land cover</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Physical and biological cover of the earth's surface including artificial surfaces, agricultural areas, forests, (semi-)natural areas, wetlands, water bodies.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/lc</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/lc</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>cl:10034</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>orthoimagery</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Geo-referenced image data of the Earth's surface, from either satellite or airborne sensors.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/oi</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/oi</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>cl:10035</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>agricultural and aquaculture facilities</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Farming equipment and production facilities (including irrigation systems, greenhouses and stables).</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/af</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/af</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>cl:10036</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>area management/restriction/regulation zones and reporting units</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Areas managed, regulated or used for reporting at international, European, national, regional and local levels. Includes dumping sites, restricted areas around drinking water sources, nitrate-vulnerable zones, regulated fairways at sea or large inland waters, areas for the dumping of waste, noise restriction zones, prospecting and mining permit areas, river basin districts, relevant reporting units and coastal zone management areas.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/am</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/am</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>cl:10037</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>atmospheric conditions</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Physical conditions in the atmosphere. Includes spatial data based on measurements, on models or on a combination thereof and includes measurement locations.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ac</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ac</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>cl:10038</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>bio-geographical regions</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Areas of relatively homogeneous ecological conditions with common characteristics.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/br</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/br</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>cl:10039</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>buildings</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Geographical location of buildings.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/bu</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/bu</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>cl:10040</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>energy resources</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Energy resources including hydrocarbons, hydropower, bio-energy, solar, wind, etc., where relevant including depth/height information on the extent of the resource.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/er</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/er</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>cl:10041</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>environmental monitoring facilities</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Location and operation of environmental monitoring facilities includes observation and measurement of emissions, of the state of environmental media and of other ecosystem parameters (biodiversity, ecological conditions of vegetation, etc.) by or on behalf of public authorities.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ef</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ef</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>cl:10042</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>habitats and biotopes</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Geographical areas characterised by specific ecological conditions, processes, structure, and (life support) functions that physically support the organisms that live there. Includes terrestrial and aquatic areas distinguished by geographical, abiotic and biotic features, whether entirely natural or semi-natural.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/hb</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/hb</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>cl:10043</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>human health and safety</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Geographical distribution of dominance of pathologies (allergies, cancers, respiratory diseases, etc.), information indicating the effect on health (biomarkers, decline of fertility, epidemics) or well-being of humans (fatigue, stress, etc.) linked directly (air pollution, chemicals, depletion of the ozone layer, noise, etc.) or indirectly (food, genetically modified organisms, etc.) to the quality of the environment.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/hh</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/hh</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>cl:10044</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>land use</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Territory characterised according to its current and future planned functional dimension or socio-economic purpose (e.g. residential, industrial, commercial, agricultural, forestry, recreational).</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/lu</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/lu</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>cl:10045</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>mineral resources</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Mineral resources including metal ores, industrial minerals, etc., where relevant including depth/height information on the extent of the resource.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/mr</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/mr</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>cl:10046</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>natural risk zones</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Vulnerable areas characterised according to natural hazards (all atmospheric, hydrologic, seismic, volcanic and wildfire phenomena that, because of their location, severity, and frequency, have the potential to seriously affect society), e.g. floods, landslides and subsidence, avalanches, forest fires, earthquakes, volcanic eruptions.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/nz</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/nz</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>cl:10047</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>oceanographic geographical features</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Physical conditions of oceans (currents, salinity, wave heights, etc.).</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/of</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/of</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>cl:10048</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>population distribution - demography</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Geographical distribution of people, including population characteristics and activity levels, aggregated by grid, region, administrative unit or other analytical unit.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/pd</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/pd</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>cl:10049</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>production and industrial facilities</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Industrial production sites, including installations covered by Council Directive 96/61/EC of 24 September 1996 concerning integrated pollution prevention and control (1) and water abstraction facilities, mining, storage sites.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/pf</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/pf</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>cl:10050</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>sea regions</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Physical conditions of seas and saline water bodies divided into regions and sub-regions with common characteristics.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/sr</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/sr</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>cl:10051</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Soils and subsoil characterised according to depth, texture, structure and content of particles and organic material, stoniness, erosion, where appropriate mean slope and anticipated water storage capacity.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/so</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/so</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>cl:10052</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>species distribution</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Geographical distribution of occurrence of animal and plant species aggregated by grid, region, administrative unit or other analytical unit.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/sd</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/sd</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>cl:10053</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>statistical units</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Units for dissemination or use of statistical information.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/su</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/su</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>cl:10054</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>utility and governmental services</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Includes utility facilities such as sewage, waste management, energy supply and water supply, administrative and social governmental services such as public administrations, civil protection sites, schools and hospitals.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/us</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/us</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>cl:10055</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>meteorological geographical features</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Weather conditions and their measurements; precipitation, temperature, evapotranspiration, wind speed and direction.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/mf</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/mf</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>cl:10056</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>atmospheric conditions and meteorological geographical features</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Physical conditions in the atmosphere. Includes spatial data based on measurements, on models or on a combination thereof and includes measurement locations. Weather conditions and their measurements; precipitation, temperature, evapotranspiration, wind speed and direction.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ac-mf</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ac-mf</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>cl:10057</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>point</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>cl:10003</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>cl:10058</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>vector</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>cl:10003</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>cl:10059</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>raster</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>cl:10003</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>cl:10060</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>EPSG:3857</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>WGS 84 / Pseudo-Mercator</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://epsg.io/3857</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>cl:10004</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://epsg.io/3857</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>cl:10061</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>EPSG:4937</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ETRS89</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://epsg.io/4937</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>cl:10004</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://epsg.io/4937</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>cl:10062</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>EPSG:3035</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ETRS89-extended / LAEA Europe</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>LAEA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://epsg.io/3035</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>cl:10004</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://epsg.io/3035</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>cl:10063</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>EPSG:18007</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Austria Gauss-Kruger M28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://epsg.io/18007</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>cl:10004</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://epsg.io/18007</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>cl:10064</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>EPSG:18008</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Austria Gauss-Kruger M31</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://epsg.io/18008</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>cl:10004</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://epsg.io/18008</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>cl:10065</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>EPSG:18009</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Austria Gauss-Kruger M34</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://epsg.io/18009</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>cl:10004</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://epsg.io/18009</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>cl:10066</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>EPSG:3416</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ETRS89 / Austria Lambert</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Austria Lambert</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://epsg.io/3416</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>cl:10004</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://epsg.io/3416</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>cl:10067</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>cl:10005</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>cl:10068</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NUTS2</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>cl:10005</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>cl:10069</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>municipality</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>NUTS3</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>cl:10005</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>cl:10070</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cadastral municipality</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>cl:10005</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>cl:10071</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>&lt;=10^0m²</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>cl:10006</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>cl:10072</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>&gt;10^0m² - &lt;=10^1m²</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>cl:10006</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>cl:10073</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>&gt;10^1m² - &lt;=10^2m²</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>cl:10006</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>cl:10074</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>&gt;10^2m² - &lt;=10^3m²</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>cl:10006</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>cl:10075</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>&gt;10^3m² - &lt;=10^4m²</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>cl:10006</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>cl:10076</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>&gt;10^4m² - &lt;=10^5m²</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>cl:10006</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>cl:10077</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>&gt;10^5m² - &lt;=10^6m²</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>cl:10006</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>cl:10078</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>&gt;10^6m² - &lt;=10^7m²</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>cl:10006</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>cl:10079</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>&gt;10^7m² - &lt;=10^8m²</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>cl:10006</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>cl:10080</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>&gt;10^8m² - &lt;=10^9m²</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>cl:10006</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>cl:10081</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>&gt;10^9m² - &lt;=10^10m²</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>cl:10006</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>cl:10082</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>&gt;10^10m²</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>cl:10006</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>cl:10083</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>single point</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>cl:10007</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>cl:10084</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>representative</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>cl:10007</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>cl:10085</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>transect</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>cl:10007</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>cl:10086</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>vertical profile</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>cl:10007</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>cl:10087</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>cl:10007</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>cl:10088</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>cl:10007</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>cl:10089</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>stratified random</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>cl:10007</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>cl:10090</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>block design</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>cl:10007</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>cl:10091</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>full area coverage</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>cl:10007</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>cl:10092</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>single measurement</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>cl:10093</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>less than seconds</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>cl:10094</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>seconds</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>cl:10095</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>minutes</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>cl:10096</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>15 minutes</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>cl:10097</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>30 minutes</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>cl:10098</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>hourly</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>cl:10099</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>daily</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>cl:10100</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>cl:10101</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>cl:10102</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>cl:10103</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>seasonally</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>cl:10104</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>half yearly</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>cl:10105</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>yearly</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>cl:10106</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>every 2-5 years</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>cl:10107</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>every 5-10 years</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>cl:10108</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>more than 10 years</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>cl:10109</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>[ NCIT ][ SUICIDEO ]* Division of a distribution into equal, ordered subgroups; a set of 'cut points' that divide a sample of data into groups containing (as far as possible) equal numbers of observations.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48920</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>cl:10110</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>[ SUICIDEO ][ NCIT ]* A measure of the range of values in a set of numbers. Standard deviation is a statistic used as a measure of the dispersion or variation in a distribution, equal to the square root of the arithmetic mean of the squares of the deviations from the arithmetic mean.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C53322</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>cl:10111</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>meta analysis</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>[David B. Wilson] Meta-analysis is a statistical method of synthesizing quantitative results across studies examining a common research question.&amp;nbsp;</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>cl:10112</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>skewness</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>[DCM] Measure of the asymmetry of the probability distribution of a real-valued random variable about its mean.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>http://dicom.nema.org/resources/ontology/DCM/126051</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>cl:10113</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>variance</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>[ECG] A measure of the variability in a sample or population. It is calculated as the mean squared deviation (MSD) of the individual values from their common mean. In calculating the MSD, the divisor n is commonly used for a population variance and the divisor n-1 for a sample variance.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>http://www.cvrgrid.org/files/ECGOntologyv1.owl#ECG_000001079</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>cl:10114</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>correlation</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>[HUPSON] A statistical measure referring to the relationship between two random variables. It is a positive correlation when each variable tends to increase or decrease as the other does, and a negative or inverse correlation if one tends to increase as the other decreases. source: http://shodor.org/interactivate/dictionary/</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>http://scai.fraunhofer.de/HuPSON#SCAIVPH_00000266</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>cl:10115</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>spatial autocorrelation</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>[Malika Khalili] Spatial autocorrelation is a correlation between the values of a single variable, considering their geographical locations.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>cl:10116</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>confusion matrix</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>[OBCS] A data item with a specific table layout that allows visualization of the performance of an algorithm. Each column of the matrix represents the instances in a predicted class, while each row represents the instances in an actual class.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBCS_0000145</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>cl:10117</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>coefficient of variation</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>[OBCS] A quantitative confidence value that is the standard deviation of a data set divided by the mean of the same data set; a normalized measure of dispersion of a probability distribution</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBCS_0000081</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>cl:10118</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>probability</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>[NCIT]* A measure of the expectation of the occurrence of a particular event.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C54154</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>cl:10119</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>percentile</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>[NCIT]* Any of the 99 numbered points that divide an ordered set of scores into 100 parts each of which contains one-hundredth of the total.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48919</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>cl:10120</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>[NEMO] median is the middle value of a set of ordered observations. When there is an even number of observations the median is the average of two values that fall either side of what would be the middle value.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/NEMO/ontology/NEMO.owl#NEMO_3768000</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>cl:10121</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>[NPO] A measure of central tendency which is the most frequently occurring value in a set of numerical values.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/npo#NPO_1802</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>cl:10122</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>credible interval</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>[OBCS] A quantitative confidence value that is used in Bayesian analysis to describe the range in which a posterior probability estimate is likely to reside.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBCS_0000071</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>cl:10123</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>confidence interval</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>[OBCS] A quantitative confidence value that refers to an interval give values within which there is a high probability (95 percent by convention) that the true population value can be found. The calculation of a confidence interval considers the standard deviation of the data and the number of observations. Thus, a confidence interval narrows as the number of observations increases, or its variance (dispersion) decreases.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBCS_0000070</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>cl:10124</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>interquartile range</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>[OBCS] A quantitative confidence value that refers to the upper and lower values defining the central 50 percent of observations. The boundaries are equal to the 25th and 75th percentiles. The interquartile range can be depicted in a box and whiskers plot.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBCS_0000072</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>cl:10125</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>range (statistics)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>[OCRE] The range is the difference between the lowest and highest numerical values; the limits or scale of variation.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>http://purl.org/net/OCRe/statistics.owl#OCRE200007</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>cl:10126</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>kurtosis</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>[RO]* Kurtosis is a measure of how outlier-prone a distribution is. The kurtosis of the normal distribution is 3. Distributions that are more outlier-prone than the normal distribution have kurtosis greater than 3; distributions that are less outlier-prone have kurtosis less than 3</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>http://www.semanticweb.org/alberto.traverso/ontologies/2017/1/RADIOMICS-ontology#OWLClass_010008</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>cl:10127</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>[SIO] A mean is the central tendency of a collection of numbers taken as the sum of the numbers divided by the size of the collection.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>http://semanticscience.org/resource/SIO_001109</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>cl:10128</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>decile</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>[STATO] a decile is a quantile where n=10 and which splits data into sections accrued of 10% of data, so the first decile delineates 10% of the data, the second decile delineates 20% of the data and the nineth decile, 90 % of the data</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/STATO_0000292</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>cl:10129</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>quartile</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>[STATO] a quartile is a quantile which splits data into sections accrued of 25% of data, so the first quartile delineates 25% of the data, the second quartile delineates 50% of the data and the third quartile, 75 % of the data</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>cl:10130</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>centred moment</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>For a given positive natural number k, the k-th central moment of a random variable x is defined as k=E[(x−E[x])k]. That is, it is the expected value of the deviation from the mean to the power k. In particular, 0=1, 1=0 and 2 is the variance of x. [UncertML] http://www.uncertml.org/statistics/centred-moment</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>cl:10131</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>neutral theory</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>cl:10132</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>covariance matrix</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>cl:10133</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>discrete probability</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>cl:10134</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>moment</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>cl:10135</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>changes over time</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>cl:10009</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>cl:10136</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>cl:10010</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>cl:10137</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>cl:10010</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>cl:10138</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>cl:10010</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>cl:10139</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>cl:10011</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>cl:10140</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>completion ongoing</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>cl:10011</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>cl:10141</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>cl:10011</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>cl:10142</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>free for access</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>cl:10014</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>cl:10143</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>free for access and use upon request</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>cl:10014</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>cl:10144</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>other restrictions according to rules defined in intellectual rights</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>cl:10014</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>cl:10145</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>restricted access defined in detail in intellectual property information</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>cl:10014</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>cl:10146</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>no access</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>cl:10014</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1283,11 +1283,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>cl:10000</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1323,11 +1319,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>cl:10000</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1363,11 +1355,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>cl:10000</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z166"/>
+  <dimension ref="A1:Z183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7733,6 +7733,818 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr"/>
     </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>cl:10147</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>data type</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Data type is an attribute associated with a piece of data that tells a computer system how to interpret its value.</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://dataled.academy/guides/data-types/</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>cl:10148</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>It is the most common numeric data type used to store numbers without a fractional component (-707, 0, 707).</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://dataled.academy/guides/data-types/</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>cl:10147</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>cl:10149</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>floating point</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>It is a numeric data type used to store numbers that may have a fractional component, like monetary values do (707.07, 0.7, 707.00).</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://dataled.academy/guides/data-types/</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>cl:10147</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>cl:10150</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>It is used to store a single letter, digit, punctuation mark, symbol, or blank space.</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://dataled.academy/guides/data-types/</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>cl:10147</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>cl:10151</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>It is a sequence of characters and the most commonly used data type to store text.</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://dataled.academy/guides/data-types/</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>cl:10147</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>cl:10152</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>It represents the values true and false.</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://dataled.academy/guides/data-types/</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>cl:10147</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>cl:10153</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>enumeration type</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>It contains a small set of predefined unique values (also known as elements or enumerators) that can be compared and assigned to a variable of enumerated data type.</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://dataled.academy/guides/data-types/</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>cl:10147</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>cl:10154</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Also known as a list, an array is a data type that stores a number of elements in a specific order, typically all of the same type.</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://dataled.academy/guides/data-types/</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>cl:10147</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>cl:10155</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>It typically stores a date in the YYYY-MM-DD format (ISO 8601 syntax).</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://dataled.academy/guides/data-types/</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>cl:10147</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>cl:10156</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Stores a time in the hh:mm:ss format.</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://dataled.academy/guides/data-types/</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>cl:10147</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>cl:10157</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Stores a value containing both date and time together in the YYYY-MM-DD hh:mm:ss format.</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://dataled.academy/guides/data-types/</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>cl:10147</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
+      <c r="Z177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>cl:10158</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Typically represented in Unix time, a timestamp represents the number of seconds that have elapsed since midnight (00:00:00 UTC), 1st January 1970.</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://dataled.academy/guides/data-types/</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>cl:10147</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>cl:10159</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>measurement scale</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>A measurement scale defines the level of measurement of a variable. It decides the statistical test type to be used. The mathematical nature of a variable or in other words, how a variable is measured is considered as the level of measurement.</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>cl:10160</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>nominal scale</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Nominal scale is a naming scale, where variables are simply “named” or labeled, with no specific order.</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>cl:10160</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>cl:10161</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ordinal scale</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ordinal scale has all its variables in a specific order, beyond just naming them. </t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>cl:10160</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>cl:10162</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>interval scale</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Interval scale offers labels, order, as well as, a specific interval between each of its variable options.</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>cl:10160</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>cl:10163</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ratio scale</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Ratio scale bears all the characteristics of an interval scale, in addition to that, it can also accommodate the value of “zero” on any of its variables.</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>cl:10160</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z183"/>
+  <dimension ref="A1:Z197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8545,6 +8545,582 @@
       <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="inlineStr"/>
     </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>cl:10164</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>kilometre</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>km</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>cl:10002</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>cl:10165</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>square kilometre</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>km2</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>cl:10002</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>cl:10166</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>metre</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>cl:10002</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>cl:10167</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>cl:10002</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/unit/PERCENT</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>cl:10168</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>tonne per hectare per year</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>t.har.year-1</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>cl:10002</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>cl:10169</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>kilogram per hectar</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>kg.har-1</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>cl:10002</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>cl:10170</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>tonne per year</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>t.year-1</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>cl:10002</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>cl:10171</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>milligram per kilogram</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>mg.kg-1</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>cl:10002</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>cl:10172</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>gram per hectare per year</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>g.har.year-1</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>cl:10002</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>cl:10173</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>cl:10002</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>cl:10174</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>cl:10002</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>cl:10175</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>cl:10002</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>cl:10176</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>cl:10002</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>cl:10177</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
+      <c r="Z197" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z197"/>
+  <dimension ref="A1:Z192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8389,7 +8389,7 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
         <is>
-          <t>cl:10160</t>
+          <t>cl:10159</t>
         </is>
       </c>
       <c r="G180" t="inlineStr"/>
@@ -8433,7 +8433,7 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
-          <t>cl:10160</t>
+          <t>cl:10159</t>
         </is>
       </c>
       <c r="G181" t="inlineStr"/>
@@ -8477,7 +8477,7 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>cl:10160</t>
+          <t>cl:10159</t>
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
@@ -8521,7 +8521,7 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
         <is>
-          <t>cl:10160</t>
+          <t>cl:10159</t>
         </is>
       </c>
       <c r="G183" t="inlineStr"/>
@@ -8945,182 +8945,6 @@
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="inlineStr"/>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>cl:10173</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>cl:10002</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="inlineStr"/>
-      <c r="T193" t="inlineStr"/>
-      <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
-      <c r="W193" t="inlineStr"/>
-      <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
-      <c r="Z193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>cl:10174</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>cl:10002</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr"/>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="inlineStr"/>
-      <c r="T194" t="inlineStr"/>
-      <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
-      <c r="W194" t="inlineStr"/>
-      <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
-      <c r="Z194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>cl:10175</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>cl:10002</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="inlineStr"/>
-      <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
-      <c r="V195" t="inlineStr"/>
-      <c r="W195" t="inlineStr"/>
-      <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
-      <c r="Z195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>cl:10176</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>cl:10002</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="inlineStr"/>
-      <c r="T196" t="inlineStr"/>
-      <c r="U196" t="inlineStr"/>
-      <c r="V196" t="inlineStr"/>
-      <c r="W196" t="inlineStr"/>
-      <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
-      <c r="Z196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>cl:10177</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="inlineStr"/>
-      <c r="T197" t="inlineStr"/>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
-      <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
-      <c r="Z197" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z192"/>
+  <dimension ref="A1:AA209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,7 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr"/>
       <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,6 +493,7 @@
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -509,12 +511,12 @@
           <t>http://vocabs.lter-europe.net/eLTER_CL/</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -536,6 +538,7 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -553,12 +556,12 @@
           <t>http://www.w3.org/2004/02/skos/core#</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Prefix for SKOS Ontology. This ontology is which our base for defining terms.</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -580,6 +583,7 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -597,12 +601,12 @@
           <t xml:space="preserve">http://purl.org/pav/ </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Prefix for Provenance, Authoring and Versioning Ontology which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -624,6 +628,7 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -641,12 +646,12 @@
           <t xml:space="preserve">http://purl.org/dc/terms/ </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -668,6 +673,7 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -685,12 +691,12 @@
           <t>https://w3id.org/iadopt/ont/</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>The I-ADOPT Framework is an ontology designed to facilitate interoperability between existing variable description models.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -712,6 +718,7 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -729,12 +736,12 @@
           <t>http://qudt.org/schema/qudt/</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -756,6 +763,7 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -773,12 +781,12 @@
           <t>http://qudt.org/vocab/unit/</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -800,6 +808,7 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -832,6 +841,7 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -872,6 +882,7 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -912,6 +923,7 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -948,6 +960,7 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -988,6 +1001,7 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1028,6 +1042,7 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1068,6 +1083,7 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1108,6 +1124,7 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1140,6 +1157,7 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1159,70 +1177,74 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>skos:definition@ge</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>skos:altLabel(separator=",")</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>dct:source(separator=",")</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>skos:broader(separator=",")</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>iop:hasProperty</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>iop:hasObjectOfInterest</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>iop:hasMatrix</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>iop:hasContextObject(separator=",")</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>iop:hasConstraint(separator=",")</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>skos:editorialNote@en</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1232,6 +1254,7 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1268,6 +1291,7 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1304,6 +1328,7 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1340,6 +1365,7 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1376,6 +1402,7 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1412,6 +1439,7 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1448,6 +1476,7 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1484,6 +1513,7 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1520,6 +1550,7 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1556,6 +1587,7 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1592,6 +1624,7 @@
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1628,6 +1661,7 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1664,6 +1698,7 @@
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1700,6 +1735,7 @@
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1736,6 +1772,7 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1772,6 +1809,7 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1787,12 +1825,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>cl:10000</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1812,6 +1850,7 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1827,12 +1866,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>cl:10000</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1852,6 +1891,7 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1867,12 +1907,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>cl:10000</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1892,6 +1932,7 @@
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1907,12 +1948,12 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>cl:10000</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1932,6 +1973,7 @@
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1947,12 +1989,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>cl:10000</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1972,6 +2014,7 @@
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1987,12 +2030,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>cl:10000</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2012,6 +2055,7 @@
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2027,12 +2071,12 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>cl:10000</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2052,6 +2096,7 @@
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2070,22 +2115,22 @@
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ad</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ad</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2104,6 +2149,7 @@
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2122,22 +2168,22 @@
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/au</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/au</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2156,6 +2202,7 @@
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2174,22 +2221,22 @@
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/rs</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/rs</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2208,6 +2255,7 @@
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2226,22 +2274,22 @@
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/gg</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/gg</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2260,6 +2308,7 @@
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2278,22 +2327,22 @@
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/cp</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/cp</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2312,6 +2361,7 @@
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2330,22 +2380,22 @@
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/gn</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/gn</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2364,6 +2414,7 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2382,22 +2433,22 @@
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/hy</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/hy</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2416,6 +2467,7 @@
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2434,22 +2486,22 @@
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ps</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ps</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2468,6 +2520,7 @@
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2486,22 +2539,22 @@
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/tn</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/tn</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2520,6 +2573,7 @@
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2538,22 +2592,22 @@
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/el</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/el</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2572,6 +2626,7 @@
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2590,22 +2645,22 @@
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ge</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ge</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2624,6 +2679,7 @@
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2642,22 +2698,22 @@
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/lc</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/lc</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2676,6 +2732,7 @@
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2694,22 +2751,22 @@
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/oi</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/oi</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2728,6 +2785,7 @@
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2746,22 +2804,22 @@
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/af</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/af</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2780,6 +2838,7 @@
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2798,22 +2857,22 @@
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/am</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/am</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2832,6 +2891,7 @@
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2850,22 +2910,22 @@
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ac</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ac</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2884,6 +2944,7 @@
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2902,22 +2963,22 @@
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/br</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/br</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2936,6 +2997,7 @@
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2954,22 +3016,22 @@
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/bu</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/bu</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2988,6 +3050,7 @@
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3006,22 +3069,22 @@
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/er</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/er</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -3040,6 +3103,7 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3058,22 +3122,22 @@
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ef</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ef</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -3092,6 +3156,7 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3110,22 +3175,22 @@
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/hb</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/hb</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -3144,6 +3209,7 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3162,22 +3228,22 @@
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/hh</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/hh</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -3196,6 +3262,7 @@
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3214,22 +3281,22 @@
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/lu</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/lu</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -3248,6 +3315,7 @@
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3266,22 +3334,22 @@
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/mr</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/mr</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -3300,6 +3368,7 @@
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3318,22 +3387,22 @@
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/nz</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/nz</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3352,6 +3421,7 @@
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3370,22 +3440,22 @@
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/of</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/of</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3404,6 +3474,7 @@
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3422,22 +3493,22 @@
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/pd</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/pd</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3456,6 +3527,7 @@
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3474,22 +3546,22 @@
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/pf</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/pf</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3508,6 +3580,7 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3526,22 +3599,22 @@
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/sr</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/sr</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3560,6 +3633,7 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3578,22 +3652,22 @@
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/so</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/so</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3612,6 +3686,7 @@
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3630,22 +3705,22 @@
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/sd</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/sd</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3664,6 +3739,7 @@
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3682,22 +3758,22 @@
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/su</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/su</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3716,6 +3792,7 @@
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3734,22 +3811,22 @@
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/us</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/us</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3768,6 +3845,7 @@
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3786,22 +3864,22 @@
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/mf</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/mf</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3820,6 +3898,7 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3838,22 +3917,22 @@
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ac-mf</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>cl:10001</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>http://inspire.ec.europa.eu/theme/ac-mf</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3872,6 +3951,7 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3887,12 +3967,12 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>cl:10003</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3912,6 +3992,7 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3927,12 +4008,12 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>cl:10003</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3952,6 +4033,7 @@
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3967,12 +4049,12 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>cl:10003</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3992,6 +4074,7 @@
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4010,22 +4093,22 @@
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://epsg.io/3857</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>https://epsg.io/3857</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -4044,6 +4127,7 @@
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4057,27 +4141,27 @@
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>ETRS89</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>https://epsg.io/4937</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>https://epsg.io/4937</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -4096,6 +4180,7 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4113,27 +4198,27 @@
           <t>ETRS89-extended / LAEA Europe</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>LAEA</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>https://epsg.io/3035</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>https://epsg.io/3035</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -4152,6 +4237,7 @@
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4165,27 +4251,27 @@
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>Austria Gauss-Kruger M28</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://epsg.io/18007</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>https://epsg.io/18007</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -4204,6 +4290,7 @@
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4217,27 +4304,27 @@
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>Austria Gauss-Kruger M31</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://epsg.io/18008</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>https://epsg.io/18008</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -4256,6 +4343,7 @@
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4269,27 +4357,27 @@
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>Austria Gauss-Kruger M34</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://epsg.io/18009</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>https://epsg.io/18009</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -4308,6 +4396,7 @@
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4325,27 +4414,27 @@
           <t>ETRS89 / Austria Lambert</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>Austria Lambert</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://epsg.io/3416</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>cl:10004</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>https://epsg.io/3416</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -4364,6 +4453,7 @@
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4379,12 +4469,12 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>cl:10005</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -4404,6 +4494,7 @@
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4417,18 +4508,18 @@
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>NUTS2</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>cl:10005</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -4448,6 +4539,7 @@
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4461,18 +4553,18 @@
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>NUTS3</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>cl:10005</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -4492,6 +4584,7 @@
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4507,12 +4600,12 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>cl:10005</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -4532,6 +4625,7 @@
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4547,12 +4641,12 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>cl:10006</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4572,6 +4666,7 @@
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4587,12 +4682,12 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>cl:10006</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4612,6 +4707,7 @@
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4627,12 +4723,12 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>cl:10006</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4652,6 +4748,7 @@
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4667,12 +4764,12 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>cl:10006</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4692,6 +4789,7 @@
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4707,12 +4805,12 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>cl:10006</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4732,6 +4830,7 @@
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4747,12 +4846,12 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t>cl:10006</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4772,6 +4871,7 @@
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4787,12 +4887,12 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
         <is>
           <t>cl:10006</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4812,6 +4912,7 @@
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4827,12 +4928,12 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
         <is>
           <t>cl:10006</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4852,6 +4953,7 @@
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4867,12 +4969,12 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t>cl:10006</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4892,6 +4994,7 @@
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4907,12 +5010,12 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
         <is>
           <t>cl:10006</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4932,6 +5035,7 @@
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4947,12 +5051,12 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
         <is>
           <t>cl:10006</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4972,6 +5076,7 @@
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4987,12 +5092,12 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
         <is>
           <t>cl:10006</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -5012,6 +5117,7 @@
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5027,12 +5133,12 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
         <is>
           <t>cl:10007</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -5052,6 +5158,7 @@
       <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5067,12 +5174,12 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
         <is>
           <t>cl:10007</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -5092,6 +5199,7 @@
       <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5107,12 +5215,12 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
         <is>
           <t>cl:10007</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -5132,6 +5240,7 @@
       <c r="X105" t="inlineStr"/>
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5147,12 +5256,12 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
         <is>
           <t>cl:10007</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -5172,6 +5281,7 @@
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5187,12 +5297,12 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
         <is>
           <t>cl:10007</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -5212,6 +5322,7 @@
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5227,12 +5338,12 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
         <is>
           <t>cl:10007</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -5252,6 +5363,7 @@
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5267,12 +5379,12 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
         <is>
           <t>cl:10007</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -5292,6 +5404,7 @@
       <c r="X109" t="inlineStr"/>
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5307,12 +5420,12 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
         <is>
           <t>cl:10007</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -5332,6 +5445,7 @@
       <c r="X110" t="inlineStr"/>
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5347,12 +5461,12 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
         <is>
           <t>cl:10007</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -5372,6 +5486,7 @@
       <c r="X111" t="inlineStr"/>
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5387,12 +5502,12 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -5412,6 +5527,7 @@
       <c r="X112" t="inlineStr"/>
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5427,12 +5543,12 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -5452,6 +5568,7 @@
       <c r="X113" t="inlineStr"/>
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5467,12 +5584,12 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -5492,6 +5609,7 @@
       <c r="X114" t="inlineStr"/>
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5507,12 +5625,12 @@
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -5532,6 +5650,7 @@
       <c r="X115" t="inlineStr"/>
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5547,12 +5666,12 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5572,6 +5691,7 @@
       <c r="X116" t="inlineStr"/>
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5587,12 +5707,12 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5612,6 +5732,7 @@
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5627,12 +5748,12 @@
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5652,6 +5773,7 @@
       <c r="X118" t="inlineStr"/>
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5667,12 +5789,12 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5692,6 +5814,7 @@
       <c r="X119" t="inlineStr"/>
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5707,12 +5830,12 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5732,6 +5855,7 @@
       <c r="X120" t="inlineStr"/>
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5747,12 +5871,12 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5772,6 +5896,7 @@
       <c r="X121" t="inlineStr"/>
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5787,12 +5912,12 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5812,6 +5937,7 @@
       <c r="X122" t="inlineStr"/>
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5827,12 +5953,12 @@
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5852,6 +5978,7 @@
       <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5867,12 +5994,12 @@
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5892,6 +6019,7 @@
       <c r="X124" t="inlineStr"/>
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5907,12 +6035,12 @@
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5932,6 +6060,7 @@
       <c r="X125" t="inlineStr"/>
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5947,12 +6076,12 @@
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5972,6 +6101,7 @@
       <c r="X126" t="inlineStr"/>
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5987,12 +6117,12 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -6012,6 +6142,7 @@
       <c r="X127" t="inlineStr"/>
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6027,12 +6158,12 @@
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
         <is>
           <t>cl:10008</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -6052,6 +6183,7 @@
       <c r="X128" t="inlineStr"/>
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6071,17 +6203,17 @@
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48920</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -6100,6 +6232,7 @@
       <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6119,17 +6252,17 @@
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C53322</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -6148,6 +6281,7 @@
       <c r="X130" t="inlineStr"/>
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6167,12 +6301,12 @@
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -6192,6 +6326,7 @@
       <c r="X131" t="inlineStr"/>
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6211,17 +6346,17 @@
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>http://dicom.nema.org/resources/ontology/DCM/126051</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -6240,6 +6375,7 @@
       <c r="X132" t="inlineStr"/>
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6259,17 +6395,17 @@
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>http://www.cvrgrid.org/files/ECGOntologyv1.owl#ECG_000001079</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -6288,6 +6424,7 @@
       <c r="X133" t="inlineStr"/>
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr"/>
+      <c r="AA133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6307,17 +6444,17 @@
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>http://scai.fraunhofer.de/HuPSON#SCAIVPH_00000266</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -6336,6 +6473,7 @@
       <c r="X134" t="inlineStr"/>
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr"/>
+      <c r="AA134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6355,12 +6493,12 @@
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -6380,6 +6518,7 @@
       <c r="X135" t="inlineStr"/>
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6399,17 +6538,17 @@
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000145</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -6428,6 +6567,7 @@
       <c r="X136" t="inlineStr"/>
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6447,17 +6587,17 @@
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr">
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000081</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -6476,6 +6616,7 @@
       <c r="X137" t="inlineStr"/>
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6495,17 +6636,17 @@
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C54154</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -6524,6 +6665,7 @@
       <c r="X138" t="inlineStr"/>
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6543,17 +6685,17 @@
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48919</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -6572,6 +6714,7 @@
       <c r="X139" t="inlineStr"/>
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6591,17 +6734,17 @@
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/NEMO/ontology/NEMO.owl#NEMO_3768000</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -6620,6 +6763,7 @@
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6639,17 +6783,17 @@
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/ontology/npo#NPO_1802</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -6668,6 +6812,7 @@
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6687,17 +6832,17 @@
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000071</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -6716,6 +6861,7 @@
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6735,17 +6881,17 @@
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000070</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -6764,6 +6910,7 @@
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6783,17 +6930,17 @@
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBCS_0000072</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -6812,6 +6959,7 @@
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6831,17 +6979,17 @@
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>http://purl.org/net/OCRe/statistics.owl#OCRE200007</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -6860,6 +7008,7 @@
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6879,17 +7028,17 @@
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>http://www.semanticweb.org/alberto.traverso/ontologies/2017/1/RADIOMICS-ontology#OWLClass_010008</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -6908,6 +7057,7 @@
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6927,17 +7077,17 @@
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>http://semanticscience.org/resource/SIO_001109</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -6956,6 +7106,7 @@
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6975,17 +7126,17 @@
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr">
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/STATO_0000292</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -7004,6 +7155,7 @@
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7023,12 +7175,12 @@
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -7048,6 +7200,7 @@
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7067,12 +7220,12 @@
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -7092,6 +7245,7 @@
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7107,12 +7261,12 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -7132,6 +7286,7 @@
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7147,12 +7302,12 @@
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr">
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -7172,6 +7327,7 @@
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7187,12 +7343,12 @@
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -7212,6 +7368,7 @@
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7227,12 +7384,12 @@
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -7252,6 +7409,7 @@
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7267,12 +7425,12 @@
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
         <is>
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -7292,6 +7450,7 @@
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7307,12 +7466,12 @@
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
         <is>
           <t>cl:10010</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -7332,6 +7491,7 @@
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7347,12 +7507,12 @@
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
         <is>
           <t>cl:10010</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -7372,6 +7532,7 @@
       <c r="X157" t="inlineStr"/>
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7387,12 +7548,12 @@
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
         <is>
           <t>cl:10010</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -7412,6 +7573,7 @@
       <c r="X158" t="inlineStr"/>
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7427,12 +7589,12 @@
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr">
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
         <is>
           <t>cl:10011</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -7452,6 +7614,7 @@
       <c r="X159" t="inlineStr"/>
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7467,12 +7630,12 @@
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
         <is>
           <t>cl:10011</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -7492,6 +7655,7 @@
       <c r="X160" t="inlineStr"/>
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7507,12 +7671,12 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
         <is>
           <t>cl:10011</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -7532,6 +7696,7 @@
       <c r="X161" t="inlineStr"/>
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7547,12 +7712,12 @@
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
         <is>
           <t>cl:10014</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -7572,6 +7737,7 @@
       <c r="X162" t="inlineStr"/>
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7587,12 +7753,12 @@
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
         <is>
           <t>cl:10014</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -7612,6 +7778,7 @@
       <c r="X163" t="inlineStr"/>
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7627,12 +7794,12 @@
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
         <is>
           <t>cl:10014</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -7652,6 +7819,7 @@
       <c r="X164" t="inlineStr"/>
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7667,12 +7835,12 @@
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr">
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
         <is>
           <t>cl:10014</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -7692,6 +7860,7 @@
       <c r="X165" t="inlineStr"/>
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr"/>
+      <c r="AA165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7707,12 +7876,12 @@
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
         <is>
           <t>cl:10014</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -7732,6 +7901,7 @@
       <c r="X166" t="inlineStr"/>
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7750,12 +7920,12 @@
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
@@ -7776,6 +7946,7 @@
       <c r="X167" t="inlineStr"/>
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7793,22 +7964,22 @@
           <t>It is the most common numeric data type used to store numbers without a fractional component (-707, 0, 707).</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>cl:10147</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -7828,6 +7999,7 @@
       <c r="X168" t="inlineStr"/>
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7845,22 +8017,22 @@
           <t>It is a numeric data type used to store numbers that may have a fractional component, like monetary values do (707.07, 0.7, 707.00).</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>cl:10147</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7880,6 +8052,7 @@
       <c r="X169" t="inlineStr"/>
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7897,22 +8070,22 @@
           <t>It is used to store a single letter, digit, punctuation mark, symbol, or blank space.</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
         <is>
           <t>char</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>cl:10147</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7932,6 +8105,7 @@
       <c r="X170" t="inlineStr"/>
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7949,22 +8123,22 @@
           <t>It is a sequence of characters and the most commonly used data type to store text.</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
         <is>
           <t>str</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>cl:10147</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7984,6 +8158,7 @@
       <c r="X171" t="inlineStr"/>
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8001,22 +8176,22 @@
           <t>It represents the values true and false.</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
         <is>
           <t>bool</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>cl:10147</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -8036,6 +8211,7 @@
       <c r="X172" t="inlineStr"/>
       <c r="Y172" t="inlineStr"/>
       <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8053,22 +8229,22 @@
           <t>It contains a small set of predefined unique values (also known as elements or enumerators) that can be compared and assigned to a variable of enumerated data type.</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>cl:10147</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -8088,6 +8264,7 @@
       <c r="X173" t="inlineStr"/>
       <c r="Y173" t="inlineStr"/>
       <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8106,17 +8283,17 @@
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr">
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>cl:10147</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -8136,6 +8313,7 @@
       <c r="X174" t="inlineStr"/>
       <c r="Y174" t="inlineStr"/>
       <c r="Z174" t="inlineStr"/>
+      <c r="AA174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8154,17 +8332,17 @@
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr">
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>cl:10147</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -8184,6 +8362,7 @@
       <c r="X175" t="inlineStr"/>
       <c r="Y175" t="inlineStr"/>
       <c r="Z175" t="inlineStr"/>
+      <c r="AA175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8202,17 +8381,17 @@
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>cl:10147</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -8232,6 +8411,7 @@
       <c r="X176" t="inlineStr"/>
       <c r="Y176" t="inlineStr"/>
       <c r="Z176" t="inlineStr"/>
+      <c r="AA176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8250,17 +8430,17 @@
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr">
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>cl:10147</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -8280,6 +8460,7 @@
       <c r="X177" t="inlineStr"/>
       <c r="Y177" t="inlineStr"/>
       <c r="Z177" t="inlineStr"/>
+      <c r="AA177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8298,17 +8479,17 @@
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr">
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>cl:10147</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -8328,6 +8509,7 @@
       <c r="X178" t="inlineStr"/>
       <c r="Y178" t="inlineStr"/>
       <c r="Z178" t="inlineStr"/>
+      <c r="AA178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8368,6 +8550,7 @@
       <c r="X179" t="inlineStr"/>
       <c r="Y179" t="inlineStr"/>
       <c r="Z179" t="inlineStr"/>
+      <c r="AA179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8387,12 +8570,12 @@
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr">
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
         <is>
           <t>cl:10159</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -8412,6 +8595,7 @@
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="inlineStr"/>
       <c r="Z180" t="inlineStr"/>
+      <c r="AA180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8431,12 +8615,12 @@
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr">
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
         <is>
           <t>cl:10159</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -8456,6 +8640,7 @@
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr"/>
       <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8475,12 +8660,12 @@
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr">
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
         <is>
           <t>cl:10159</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -8500,6 +8685,7 @@
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr"/>
       <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8519,12 +8705,12 @@
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr">
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
         <is>
           <t>cl:10159</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -8544,6 +8730,7 @@
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8557,18 +8744,18 @@
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr">
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
         <is>
           <t>km</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr">
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
         <is>
           <t>cl:10002</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -8588,6 +8775,7 @@
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8601,18 +8789,18 @@
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr">
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
         <is>
           <t>km2</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr">
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
         <is>
           <t>cl:10002</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -8632,6 +8820,7 @@
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr"/>
       <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8645,18 +8834,18 @@
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr">
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr">
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
         <is>
           <t>cl:10002</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -8676,6 +8865,7 @@
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr"/>
       <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8689,23 +8879,23 @@
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr">
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr">
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
         <is>
           <t>cl:10002</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/unit/PERCENT</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -8724,6 +8914,7 @@
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8737,18 +8928,18 @@
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr">
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
         <is>
           <t>t.har.year-1</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr">
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
         <is>
           <t>cl:10002</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -8768,6 +8959,7 @@
       <c r="X188" t="inlineStr"/>
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8781,18 +8973,18 @@
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr">
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
         <is>
           <t>kg.har-1</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr">
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
         <is>
           <t>cl:10002</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -8812,6 +9004,7 @@
       <c r="X189" t="inlineStr"/>
       <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8825,18 +9018,18 @@
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr">
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
         <is>
           <t>t.year-1</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr">
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
         <is>
           <t>cl:10002</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -8856,6 +9049,7 @@
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8869,18 +9063,18 @@
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr">
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
         <is>
           <t>mg.kg-1</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr">
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
         <is>
           <t>cl:10002</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -8900,6 +9094,7 @@
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
       <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8913,18 +9108,18 @@
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr">
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
         <is>
           <t>g.har.year-1</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr">
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
         <is>
           <t>cl:10002</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -8944,6 +9139,736 @@
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>cl:10173</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Integriertes Verwaltung- und Kontrollsystem</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>INVEKOS ist ein System von Verordnungen zur Durchsetzung einer einheitlichen Agrarpolitik in den EU-Mitgliedstaaten. Die schrittweise Einführung des Integrierten Verwaltungs- und Kontrollsystems durch die Europäische Kommission wurde im Zuge der Reform der Gemeinsamen Agrarpolitik (GAP) im Jahre 1992 beschlossen.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>INVEKOS</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>cl:10013</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>cl:10174</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Bodeninformationssystem</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>BORIS</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>cl:10013</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>cl:10175</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Bundesamt für Wasserwirtschaft</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>BAW</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>cl:10013</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>cl:10176</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Landwirtschaft, Regionen und Tourismus</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>BMNT</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>cl:10013</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>cl:10177</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Statistik Austria</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>cl:10013</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
+      <c r="Z197" t="inlineStr"/>
+      <c r="AA197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>cl:10178</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Kommunal Kredit Public Consulting</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>KPC</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>cl:10013</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>cl:10179</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Geologische Bundesanstalt</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>cl:10013</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr"/>
+      <c r="Z199" t="inlineStr"/>
+      <c r="AA199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>cl:10180</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Interreg programme</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Interreg is one of the key instruments of the European Union (EU) supporting cooperation across borders through project funding. It aims to jointly tackle common challenges and find shared solutions in fields such as health, environment, research, education, transport, sustainable energy and more.</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>cl:10013</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr"/>
+      <c r="Z200" t="inlineStr"/>
+      <c r="AA200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>cl:10181</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Horizon 2020</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Horizon 2020 is the eighth framework programme funding research, technological development, and innovation.</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>cl:10013</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr"/>
+      <c r="Z201" t="inlineStr"/>
+      <c r="AA201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>cl:10182</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>statistical aggregation</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>cl:10012</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
+      <c r="Y202" t="inlineStr"/>
+      <c r="Z202" t="inlineStr"/>
+      <c r="AA202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>cl:10183</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>statistical disaggregation</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>cl:10012</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr"/>
+      <c r="Z203" t="inlineStr"/>
+      <c r="AA203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>et:10139</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>cl:10012</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr"/>
+      <c r="Z204" t="inlineStr"/>
+      <c r="AA204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>et:10143</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>percentile</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>cl:10012</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>et:10140</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>cl:10012</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr"/>
+      <c r="Z206" t="inlineStr"/>
+      <c r="AA206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>cl:10184</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>GIS intersection</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>cl:10012</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr"/>
+      <c r="Z207" t="inlineStr"/>
+      <c r="AA207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>cl:10185</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>GIS interpolation</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>cl:10012</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr"/>
+      <c r="Z208" t="inlineStr"/>
+      <c r="AA208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>cl:10186</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>complex calculation balancing</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>cl:10012</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr"/>
+      <c r="Z209" t="inlineStr"/>
+      <c r="AA209" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA209"/>
+  <dimension ref="A1:AA203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9193,21 +9193,21 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>cl:10174</t>
+          <t>cl:10180</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Bodeninformationssystem</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr"/>
+          <t>Interreg programme</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Interreg is one of the key instruments of the European Union (EU) supporting cooperation across borders through project funding. It aims to jointly tackle common challenges and find shared solutions in fields such as health, environment, research, education, transport, sustainable energy and more.</t>
+        </is>
+      </c>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>BORIS</t>
-        </is>
-      </c>
+      <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
         <is>
@@ -9238,21 +9238,21 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>cl:10175</t>
+          <t>cl:10181</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Bundesamt für Wasserwirtschaft</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr"/>
+          <t>Horizon 2020</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Horizon 2020 is the eighth framework programme funding research, technological development, and innovation.</t>
+        </is>
+      </c>
       <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>BAW</t>
-        </is>
-      </c>
+      <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr">
         <is>
@@ -9283,25 +9283,21 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>cl:10176</t>
+          <t>cl:10182</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Bundesministerium für Landwirtschaft, Regionen und Tourismus</t>
+          <t>statistical aggregation</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>BMNT</t>
-        </is>
-      </c>
+      <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
-          <t>cl:10013</t>
+          <t>cl:10012</t>
         </is>
       </c>
       <c r="H196" t="inlineStr"/>
@@ -9328,12 +9324,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>cl:10177</t>
+          <t>cl:10183</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Statistik Austria</t>
+          <t>statistical disaggregation</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -9342,7 +9338,7 @@
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr">
         <is>
-          <t>cl:10013</t>
+          <t>cl:10012</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -9369,25 +9365,21 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>cl:10178</t>
+          <t>et:10139</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Kommunal Kredit Public Consulting</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>KPC</t>
-        </is>
-      </c>
+      <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr">
         <is>
-          <t>cl:10013</t>
+          <t>cl:10012</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -9414,12 +9406,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>cl:10179</t>
+          <t>et:10143</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Geologische Bundesanstalt</t>
+          <t>percentile</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -9428,7 +9420,7 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr">
         <is>
-          <t>cl:10013</t>
+          <t>cl:10012</t>
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
@@ -9455,25 +9447,21 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>cl:10180</t>
+          <t>et:10140</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Interreg programme</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Interreg is one of the key instruments of the European Union (EU) supporting cooperation across borders through project funding. It aims to jointly tackle common challenges and find shared solutions in fields such as health, environment, research, education, transport, sustainable energy and more.</t>
-        </is>
-      </c>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr">
         <is>
-          <t>cl:10013</t>
+          <t>cl:10012</t>
         </is>
       </c>
       <c r="H200" t="inlineStr"/>
@@ -9500,25 +9488,21 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>cl:10181</t>
+          <t>cl:10184</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Horizon 2020</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Horizon 2020 is the eighth framework programme funding research, technological development, and innovation.</t>
-        </is>
-      </c>
+          <t>GIS intersection</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr">
         <is>
-          <t>cl:10013</t>
+          <t>cl:10012</t>
         </is>
       </c>
       <c r="H201" t="inlineStr"/>
@@ -9545,12 +9529,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>cl:10182</t>
+          <t>cl:10185</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>statistical aggregation</t>
+          <t>GIS interpolation</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -9586,12 +9570,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>cl:10183</t>
+          <t>cl:10186</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>statistical disaggregation</t>
+          <t>complex calculation balancing</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -9624,252 +9608,6 @@
       <c r="Z203" t="inlineStr"/>
       <c r="AA203" t="inlineStr"/>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>et:10139</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>cl:10012</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="inlineStr"/>
-      <c r="T204" t="inlineStr"/>
-      <c r="U204" t="inlineStr"/>
-      <c r="V204" t="inlineStr"/>
-      <c r="W204" t="inlineStr"/>
-      <c r="X204" t="inlineStr"/>
-      <c r="Y204" t="inlineStr"/>
-      <c r="Z204" t="inlineStr"/>
-      <c r="AA204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>et:10143</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>percentile</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>cl:10012</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="inlineStr"/>
-      <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="inlineStr"/>
-      <c r="T205" t="inlineStr"/>
-      <c r="U205" t="inlineStr"/>
-      <c r="V205" t="inlineStr"/>
-      <c r="W205" t="inlineStr"/>
-      <c r="X205" t="inlineStr"/>
-      <c r="Y205" t="inlineStr"/>
-      <c r="Z205" t="inlineStr"/>
-      <c r="AA205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>et:10140</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>cl:10012</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
-      <c r="N206" t="inlineStr"/>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="inlineStr"/>
-      <c r="T206" t="inlineStr"/>
-      <c r="U206" t="inlineStr"/>
-      <c r="V206" t="inlineStr"/>
-      <c r="W206" t="inlineStr"/>
-      <c r="X206" t="inlineStr"/>
-      <c r="Y206" t="inlineStr"/>
-      <c r="Z206" t="inlineStr"/>
-      <c r="AA206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>cl:10184</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>GIS intersection</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>cl:10012</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="inlineStr"/>
-      <c r="T207" t="inlineStr"/>
-      <c r="U207" t="inlineStr"/>
-      <c r="V207" t="inlineStr"/>
-      <c r="W207" t="inlineStr"/>
-      <c r="X207" t="inlineStr"/>
-      <c r="Y207" t="inlineStr"/>
-      <c r="Z207" t="inlineStr"/>
-      <c r="AA207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>cl:10185</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>GIS interpolation</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>cl:10012</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="inlineStr"/>
-      <c r="T208" t="inlineStr"/>
-      <c r="U208" t="inlineStr"/>
-      <c r="V208" t="inlineStr"/>
-      <c r="W208" t="inlineStr"/>
-      <c r="X208" t="inlineStr"/>
-      <c r="Y208" t="inlineStr"/>
-      <c r="Z208" t="inlineStr"/>
-      <c r="AA208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>cl:10186</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>complex calculation balancing</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>cl:10012</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr"/>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="inlineStr"/>
-      <c r="T209" t="inlineStr"/>
-      <c r="U209" t="inlineStr"/>
-      <c r="V209" t="inlineStr"/>
-      <c r="W209" t="inlineStr"/>
-      <c r="X209" t="inlineStr"/>
-      <c r="Y209" t="inlineStr"/>
-      <c r="Z209" t="inlineStr"/>
-      <c r="AA209" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -6688,7 +6688,7 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,cl:10012</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6737,7 +6737,7 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,cl:10012</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7080,7 +7080,7 @@
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,cl:10012</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA203"/>
+  <dimension ref="A1:AA245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,20 +548,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>skos</t>
+          <t>et</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2004/02/skos/core#</t>
+          <t>http://vocabs.lter-europe.net/EnvThes/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Prefix for SKOS Ontology. This ontology is which our base for defining terms.</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -593,18 +589,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pav</t>
+          <t>skos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.org/pav/ </t>
+          <t>http://www.w3.org/2004/02/skos/core#</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Prefix for Provenance, Authoring and Versioning Ontology which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
+          <t>Prefix for SKOS Ontology. This ontology is which our base for defining terms.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -638,18 +634,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dct</t>
+          <t>pav</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
+          <t xml:space="preserve">http://purl.org/pav/ </t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
+          <t>Prefix for Provenance, Authoring and Versioning Ontology which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -683,18 +679,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>iop</t>
+          <t>dct</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/</t>
+          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The I-ADOPT Framework is an ontology designed to facilitate interoperability between existing variable description models.</t>
+          <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -728,18 +724,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>qudt</t>
+          <t>iop</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt/</t>
+          <t>https://w3id.org/iadopt/ont/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
+          <t>The I-ADOPT Framework is an ontology designed to facilitate interoperability between existing variable description models.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -773,18 +769,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>qudt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/unit/</t>
+          <t>http://qudt.org/schema/qudt/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining</t>
+          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -813,13 +809,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/unit/</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -846,19 +854,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:title</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>eLTER_CL</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Title of the vocabulary</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -887,17 +887,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>eLTER_CL is a thesaurus for controlled lists used by the eLTER community</t>
+          <t>eLTER_CL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
+          <t>Title of the vocabulary</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -928,13 +928,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>dct:description</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>eLTER_CL is a thesaurus for controlled lists used by the eLTER community</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator, repeat this row as needed.</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -965,17 +969,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:rights</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>An ORCID ID of the vocabulary creator, repeat this row as needed.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1006,17 +1006,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1047,17 +1047,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-11-12T12:00+02:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1129,11 +1129,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+          <t>pav:lastUpdatedOn</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2021-11-12T12:00+02:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1162,89 +1170,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>skos:definition@ge</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1259,29 +1203,89 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cl:10000</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">resource type </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>skos:definition@ge</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1296,12 +1300,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cl:10001</t>
+          <t>cl:10000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INSPIRE data theme</t>
+          <t xml:space="preserve">resource type </t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1333,12 +1337,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>cl:10002</t>
+          <t>cl:10001</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>INSPIRE data theme</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1370,12 +1374,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cl:10003</t>
+          <t>cl:10002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>spatial reference method</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1407,12 +1411,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>cl:10004</t>
+          <t>cl:10003</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>coordinate reference system</t>
+          <t>spatial reference method</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1444,12 +1448,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cl:10005</t>
+          <t>cl:10004</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>administrative unit level</t>
+          <t>coordinate reference system</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1481,12 +1485,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cl:10006</t>
+          <t>cl:10005</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>spatial scale</t>
+          <t>administrative unit level</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1518,12 +1522,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cl:10007</t>
+          <t>cl:10006</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>spatial design</t>
+          <t>spatial scale</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1555,12 +1559,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>cl:10008</t>
+          <t>cl:10007</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sampling time unit</t>
+          <t>spatial design</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1592,12 +1596,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>sampling time unit</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1629,12 +1633,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cl:10010</t>
+          <t>cl:10009</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>data reliability</t>
+          <t>method</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1666,12 +1670,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cl:10011</t>
+          <t>cl:10010</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>data completeness</t>
+          <t>data reliability</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1703,12 +1707,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>cl:10012</t>
+          <t>cl:10011</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>processing step</t>
+          <t>data completeness</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1740,12 +1744,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cl:10013</t>
+          <t>cl:10012</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>resource provider programme</t>
+          <t>processing step</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1777,12 +1781,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cl:10014</t>
+          <t>cl:10013</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>access and use condition</t>
+          <t>resource provider programme</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1814,23 +1818,19 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>cl:10015</t>
+          <t>cl:10014</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>geometry observation dataset</t>
+          <t>access and use condition</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>cl:10000</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1855,12 +1855,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>cl:10016</t>
+          <t>cl:10015</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>statistical dataset</t>
+          <t>geometry observation dataset</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1896,12 +1896,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>cl:10017</t>
+          <t>cl:10016</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>measurement dataset</t>
+          <t>statistical dataset</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1937,12 +1937,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>cl:10018</t>
+          <t>cl:10017</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>category observation dataset</t>
+          <t>measurement dataset</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>cl:10019</t>
+          <t>cl:10018</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>count observation dataset</t>
+          <t>category observation dataset</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2019,12 +2019,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cl:10020</t>
+          <t>cl:10019</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>truth observation dataset</t>
+          <t>count observation dataset</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2060,12 +2060,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cl:10021</t>
+          <t>cl:10020</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>temporal observation dataset</t>
+          <t>truth observation dataset</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2101,36 +2101,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>cl:10022</t>
+          <t>cl:10021</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>addresses</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Location of properties based on address identifiers, usually by road name, house number, postal code.</t>
-        </is>
-      </c>
+          <t>temporal observation dataset</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>http://inspire.ec.europa.eu/theme/ad</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cl:10001</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>http://inspire.ec.europa.eu/theme/ad</t>
-        </is>
-      </c>
+          <t>cl:10000</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2154,24 +2142,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>cl:10023</t>
+          <t>cl:10022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>administrative units</t>
+          <t>addresses</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Units of administration, dividing areas where Member States have and/or exercise jurisdictional rights, for local, regional and national governance, separated by administrative boundaries.</t>
+          <t>Location of properties based on address identifiers, usually by road name, house number, postal code.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/au</t>
+          <t>http://inspire.ec.europa.eu/theme/ad</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2181,7 +2169,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/au</t>
+          <t>http://inspire.ec.europa.eu/theme/ad</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -2207,24 +2195,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>cl:10024</t>
+          <t>cl:10023</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>coordinate reference systems</t>
+          <t>administrative units</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Systems for uniquely referencing spatial information in space as a set of coordinates (x, y, z) and/or latitude and longitude and height, based on a geodetic horizontal and vertical datum.</t>
+          <t>Units of administration, dividing areas where Member States have and/or exercise jurisdictional rights, for local, regional and national governance, separated by administrative boundaries.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/rs</t>
+          <t>http://inspire.ec.europa.eu/theme/au</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2234,7 +2222,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/rs</t>
+          <t>http://inspire.ec.europa.eu/theme/au</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -2260,24 +2248,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cl:10025</t>
+          <t>cl:10024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>geographical grid systems</t>
+          <t>coordinate reference systems</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Harmonised multi-resolution grid with a common point of origin and standardised location and size of grid cells.</t>
+          <t>Systems for uniquely referencing spatial information in space as a set of coordinates (x, y, z) and/or latitude and longitude and height, based on a geodetic horizontal and vertical datum.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/gg</t>
+          <t>http://inspire.ec.europa.eu/theme/rs</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2287,7 +2275,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/gg</t>
+          <t>http://inspire.ec.europa.eu/theme/rs</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -2313,24 +2301,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>cl:10026</t>
+          <t>cl:10025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>cadastral parcels</t>
+          <t>geographical grid systems</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Areas defined by cadastral registers or equivalent.</t>
+          <t>Harmonised multi-resolution grid with a common point of origin and standardised location and size of grid cells.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/cp</t>
+          <t>http://inspire.ec.europa.eu/theme/gg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2340,7 +2328,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/cp</t>
+          <t>http://inspire.ec.europa.eu/theme/gg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2366,24 +2354,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cl:10027</t>
+          <t>cl:10026</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>geographical names</t>
+          <t>cadastral parcels</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Names of areas, regions, localities, cities, suburbs, towns or settlements, or any geographical or topographical feature of public or historical interest.</t>
+          <t>Areas defined by cadastral registers or equivalent.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/gn</t>
+          <t>http://inspire.ec.europa.eu/theme/cp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2393,7 +2381,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/gn</t>
+          <t>http://inspire.ec.europa.eu/theme/cp</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2419,24 +2407,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cl:10028</t>
+          <t>cl:10027</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>hydrography</t>
+          <t>geographical names</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hydrographic elements, including marine areas and all other water bodies and items related to them, including river basins and sub-basins. Where appropriate, according to the definitions set out in Directive 2000/60/EC of the European Parliament and of the Council of 23 October 2000 establishing a framework for Community action in the field of water policy (2) and in the form of networks.</t>
+          <t>Names of areas, regions, localities, cities, suburbs, towns or settlements, or any geographical or topographical feature of public or historical interest.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/hy</t>
+          <t>http://inspire.ec.europa.eu/theme/gn</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2446,7 +2434,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/hy</t>
+          <t>http://inspire.ec.europa.eu/theme/gn</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -2472,24 +2460,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cl:10029</t>
+          <t>cl:10028</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>protected sites</t>
+          <t>hydrography</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Area designated or managed within a framework of international, Community and Member States' legislation to achieve specific conservation objectives.</t>
+          <t>Hydrographic elements, including marine areas and all other water bodies and items related to them, including river basins and sub-basins. Where appropriate, according to the definitions set out in Directive 2000/60/EC of the European Parliament and of the Council of 23 October 2000 establishing a framework for Community action in the field of water policy (2) and in the form of networks.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/ps</t>
+          <t>http://inspire.ec.europa.eu/theme/hy</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2499,7 +2487,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/ps</t>
+          <t>http://inspire.ec.europa.eu/theme/hy</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -2525,24 +2513,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>cl:10030</t>
+          <t>cl:10029</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>transport networks</t>
+          <t>protected sites</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Road, rail, air and water transport networks and related infrastructure. Includes links between different networks. Also includes the trans-European transport network as defined in Decision No 1692/96/EC of the European Parliament and of the Council of 23 July 1996 on Community Guidelines for the development of the trans-European transport network (1) and future revisions of that Decision.</t>
+          <t>Area designated or managed within a framework of international, Community and Member States' legislation to achieve specific conservation objectives.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/tn</t>
+          <t>http://inspire.ec.europa.eu/theme/ps</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2552,7 +2540,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/tn</t>
+          <t>http://inspire.ec.europa.eu/theme/ps</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -2578,24 +2566,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>cl:10031</t>
+          <t>cl:10030</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>elevation</t>
+          <t>transport networks</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Digital elevation models for land, ice and ocean surface. Includes terrestrial elevation, bathymetry and shoreline.</t>
+          <t>Road, rail, air and water transport networks and related infrastructure. Includes links between different networks. Also includes the trans-European transport network as defined in Decision No 1692/96/EC of the European Parliament and of the Council of 23 July 1996 on Community Guidelines for the development of the trans-European transport network (1) and future revisions of that Decision.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/el</t>
+          <t>http://inspire.ec.europa.eu/theme/tn</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2605,7 +2593,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/el</t>
+          <t>http://inspire.ec.europa.eu/theme/tn</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -2631,24 +2619,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>cl:10032</t>
+          <t>cl:10031</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>geology</t>
+          <t>elevation</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Geology characterised according to composition and structure. Includes bedrock, aquifers and geomorphology.</t>
+          <t>Digital elevation models for land, ice and ocean surface. Includes terrestrial elevation, bathymetry and shoreline.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/ge</t>
+          <t>http://inspire.ec.europa.eu/theme/el</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2658,7 +2646,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/ge</t>
+          <t>http://inspire.ec.europa.eu/theme/el</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -2684,24 +2672,24 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>cl:10033</t>
+          <t>cl:10032</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>land cover</t>
+          <t>geology</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Physical and biological cover of the earth's surface including artificial surfaces, agricultural areas, forests, (semi-)natural areas, wetlands, water bodies.</t>
+          <t>Geology characterised according to composition and structure. Includes bedrock, aquifers and geomorphology.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/lc</t>
+          <t>http://inspire.ec.europa.eu/theme/ge</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2711,7 +2699,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/lc</t>
+          <t>http://inspire.ec.europa.eu/theme/ge</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -2737,24 +2725,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cl:10034</t>
+          <t>cl:10033</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>orthoimagery</t>
+          <t>land cover</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Geo-referenced image data of the Earth's surface, from either satellite or airborne sensors.</t>
+          <t>Physical and biological cover of the earth's surface including artificial surfaces, agricultural areas, forests, (semi-)natural areas, wetlands, water bodies.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/oi</t>
+          <t>http://inspire.ec.europa.eu/theme/lc</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2764,7 +2752,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/oi</t>
+          <t>http://inspire.ec.europa.eu/theme/lc</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -2790,24 +2778,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cl:10035</t>
+          <t>cl:10034</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>agricultural and aquaculture facilities</t>
+          <t>orthoimagery</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Farming equipment and production facilities (including irrigation systems, greenhouses and stables).</t>
+          <t>Geo-referenced image data of the Earth's surface, from either satellite or airborne sensors.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/af</t>
+          <t>http://inspire.ec.europa.eu/theme/oi</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2817,7 +2805,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/af</t>
+          <t>http://inspire.ec.europa.eu/theme/oi</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -2843,24 +2831,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>cl:10036</t>
+          <t>cl:10035</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>area management/restriction/regulation zones and reporting units</t>
+          <t>agricultural and aquaculture facilities</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Areas managed, regulated or used for reporting at international, European, national, regional and local levels. Includes dumping sites, restricted areas around drinking water sources, nitrate-vulnerable zones, regulated fairways at sea or large inland waters, areas for the dumping of waste, noise restriction zones, prospecting and mining permit areas, river basin districts, relevant reporting units and coastal zone management areas.</t>
+          <t>Farming equipment and production facilities (including irrigation systems, greenhouses and stables).</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/am</t>
+          <t>http://inspire.ec.europa.eu/theme/af</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2870,7 +2858,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/am</t>
+          <t>http://inspire.ec.europa.eu/theme/af</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -2896,24 +2884,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>cl:10037</t>
+          <t>cl:10036</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>atmospheric conditions</t>
+          <t>area management/restriction/regulation zones and reporting units</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Physical conditions in the atmosphere. Includes spatial data based on measurements, on models or on a combination thereof and includes measurement locations.</t>
+          <t>Areas managed, regulated or used for reporting at international, European, national, regional and local levels. Includes dumping sites, restricted areas around drinking water sources, nitrate-vulnerable zones, regulated fairways at sea or large inland waters, areas for the dumping of waste, noise restriction zones, prospecting and mining permit areas, river basin districts, relevant reporting units and coastal zone management areas.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/ac</t>
+          <t>http://inspire.ec.europa.eu/theme/am</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2923,7 +2911,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/ac</t>
+          <t>http://inspire.ec.europa.eu/theme/am</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -2949,24 +2937,24 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cl:10038</t>
+          <t>cl:10037</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bio-geographical regions</t>
+          <t>atmospheric conditions</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Areas of relatively homogeneous ecological conditions with common characteristics.</t>
+          <t>Physical conditions in the atmosphere. Includes spatial data based on measurements, on models or on a combination thereof and includes measurement locations.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/br</t>
+          <t>http://inspire.ec.europa.eu/theme/ac</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2976,7 +2964,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/br</t>
+          <t>http://inspire.ec.europa.eu/theme/ac</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -3002,24 +2990,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>cl:10039</t>
+          <t>cl:10038</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>buildings</t>
+          <t>bio-geographical regions</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Geographical location of buildings.</t>
+          <t>Areas of relatively homogeneous ecological conditions with common characteristics.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/bu</t>
+          <t>http://inspire.ec.europa.eu/theme/br</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3029,7 +3017,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/bu</t>
+          <t>http://inspire.ec.europa.eu/theme/br</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -3055,24 +3043,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>cl:10040</t>
+          <t>cl:10039</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>energy resources</t>
+          <t>buildings</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Energy resources including hydrocarbons, hydropower, bio-energy, solar, wind, etc., where relevant including depth/height information on the extent of the resource.</t>
+          <t>Geographical location of buildings.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/er</t>
+          <t>http://inspire.ec.europa.eu/theme/bu</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3082,7 +3070,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/er</t>
+          <t>http://inspire.ec.europa.eu/theme/bu</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3108,24 +3096,24 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>cl:10041</t>
+          <t>cl:10040</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>environmental monitoring facilities</t>
+          <t>energy resources</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Location and operation of environmental monitoring facilities includes observation and measurement of emissions, of the state of environmental media and of other ecosystem parameters (biodiversity, ecological conditions of vegetation, etc.) by or on behalf of public authorities.</t>
+          <t>Energy resources including hydrocarbons, hydropower, bio-energy, solar, wind, etc., where relevant including depth/height information on the extent of the resource.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/ef</t>
+          <t>http://inspire.ec.europa.eu/theme/er</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3135,7 +3123,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/ef</t>
+          <t>http://inspire.ec.europa.eu/theme/er</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -3161,24 +3149,24 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>cl:10042</t>
+          <t>cl:10041</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>habitats and biotopes</t>
+          <t>environmental monitoring facilities</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Geographical areas characterised by specific ecological conditions, processes, structure, and (life support) functions that physically support the organisms that live there. Includes terrestrial and aquatic areas distinguished by geographical, abiotic and biotic features, whether entirely natural or semi-natural.</t>
+          <t>Location and operation of environmental monitoring facilities includes observation and measurement of emissions, of the state of environmental media and of other ecosystem parameters (biodiversity, ecological conditions of vegetation, etc.) by or on behalf of public authorities.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/hb</t>
+          <t>http://inspire.ec.europa.eu/theme/ef</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3188,7 +3176,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/hb</t>
+          <t>http://inspire.ec.europa.eu/theme/ef</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -3214,24 +3202,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>cl:10043</t>
+          <t>cl:10042</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>human health and safety</t>
+          <t>habitats and biotopes</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Geographical distribution of dominance of pathologies (allergies, cancers, respiratory diseases, etc.), information indicating the effect on health (biomarkers, decline of fertility, epidemics) or well-being of humans (fatigue, stress, etc.) linked directly (air pollution, chemicals, depletion of the ozone layer, noise, etc.) or indirectly (food, genetically modified organisms, etc.) to the quality of the environment.</t>
+          <t>Geographical areas characterised by specific ecological conditions, processes, structure, and (life support) functions that physically support the organisms that live there. Includes terrestrial and aquatic areas distinguished by geographical, abiotic and biotic features, whether entirely natural or semi-natural.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/hh</t>
+          <t>http://inspire.ec.europa.eu/theme/hb</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3241,7 +3229,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/hh</t>
+          <t>http://inspire.ec.europa.eu/theme/hb</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -3267,24 +3255,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>cl:10044</t>
+          <t>cl:10043</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>land use</t>
+          <t>human health and safety</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Territory characterised according to its current and future planned functional dimension or socio-economic purpose (e.g. residential, industrial, commercial, agricultural, forestry, recreational).</t>
+          <t>Geographical distribution of dominance of pathologies (allergies, cancers, respiratory diseases, etc.), information indicating the effect on health (biomarkers, decline of fertility, epidemics) or well-being of humans (fatigue, stress, etc.) linked directly (air pollution, chemicals, depletion of the ozone layer, noise, etc.) or indirectly (food, genetically modified organisms, etc.) to the quality of the environment.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/lu</t>
+          <t>http://inspire.ec.europa.eu/theme/hh</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3294,7 +3282,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/lu</t>
+          <t>http://inspire.ec.europa.eu/theme/hh</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -3320,24 +3308,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cl:10045</t>
+          <t>cl:10044</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>mineral resources</t>
+          <t>land use</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mineral resources including metal ores, industrial minerals, etc., where relevant including depth/height information on the extent of the resource.</t>
+          <t>Territory characterised according to its current and future planned functional dimension or socio-economic purpose (e.g. residential, industrial, commercial, agricultural, forestry, recreational).</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/mr</t>
+          <t>http://inspire.ec.europa.eu/theme/lu</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3347,7 +3335,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/mr</t>
+          <t>http://inspire.ec.europa.eu/theme/lu</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -3373,24 +3361,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cl:10046</t>
+          <t>cl:10045</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>natural risk zones</t>
+          <t>mineral resources</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Vulnerable areas characterised according to natural hazards (all atmospheric, hydrologic, seismic, volcanic and wildfire phenomena that, because of their location, severity, and frequency, have the potential to seriously affect society), e.g. floods, landslides and subsidence, avalanches, forest fires, earthquakes, volcanic eruptions.</t>
+          <t>Mineral resources including metal ores, industrial minerals, etc., where relevant including depth/height information on the extent of the resource.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/nz</t>
+          <t>http://inspire.ec.europa.eu/theme/mr</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3400,7 +3388,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/nz</t>
+          <t>http://inspire.ec.europa.eu/theme/mr</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -3426,24 +3414,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>cl:10047</t>
+          <t>cl:10046</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>oceanographic geographical features</t>
+          <t>natural risk zones</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Physical conditions of oceans (currents, salinity, wave heights, etc.).</t>
+          <t>Vulnerable areas characterised according to natural hazards (all atmospheric, hydrologic, seismic, volcanic and wildfire phenomena that, because of their location, severity, and frequency, have the potential to seriously affect society), e.g. floods, landslides and subsidence, avalanches, forest fires, earthquakes, volcanic eruptions.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/of</t>
+          <t>http://inspire.ec.europa.eu/theme/nz</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3453,7 +3441,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/of</t>
+          <t>http://inspire.ec.europa.eu/theme/nz</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -3479,24 +3467,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>cl:10048</t>
+          <t>cl:10047</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>population distribution - demography</t>
+          <t>oceanographic geographical features</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Geographical distribution of people, including population characteristics and activity levels, aggregated by grid, region, administrative unit or other analytical unit.</t>
+          <t>Physical conditions of oceans (currents, salinity, wave heights, etc.).</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/pd</t>
+          <t>http://inspire.ec.europa.eu/theme/of</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3506,7 +3494,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/pd</t>
+          <t>http://inspire.ec.europa.eu/theme/of</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -3532,24 +3520,24 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>cl:10049</t>
+          <t>cl:10048</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>production and industrial facilities</t>
+          <t>population distribution - demography</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Industrial production sites, including installations covered by Council Directive 96/61/EC of 24 September 1996 concerning integrated pollution prevention and control (1) and water abstraction facilities, mining, storage sites.</t>
+          <t>Geographical distribution of people, including population characteristics and activity levels, aggregated by grid, region, administrative unit or other analytical unit.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/pf</t>
+          <t>http://inspire.ec.europa.eu/theme/pd</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3559,7 +3547,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/pf</t>
+          <t>http://inspire.ec.europa.eu/theme/pd</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -3585,24 +3573,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>cl:10050</t>
+          <t>cl:10049</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sea regions</t>
+          <t>production and industrial facilities</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Physical conditions of seas and saline water bodies divided into regions and sub-regions with common characteristics.</t>
+          <t>Industrial production sites, including installations covered by Council Directive 96/61/EC of 24 September 1996 concerning integrated pollution prevention and control (1) and water abstraction facilities, mining, storage sites.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/sr</t>
+          <t>http://inspire.ec.europa.eu/theme/pf</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3612,7 +3600,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/sr</t>
+          <t>http://inspire.ec.europa.eu/theme/pf</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -3638,24 +3626,24 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>cl:10051</t>
+          <t>cl:10050</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>soil</t>
+          <t>sea regions</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Soils and subsoil characterised according to depth, texture, structure and content of particles and organic material, stoniness, erosion, where appropriate mean slope and anticipated water storage capacity.</t>
+          <t>Physical conditions of seas and saline water bodies divided into regions and sub-regions with common characteristics.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/so</t>
+          <t>http://inspire.ec.europa.eu/theme/sr</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3665,7 +3653,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/so</t>
+          <t>http://inspire.ec.europa.eu/theme/sr</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -3691,24 +3679,24 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>cl:10052</t>
+          <t>cl:10051</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>species distribution</t>
+          <t>soil</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Geographical distribution of occurrence of animal and plant species aggregated by grid, region, administrative unit or other analytical unit.</t>
+          <t>Soils and subsoil characterised according to depth, texture, structure and content of particles and organic material, stoniness, erosion, where appropriate mean slope and anticipated water storage capacity.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/sd</t>
+          <t>http://inspire.ec.europa.eu/theme/so</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3718,7 +3706,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/sd</t>
+          <t>http://inspire.ec.europa.eu/theme/so</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -3744,24 +3732,24 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>cl:10053</t>
+          <t>cl:10052</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>statistical units</t>
+          <t>species distribution</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Units for dissemination or use of statistical information.</t>
+          <t>Geographical distribution of occurrence of animal and plant species aggregated by grid, region, administrative unit or other analytical unit.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/su</t>
+          <t>http://inspire.ec.europa.eu/theme/sd</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3771,7 +3759,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/su</t>
+          <t>http://inspire.ec.europa.eu/theme/sd</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -3797,24 +3785,24 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>cl:10054</t>
+          <t>cl:10053</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>utility and governmental services</t>
+          <t>statistical units</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Includes utility facilities such as sewage, waste management, energy supply and water supply, administrative and social governmental services such as public administrations, civil protection sites, schools and hospitals.</t>
+          <t>Units for dissemination or use of statistical information.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/us</t>
+          <t>http://inspire.ec.europa.eu/theme/su</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3824,7 +3812,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/us</t>
+          <t>http://inspire.ec.europa.eu/theme/su</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -3850,24 +3838,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>cl:10055</t>
+          <t>cl:10054</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>meteorological geographical features</t>
+          <t>utility and governmental services</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Weather conditions and their measurements; precipitation, temperature, evapotranspiration, wind speed and direction.</t>
+          <t>Includes utility facilities such as sewage, waste management, energy supply and water supply, administrative and social governmental services such as public administrations, civil protection sites, schools and hospitals.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/mf</t>
+          <t>http://inspire.ec.europa.eu/theme/us</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3877,7 +3865,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/mf</t>
+          <t>http://inspire.ec.europa.eu/theme/us</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -3903,24 +3891,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>cl:10056</t>
+          <t>cl:10055</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>atmospheric conditions and meteorological geographical features</t>
+          <t>meteorological geographical features</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Physical conditions in the atmosphere. Includes spatial data based on measurements, on models or on a combination thereof and includes measurement locations. Weather conditions and their measurements; precipitation, temperature, evapotranspiration, wind speed and direction.</t>
+          <t>Weather conditions and their measurements; precipitation, temperature, evapotranspiration, wind speed and direction.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/ac-mf</t>
+          <t>http://inspire.ec.europa.eu/theme/mf</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3930,7 +3918,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>http://inspire.ec.europa.eu/theme/ac-mf</t>
+          <t>http://inspire.ec.europa.eu/theme/mf</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -3956,24 +3944,36 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>cl:10057</t>
+          <t>cl:10056</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>point</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>atmospheric conditions and meteorological geographical features</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Physical conditions in the atmosphere. Includes spatial data based on measurements, on models or on a combination thereof and includes measurement locations. Weather conditions and their measurements; precipitation, temperature, evapotranspiration, wind speed and direction.</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ac-mf</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>cl:10003</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
+          <t>cl:10001</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>http://inspire.ec.europa.eu/theme/ac-mf</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3997,12 +3997,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>cl:10058</t>
+          <t>cl:10057</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>vector</t>
+          <t>point</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -4038,12 +4038,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>cl:10059</t>
+          <t>cl:10058</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>raster</t>
+          <t>vector</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -4079,36 +4079,24 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>cl:10060</t>
+          <t>cl:10059</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EPSG:3857</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>WGS 84 / Pseudo-Mercator</t>
-        </is>
-      </c>
+          <t>raster</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>https://epsg.io/3857</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>cl:10004</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>https://epsg.io/3857</t>
-        </is>
-      </c>
+          <t>cl:10003</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -4132,24 +4120,24 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>cl:10061</t>
+          <t>cl:10060</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EPSG:4937</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>EPSG:3857</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>WGS 84 / Pseudo-Mercator</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>ETRS89</t>
-        </is>
-      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://epsg.io/4937</t>
+          <t>https://epsg.io/3857</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4159,7 +4147,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://epsg.io/4937</t>
+          <t>https://epsg.io/3857</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -4185,28 +4173,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>cl:10062</t>
+          <t>cl:10061</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>EPSG:3035</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>ETRS89-extended / LAEA Europe</t>
-        </is>
-      </c>
+          <t>EPSG:4937</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>LAEA</t>
+          <t>ETRS89</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://epsg.io/3035</t>
+          <t>https://epsg.io/4937</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4216,7 +4200,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://epsg.io/3035</t>
+          <t>https://epsg.io/4937</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -4242,24 +4226,28 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>cl:10063</t>
+          <t>cl:10062</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>EPSG:18007</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>EPSG:3035</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ETRS89-extended / LAEA Europe</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Austria Gauss-Kruger M28</t>
+          <t>LAEA</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://epsg.io/18007</t>
+          <t>https://epsg.io/3035</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4269,7 +4257,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://epsg.io/18007</t>
+          <t>https://epsg.io/3035</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -4295,24 +4283,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>cl:10064</t>
+          <t>cl:10063</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EPSG:18008</t>
+          <t>EPSG:18007</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Austria Gauss-Kruger M31</t>
+          <t>Austria Gauss-Kruger M28</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://epsg.io/18008</t>
+          <t>https://epsg.io/18007</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4322,7 +4310,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://epsg.io/18008</t>
+          <t>https://epsg.io/18007</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -4348,24 +4336,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>cl:10065</t>
+          <t>cl:10064</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>EPSG:18009</t>
+          <t>EPSG:18008</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Austria Gauss-Kruger M34</t>
+          <t>Austria Gauss-Kruger M31</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://epsg.io/18009</t>
+          <t>https://epsg.io/18008</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4375,7 +4363,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://epsg.io/18009</t>
+          <t>https://epsg.io/18008</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -4401,28 +4389,24 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>cl:10066</t>
+          <t>cl:10065</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>EPSG:3416</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>ETRS89 / Austria Lambert</t>
-        </is>
-      </c>
+          <t>EPSG:18009</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Austria Lambert</t>
+          <t>Austria Gauss-Kruger M34</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://epsg.io/3416</t>
+          <t>https://epsg.io/18009</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4432,7 +4416,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://epsg.io/3416</t>
+          <t>https://epsg.io/18009</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -4458,24 +4442,40 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>cl:10067</t>
+          <t>cl:10066</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>province</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>EPSG:3416</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ETRS89 / Austria Lambert</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Austria Lambert</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://epsg.io/3416</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>cl:10005</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
+          <t>cl:10004</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://epsg.io/3416</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -4499,21 +4499,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cl:10068</t>
+          <t>cl:10067</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>province</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>NUTS2</t>
-        </is>
-      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
@@ -4544,19 +4540,19 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>cl:10069</t>
+          <t>cl:10068</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>municipality</t>
+          <t>district</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>NUTS3</t>
+          <t>NUTS2</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -4589,17 +4585,21 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>cl:10070</t>
+          <t>cl:10069</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cadastral municipality</t>
+          <t>municipality</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NUTS3</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
@@ -4630,12 +4630,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>cl:10071</t>
+          <t>cl:10070</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>&lt;=10^0m²</t>
+          <t>cadastral municipality</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4644,7 +4644,7 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>cl:10006</t>
+          <t>cl:10005</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -4671,12 +4671,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>cl:10072</t>
+          <t>cl:10071</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>&gt;10^0m² - &lt;=10^1m²</t>
+          <t>&lt;=10^0m²</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4712,12 +4712,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>cl:10073</t>
+          <t>cl:10072</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>&gt;10^1m² - &lt;=10^2m²</t>
+          <t>&gt;10^0m² - &lt;=10^1m²</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4753,12 +4753,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>cl:10074</t>
+          <t>cl:10073</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>&gt;10^2m² - &lt;=10^3m²</t>
+          <t>&gt;10^1m² - &lt;=10^2m²</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4794,12 +4794,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>cl:10075</t>
+          <t>cl:10074</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>&gt;10^3m² - &lt;=10^4m²</t>
+          <t>&gt;10^2m² - &lt;=10^3m²</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4835,12 +4835,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>cl:10076</t>
+          <t>cl:10075</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>&gt;10^4m² - &lt;=10^5m²</t>
+          <t>&gt;10^3m² - &lt;=10^4m²</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4876,12 +4876,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>cl:10077</t>
+          <t>cl:10076</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>&gt;10^5m² - &lt;=10^6m²</t>
+          <t>&gt;10^4m² - &lt;=10^5m²</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4917,12 +4917,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>cl:10078</t>
+          <t>cl:10077</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>&gt;10^6m² - &lt;=10^7m²</t>
+          <t>&gt;10^5m² - &lt;=10^6m²</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4958,12 +4958,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>cl:10079</t>
+          <t>cl:10078</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>&gt;10^7m² - &lt;=10^8m²</t>
+          <t>&gt;10^6m² - &lt;=10^7m²</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4999,12 +4999,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>cl:10080</t>
+          <t>cl:10079</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>&gt;10^8m² - &lt;=10^9m²</t>
+          <t>&gt;10^7m² - &lt;=10^8m²</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -5040,12 +5040,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>cl:10081</t>
+          <t>cl:10080</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>&gt;10^9m² - &lt;=10^10m²</t>
+          <t>&gt;10^8m² - &lt;=10^9m²</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -5081,12 +5081,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>cl:10082</t>
+          <t>cl:10081</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>&gt;10^10m²</t>
+          <t>&gt;10^9m² - &lt;=10^10m²</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -5122,12 +5122,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>cl:10083</t>
+          <t>cl:10082</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>single point</t>
+          <t>&gt;10^10m²</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>cl:10007</t>
+          <t>cl:10006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -5163,12 +5163,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>cl:10084</t>
+          <t>cl:10083</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>representative</t>
+          <t>single point</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -5204,12 +5204,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>cl:10085</t>
+          <t>cl:10084</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>transect</t>
+          <t>representative</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -5245,12 +5245,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>cl:10086</t>
+          <t>cl:10085</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>vertical profile</t>
+          <t>transect</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -5286,12 +5286,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>cl:10087</t>
+          <t>cl:10086</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>vertical profile</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -5327,12 +5327,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>cl:10088</t>
+          <t>cl:10087</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -5368,12 +5368,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>cl:10089</t>
+          <t>cl:10088</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>stratified random</t>
+          <t>random</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -5409,12 +5409,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>cl:10090</t>
+          <t>cl:10089</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>block design</t>
+          <t>stratified random</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -5450,12 +5450,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>cl:10091</t>
+          <t>cl:10090</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>full area coverage</t>
+          <t>block design</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -5491,12 +5491,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>cl:10092</t>
+          <t>cl:10091</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>single measurement</t>
+          <t>full area coverage</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -5505,7 +5505,7 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>cl:10008</t>
+          <t>cl:10007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -5532,12 +5532,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>cl:10093</t>
+          <t>cl:10092</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>less than seconds</t>
+          <t>single measurement</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5573,12 +5573,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>cl:10094</t>
+          <t>cl:10093</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>seconds</t>
+          <t>less than seconds</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5614,12 +5614,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>cl:10095</t>
+          <t>cl:10094</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>minutes</t>
+          <t>seconds</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5655,12 +5655,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>cl:10096</t>
+          <t>cl:10095</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>15 minutes</t>
+          <t>minutes</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5696,12 +5696,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>cl:10097</t>
+          <t>cl:10096</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>30 minutes</t>
+          <t>15 minutes</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5737,12 +5737,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>cl:10098</t>
+          <t>cl:10097</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>hourly</t>
+          <t>30 minutes</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5778,12 +5778,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>cl:10099</t>
+          <t>cl:10098</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>hourly</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5819,12 +5819,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>cl:10100</t>
+          <t>cl:10099</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>weekly</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5860,12 +5860,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>cl:10101</t>
+          <t>cl:10100</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>monthly</t>
+          <t>weekly</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5901,12 +5901,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>cl:10102</t>
+          <t>cl:10101</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>quarterly</t>
+          <t>monthly</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5942,12 +5942,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>cl:10103</t>
+          <t>cl:10102</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>seasonally</t>
+          <t>quarterly</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5983,12 +5983,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>cl:10104</t>
+          <t>cl:10103</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>half yearly</t>
+          <t>seasonally</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -6024,12 +6024,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>cl:10105</t>
+          <t>cl:10104</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>yearly</t>
+          <t>half yearly</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -6065,12 +6065,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>cl:10106</t>
+          <t>cl:10105</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>every 2-5 years</t>
+          <t>yearly</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -6106,12 +6106,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>cl:10107</t>
+          <t>cl:10106</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>every 5-10 years</t>
+          <t>every 2-5 years</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -6147,12 +6147,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>cl:10108</t>
+          <t>cl:10107</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>more than 10 years</t>
+          <t>every 5-10 years</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -6188,32 +6188,24 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>cl:10109</t>
+          <t>cl:10108</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>quantile</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>[ NCIT ][ SUICIDEO ]* Division of a distribution into equal, ordered subgroups; a set of 'cut points' that divide a sample of data into groups containing (as far as possible) equal numbers of observations.</t>
-        </is>
-      </c>
+          <t>more than 10 years</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>cl:10009</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48920</t>
-        </is>
-      </c>
+          <t>cl:10008</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -6237,17 +6229,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>cl:10110</t>
+          <t>cl:10109</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>quantile</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[ SUICIDEO ][ NCIT ]* A measure of the range of values in a set of numbers. Standard deviation is a statistic used as a measure of the dispersion or variation in a distribution, equal to the square root of the arithmetic mean of the squares of the deviations from the arithmetic mean.</t>
+          <t>[ NCIT ][ SUICIDEO ]* Division of a distribution into equal, ordered subgroups; a set of 'cut points' that divide a sample of data into groups containing (as far as possible) equal numbers of observations.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -6260,7 +6252,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C53322</t>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48920</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -6286,17 +6278,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>cl:10111</t>
+          <t>cl:10110</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>meta analysis</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[David B. Wilson] Meta-analysis is a statistical method of synthesizing quantitative results across studies examining a common research question.&amp;nbsp;</t>
+          <t>[ SUICIDEO ][ NCIT ]* A measure of the range of values in a set of numbers. Standard deviation is a statistic used as a measure of the dispersion or variation in a distribution, equal to the square root of the arithmetic mean of the squares of the deviations from the arithmetic mean.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -6307,7 +6299,11 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C53322</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -6331,17 +6327,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>cl:10112</t>
+          <t>cl:10111</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>skewness</t>
+          <t>meta analysis</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[DCM] Measure of the asymmetry of the probability distribution of a real-valued random variable about its mean.</t>
+          <t>[David B. Wilson] Meta-analysis is a statistical method of synthesizing quantitative results across studies examining a common research question.&amp;nbsp;</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -6352,11 +6348,7 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>http://dicom.nema.org/resources/ontology/DCM/126051</t>
-        </is>
-      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -6380,17 +6372,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>cl:10113</t>
+          <t>cl:10112</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>skewness</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[ECG] A measure of the variability in a sample or population. It is calculated as the mean squared deviation (MSD) of the individual values from their common mean. In calculating the MSD, the divisor n is commonly used for a population variance and the divisor n-1 for a sample variance.</t>
+          <t>[DCM] Measure of the asymmetry of the probability distribution of a real-valued random variable about its mean.</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -6403,7 +6395,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>http://www.cvrgrid.org/files/ECGOntologyv1.owl#ECG_000001079</t>
+          <t>http://dicom.nema.org/resources/ontology/DCM/126051</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -6429,17 +6421,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>cl:10114</t>
+          <t>cl:10113</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>correlation</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[HUPSON] A statistical measure referring to the relationship between two random variables. It is a positive correlation when each variable tends to increase or decrease as the other does, and a negative or inverse correlation if one tends to increase as the other decreases. source: http://shodor.org/interactivate/dictionary/</t>
+          <t>[ECG] A measure of the variability in a sample or population. It is calculated as the mean squared deviation (MSD) of the individual values from their common mean. In calculating the MSD, the divisor n is commonly used for a population variance and the divisor n-1 for a sample variance.</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -6452,7 +6444,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>http://scai.fraunhofer.de/HuPSON#SCAIVPH_00000266</t>
+          <t>http://www.cvrgrid.org/files/ECGOntologyv1.owl#ECG_000001079</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -6478,17 +6470,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>cl:10115</t>
+          <t>cl:10114</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>spatial autocorrelation</t>
+          <t>correlation</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[Malika Khalili] Spatial autocorrelation is a correlation between the values of a single variable, considering their geographical locations.</t>
+          <t>[HUPSON] A statistical measure referring to the relationship between two random variables. It is a positive correlation when each variable tends to increase or decrease as the other does, and a negative or inverse correlation if one tends to increase as the other decreases. source: http://shodor.org/interactivate/dictionary/</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -6499,7 +6491,11 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>http://scai.fraunhofer.de/HuPSON#SCAIVPH_00000266</t>
+        </is>
+      </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -6523,17 +6519,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>cl:10116</t>
+          <t>cl:10115</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>confusion matrix</t>
+          <t>spatial autocorrelation</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[OBCS] A data item with a specific table layout that allows visualization of the performance of an algorithm. Each column of the matrix represents the instances in a predicted class, while each row represents the instances in an actual class.</t>
+          <t>[Malika Khalili] Spatial autocorrelation is a correlation between the values of a single variable, considering their geographical locations.</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -6544,11 +6540,7 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBCS_0000145</t>
-        </is>
-      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -6572,17 +6564,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>cl:10117</t>
+          <t>cl:10116</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>coefficient of variation</t>
+          <t>confusion matrix</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[OBCS] A quantitative confidence value that is the standard deviation of a data set divided by the mean of the same data set; a normalized measure of dispersion of a probability distribution</t>
+          <t>[OBCS] A data item with a specific table layout that allows visualization of the performance of an algorithm. Each column of the matrix represents the instances in a predicted class, while each row represents the instances in an actual class.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -6595,7 +6587,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBCS_0000081</t>
+          <t>http://purl.obolibrary.org/obo/OBCS_0000145</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -6621,17 +6613,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>cl:10118</t>
+          <t>cl:10117</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>probability</t>
+          <t>coefficient of variation</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[NCIT]* A measure of the expectation of the occurrence of a particular event.</t>
+          <t>[OBCS] A quantitative confidence value that is the standard deviation of a data set divided by the mean of the same data set; a normalized measure of dispersion of a probability distribution</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -6644,7 +6636,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C54154</t>
+          <t>http://purl.obolibrary.org/obo/OBCS_0000081</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -6670,17 +6662,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>cl:10119</t>
+          <t>cl:10118</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>percentile</t>
+          <t>probability</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[NCIT]* Any of the 99 numbered points that divide an ordered set of scores into 100 parts each of which contains one-hundredth of the total.</t>
+          <t>[NCIT]* A measure of the expectation of the occurrence of a particular event.</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -6688,12 +6680,12 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>cl:10009,cl:10012</t>
+          <t>cl:10009</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48919</t>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C54154</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -6719,17 +6711,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>cl:10120</t>
+          <t>cl:10119</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>percentile</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[NEMO] median is the middle value of a set of ordered observations. When there is an even number of observations the median is the average of two values that fall either side of what would be the middle value.</t>
+          <t>[NCIT]* Any of the 99 numbered points that divide an ordered set of scores into 100 parts each of which contains one-hundredth of the total.</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -6742,7 +6734,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/NEMO/ontology/NEMO.owl#NEMO_3768000</t>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48919</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -6768,17 +6760,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>cl:10121</t>
+          <t>cl:10120</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>mode</t>
+          <t>median</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[NPO] A measure of central tendency which is the most frequently occurring value in a set of numerical values.</t>
+          <t>[NEMO] median is the middle value of a set of ordered observations. When there is an even number of observations the median is the average of two values that fall either side of what would be the middle value.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -6786,12 +6778,12 @@
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,cl:10012</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/npo#NPO_1802</t>
+          <t>http://purl.bioontology.org/NEMO/ontology/NEMO.owl#NEMO_3768000</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -6817,17 +6809,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>cl:10122</t>
+          <t>cl:10121</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>credible interval</t>
+          <t>mode</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[OBCS] A quantitative confidence value that is used in Bayesian analysis to describe the range in which a posterior probability estimate is likely to reside.</t>
+          <t>[NPO] A measure of central tendency which is the most frequently occurring value in a set of numerical values.</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -6840,7 +6832,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBCS_0000071</t>
+          <t>http://purl.bioontology.org/ontology/npo#NPO_1802</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -6866,17 +6858,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>cl:10123</t>
+          <t>cl:10122</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>confidence interval</t>
+          <t>credible interval</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[OBCS] A quantitative confidence value that refers to an interval give values within which there is a high probability (95 percent by convention) that the true population value can be found. The calculation of a confidence interval considers the standard deviation of the data and the number of observations. Thus, a confidence interval narrows as the number of observations increases, or its variance (dispersion) decreases.</t>
+          <t>[OBCS] A quantitative confidence value that is used in Bayesian analysis to describe the range in which a posterior probability estimate is likely to reside.</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -6889,7 +6881,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBCS_0000070</t>
+          <t>http://purl.obolibrary.org/obo/OBCS_0000071</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -6915,17 +6907,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>cl:10124</t>
+          <t>cl:10123</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>interquartile range</t>
+          <t>confidence interval</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[OBCS] A quantitative confidence value that refers to the upper and lower values defining the central 50 percent of observations. The boundaries are equal to the 25th and 75th percentiles. The interquartile range can be depicted in a box and whiskers plot.</t>
+          <t>[OBCS] A quantitative confidence value that refers to an interval give values within which there is a high probability (95 percent by convention) that the true population value can be found. The calculation of a confidence interval considers the standard deviation of the data and the number of observations. Thus, a confidence interval narrows as the number of observations increases, or its variance (dispersion) decreases.</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -6938,7 +6930,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBCS_0000072</t>
+          <t>http://purl.obolibrary.org/obo/OBCS_0000070</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -6964,17 +6956,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>cl:10125</t>
+          <t>cl:10124</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>range (statistics)</t>
+          <t>interquartile range</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[OCRE] The range is the difference between the lowest and highest numerical values; the limits or scale of variation.</t>
+          <t>[OBCS] A quantitative confidence value that refers to the upper and lower values defining the central 50 percent of observations. The boundaries are equal to the 25th and 75th percentiles. The interquartile range can be depicted in a box and whiskers plot.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -6987,7 +6979,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>http://purl.org/net/OCRe/statistics.owl#OCRE200007</t>
+          <t>http://purl.obolibrary.org/obo/OBCS_0000072</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -7013,17 +7005,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>cl:10126</t>
+          <t>cl:10125</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>kurtosis</t>
+          <t>range (statistics)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[RO]* Kurtosis is a measure of how outlier-prone a distribution is. The kurtosis of the normal distribution is 3. Distributions that are more outlier-prone than the normal distribution have kurtosis greater than 3; distributions that are less outlier-prone have kurtosis less than 3</t>
+          <t>[OCRE] The range is the difference between the lowest and highest numerical values; the limits or scale of variation.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -7036,7 +7028,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>http://www.semanticweb.org/alberto.traverso/ontologies/2017/1/RADIOMICS-ontology#OWLClass_010008</t>
+          <t>http://purl.org/net/OCRe/statistics.owl#OCRE200007</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -7062,17 +7054,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>cl:10127</t>
+          <t>cl:10126</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>kurtosis</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[SIO] A mean is the central tendency of a collection of numbers taken as the sum of the numbers divided by the size of the collection.</t>
+          <t>[RO]* Kurtosis is a measure of how outlier-prone a distribution is. The kurtosis of the normal distribution is 3. Distributions that are more outlier-prone than the normal distribution have kurtosis greater than 3; distributions that are less outlier-prone have kurtosis less than 3</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -7080,12 +7072,12 @@
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>cl:10009,cl:10012</t>
+          <t>cl:10009</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>http://semanticscience.org/resource/SIO_001109</t>
+          <t>http://www.semanticweb.org/alberto.traverso/ontologies/2017/1/RADIOMICS-ontology#OWLClass_010008</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -7111,17 +7103,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>cl:10128</t>
+          <t>cl:10127</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>decile</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[STATO] a decile is a quantile where n=10 and which splits data into sections accrued of 10% of data, so the first decile delineates 10% of the data, the second decile delineates 20% of the data and the nineth decile, 90 % of the data</t>
+          <t>[SIO] A mean is the central tendency of a collection of numbers taken as the sum of the numbers divided by the size of the collection.</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -7129,12 +7121,12 @@
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>cl:10009</t>
+          <t>cl:10009,cl:10012</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/STATO_0000292</t>
+          <t>http://semanticscience.org/resource/SIO_001109</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -7160,17 +7152,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>cl:10129</t>
+          <t>cl:10128</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>quartile</t>
+          <t>decile</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[STATO] a quartile is a quantile which splits data into sections accrued of 25% of data, so the first quartile delineates 25% of the data, the second quartile delineates 50% of the data and the third quartile, 75 % of the data</t>
+          <t>[STATO] a decile is a quantile where n=10 and which splits data into sections accrued of 10% of data, so the first decile delineates 10% of the data, the second decile delineates 20% of the data and the nineth decile, 90 % of the data</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -7181,7 +7173,11 @@
           <t>cl:10009</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/STATO_0000292</t>
+        </is>
+      </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -7205,17 +7201,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>cl:10130</t>
+          <t>cl:10129</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>centred moment</t>
+          <t>quartile</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>For a given positive natural number k, the k-th central moment of a random variable x is defined as k=E[(x−E[x])k]. That is, it is the expected value of the deviation from the mean to the power k. In particular, 0=1, 1=0 and 2 is the variance of x. [UncertML] http://www.uncertml.org/statistics/centred-moment</t>
+          <t>[STATO] a quartile is a quantile which splits data into sections accrued of 25% of data, so the first quartile delineates 25% of the data, the second quartile delineates 50% of the data and the third quartile, 75 % of the data</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -7250,15 +7246,19 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>cl:10131</t>
+          <t>cl:10130</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>neutral theory</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>centred moment</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>For a given positive natural number k, the k-th central moment of a random variable x is defined as k=E[(x−E[x])k]. That is, it is the expected value of the deviation from the mean to the power k. In particular, 0=1, 1=0 and 2 is the variance of x. [UncertML] http://www.uncertml.org/statistics/centred-moment</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
@@ -7291,12 +7291,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>cl:10132</t>
+          <t>cl:10131</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>covariance matrix</t>
+          <t>neutral theory</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -7332,12 +7332,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>cl:10133</t>
+          <t>cl:10132</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>discrete probability</t>
+          <t>covariance matrix</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -7373,12 +7373,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>cl:10134</t>
+          <t>cl:10133</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>moment</t>
+          <t>discrete probability</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -7414,12 +7414,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>cl:10135</t>
+          <t>cl:10134</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>changes over time</t>
+          <t>moment</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -7455,12 +7455,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>cl:10136</t>
+          <t>cl:10135</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>changes over time</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -7469,7 +7469,7 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>cl:10010</t>
+          <t>cl:10009</t>
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
@@ -7496,12 +7496,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>cl:10137</t>
+          <t>cl:10136</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>high</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -7537,12 +7537,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>cl:10138</t>
+          <t>cl:10137</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -7578,12 +7578,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>cl:10139</t>
+          <t>cl:10138</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>low</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -7592,7 +7592,7 @@
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
-          <t>cl:10011</t>
+          <t>cl:10010</t>
         </is>
       </c>
       <c r="H159" t="inlineStr"/>
@@ -7619,12 +7619,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>cl:10140</t>
+          <t>cl:10139</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>completion ongoing</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -7660,12 +7660,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>cl:10141</t>
+          <t>cl:10140</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>completion ongoing</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -7701,12 +7701,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>cl:10142</t>
+          <t>cl:10141</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>free for access</t>
+          <t>incomplete</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -7715,7 +7715,7 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>cl:10014</t>
+          <t>cl:10011</t>
         </is>
       </c>
       <c r="H162" t="inlineStr"/>
@@ -7742,12 +7742,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>cl:10143</t>
+          <t>cl:10142</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>free for access and use upon request</t>
+          <t>free for access</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7783,12 +7783,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>cl:10144</t>
+          <t>cl:10143</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>other restrictions according to rules defined in intellectual rights</t>
+          <t>free for access and use upon request</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7824,12 +7824,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>cl:10145</t>
+          <t>cl:10144</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>restricted access defined in detail in intellectual property information</t>
+          <t>other restrictions according to rules defined in intellectual rights</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7865,12 +7865,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>cl:10146</t>
+          <t>cl:10145</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>no access</t>
+          <t>restricted access defined in detail in intellectual property information</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7906,27 +7906,23 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>cl:10147</t>
+          <t>cl:10146</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>data type</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Data type is an attribute associated with a piece of data that tells a computer system how to interpret its value.</t>
-        </is>
-      </c>
+          <t>no access</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>https://dataled.academy/guides/data-types/</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>cl:10014</t>
+        </is>
+      </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -7951,35 +7947,27 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>cl:10148</t>
+          <t>cl:10147</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>data type</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>It is the most common numeric data type used to store numbers without a fractional component (-707, 0, 707).</t>
+          <t>Data type is an attribute associated with a piece of data that tells a computer system how to interpret its value.</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
+      <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>cl:10147</t>
-        </is>
-      </c>
+      <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -8004,23 +7992,23 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>cl:10149</t>
+          <t>cl:10148</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>floating point</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>It is a numeric data type used to store numbers that may have a fractional component, like monetary values do (707.07, 0.7, 707.00).</t>
+          <t>It is the most common numeric data type used to store numbers without a fractional component (-707, 0, 707).</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>int</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8057,23 +8045,23 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>cl:10150</t>
+          <t>cl:10149</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>floating point</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>It is used to store a single letter, digit, punctuation mark, symbol, or blank space.</t>
+          <t>It is a numeric data type used to store numbers that may have a fractional component, like monetary values do (707.07, 0.7, 707.00).</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>char</t>
+          <t>float</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8110,23 +8098,23 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>cl:10151</t>
+          <t>cl:10150</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>It is a sequence of characters and the most commonly used data type to store text.</t>
+          <t>It is used to store a single letter, digit, punctuation mark, symbol, or blank space.</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>char</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8163,23 +8151,23 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>cl:10152</t>
+          <t>cl:10151</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>It represents the values true and false.</t>
+          <t>It is a sequence of characters and the most commonly used data type to store text.</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8216,23 +8204,23 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>cl:10153</t>
+          <t>cl:10152</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>enumeration type</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>It contains a small set of predefined unique values (also known as elements or enumerators) that can be compared and assigned to a variable of enumerated data type.</t>
+          <t>It represents the values true and false.</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8269,21 +8257,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>cl:10154</t>
+          <t>cl:10153</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>array</t>
+          <t>enumeration type</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Also known as a list, an array is a data type that stores a number of elements in a specific order, typically all of the same type.</t>
+          <t>It contains a small set of predefined unique values (also known as elements or enumerators) that can be compared and assigned to a variable of enumerated data type.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
       <c r="F174" t="inlineStr">
         <is>
           <t>https://dataled.academy/guides/data-types/</t>
@@ -8318,17 +8310,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>cl:10155</t>
+          <t>cl:10154</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>array</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>It typically stores a date in the YYYY-MM-DD format (ISO 8601 syntax).</t>
+          <t>Also known as a list, an array is a data type that stores a number of elements in a specific order, typically all of the same type.</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
@@ -8367,17 +8359,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>cl:10156</t>
+          <t>cl:10155</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>date</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Stores a time in the hh:mm:ss format.</t>
+          <t>It typically stores a date in the YYYY-MM-DD format (ISO 8601 syntax).</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -8416,17 +8408,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>cl:10157</t>
+          <t>cl:10156</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Stores a value containing both date and time together in the YYYY-MM-DD hh:mm:ss format.</t>
+          <t>Stores a time in the hh:mm:ss format.</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
@@ -8465,17 +8457,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>cl:10158</t>
+          <t>cl:10157</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Typically represented in Unix time, a timestamp represents the number of seconds that have elapsed since midnight (00:00:00 UTC), 1st January 1970.</t>
+          <t>Stores a value containing both date and time together in the YYYY-MM-DD hh:mm:ss format.</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
@@ -8514,23 +8506,31 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>cl:10159</t>
+          <t>cl:10158</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>measurement scale</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>A measurement scale defines the level of measurement of a variable. It decides the statistical test type to be used. The mathematical nature of a variable or in other words, how a variable is measured is considered as the level of measurement.</t>
+          <t>Typically represented in Unix time, a timestamp represents the number of seconds that have elapsed since midnight (00:00:00 UTC), 1st January 1970.</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://dataled.academy/guides/data-types/</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>cl:10147</t>
+        </is>
+      </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -8555,27 +8555,23 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>cl:10160</t>
+          <t>cl:10159</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>nominal scale</t>
+          <t>measurement scale</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Nominal scale is a naming scale, where variables are simply “named” or labeled, with no specific order.</t>
+          <t>A measurement scale defines the level of measurement of a variable. It decides the statistical test type to be used. The mathematical nature of a variable or in other words, how a variable is measured is considered as the level of measurement.</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>cl:10159</t>
-        </is>
-      </c>
+      <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -8600,17 +8596,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>cl:10161</t>
+          <t>cl:10160</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ordinal scale</t>
+          <t>nominal scale</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ordinal scale has all its variables in a specific order, beyond just naming them. </t>
+          <t>Nominal scale is a naming scale, where variables are simply “named” or labeled, with no specific order.</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
@@ -8645,17 +8641,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>cl:10162</t>
+          <t>cl:10161</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>interval scale</t>
+          <t>ordinal scale</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Interval scale offers labels, order, as well as, a specific interval between each of its variable options.</t>
+          <t xml:space="preserve">Ordinal scale has all its variables in a specific order, beyond just naming them. </t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -8690,17 +8686,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>cl:10163</t>
+          <t>cl:10162</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ratio scale</t>
+          <t>interval scale</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Ratio scale bears all the characteristics of an interval scale, in addition to that, it can also accommodate the value of “zero” on any of its variables.</t>
+          <t>Interval scale offers labels, order, as well as, a specific interval between each of its variable options.</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -8735,25 +8731,25 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>cl:10164</t>
+          <t>cl:10163</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>kilometre</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr"/>
+          <t>ratio scale</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Ratio scale bears all the characteristics of an interval scale, in addition to that, it can also accommodate the value of “zero” on any of its variables.</t>
+        </is>
+      </c>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>km</t>
-        </is>
-      </c>
+      <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr">
         <is>
-          <t>cl:10002</t>
+          <t>cl:10159</t>
         </is>
       </c>
       <c r="H184" t="inlineStr"/>
@@ -8780,19 +8776,19 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>cl:10165</t>
+          <t>cl:10164</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>square kilometre</t>
+          <t>kilometre</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>km2</t>
+          <t>km</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -8825,19 +8821,19 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>cl:10166</t>
+          <t>cl:10165</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>metre</t>
+          <t>square kilometre</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>km2</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -8870,19 +8866,19 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>cl:10167</t>
+          <t>cl:10166</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>percent</t>
+          <t>metre</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>m</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -8891,11 +8887,7 @@
           <t>cl:10002</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>http://qudt.org/vocab/unit/PERCENT</t>
-        </is>
-      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -8919,19 +8911,19 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>cl:10168</t>
+          <t>cl:10167</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>tonne per hectare per year</t>
+          <t>percent</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>t.har.year-1</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -8940,7 +8932,11 @@
           <t>cl:10002</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/unit/PERCENT</t>
+        </is>
+      </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -8964,19 +8960,19 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>cl:10169</t>
+          <t>cl:10168</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>kilogram per hectar</t>
+          <t>tonne per hectare per year</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>kg.har-1</t>
+          <t>t.har.year-1</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -9009,19 +9005,19 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>cl:10170</t>
+          <t>cl:10169</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>tonne per year</t>
+          <t>kilogram per hectar</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>t.year-1</t>
+          <t>kg.har-1</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -9054,19 +9050,19 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>cl:10171</t>
+          <t>cl:10170</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>milligram per kilogram</t>
+          <t>tonne per year</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>mg.kg-1</t>
+          <t>t.year-1</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -9099,19 +9095,19 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>cl:10172</t>
+          <t>cl:10171</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>gram per hectare per year</t>
+          <t>milligram per kilogram</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>g.har.year-1</t>
+          <t>mg.kg-1</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -9144,29 +9140,25 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>cl:10173</t>
+          <t>cl:10172</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Integriertes Verwaltung- und Kontrollsystem</t>
+          <t>gram per hectare per year</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>INVEKOS ist ein System von Verordnungen zur Durchsetzung einer einheitlichen Agrarpolitik in den EU-Mitgliedstaaten. Die schrittweise Einführung des Integrierten Verwaltungs- und Kontrollsystems durch die Europäische Kommission wurde im Zuge der Reform der Gemeinsamen Agrarpolitik (GAP) im Jahre 1992 beschlossen.</t>
-        </is>
-      </c>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>INVEKOS</t>
+          <t>g.har.year-1</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr">
         <is>
-          <t>cl:10013</t>
+          <t>cl:10002</t>
         </is>
       </c>
       <c r="H193" t="inlineStr"/>
@@ -9193,21 +9185,25 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>cl:10180</t>
+          <t>cl:10173</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Interreg programme</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Interreg is one of the key instruments of the European Union (EU) supporting cooperation across borders through project funding. It aims to jointly tackle common challenges and find shared solutions in fields such as health, environment, research, education, transport, sustainable energy and more.</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+          <t>Integriertes Verwaltung- und Kontrollsystem</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>INVEKOS ist ein System von Verordnungen zur Durchsetzung einer einheitlichen Agrarpolitik in den EU-Mitgliedstaaten. Die schrittweise Einführung des Integrierten Verwaltungs- und Kontrollsystems durch die Europäische Kommission wurde im Zuge der Reform der Gemeinsamen Agrarpolitik (GAP) im Jahre 1992 beschlossen.</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>INVEKOS</t>
+        </is>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
         <is>
@@ -9238,17 +9234,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>cl:10181</t>
+          <t>cl:10180</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Horizon 2020</t>
+          <t>Interreg programme</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Horizon 2020 is the eighth framework programme funding research, technological development, and innovation.</t>
+          <t>Interreg is one of the key instruments of the European Union (EU) supporting cooperation across borders through project funding. It aims to jointly tackle common challenges and find shared solutions in fields such as health, environment, research, education, transport, sustainable energy and more.</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
@@ -9283,21 +9279,25 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>cl:10182</t>
+          <t>cl:10181</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>statistical aggregation</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr"/>
+          <t>Horizon 2020</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Horizon 2020 is the eighth framework programme funding research, technological development, and innovation.</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
-          <t>cl:10012</t>
+          <t>cl:10013</t>
         </is>
       </c>
       <c r="H196" t="inlineStr"/>
@@ -9324,12 +9324,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>cl:10183</t>
+          <t>cl:10182</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>statistical disaggregation</t>
+          <t>statistical aggregation</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -9365,12 +9365,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>et:10139</t>
+          <t>cl:10183</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>statistical disaggregation</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -9406,12 +9406,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>et:10143</t>
+          <t>et:10139</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>percentile</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -9447,12 +9447,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>et:10140</t>
+          <t>et:10143</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>percentile</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -9488,12 +9488,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>cl:10184</t>
+          <t>et:10140</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>GIS intersection</t>
+          <t>median</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -9529,12 +9529,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>cl:10185</t>
+          <t>cl:10184</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>GIS interpolation</t>
+          <t>GIS intersection</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -9570,12 +9570,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>cl:10186</t>
+          <t>cl:10185</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>complex calculation balancing</t>
+          <t>GIS interpolation</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -9608,6 +9608,1740 @@
       <c r="Z203" t="inlineStr"/>
       <c r="AA203" t="inlineStr"/>
     </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>cl:10186</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>complex calculation balancing</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>cl:10012</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr"/>
+      <c r="Z204" t="inlineStr"/>
+      <c r="AA204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>cl:10187</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>MONERIS variable</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr"/>
+      <c r="Z206" t="inlineStr"/>
+      <c r="AA206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>et:30217</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>area of slope &lt;1% arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr"/>
+      <c r="Z207" t="inlineStr"/>
+      <c r="AA207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>et:30218</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>area of slope 1-2% arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr"/>
+      <c r="Z208" t="inlineStr"/>
+      <c r="AA208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>et:30219</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>area of slope 3-4% arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr"/>
+      <c r="Z209" t="inlineStr"/>
+      <c r="AA209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>et:30220</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>area of slope 4-8% arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
+      <c r="Y210" t="inlineStr"/>
+      <c r="Z210" t="inlineStr"/>
+      <c r="AA210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>et:30221</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>area of slope &gt;8% arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
+      <c r="Y211" t="inlineStr"/>
+      <c r="Z211" t="inlineStr"/>
+      <c r="AA211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>et:30229</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>area of grassland of catchment</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr"/>
+      <c r="S212" t="inlineStr"/>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
+      <c r="Y212" t="inlineStr"/>
+      <c r="Z212" t="inlineStr"/>
+      <c r="AA212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>et:30230</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>area of woodland and forest of catchment</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="inlineStr"/>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
+      <c r="R213" t="inlineStr"/>
+      <c r="S213" t="inlineStr"/>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
+      <c r="Y213" t="inlineStr"/>
+      <c r="Z213" t="inlineStr"/>
+      <c r="AA213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>et:30231</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>area of unvegetated land of catchment</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="inlineStr"/>
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
+      <c r="R214" t="inlineStr"/>
+      <c r="S214" t="inlineStr"/>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
+      <c r="Y214" t="inlineStr"/>
+      <c r="Z214" t="inlineStr"/>
+      <c r="AA214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>et:30232</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>area of glacier of catchment</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr"/>
+      <c r="Z215" t="inlineStr"/>
+      <c r="AA215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>et:30233</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>slope of catchment</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
+      <c r="Y216" t="inlineStr"/>
+      <c r="Z216" t="inlineStr"/>
+      <c r="AA216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>et:30234</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>mass per area per time of soil erosion in slope &lt;1% arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
+      <c r="Y217" t="inlineStr"/>
+      <c r="Z217" t="inlineStr"/>
+      <c r="AA217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>et:30235</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>mass per area per time of soil erosion in slope 1-2% arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
+      <c r="Y218" t="inlineStr"/>
+      <c r="Z218" t="inlineStr"/>
+      <c r="AA218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>et:30236</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>mass per area per time of soil erosion in slope 3-4% arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
+      <c r="Y219" t="inlineStr"/>
+      <c r="Z219" t="inlineStr"/>
+      <c r="AA219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>et:30237</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>mass per area per time of soil erosion in slope 4-8% arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
+      <c r="R220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
+      <c r="Y220" t="inlineStr"/>
+      <c r="Z220" t="inlineStr"/>
+      <c r="AA220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>et:30238</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>mass per area per time of soil erosion in slope &gt;8% arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="inlineStr"/>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
+      <c r="R221" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr"/>
+      <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
+      <c r="Y221" t="inlineStr"/>
+      <c r="Z221" t="inlineStr"/>
+      <c r="AA221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>et:30239</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>mass per area per time of soil erosion of catchment</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr"/>
+      <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr"/>
+      <c r="Y222" t="inlineStr"/>
+      <c r="Z222" t="inlineStr"/>
+      <c r="AA222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>et:30240</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>mass per area per time of soil erosion in grassland of catchment</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr"/>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr"/>
+      <c r="Y223" t="inlineStr"/>
+      <c r="Z223" t="inlineStr"/>
+      <c r="AA223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>et:30241</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>area of with conservation tillage arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr"/>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
+      <c r="Y224" t="inlineStr"/>
+      <c r="Z224" t="inlineStr"/>
+      <c r="AA224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>et:30242</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>mass per area of accumulated surplus total phosphorus of catchment</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>different types of phosphorus: organic, inorganic, which is measured as Total Posphorus</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr"/>
+      <c r="Z225" t="inlineStr"/>
+      <c r="AA225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>et:30243</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>area of arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr"/>
+      <c r="Z226" t="inlineStr"/>
+      <c r="AA226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>et:30244</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>mass per area per time of soil erosion in arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
+      <c r="S227" t="inlineStr"/>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr"/>
+      <c r="Z227" t="inlineStr"/>
+      <c r="AA227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>et:30245</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>correction of R-factor</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>used for calculation of Im-BE; Current agricultural soil loss</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr"/>
+      <c r="Z228" t="inlineStr"/>
+      <c r="AA228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>et:30246</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>mass per area of actual soil erosion in arable land of catchment</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>used to calculate Im-BE; soil loss from arable land is modified by specific actual (2007-2013) R-factor (precipitation intensities and amounts, which are not described by long-year averages)</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
+      <c r="Y229" t="inlineStr"/>
+      <c r="Z229" t="inlineStr"/>
+      <c r="AA229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>et:30247</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>mass per area of actual soil erosion in woodland and forest of catchment</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
+      <c r="Y230" t="inlineStr"/>
+      <c r="Z230" t="inlineStr"/>
+      <c r="AA230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>et:30248</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>mass per area of actual soil erosion in unvegetated land of catchment</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
+      <c r="Y231" t="inlineStr"/>
+      <c r="Z231" t="inlineStr"/>
+      <c r="AA231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>et:30249</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>mass per area of actual soil erosion in glacier of catchment</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr"/>
+      <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
+      <c r="Y232" t="inlineStr"/>
+      <c r="Z232" t="inlineStr"/>
+      <c r="AA232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>et:30250</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>mass per area of actual soil erosion of catchment</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
+      <c r="Y233" t="inlineStr"/>
+      <c r="Z233" t="inlineStr"/>
+      <c r="AA233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>et:30251</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>portion of soil erosion in sediment of catchment</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Share of eroded sediment (soil loss) that is transported to the surface water (depends on slope, distance from Surface water, soil texture)</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr"/>
+      <c r="Z234" t="inlineStr"/>
+      <c r="AA234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>et:30252</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>mass per area of soil erosion in sediment of catchment</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Amount of soils, which enter the surface water</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="inlineStr"/>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
+      <c r="R235" t="inlineStr"/>
+      <c r="S235" t="inlineStr"/>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr"/>
+      <c r="V235" t="inlineStr"/>
+      <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr"/>
+      <c r="Y235" t="inlineStr"/>
+      <c r="Z235" t="inlineStr"/>
+      <c r="AA235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>et:30253</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>content of clay in topsoil of catchment</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="inlineStr"/>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr"/>
+      <c r="R236" t="inlineStr"/>
+      <c r="S236" t="inlineStr"/>
+      <c r="T236" t="inlineStr"/>
+      <c r="U236" t="inlineStr"/>
+      <c r="V236" t="inlineStr"/>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
+      <c r="Y236" t="inlineStr"/>
+      <c r="Z236" t="inlineStr"/>
+      <c r="AA236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>et:30254</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>content of basis total phosphorus in agricultural topsoil of catchment</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="inlineStr"/>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
+      <c r="R237" t="inlineStr"/>
+      <c r="S237" t="inlineStr"/>
+      <c r="T237" t="inlineStr"/>
+      <c r="U237" t="inlineStr"/>
+      <c r="V237" t="inlineStr"/>
+      <c r="W237" t="inlineStr"/>
+      <c r="X237" t="inlineStr"/>
+      <c r="Y237" t="inlineStr"/>
+      <c r="Z237" t="inlineStr"/>
+      <c r="AA237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>et:30255</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>content of total phosphorus in agricultural topsoil of catchment</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="inlineStr"/>
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr"/>
+      <c r="R238" t="inlineStr"/>
+      <c r="S238" t="inlineStr"/>
+      <c r="T238" t="inlineStr"/>
+      <c r="U238" t="inlineStr"/>
+      <c r="V238" t="inlineStr"/>
+      <c r="W238" t="inlineStr"/>
+      <c r="X238" t="inlineStr"/>
+      <c r="Y238" t="inlineStr"/>
+      <c r="Z238" t="inlineStr"/>
+      <c r="AA238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>et:30256</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>enrichment ratio of total phosphorus in catchment</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="inlineStr"/>
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr"/>
+      <c r="R239" t="inlineStr"/>
+      <c r="S239" t="inlineStr"/>
+      <c r="T239" t="inlineStr"/>
+      <c r="U239" t="inlineStr"/>
+      <c r="V239" t="inlineStr"/>
+      <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr"/>
+      <c r="Y239" t="inlineStr"/>
+      <c r="Z239" t="inlineStr"/>
+      <c r="AA239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>et:30257</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>mass per area of agricultural soil erosion in sediment of catchment</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="inlineStr"/>
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr"/>
+      <c r="R240" t="inlineStr"/>
+      <c r="S240" t="inlineStr"/>
+      <c r="T240" t="inlineStr"/>
+      <c r="U240" t="inlineStr"/>
+      <c r="V240" t="inlineStr"/>
+      <c r="W240" t="inlineStr"/>
+      <c r="X240" t="inlineStr"/>
+      <c r="Y240" t="inlineStr"/>
+      <c r="Z240" t="inlineStr"/>
+      <c r="AA240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>et:30258</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>mass per area of agricultural soil erosion in sediment of catchment</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="inlineStr"/>
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr"/>
+      <c r="R241" t="inlineStr"/>
+      <c r="S241" t="inlineStr"/>
+      <c r="T241" t="inlineStr"/>
+      <c r="U241" t="inlineStr"/>
+      <c r="V241" t="inlineStr"/>
+      <c r="W241" t="inlineStr"/>
+      <c r="X241" t="inlineStr"/>
+      <c r="Y241" t="inlineStr"/>
+      <c r="Z241" t="inlineStr"/>
+      <c r="AA241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>et:30259</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>emission of total phosphorus from agricultural soil erosion</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="inlineStr"/>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr"/>
+      <c r="R242" t="inlineStr"/>
+      <c r="S242" t="inlineStr"/>
+      <c r="T242" t="inlineStr"/>
+      <c r="U242" t="inlineStr"/>
+      <c r="V242" t="inlineStr"/>
+      <c r="W242" t="inlineStr"/>
+      <c r="X242" t="inlineStr"/>
+      <c r="Y242" t="inlineStr"/>
+      <c r="Z242" t="inlineStr"/>
+      <c r="AA242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>et:30260</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>emission of total phosphorus from natural soil erosion</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="inlineStr"/>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr"/>
+      <c r="R243" t="inlineStr"/>
+      <c r="S243" t="inlineStr"/>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr"/>
+      <c r="V243" t="inlineStr"/>
+      <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr"/>
+      <c r="Y243" t="inlineStr"/>
+      <c r="Z243" t="inlineStr"/>
+      <c r="AA243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>et:30261</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>emission of total phosphorus from diffuse sources</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="inlineStr"/>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr"/>
+      <c r="R244" t="inlineStr"/>
+      <c r="S244" t="inlineStr"/>
+      <c r="T244" t="inlineStr"/>
+      <c r="U244" t="inlineStr"/>
+      <c r="V244" t="inlineStr"/>
+      <c r="W244" t="inlineStr"/>
+      <c r="X244" t="inlineStr"/>
+      <c r="Y244" t="inlineStr"/>
+      <c r="Z244" t="inlineStr"/>
+      <c r="AA244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>et:30262</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>total emission of total phosphorus</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>et:20935</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="inlineStr"/>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
+      <c r="R245" t="inlineStr"/>
+      <c r="S245" t="inlineStr"/>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr"/>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr"/>
+      <c r="Y245" t="inlineStr"/>
+      <c r="Z245" t="inlineStr"/>
+      <c r="AA245" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE245"/>
+  <dimension ref="A1:AE246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11734,7 +11734,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>et:30223</t>
+          <t>et:30263</t>
         </is>
       </c>
       <c r="P225" t="inlineStr"/>
@@ -12994,6 +12994,63 @@
       <c r="AD245" t="inlineStr"/>
       <c r="AE245" t="inlineStr"/>
     </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>et:30263</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>EPSG:31287</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>MGI / Austria Lambert</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>https://epsg.io/31287</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>cl:10004</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>https://epsg.io/31287</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="inlineStr"/>
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr"/>
+      <c r="R246" t="inlineStr"/>
+      <c r="S246" t="inlineStr"/>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr"/>
+      <c r="Y246" t="inlineStr"/>
+      <c r="Z246" t="inlineStr"/>
+      <c r="AA246" t="inlineStr"/>
+      <c r="AB246" t="inlineStr"/>
+      <c r="AC246" t="inlineStr"/>
+      <c r="AD246" t="inlineStr"/>
+      <c r="AE246" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -12997,7 +12997,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>et:30263</t>
+          <t>cl:10188</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -30603,7 +30603,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>cl:10189</t>
+          <t>cl:10190</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -30716,7 +30716,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>cl:10190</t>
+          <t>cl:10191</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU257"/>
+  <dimension ref="A1:CU263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31674,6 +31674,680 @@
       <c r="CT257" t="inlineStr"/>
       <c r="CU257" t="inlineStr"/>
     </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>cl:10192</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>generic answer option</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
+      <c r="R258" t="inlineStr"/>
+      <c r="S258" t="inlineStr"/>
+      <c r="T258" t="inlineStr"/>
+      <c r="U258" t="inlineStr"/>
+      <c r="V258" t="inlineStr"/>
+      <c r="W258" t="inlineStr"/>
+      <c r="X258" t="inlineStr"/>
+      <c r="Y258" t="inlineStr"/>
+      <c r="Z258" t="inlineStr"/>
+      <c r="AA258" t="inlineStr"/>
+      <c r="AB258" t="inlineStr"/>
+      <c r="AC258" t="inlineStr"/>
+      <c r="AD258" t="inlineStr"/>
+      <c r="AE258" t="inlineStr"/>
+      <c r="AF258" t="inlineStr"/>
+      <c r="AG258" t="inlineStr"/>
+      <c r="AH258" t="inlineStr"/>
+      <c r="AI258" t="inlineStr"/>
+      <c r="AJ258" t="inlineStr"/>
+      <c r="AK258" t="inlineStr"/>
+      <c r="AL258" t="inlineStr"/>
+      <c r="AM258" t="inlineStr"/>
+      <c r="AN258" t="inlineStr"/>
+      <c r="AO258" t="inlineStr"/>
+      <c r="AP258" t="inlineStr"/>
+      <c r="AQ258" t="inlineStr"/>
+      <c r="AR258" t="inlineStr"/>
+      <c r="AS258" t="inlineStr"/>
+      <c r="AT258" t="inlineStr"/>
+      <c r="AU258" t="inlineStr"/>
+      <c r="AV258" t="inlineStr"/>
+      <c r="AW258" t="inlineStr"/>
+      <c r="AX258" t="inlineStr"/>
+      <c r="AY258" t="inlineStr"/>
+      <c r="AZ258" t="inlineStr"/>
+      <c r="BA258" t="inlineStr"/>
+      <c r="BB258" t="inlineStr"/>
+      <c r="BC258" t="inlineStr"/>
+      <c r="BD258" t="inlineStr"/>
+      <c r="BE258" t="inlineStr"/>
+      <c r="BF258" t="inlineStr"/>
+      <c r="BG258" t="inlineStr"/>
+      <c r="BH258" t="inlineStr"/>
+      <c r="BI258" t="inlineStr"/>
+      <c r="BJ258" t="inlineStr"/>
+      <c r="BK258" t="inlineStr"/>
+      <c r="BL258" t="inlineStr"/>
+      <c r="BM258" t="inlineStr"/>
+      <c r="BN258" t="inlineStr"/>
+      <c r="BO258" t="inlineStr"/>
+      <c r="BP258" t="inlineStr"/>
+      <c r="BQ258" t="inlineStr"/>
+      <c r="BR258" t="inlineStr"/>
+      <c r="BS258" t="inlineStr"/>
+      <c r="BT258" t="inlineStr"/>
+      <c r="BU258" t="inlineStr"/>
+      <c r="BV258" t="inlineStr"/>
+      <c r="BW258" t="inlineStr"/>
+      <c r="BX258" t="inlineStr"/>
+      <c r="BY258" t="inlineStr"/>
+      <c r="BZ258" t="inlineStr"/>
+      <c r="CA258" t="inlineStr"/>
+      <c r="CB258" t="inlineStr"/>
+      <c r="CC258" t="inlineStr"/>
+      <c r="CD258" t="inlineStr"/>
+      <c r="CE258" t="inlineStr"/>
+      <c r="CF258" t="inlineStr"/>
+      <c r="CG258" t="inlineStr"/>
+      <c r="CH258" t="inlineStr"/>
+      <c r="CI258" t="inlineStr"/>
+      <c r="CJ258" t="inlineStr"/>
+      <c r="CK258" t="inlineStr"/>
+      <c r="CL258" t="inlineStr"/>
+      <c r="CM258" t="inlineStr"/>
+      <c r="CN258" t="inlineStr"/>
+      <c r="CO258" t="inlineStr"/>
+      <c r="CP258" t="inlineStr"/>
+      <c r="CQ258" t="inlineStr"/>
+      <c r="CR258" t="inlineStr"/>
+      <c r="CS258" t="inlineStr"/>
+      <c r="CT258" t="inlineStr"/>
+      <c r="CU258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>cl:10193</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no </t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>cl:10192</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="inlineStr"/>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
+      <c r="R259" t="inlineStr"/>
+      <c r="S259" t="inlineStr"/>
+      <c r="T259" t="inlineStr"/>
+      <c r="U259" t="inlineStr"/>
+      <c r="V259" t="inlineStr"/>
+      <c r="W259" t="inlineStr"/>
+      <c r="X259" t="inlineStr"/>
+      <c r="Y259" t="inlineStr"/>
+      <c r="Z259" t="inlineStr"/>
+      <c r="AA259" t="inlineStr"/>
+      <c r="AB259" t="inlineStr"/>
+      <c r="AC259" t="inlineStr"/>
+      <c r="AD259" t="inlineStr"/>
+      <c r="AE259" t="inlineStr"/>
+      <c r="AF259" t="inlineStr"/>
+      <c r="AG259" t="inlineStr"/>
+      <c r="AH259" t="inlineStr"/>
+      <c r="AI259" t="inlineStr"/>
+      <c r="AJ259" t="inlineStr"/>
+      <c r="AK259" t="inlineStr"/>
+      <c r="AL259" t="inlineStr"/>
+      <c r="AM259" t="inlineStr"/>
+      <c r="AN259" t="inlineStr"/>
+      <c r="AO259" t="inlineStr"/>
+      <c r="AP259" t="inlineStr"/>
+      <c r="AQ259" t="inlineStr"/>
+      <c r="AR259" t="inlineStr"/>
+      <c r="AS259" t="inlineStr"/>
+      <c r="AT259" t="inlineStr"/>
+      <c r="AU259" t="inlineStr"/>
+      <c r="AV259" t="inlineStr"/>
+      <c r="AW259" t="inlineStr"/>
+      <c r="AX259" t="inlineStr"/>
+      <c r="AY259" t="inlineStr"/>
+      <c r="AZ259" t="inlineStr"/>
+      <c r="BA259" t="inlineStr"/>
+      <c r="BB259" t="inlineStr"/>
+      <c r="BC259" t="inlineStr"/>
+      <c r="BD259" t="inlineStr"/>
+      <c r="BE259" t="inlineStr"/>
+      <c r="BF259" t="inlineStr"/>
+      <c r="BG259" t="inlineStr"/>
+      <c r="BH259" t="inlineStr"/>
+      <c r="BI259" t="inlineStr"/>
+      <c r="BJ259" t="inlineStr"/>
+      <c r="BK259" t="inlineStr"/>
+      <c r="BL259" t="inlineStr"/>
+      <c r="BM259" t="inlineStr"/>
+      <c r="BN259" t="inlineStr"/>
+      <c r="BO259" t="inlineStr"/>
+      <c r="BP259" t="inlineStr"/>
+      <c r="BQ259" t="inlineStr"/>
+      <c r="BR259" t="inlineStr"/>
+      <c r="BS259" t="inlineStr"/>
+      <c r="BT259" t="inlineStr"/>
+      <c r="BU259" t="inlineStr"/>
+      <c r="BV259" t="inlineStr"/>
+      <c r="BW259" t="inlineStr"/>
+      <c r="BX259" t="inlineStr"/>
+      <c r="BY259" t="inlineStr"/>
+      <c r="BZ259" t="inlineStr"/>
+      <c r="CA259" t="inlineStr"/>
+      <c r="CB259" t="inlineStr"/>
+      <c r="CC259" t="inlineStr"/>
+      <c r="CD259" t="inlineStr"/>
+      <c r="CE259" t="inlineStr"/>
+      <c r="CF259" t="inlineStr"/>
+      <c r="CG259" t="inlineStr"/>
+      <c r="CH259" t="inlineStr"/>
+      <c r="CI259" t="inlineStr"/>
+      <c r="CJ259" t="inlineStr"/>
+      <c r="CK259" t="inlineStr"/>
+      <c r="CL259" t="inlineStr"/>
+      <c r="CM259" t="inlineStr"/>
+      <c r="CN259" t="inlineStr"/>
+      <c r="CO259" t="inlineStr"/>
+      <c r="CP259" t="inlineStr"/>
+      <c r="CQ259" t="inlineStr"/>
+      <c r="CR259" t="inlineStr"/>
+      <c r="CS259" t="inlineStr"/>
+      <c r="CT259" t="inlineStr"/>
+      <c r="CU259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>cl:10194</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>cl:10192</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="inlineStr"/>
+      <c r="O260" t="inlineStr"/>
+      <c r="P260" t="inlineStr"/>
+      <c r="Q260" t="inlineStr"/>
+      <c r="R260" t="inlineStr"/>
+      <c r="S260" t="inlineStr"/>
+      <c r="T260" t="inlineStr"/>
+      <c r="U260" t="inlineStr"/>
+      <c r="V260" t="inlineStr"/>
+      <c r="W260" t="inlineStr"/>
+      <c r="X260" t="inlineStr"/>
+      <c r="Y260" t="inlineStr"/>
+      <c r="Z260" t="inlineStr"/>
+      <c r="AA260" t="inlineStr"/>
+      <c r="AB260" t="inlineStr"/>
+      <c r="AC260" t="inlineStr"/>
+      <c r="AD260" t="inlineStr"/>
+      <c r="AE260" t="inlineStr"/>
+      <c r="AF260" t="inlineStr"/>
+      <c r="AG260" t="inlineStr"/>
+      <c r="AH260" t="inlineStr"/>
+      <c r="AI260" t="inlineStr"/>
+      <c r="AJ260" t="inlineStr"/>
+      <c r="AK260" t="inlineStr"/>
+      <c r="AL260" t="inlineStr"/>
+      <c r="AM260" t="inlineStr"/>
+      <c r="AN260" t="inlineStr"/>
+      <c r="AO260" t="inlineStr"/>
+      <c r="AP260" t="inlineStr"/>
+      <c r="AQ260" t="inlineStr"/>
+      <c r="AR260" t="inlineStr"/>
+      <c r="AS260" t="inlineStr"/>
+      <c r="AT260" t="inlineStr"/>
+      <c r="AU260" t="inlineStr"/>
+      <c r="AV260" t="inlineStr"/>
+      <c r="AW260" t="inlineStr"/>
+      <c r="AX260" t="inlineStr"/>
+      <c r="AY260" t="inlineStr"/>
+      <c r="AZ260" t="inlineStr"/>
+      <c r="BA260" t="inlineStr"/>
+      <c r="BB260" t="inlineStr"/>
+      <c r="BC260" t="inlineStr"/>
+      <c r="BD260" t="inlineStr"/>
+      <c r="BE260" t="inlineStr"/>
+      <c r="BF260" t="inlineStr"/>
+      <c r="BG260" t="inlineStr"/>
+      <c r="BH260" t="inlineStr"/>
+      <c r="BI260" t="inlineStr"/>
+      <c r="BJ260" t="inlineStr"/>
+      <c r="BK260" t="inlineStr"/>
+      <c r="BL260" t="inlineStr"/>
+      <c r="BM260" t="inlineStr"/>
+      <c r="BN260" t="inlineStr"/>
+      <c r="BO260" t="inlineStr"/>
+      <c r="BP260" t="inlineStr"/>
+      <c r="BQ260" t="inlineStr"/>
+      <c r="BR260" t="inlineStr"/>
+      <c r="BS260" t="inlineStr"/>
+      <c r="BT260" t="inlineStr"/>
+      <c r="BU260" t="inlineStr"/>
+      <c r="BV260" t="inlineStr"/>
+      <c r="BW260" t="inlineStr"/>
+      <c r="BX260" t="inlineStr"/>
+      <c r="BY260" t="inlineStr"/>
+      <c r="BZ260" t="inlineStr"/>
+      <c r="CA260" t="inlineStr"/>
+      <c r="CB260" t="inlineStr"/>
+      <c r="CC260" t="inlineStr"/>
+      <c r="CD260" t="inlineStr"/>
+      <c r="CE260" t="inlineStr"/>
+      <c r="CF260" t="inlineStr"/>
+      <c r="CG260" t="inlineStr"/>
+      <c r="CH260" t="inlineStr"/>
+      <c r="CI260" t="inlineStr"/>
+      <c r="CJ260" t="inlineStr"/>
+      <c r="CK260" t="inlineStr"/>
+      <c r="CL260" t="inlineStr"/>
+      <c r="CM260" t="inlineStr"/>
+      <c r="CN260" t="inlineStr"/>
+      <c r="CO260" t="inlineStr"/>
+      <c r="CP260" t="inlineStr"/>
+      <c r="CQ260" t="inlineStr"/>
+      <c r="CR260" t="inlineStr"/>
+      <c r="CS260" t="inlineStr"/>
+      <c r="CT260" t="inlineStr"/>
+      <c r="CU260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>cl:10195</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>cl:10192</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="inlineStr"/>
+      <c r="O261" t="inlineStr"/>
+      <c r="P261" t="inlineStr"/>
+      <c r="Q261" t="inlineStr"/>
+      <c r="R261" t="inlineStr"/>
+      <c r="S261" t="inlineStr"/>
+      <c r="T261" t="inlineStr"/>
+      <c r="U261" t="inlineStr"/>
+      <c r="V261" t="inlineStr"/>
+      <c r="W261" t="inlineStr"/>
+      <c r="X261" t="inlineStr"/>
+      <c r="Y261" t="inlineStr"/>
+      <c r="Z261" t="inlineStr"/>
+      <c r="AA261" t="inlineStr"/>
+      <c r="AB261" t="inlineStr"/>
+      <c r="AC261" t="inlineStr"/>
+      <c r="AD261" t="inlineStr"/>
+      <c r="AE261" t="inlineStr"/>
+      <c r="AF261" t="inlineStr"/>
+      <c r="AG261" t="inlineStr"/>
+      <c r="AH261" t="inlineStr"/>
+      <c r="AI261" t="inlineStr"/>
+      <c r="AJ261" t="inlineStr"/>
+      <c r="AK261" t="inlineStr"/>
+      <c r="AL261" t="inlineStr"/>
+      <c r="AM261" t="inlineStr"/>
+      <c r="AN261" t="inlineStr"/>
+      <c r="AO261" t="inlineStr"/>
+      <c r="AP261" t="inlineStr"/>
+      <c r="AQ261" t="inlineStr"/>
+      <c r="AR261" t="inlineStr"/>
+      <c r="AS261" t="inlineStr"/>
+      <c r="AT261" t="inlineStr"/>
+      <c r="AU261" t="inlineStr"/>
+      <c r="AV261" t="inlineStr"/>
+      <c r="AW261" t="inlineStr"/>
+      <c r="AX261" t="inlineStr"/>
+      <c r="AY261" t="inlineStr"/>
+      <c r="AZ261" t="inlineStr"/>
+      <c r="BA261" t="inlineStr"/>
+      <c r="BB261" t="inlineStr"/>
+      <c r="BC261" t="inlineStr"/>
+      <c r="BD261" t="inlineStr"/>
+      <c r="BE261" t="inlineStr"/>
+      <c r="BF261" t="inlineStr"/>
+      <c r="BG261" t="inlineStr"/>
+      <c r="BH261" t="inlineStr"/>
+      <c r="BI261" t="inlineStr"/>
+      <c r="BJ261" t="inlineStr"/>
+      <c r="BK261" t="inlineStr"/>
+      <c r="BL261" t="inlineStr"/>
+      <c r="BM261" t="inlineStr"/>
+      <c r="BN261" t="inlineStr"/>
+      <c r="BO261" t="inlineStr"/>
+      <c r="BP261" t="inlineStr"/>
+      <c r="BQ261" t="inlineStr"/>
+      <c r="BR261" t="inlineStr"/>
+      <c r="BS261" t="inlineStr"/>
+      <c r="BT261" t="inlineStr"/>
+      <c r="BU261" t="inlineStr"/>
+      <c r="BV261" t="inlineStr"/>
+      <c r="BW261" t="inlineStr"/>
+      <c r="BX261" t="inlineStr"/>
+      <c r="BY261" t="inlineStr"/>
+      <c r="BZ261" t="inlineStr"/>
+      <c r="CA261" t="inlineStr"/>
+      <c r="CB261" t="inlineStr"/>
+      <c r="CC261" t="inlineStr"/>
+      <c r="CD261" t="inlineStr"/>
+      <c r="CE261" t="inlineStr"/>
+      <c r="CF261" t="inlineStr"/>
+      <c r="CG261" t="inlineStr"/>
+      <c r="CH261" t="inlineStr"/>
+      <c r="CI261" t="inlineStr"/>
+      <c r="CJ261" t="inlineStr"/>
+      <c r="CK261" t="inlineStr"/>
+      <c r="CL261" t="inlineStr"/>
+      <c r="CM261" t="inlineStr"/>
+      <c r="CN261" t="inlineStr"/>
+      <c r="CO261" t="inlineStr"/>
+      <c r="CP261" t="inlineStr"/>
+      <c r="CQ261" t="inlineStr"/>
+      <c r="CR261" t="inlineStr"/>
+      <c r="CS261" t="inlineStr"/>
+      <c r="CT261" t="inlineStr"/>
+      <c r="CU261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>cl:10196</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>unkown</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>cl:10192</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="inlineStr"/>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
+      <c r="R262" t="inlineStr"/>
+      <c r="S262" t="inlineStr"/>
+      <c r="T262" t="inlineStr"/>
+      <c r="U262" t="inlineStr"/>
+      <c r="V262" t="inlineStr"/>
+      <c r="W262" t="inlineStr"/>
+      <c r="X262" t="inlineStr"/>
+      <c r="Y262" t="inlineStr"/>
+      <c r="Z262" t="inlineStr"/>
+      <c r="AA262" t="inlineStr"/>
+      <c r="AB262" t="inlineStr"/>
+      <c r="AC262" t="inlineStr"/>
+      <c r="AD262" t="inlineStr"/>
+      <c r="AE262" t="inlineStr"/>
+      <c r="AF262" t="inlineStr"/>
+      <c r="AG262" t="inlineStr"/>
+      <c r="AH262" t="inlineStr"/>
+      <c r="AI262" t="inlineStr"/>
+      <c r="AJ262" t="inlineStr"/>
+      <c r="AK262" t="inlineStr"/>
+      <c r="AL262" t="inlineStr"/>
+      <c r="AM262" t="inlineStr"/>
+      <c r="AN262" t="inlineStr"/>
+      <c r="AO262" t="inlineStr"/>
+      <c r="AP262" t="inlineStr"/>
+      <c r="AQ262" t="inlineStr"/>
+      <c r="AR262" t="inlineStr"/>
+      <c r="AS262" t="inlineStr"/>
+      <c r="AT262" t="inlineStr"/>
+      <c r="AU262" t="inlineStr"/>
+      <c r="AV262" t="inlineStr"/>
+      <c r="AW262" t="inlineStr"/>
+      <c r="AX262" t="inlineStr"/>
+      <c r="AY262" t="inlineStr"/>
+      <c r="AZ262" t="inlineStr"/>
+      <c r="BA262" t="inlineStr"/>
+      <c r="BB262" t="inlineStr"/>
+      <c r="BC262" t="inlineStr"/>
+      <c r="BD262" t="inlineStr"/>
+      <c r="BE262" t="inlineStr"/>
+      <c r="BF262" t="inlineStr"/>
+      <c r="BG262" t="inlineStr"/>
+      <c r="BH262" t="inlineStr"/>
+      <c r="BI262" t="inlineStr"/>
+      <c r="BJ262" t="inlineStr"/>
+      <c r="BK262" t="inlineStr"/>
+      <c r="BL262" t="inlineStr"/>
+      <c r="BM262" t="inlineStr"/>
+      <c r="BN262" t="inlineStr"/>
+      <c r="BO262" t="inlineStr"/>
+      <c r="BP262" t="inlineStr"/>
+      <c r="BQ262" t="inlineStr"/>
+      <c r="BR262" t="inlineStr"/>
+      <c r="BS262" t="inlineStr"/>
+      <c r="BT262" t="inlineStr"/>
+      <c r="BU262" t="inlineStr"/>
+      <c r="BV262" t="inlineStr"/>
+      <c r="BW262" t="inlineStr"/>
+      <c r="BX262" t="inlineStr"/>
+      <c r="BY262" t="inlineStr"/>
+      <c r="BZ262" t="inlineStr"/>
+      <c r="CA262" t="inlineStr"/>
+      <c r="CB262" t="inlineStr"/>
+      <c r="CC262" t="inlineStr"/>
+      <c r="CD262" t="inlineStr"/>
+      <c r="CE262" t="inlineStr"/>
+      <c r="CF262" t="inlineStr"/>
+      <c r="CG262" t="inlineStr"/>
+      <c r="CH262" t="inlineStr"/>
+      <c r="CI262" t="inlineStr"/>
+      <c r="CJ262" t="inlineStr"/>
+      <c r="CK262" t="inlineStr"/>
+      <c r="CL262" t="inlineStr"/>
+      <c r="CM262" t="inlineStr"/>
+      <c r="CN262" t="inlineStr"/>
+      <c r="CO262" t="inlineStr"/>
+      <c r="CP262" t="inlineStr"/>
+      <c r="CQ262" t="inlineStr"/>
+      <c r="CR262" t="inlineStr"/>
+      <c r="CS262" t="inlineStr"/>
+      <c r="CT262" t="inlineStr"/>
+      <c r="CU262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>cl:10197</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>cl:10192</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="inlineStr"/>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr"/>
+      <c r="Q263" t="inlineStr"/>
+      <c r="R263" t="inlineStr"/>
+      <c r="S263" t="inlineStr"/>
+      <c r="T263" t="inlineStr"/>
+      <c r="U263" t="inlineStr"/>
+      <c r="V263" t="inlineStr"/>
+      <c r="W263" t="inlineStr"/>
+      <c r="X263" t="inlineStr"/>
+      <c r="Y263" t="inlineStr"/>
+      <c r="Z263" t="inlineStr"/>
+      <c r="AA263" t="inlineStr"/>
+      <c r="AB263" t="inlineStr"/>
+      <c r="AC263" t="inlineStr"/>
+      <c r="AD263" t="inlineStr"/>
+      <c r="AE263" t="inlineStr"/>
+      <c r="AF263" t="inlineStr"/>
+      <c r="AG263" t="inlineStr"/>
+      <c r="AH263" t="inlineStr"/>
+      <c r="AI263" t="inlineStr"/>
+      <c r="AJ263" t="inlineStr"/>
+      <c r="AK263" t="inlineStr"/>
+      <c r="AL263" t="inlineStr"/>
+      <c r="AM263" t="inlineStr"/>
+      <c r="AN263" t="inlineStr"/>
+      <c r="AO263" t="inlineStr"/>
+      <c r="AP263" t="inlineStr"/>
+      <c r="AQ263" t="inlineStr"/>
+      <c r="AR263" t="inlineStr"/>
+      <c r="AS263" t="inlineStr"/>
+      <c r="AT263" t="inlineStr"/>
+      <c r="AU263" t="inlineStr"/>
+      <c r="AV263" t="inlineStr"/>
+      <c r="AW263" t="inlineStr"/>
+      <c r="AX263" t="inlineStr"/>
+      <c r="AY263" t="inlineStr"/>
+      <c r="AZ263" t="inlineStr"/>
+      <c r="BA263" t="inlineStr"/>
+      <c r="BB263" t="inlineStr"/>
+      <c r="BC263" t="inlineStr"/>
+      <c r="BD263" t="inlineStr"/>
+      <c r="BE263" t="inlineStr"/>
+      <c r="BF263" t="inlineStr"/>
+      <c r="BG263" t="inlineStr"/>
+      <c r="BH263" t="inlineStr"/>
+      <c r="BI263" t="inlineStr"/>
+      <c r="BJ263" t="inlineStr"/>
+      <c r="BK263" t="inlineStr"/>
+      <c r="BL263" t="inlineStr"/>
+      <c r="BM263" t="inlineStr"/>
+      <c r="BN263" t="inlineStr"/>
+      <c r="BO263" t="inlineStr"/>
+      <c r="BP263" t="inlineStr"/>
+      <c r="BQ263" t="inlineStr"/>
+      <c r="BR263" t="inlineStr"/>
+      <c r="BS263" t="inlineStr"/>
+      <c r="BT263" t="inlineStr"/>
+      <c r="BU263" t="inlineStr"/>
+      <c r="BV263" t="inlineStr"/>
+      <c r="BW263" t="inlineStr"/>
+      <c r="BX263" t="inlineStr"/>
+      <c r="BY263" t="inlineStr"/>
+      <c r="BZ263" t="inlineStr"/>
+      <c r="CA263" t="inlineStr"/>
+      <c r="CB263" t="inlineStr"/>
+      <c r="CC263" t="inlineStr"/>
+      <c r="CD263" t="inlineStr"/>
+      <c r="CE263" t="inlineStr"/>
+      <c r="CF263" t="inlineStr"/>
+      <c r="CG263" t="inlineStr"/>
+      <c r="CH263" t="inlineStr"/>
+      <c r="CI263" t="inlineStr"/>
+      <c r="CJ263" t="inlineStr"/>
+      <c r="CK263" t="inlineStr"/>
+      <c r="CL263" t="inlineStr"/>
+      <c r="CM263" t="inlineStr"/>
+      <c r="CN263" t="inlineStr"/>
+      <c r="CO263" t="inlineStr"/>
+      <c r="CP263" t="inlineStr"/>
+      <c r="CQ263" t="inlineStr"/>
+      <c r="CR263" t="inlineStr"/>
+      <c r="CS263" t="inlineStr"/>
+      <c r="CT263" t="inlineStr"/>
+      <c r="CU263" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU263"/>
+  <dimension ref="A1:CU264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32348,6 +32348,119 @@
       <c r="CT263" t="inlineStr"/>
       <c r="CU263" t="inlineStr"/>
     </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>cl:10198</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>maybe</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>cl:10192</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="inlineStr"/>
+      <c r="O264" t="inlineStr"/>
+      <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr"/>
+      <c r="R264" t="inlineStr"/>
+      <c r="S264" t="inlineStr"/>
+      <c r="T264" t="inlineStr"/>
+      <c r="U264" t="inlineStr"/>
+      <c r="V264" t="inlineStr"/>
+      <c r="W264" t="inlineStr"/>
+      <c r="X264" t="inlineStr"/>
+      <c r="Y264" t="inlineStr"/>
+      <c r="Z264" t="inlineStr"/>
+      <c r="AA264" t="inlineStr"/>
+      <c r="AB264" t="inlineStr"/>
+      <c r="AC264" t="inlineStr"/>
+      <c r="AD264" t="inlineStr"/>
+      <c r="AE264" t="inlineStr"/>
+      <c r="AF264" t="inlineStr"/>
+      <c r="AG264" t="inlineStr"/>
+      <c r="AH264" t="inlineStr"/>
+      <c r="AI264" t="inlineStr"/>
+      <c r="AJ264" t="inlineStr"/>
+      <c r="AK264" t="inlineStr"/>
+      <c r="AL264" t="inlineStr"/>
+      <c r="AM264" t="inlineStr"/>
+      <c r="AN264" t="inlineStr"/>
+      <c r="AO264" t="inlineStr"/>
+      <c r="AP264" t="inlineStr"/>
+      <c r="AQ264" t="inlineStr"/>
+      <c r="AR264" t="inlineStr"/>
+      <c r="AS264" t="inlineStr"/>
+      <c r="AT264" t="inlineStr"/>
+      <c r="AU264" t="inlineStr"/>
+      <c r="AV264" t="inlineStr"/>
+      <c r="AW264" t="inlineStr"/>
+      <c r="AX264" t="inlineStr"/>
+      <c r="AY264" t="inlineStr"/>
+      <c r="AZ264" t="inlineStr"/>
+      <c r="BA264" t="inlineStr"/>
+      <c r="BB264" t="inlineStr"/>
+      <c r="BC264" t="inlineStr"/>
+      <c r="BD264" t="inlineStr"/>
+      <c r="BE264" t="inlineStr"/>
+      <c r="BF264" t="inlineStr"/>
+      <c r="BG264" t="inlineStr"/>
+      <c r="BH264" t="inlineStr"/>
+      <c r="BI264" t="inlineStr"/>
+      <c r="BJ264" t="inlineStr"/>
+      <c r="BK264" t="inlineStr"/>
+      <c r="BL264" t="inlineStr"/>
+      <c r="BM264" t="inlineStr"/>
+      <c r="BN264" t="inlineStr"/>
+      <c r="BO264" t="inlineStr"/>
+      <c r="BP264" t="inlineStr"/>
+      <c r="BQ264" t="inlineStr"/>
+      <c r="BR264" t="inlineStr"/>
+      <c r="BS264" t="inlineStr"/>
+      <c r="BT264" t="inlineStr"/>
+      <c r="BU264" t="inlineStr"/>
+      <c r="BV264" t="inlineStr"/>
+      <c r="BW264" t="inlineStr"/>
+      <c r="BX264" t="inlineStr"/>
+      <c r="BY264" t="inlineStr"/>
+      <c r="BZ264" t="inlineStr"/>
+      <c r="CA264" t="inlineStr"/>
+      <c r="CB264" t="inlineStr"/>
+      <c r="CC264" t="inlineStr"/>
+      <c r="CD264" t="inlineStr"/>
+      <c r="CE264" t="inlineStr"/>
+      <c r="CF264" t="inlineStr"/>
+      <c r="CG264" t="inlineStr"/>
+      <c r="CH264" t="inlineStr"/>
+      <c r="CI264" t="inlineStr"/>
+      <c r="CJ264" t="inlineStr"/>
+      <c r="CK264" t="inlineStr"/>
+      <c r="CL264" t="inlineStr"/>
+      <c r="CM264" t="inlineStr"/>
+      <c r="CN264" t="inlineStr"/>
+      <c r="CO264" t="inlineStr"/>
+      <c r="CP264" t="inlineStr"/>
+      <c r="CQ264" t="inlineStr"/>
+      <c r="CR264" t="inlineStr"/>
+      <c r="CS264" t="inlineStr"/>
+      <c r="CT264" t="inlineStr"/>
+      <c r="CU264" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU264"/>
+  <dimension ref="A1:CU263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32348,119 +32348,6 @@
       <c r="CT263" t="inlineStr"/>
       <c r="CU263" t="inlineStr"/>
     </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>cl:10198</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>maybe</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr"/>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>cl:10192</t>
-        </is>
-      </c>
-      <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="inlineStr"/>
-      <c r="N264" t="inlineStr"/>
-      <c r="O264" t="inlineStr"/>
-      <c r="P264" t="inlineStr"/>
-      <c r="Q264" t="inlineStr"/>
-      <c r="R264" t="inlineStr"/>
-      <c r="S264" t="inlineStr"/>
-      <c r="T264" t="inlineStr"/>
-      <c r="U264" t="inlineStr"/>
-      <c r="V264" t="inlineStr"/>
-      <c r="W264" t="inlineStr"/>
-      <c r="X264" t="inlineStr"/>
-      <c r="Y264" t="inlineStr"/>
-      <c r="Z264" t="inlineStr"/>
-      <c r="AA264" t="inlineStr"/>
-      <c r="AB264" t="inlineStr"/>
-      <c r="AC264" t="inlineStr"/>
-      <c r="AD264" t="inlineStr"/>
-      <c r="AE264" t="inlineStr"/>
-      <c r="AF264" t="inlineStr"/>
-      <c r="AG264" t="inlineStr"/>
-      <c r="AH264" t="inlineStr"/>
-      <c r="AI264" t="inlineStr"/>
-      <c r="AJ264" t="inlineStr"/>
-      <c r="AK264" t="inlineStr"/>
-      <c r="AL264" t="inlineStr"/>
-      <c r="AM264" t="inlineStr"/>
-      <c r="AN264" t="inlineStr"/>
-      <c r="AO264" t="inlineStr"/>
-      <c r="AP264" t="inlineStr"/>
-      <c r="AQ264" t="inlineStr"/>
-      <c r="AR264" t="inlineStr"/>
-      <c r="AS264" t="inlineStr"/>
-      <c r="AT264" t="inlineStr"/>
-      <c r="AU264" t="inlineStr"/>
-      <c r="AV264" t="inlineStr"/>
-      <c r="AW264" t="inlineStr"/>
-      <c r="AX264" t="inlineStr"/>
-      <c r="AY264" t="inlineStr"/>
-      <c r="AZ264" t="inlineStr"/>
-      <c r="BA264" t="inlineStr"/>
-      <c r="BB264" t="inlineStr"/>
-      <c r="BC264" t="inlineStr"/>
-      <c r="BD264" t="inlineStr"/>
-      <c r="BE264" t="inlineStr"/>
-      <c r="BF264" t="inlineStr"/>
-      <c r="BG264" t="inlineStr"/>
-      <c r="BH264" t="inlineStr"/>
-      <c r="BI264" t="inlineStr"/>
-      <c r="BJ264" t="inlineStr"/>
-      <c r="BK264" t="inlineStr"/>
-      <c r="BL264" t="inlineStr"/>
-      <c r="BM264" t="inlineStr"/>
-      <c r="BN264" t="inlineStr"/>
-      <c r="BO264" t="inlineStr"/>
-      <c r="BP264" t="inlineStr"/>
-      <c r="BQ264" t="inlineStr"/>
-      <c r="BR264" t="inlineStr"/>
-      <c r="BS264" t="inlineStr"/>
-      <c r="BT264" t="inlineStr"/>
-      <c r="BU264" t="inlineStr"/>
-      <c r="BV264" t="inlineStr"/>
-      <c r="BW264" t="inlineStr"/>
-      <c r="BX264" t="inlineStr"/>
-      <c r="BY264" t="inlineStr"/>
-      <c r="BZ264" t="inlineStr"/>
-      <c r="CA264" t="inlineStr"/>
-      <c r="CB264" t="inlineStr"/>
-      <c r="CC264" t="inlineStr"/>
-      <c r="CD264" t="inlineStr"/>
-      <c r="CE264" t="inlineStr"/>
-      <c r="CF264" t="inlineStr"/>
-      <c r="CG264" t="inlineStr"/>
-      <c r="CH264" t="inlineStr"/>
-      <c r="CI264" t="inlineStr"/>
-      <c r="CJ264" t="inlineStr"/>
-      <c r="CK264" t="inlineStr"/>
-      <c r="CL264" t="inlineStr"/>
-      <c r="CM264" t="inlineStr"/>
-      <c r="CN264" t="inlineStr"/>
-      <c r="CO264" t="inlineStr"/>
-      <c r="CP264" t="inlineStr"/>
-      <c r="CQ264" t="inlineStr"/>
-      <c r="CR264" t="inlineStr"/>
-      <c r="CS264" t="inlineStr"/>
-      <c r="CT264" t="inlineStr"/>
-      <c r="CU264" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU430"/>
+  <dimension ref="A1:CU372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37516,24 +37516,16 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10301</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>device</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>machine</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>[NCIT]* An object contrived for a specific purpose.</t>
-        </is>
-      </c>
+          <t>energy provision</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="inlineStr"/>
@@ -37633,24 +37625,20 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>cl:10244</t>
+          <t>cl:10302</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>thermometer</t>
+          <t>central energy provision</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>[CHEAR]* A device that measures temperature</t>
-        </is>
-      </c>
+      <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10301</t>
         </is>
       </c>
       <c r="G310" t="inlineStr"/>
@@ -37750,24 +37738,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>cl:10245</t>
+          <t>cl:10303</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>thermocouple</t>
+          <t>distributed energy provision</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>[CHMO] A piece of apparatus that generates electrical current when it experiences a thermal gradient.</t>
-        </is>
-      </c>
+      <c r="D311" t="inlineStr"/>
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10301</t>
         </is>
       </c>
       <c r="G311" t="inlineStr"/>
@@ -37867,26 +37851,18 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>cl:10246</t>
+          <t>cl:10304</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>photometer</t>
+          <t>energy supply type</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>[ERO] An instrument for measuring light intensity or optical properties of solutions or surfaces. Photometers are used to measure iIlluminance, irradiance, light absorption, scattering of light, reflection of light, fluorescence, phosphorescence, and luminescence.</t>
-        </is>
-      </c>
+      <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr"/>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>cl:10243</t>
-        </is>
-      </c>
+      <c r="F312" t="inlineStr"/>
       <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
@@ -37984,24 +37960,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>cl:10247</t>
+          <t>cl:10305</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>dendrometer</t>
+          <t>fuel cell</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>[Henderson's] a. device for measuring small changes in the diameter of a tree trunk, such as the minute amounts of shrinkage and swelling that accompany the daily ﬂuctuations in transpiration.</t>
-        </is>
-      </c>
+      <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10304</t>
         </is>
       </c>
       <c r="G313" t="inlineStr"/>
@@ -38101,24 +38073,20 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>cl:10248</t>
+          <t>cl:10306</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>sensor network</t>
+          <t>backup power supply system</t>
         </is>
       </c>
       <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>[Himanshu Gupta] A sensor network is a multi-hop wireless network of sensor nodes cooperatively solving a sensing\r\n task. Each sensor node generates data items that are readings obtained from one or more sensors on\r\n the node. This makes a sensor network similar to a distributed database system. While this view is\r\n somewhat traditional, efficient execution of database (SQL) queries in sensor network remains a\r\n challenge, due to the unique characteristics of such networks such as limited memory and battery\r\n energy on individual nodes, multi-hop communication, unreliable infrastructure, and dynamic\r\n topology... , "[Hamed Chok] A sensor network is a valuable new form of collective computational instrumentation by virtue of its\r\n ability to sense physical quantities of interest and to transmit such readings via sub-networks of\r\n nodes/computers for processing... , "[Martin Drozda] A sensor network is a collection of wireless devices that are able to monitor physical or\r\n environmental conditions. These devices are expected to operate autonomously, be battery powered and\r\n have very limited computational capabilities. This makes the task of protecting a sensor network\r\n against misbehavior or possible malfunction a challenging problem... , "[Xiaoyun Wang] A sensor network is a collection of tiny sensor nodes, which consists of sensing, data processing\r\n and communicating components. Directed Diffusion is an important data-centric routing protocol of\r\n sensor networks... , "[Morten Tranberg Hansen] A sensor network is a network consisting of small, inexpensive, low-powered sensor nodes that\r\n communicate to complete a common task...</t>
-        </is>
-      </c>
+      <c r="D314" t="inlineStr"/>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10304</t>
         </is>
       </c>
       <c r="G314" t="inlineStr"/>
@@ -38218,24 +38186,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>cl:10249</t>
+          <t>cl:10307</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>passive remote sensing system</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>[NASA] A system sensing only radiation emitted by the object being viewed or reflected by the object from a source other than the system.</t>
-        </is>
-      </c>
+      <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10304</t>
         </is>
       </c>
       <c r="G315" t="inlineStr"/>
@@ -38335,24 +38299,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>cl:10250</t>
+          <t>cl:10308</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>cable</t>
         </is>
       </c>
       <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>[NASA] Pictorial representation of data acquired by satellite systems, such as direct readout images from environmental satellites. An image is not a photograph. An image is composed of two-dimensional grids of individual picture elements (pixels). Each pixel has a numeric value that corresponds to the radiance or temperature of the specific ground area it depicts.</t>
-        </is>
-      </c>
+      <c r="D316" t="inlineStr"/>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10304</t>
         </is>
       </c>
       <c r="G316" t="inlineStr"/>
@@ -38452,28 +38412,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>cl:10251</t>
+          <t>cl:10309</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>biological marker</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>biologic marker</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>[NCIT]* A characteristic that can be objectively measured and serves as an indicator for normal biologic processes, pathogenic processes, state of health or disease, the risk for disease development and/or prognosis, or responsiveness to a particular therapeutic intervention.</t>
-        </is>
-      </c>
+          <t>generator</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10304</t>
         </is>
       </c>
       <c r="G317" t="inlineStr"/>
@@ -38573,24 +38525,20 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>cl:10252</t>
+          <t>cl:10310</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>piezometer</t>
+          <t>other energy supply type</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>[SWEET] A devise used to measure groundwater pressure head at a point in the subsurface.</t>
-        </is>
-      </c>
+      <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10304</t>
         </is>
       </c>
       <c r="G318" t="inlineStr"/>
@@ -38690,26 +38638,18 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>cl:10253</t>
+          <t>cl:10311</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>analytical tool</t>
+          <t>permanent energy supply</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>a procedure, software or method used to analyse or take a closer look at something. It is commonly a way to review the effectiveness of something</t>
-        </is>
-      </c>
+      <c r="D319" t="inlineStr"/>
       <c r="E319" t="inlineStr"/>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>cl:10243</t>
-        </is>
-      </c>
+      <c r="F319" t="inlineStr"/>
       <c r="G319" t="inlineStr"/>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
@@ -38807,24 +38747,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>cl:10254</t>
+          <t>cl:10312</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>on-site sensor</t>
+          <t>medium permanent energy supply</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>An electrical, electronic, automatic device that automatically identifies and records or registers a stimulus, such as an environmental change in pressure or temperature or other environmental variable, an electrical signal, installed at a monitoring or research site</t>
-        </is>
-      </c>
+      <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10311</t>
         </is>
       </c>
       <c r="G320" t="inlineStr"/>
@@ -38924,24 +38860,20 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>cl:10255</t>
+          <t>cl:10313</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>mobile sensor</t>
+          <t>low permanent energy supply</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>An electrical, electronic, automatic device that automatically identifies and records or registers a stimulus, such as an environmental change in pressure or temperature or other environmental variable, an electrical signal, used in mobile mode (i.e. transported and then used to measure, installed on a mobile platform)</t>
-        </is>
-      </c>
+      <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10311</t>
         </is>
       </c>
       <c r="G321" t="inlineStr"/>
@@ -39041,24 +38973,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>cl:10256</t>
+          <t>cl:10314</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>lysimeter</t>
+          <t>large permanent energy supply</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>measuring device which can be used to measure the quantity and quality of soil solution, and indirectly the amount of actual evapotranspiration which is released by plants, usually crops or trees.</t>
-        </is>
-      </c>
+      <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10311</t>
         </is>
       </c>
       <c r="G322" t="inlineStr"/>
@@ -39158,26 +39086,18 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>cl:10257</t>
+          <t>cl:10315</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>river station</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>gauging station</t>
-        </is>
-      </c>
+          <t>maintenance infrastructure</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr"/>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>cl:10243</t>
-        </is>
-      </c>
+      <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
@@ -39275,12 +39195,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>cl:10258</t>
+          <t>cl:10316</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>satellite</t>
+          <t>snow clearing equipment</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -39288,7 +39208,7 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10315</t>
         </is>
       </c>
       <c r="G324" t="inlineStr"/>
@@ -39388,22 +39308,22 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>cl:10259</t>
+          <t>cl:10317</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>temperature controlled container</t>
+          <t>organisation design</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr"/>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Type of the site of platform according to their inner heterogeneity. Simple sites are classical LTER sites measuring ecosystem processes in one or a very limited number of habitats. Complex sites are classical LTSER sites investigating processes and fluxes on a landscape or regional level or form the bracket over a number of LTER or simple sites.</t>
+        </is>
+      </c>
       <c r="E325" t="inlineStr"/>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>cl:10243</t>
-        </is>
-      </c>
+      <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
@@ -39501,20 +39421,24 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>cl:10260</t>
+          <t>cl:10318</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>resistivity meter</t>
+          <t>platform</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
-      <c r="D326" t="inlineStr"/>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>a local or regional socio-ecological complex, containing – natural, man-controlled and man-created and dominated ecosystems –, provides not only a multi-site research platform where inter and trans-disciplinary knowledge are produced, a space where the operational infrastructure, policies and adaptive management plans for sustainability can be designed, developed and tested. , "[http://www.lter-europe.net/sites-platforms/categories] (Long-Term Socio-Ecological Research): Modular LTER-facility consisting of sites which are located in an area with defined boundaries. Besides this physical component, LTSER-Platforms provide multiple services like the networking of client groups (e.g. research, local stakeholders), data management, communication and representation (management component). The elements of LTSER Platforms represent the main habitats, land use forms and practices relevant for the broader region (up to 10000 km²) and cover all scales and levels relevant for LTSER (from local to landscape). LTSER-Platforms should represent economic and social units or coincide/overlap with such units where adequate information on land use history, economy and demography is available to allow for socio-ecological research.</t>
+        </is>
+      </c>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10317</t>
         </is>
       </c>
       <c r="G326" t="inlineStr"/>
@@ -39614,12 +39538,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>cl:10261</t>
+          <t>cl:10319</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>capacitance probe</t>
+          <t>plot</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -39627,7 +39551,7 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10317</t>
         </is>
       </c>
       <c r="G327" t="inlineStr"/>
@@ -39727,12 +39651,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>cl:10262</t>
+          <t>cl:10320</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>rain gauge</t>
+          <t>complex site</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -39740,7 +39664,7 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10317</t>
         </is>
       </c>
       <c r="G328" t="inlineStr"/>
@@ -39840,12 +39764,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>cl:10263</t>
+          <t>cl:10321</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>conductivity meter</t>
+          <t>sub site</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -39853,7 +39777,7 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10317</t>
         </is>
       </c>
       <c r="G329" t="inlineStr"/>
@@ -39953,12 +39877,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>cl:10264</t>
+          <t>cl:10322</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>measurement tower</t>
+          <t>simple site</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -39966,7 +39890,7 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10317</t>
         </is>
       </c>
       <c r="G330" t="inlineStr"/>
@@ -40066,12 +39990,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>cl:10265</t>
+          <t>cl:10323</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>experimental device</t>
+          <t>Sensor</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -40079,7 +40003,7 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10317</t>
         </is>
       </c>
       <c r="G331" t="inlineStr"/>
@@ -40179,12 +40103,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>cl:10266</t>
+          <t>cl:10324</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>sensor cluster</t>
+          <t>network</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -40192,7 +40116,7 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10317</t>
         </is>
       </c>
       <c r="G332" t="inlineStr"/>
@@ -40292,22 +40216,18 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>cl:10267</t>
+          <t>cl:10325</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>time domain reflectometer</t>
+          <t>lodging</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr"/>
       <c r="E333" t="inlineStr"/>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>cl:10243</t>
-        </is>
-      </c>
+      <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
@@ -40405,12 +40325,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>cl:10268</t>
+          <t>cl:10326</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>zero-tension lysimeter</t>
+          <t>no lodging</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -40418,7 +40338,7 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10325</t>
         </is>
       </c>
       <c r="G334" t="inlineStr"/>
@@ -40518,12 +40438,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>cl:10269</t>
+          <t>cl:10327</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>soil moisture probe</t>
+          <t>medium size lodging</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -40531,7 +40451,7 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10325</t>
         </is>
       </c>
       <c r="G335" t="inlineStr"/>
@@ -40631,12 +40551,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>cl:10270</t>
+          <t>cl:10328</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ship</t>
+          <t>unknown number of beds</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -40644,7 +40564,7 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10325</t>
         </is>
       </c>
       <c r="G336" t="inlineStr"/>
@@ -40744,12 +40664,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>cl:10271</t>
+          <t>cl:10329</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>marine platform</t>
+          <t>small size lodging</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -40757,7 +40677,7 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10325</t>
         </is>
       </c>
       <c r="G337" t="inlineStr"/>
@@ -40857,12 +40777,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>cl:10272</t>
+          <t>cl:10330</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>lysimeter station</t>
+          <t>large size lodging</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -40870,7 +40790,7 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10325</t>
         </is>
       </c>
       <c r="G338" t="inlineStr"/>
@@ -40970,22 +40890,22 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>cl:10273</t>
+          <t>cl:10331</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>tension lysimeter</t>
+          <t>staff room</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
-      <c r="D339" t="inlineStr"/>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>The data type 'Staff room and lodging' describes availability of a working space and lodging at the research site.</t>
+        </is>
+      </c>
       <c r="E339" t="inlineStr"/>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>cl:10243</t>
-        </is>
-      </c>
+      <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
@@ -41083,12 +41003,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>cl:10274</t>
+          <t>cl:10332</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>automatic soil chamber</t>
+          <t>small size staff room</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -41096,7 +41016,7 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10331</t>
         </is>
       </c>
       <c r="G340" t="inlineStr"/>
@@ -41196,12 +41116,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>cl:10275</t>
+          <t>cl:10333</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>chemical reactor</t>
+          <t>large size staff room</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -41209,7 +41129,7 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>cl:10243</t>
+          <t>cl:10331</t>
         </is>
       </c>
       <c r="G341" t="inlineStr"/>
@@ -41309,12 +41229,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>cl:10276</t>
+          <t>cl:10334</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>atmospheric measurement tower</t>
+          <t>no staff room</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -41322,7 +41242,7 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>cl:10264</t>
+          <t>cl:10331</t>
         </is>
       </c>
       <c r="G342" t="inlineStr"/>
@@ -41422,12 +41342,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>cl:10277</t>
+          <t>cl:10335</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>no measurement tower</t>
+          <t>unknown number of places</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
@@ -41435,7 +41355,7 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t>cl:10264</t>
+          <t>cl:10331</t>
         </is>
       </c>
       <c r="G343" t="inlineStr"/>
@@ -41535,12 +41455,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>cl:10278</t>
+          <t>cl:10336</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>measurement tower above canopy</t>
+          <t>medium size staff room</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -41548,7 +41468,7 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
-          <t>cl:10264</t>
+          <t>cl:10331</t>
         </is>
       </c>
       <c r="G344" t="inlineStr"/>
@@ -41648,23 +41568,23 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>cl:10279</t>
+          <t>cl:10337</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>measurement tower in canopy</t>
+          <t>transportation</t>
         </is>
       </c>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr"/>
       <c r="E345" t="inlineStr"/>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>cl:10264</t>
-        </is>
-      </c>
-      <c r="G345" t="inlineStr"/>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ENVO_02000125</t>
+        </is>
+      </c>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -41761,24 +41681,20 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>cl:10280</t>
+          <t>cl:10338</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>infrared camera</t>
+          <t>snow mobile</t>
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>A camera that takes images in the infrared portion of the radiation spectrum. It can be used to assess thermal condition of bodies</t>
-        </is>
-      </c>
+      <c r="D346" t="inlineStr"/>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>cl:10255</t>
+          <t>cl:10337</t>
         </is>
       </c>
       <c r="G346" t="inlineStr"/>
@@ -41878,24 +41794,20 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>cl:10281</t>
+          <t>cl:10339</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Hemispherical photography</t>
+          <t>vehicle 4WD</t>
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>A technique used to estimate leaf area index (i.e. the leaf area (m2) that is overlayed over soil (m2)) by elaborating photographs taken with a camera equipped with a fish-eye lens</t>
-        </is>
-      </c>
+      <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
-          <t>cl:10255</t>
+          <t>cl:10337</t>
         </is>
       </c>
       <c r="G347" t="inlineStr"/>
@@ -41995,29 +41907,25 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>cl:10282</t>
+          <t>cl:10340</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>tensiometer</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>An electrical, electronic, device that automatically identifies changes in soil water potential, a parameter that is related to soil water content</t>
-        </is>
-      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
-          <t>cl:10255</t>
+          <t>cl:10337</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>http://linkeddata.ge.imati.cnr.it:2020/resource/EARTh/146910</t>
+          <t>http://purl.obolibrary.org/obo/ENVO_01000608</t>
         </is>
       </c>
       <c r="H348" t="inlineStr"/>
@@ -42116,24 +42024,20 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>cl:10283</t>
+          <t>cl:10341</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>radiometer</t>
+          <t>helicopter</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>An electrical, electronic, device that automatically identifies changes in solar radiation (see also photodiode sensor)</t>
-        </is>
-      </c>
+      <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
-          <t>cl:10255</t>
+          <t>cl:10337</t>
         </is>
       </c>
       <c r="G349" t="inlineStr"/>
@@ -42233,24 +42137,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>cl:10284</t>
+          <t>cl:10342</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>LAI meter</t>
+          <t>vehicle 2WD</t>
         </is>
       </c>
       <c r="C350" t="inlineStr"/>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>An instrument that can measure Leaf Area Index (LAI) of vegetation. Generally uses optical methods</t>
-        </is>
-      </c>
+      <c r="D350" t="inlineStr"/>
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
-          <t>cl:10255</t>
+          <t>cl:10337</t>
         </is>
       </c>
       <c r="G350" t="inlineStr"/>
@@ -42350,27 +42250,27 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>cl:10285</t>
+          <t>cl:10343</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>porometer</t>
+          <t>workplace</t>
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr">
         <is>
-          <t>An instrument that can measure the stomatal conductance of plants. Stomatal conductance gives an indication of transpiration of water from foliage, the higher the conudctance the easier the flow of water out of the foliage. Similar for the exchange of CO2</t>
+          <t>working environment for researcher</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>cl:10255</t>
-        </is>
-      </c>
-      <c r="G351" t="inlineStr"/>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>http://www.eionet.europa.eu/gemet/concept/9375</t>
+        </is>
+      </c>
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -42467,12 +42367,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>cl:10286</t>
+          <t>cl:10344</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Laser-Doppler</t>
+          <t>laboratory</t>
         </is>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -42480,7 +42380,7 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr">
         <is>
-          <t>cl:10255</t>
+          <t>cl:10343</t>
         </is>
       </c>
       <c r="G352" t="inlineStr"/>
@@ -42580,12 +42480,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>cl:10287</t>
+          <t>cl:10345</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Layer photographs</t>
+          <t>field laboratory</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -42593,7 +42493,7 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>cl:10255</t>
+          <t>cl:10343</t>
         </is>
       </c>
       <c r="G353" t="inlineStr"/>
@@ -42693,23 +42593,27 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>cl:10288</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>manual meter reading</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
-      <c r="D354" t="inlineStr"/>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>This concept addresses spatial (e.g. plot, landscape scale) and temporal (e.g. day, year) scales of research projects.</t>
+        </is>
+      </c>
       <c r="E354" t="inlineStr"/>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>cl:10255</t>
-        </is>
-      </c>
-      <c r="G354" t="inlineStr"/>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>http://mimi.case.edu/ontologies/2009/1/UnitsOntology#scale</t>
+        </is>
+      </c>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -42806,24 +42710,24 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>cl:10289</t>
+          <t>cl:10347</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>tipping-bucket gauge</t>
+          <t>scaling up</t>
         </is>
       </c>
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
-          <t>An authomatic-electrical device to measure rainfall or other process which involve dripping water. A giving amount of water makes tipping a bucket, each bucket movement record a signal that can be measured by an automatic data logger or, in old models, recorded on paper</t>
+          <t>[Robert J. Beichner] SCALE-UP is an extension of the highly successful IMPEC project (Integrated Math, Physics, Engineering, and Chemistry), one of NC State's curricular reform efforts undertaken as part of the SUCCEED coalition...</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t>cl:10254</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G355" t="inlineStr"/>
@@ -42923,28 +42827,24 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>cl:10290</t>
+          <t>cl:10348</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>present weather sensor</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>Present weather sensors</t>
-        </is>
-      </c>
+          <t>spatial scale</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr"/>
       <c r="D356" t="inlineStr">
         <is>
-          <t>An electrical, electronic, automatic device that automatically identifies and records or registers changes in weather parameters such as temperature, air humidity, pressure, radiation, precipitation</t>
+          <t>[Siquan Tian] Spatial scale is an important factor that needs to be considered in data collection and analysis in ecological studies. Studies focusing on the quantitative evaluation of impacts of spatial scales are, however, limited in fisheries...</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
-          <t>cl:10254</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G356" t="inlineStr"/>
@@ -43044,24 +42944,24 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>cl:10291</t>
+          <t>cl:10349</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>phododiode sensor</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr"/>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>An electrical, electronic, device that automatically identifies changes in solar radiation</t>
-        </is>
-      </c>
+          <t>temporal scale</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>temporal scales</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t>cl:10254</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G357" t="inlineStr"/>
@@ -43161,24 +43061,20 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>cl:10292</t>
+          <t>cl:10350</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>moisture sensor</t>
+          <t>scale dependence</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>An electrical, electronic, or automatic device that automatically identifies changes in air humidity</t>
-        </is>
-      </c>
+      <c r="D358" t="inlineStr"/>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>cl:10254</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G358" t="inlineStr"/>
@@ -43278,24 +43174,20 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>cl:10293</t>
+          <t>cl:10351</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>pH-meter</t>
+          <t>ecosystem approach</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>An electrical, electronic, or automatic device that automatically identifies changes in pH of a solution</t>
-        </is>
-      </c>
+      <c r="D359" t="inlineStr"/>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>cl:10254</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G359" t="inlineStr"/>
@@ -43395,24 +43287,20 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>cl:10294</t>
+          <t>cl:10352</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>snow height sensor</t>
+          <t>local scale</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>An electrical, electronic, or automatic device that automatically identifies changes in snow height</t>
-        </is>
-      </c>
+      <c r="D360" t="inlineStr"/>
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
-          <t>cl:10254</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G360" t="inlineStr"/>
@@ -43512,24 +43400,20 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>cl:10295</t>
+          <t>cl:10353</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>soil moisture sensor</t>
+          <t>global scale</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>An electrical, electronic, or automatic device that automatically identifies changes in soil moisture</t>
-        </is>
-      </c>
+      <c r="D361" t="inlineStr"/>
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr">
         <is>
-          <t>cl:10254</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G361" t="inlineStr"/>
@@ -43629,24 +43513,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>cl:10296</t>
+          <t>cl:10354</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>soil temperature sensor</t>
+          <t>regional scale</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>An electrical, electronic, or automatic device that automatically identifies changes in soil temperature</t>
-        </is>
-      </c>
+      <c r="D362" t="inlineStr"/>
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
-          <t>cl:10254</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G362" t="inlineStr"/>
@@ -43746,24 +43626,20 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>cl:10297</t>
+          <t>cl:10355</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>temperature sensor</t>
+          <t>national scale</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>An electrical, electronic, or automatic device that automatically identifies changes in temperature</t>
-        </is>
-      </c>
+      <c r="D363" t="inlineStr"/>
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t>cl:10254</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G363" t="inlineStr"/>
@@ -43863,24 +43739,20 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>cl:10298</t>
+          <t>cl:10356</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>non-contact T sensor</t>
+          <t>field scale</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>An electrical, electronic, or automatic device that automatically identifies changes in temperature of a body without contact with it, usually with infrared technology</t>
-        </is>
-      </c>
+      <c r="D364" t="inlineStr"/>
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr">
         <is>
-          <t>cl:10254</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G364" t="inlineStr"/>
@@ -43980,12 +43852,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>cl:10299</t>
+          <t>cl:10357</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>weather station</t>
+          <t>subcatchment scale</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -43993,7 +43865,7 @@
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="inlineStr">
         <is>
-          <t>cl:10254</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G365" t="inlineStr"/>
@@ -44093,12 +43965,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>cl:10300</t>
+          <t>cl:10358</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>PAR sensor</t>
+          <t>continental scale</t>
         </is>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -44106,7 +43978,7 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr">
         <is>
-          <t>cl:10254</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G366" t="inlineStr"/>
@@ -44206,18 +44078,22 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>cl:10301</t>
+          <t>cl:10359</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>energy provision</t>
+          <t>catchment scale</t>
         </is>
       </c>
       <c r="C367" t="inlineStr"/>
       <c r="D367" t="inlineStr"/>
       <c r="E367" t="inlineStr"/>
-      <c r="F367" t="inlineStr"/>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>cl:10346</t>
+        </is>
+      </c>
       <c r="G367" t="inlineStr"/>
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr"/>
@@ -44315,12 +44191,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>cl:10302</t>
+          <t>cl:10360</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>central energy provision</t>
+          <t>plot scale</t>
         </is>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -44328,7 +44204,7 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr">
         <is>
-          <t>cl:10301</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G368" t="inlineStr"/>
@@ -44428,12 +44304,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>cl:10303</t>
+          <t>cl:10361</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>distributed energy provision</t>
+          <t>ecotron scale</t>
         </is>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -44441,7 +44317,7 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr">
         <is>
-          <t>cl:10301</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G369" t="inlineStr"/>
@@ -44541,18 +44417,22 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>cl:10304</t>
+          <t>cl:10362</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>energy supply type</t>
+          <t>beyond catchment scale</t>
         </is>
       </c>
       <c r="C370" t="inlineStr"/>
       <c r="D370" t="inlineStr"/>
       <c r="E370" t="inlineStr"/>
-      <c r="F370" t="inlineStr"/>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>cl:10346</t>
+        </is>
+      </c>
       <c r="G370" t="inlineStr"/>
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr"/>
@@ -44650,12 +44530,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>cl:10305</t>
+          <t>cl:10363</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>fuel cell</t>
+          <t>micro site scale</t>
         </is>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -44663,7 +44543,7 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr">
         <is>
-          <t>cl:10304</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G371" t="inlineStr"/>
@@ -44763,12 +44643,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>cl:10306</t>
+          <t>cl:10364</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>backup power supply system</t>
+          <t>landscape scale</t>
         </is>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -44776,7 +44656,7 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr">
         <is>
-          <t>cl:10304</t>
+          <t>cl:10346</t>
         </is>
       </c>
       <c r="G372" t="inlineStr"/>
@@ -44873,6576 +44753,6 @@
       <c r="CT372" t="inlineStr"/>
       <c r="CU372" t="inlineStr"/>
     </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>cl:10307</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>battery</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr"/>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>cl:10304</t>
-        </is>
-      </c>
-      <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr"/>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
-      <c r="M373" t="inlineStr"/>
-      <c r="N373" t="inlineStr"/>
-      <c r="O373" t="inlineStr"/>
-      <c r="P373" t="inlineStr"/>
-      <c r="Q373" t="inlineStr"/>
-      <c r="R373" t="inlineStr"/>
-      <c r="S373" t="inlineStr"/>
-      <c r="T373" t="inlineStr"/>
-      <c r="U373" t="inlineStr"/>
-      <c r="V373" t="inlineStr"/>
-      <c r="W373" t="inlineStr"/>
-      <c r="X373" t="inlineStr"/>
-      <c r="Y373" t="inlineStr"/>
-      <c r="Z373" t="inlineStr"/>
-      <c r="AA373" t="inlineStr"/>
-      <c r="AB373" t="inlineStr"/>
-      <c r="AC373" t="inlineStr"/>
-      <c r="AD373" t="inlineStr"/>
-      <c r="AE373" t="inlineStr"/>
-      <c r="AF373" t="inlineStr"/>
-      <c r="AG373" t="inlineStr"/>
-      <c r="AH373" t="inlineStr"/>
-      <c r="AI373" t="inlineStr"/>
-      <c r="AJ373" t="inlineStr"/>
-      <c r="AK373" t="inlineStr"/>
-      <c r="AL373" t="inlineStr"/>
-      <c r="AM373" t="inlineStr"/>
-      <c r="AN373" t="inlineStr"/>
-      <c r="AO373" t="inlineStr"/>
-      <c r="AP373" t="inlineStr"/>
-      <c r="AQ373" t="inlineStr"/>
-      <c r="AR373" t="inlineStr"/>
-      <c r="AS373" t="inlineStr"/>
-      <c r="AT373" t="inlineStr"/>
-      <c r="AU373" t="inlineStr"/>
-      <c r="AV373" t="inlineStr"/>
-      <c r="AW373" t="inlineStr"/>
-      <c r="AX373" t="inlineStr"/>
-      <c r="AY373" t="inlineStr"/>
-      <c r="AZ373" t="inlineStr"/>
-      <c r="BA373" t="inlineStr"/>
-      <c r="BB373" t="inlineStr"/>
-      <c r="BC373" t="inlineStr"/>
-      <c r="BD373" t="inlineStr"/>
-      <c r="BE373" t="inlineStr"/>
-      <c r="BF373" t="inlineStr"/>
-      <c r="BG373" t="inlineStr"/>
-      <c r="BH373" t="inlineStr"/>
-      <c r="BI373" t="inlineStr"/>
-      <c r="BJ373" t="inlineStr"/>
-      <c r="BK373" t="inlineStr"/>
-      <c r="BL373" t="inlineStr"/>
-      <c r="BM373" t="inlineStr"/>
-      <c r="BN373" t="inlineStr"/>
-      <c r="BO373" t="inlineStr"/>
-      <c r="BP373" t="inlineStr"/>
-      <c r="BQ373" t="inlineStr"/>
-      <c r="BR373" t="inlineStr"/>
-      <c r="BS373" t="inlineStr"/>
-      <c r="BT373" t="inlineStr"/>
-      <c r="BU373" t="inlineStr"/>
-      <c r="BV373" t="inlineStr"/>
-      <c r="BW373" t="inlineStr"/>
-      <c r="BX373" t="inlineStr"/>
-      <c r="BY373" t="inlineStr"/>
-      <c r="BZ373" t="inlineStr"/>
-      <c r="CA373" t="inlineStr"/>
-      <c r="CB373" t="inlineStr"/>
-      <c r="CC373" t="inlineStr"/>
-      <c r="CD373" t="inlineStr"/>
-      <c r="CE373" t="inlineStr"/>
-      <c r="CF373" t="inlineStr"/>
-      <c r="CG373" t="inlineStr"/>
-      <c r="CH373" t="inlineStr"/>
-      <c r="CI373" t="inlineStr"/>
-      <c r="CJ373" t="inlineStr"/>
-      <c r="CK373" t="inlineStr"/>
-      <c r="CL373" t="inlineStr"/>
-      <c r="CM373" t="inlineStr"/>
-      <c r="CN373" t="inlineStr"/>
-      <c r="CO373" t="inlineStr"/>
-      <c r="CP373" t="inlineStr"/>
-      <c r="CQ373" t="inlineStr"/>
-      <c r="CR373" t="inlineStr"/>
-      <c r="CS373" t="inlineStr"/>
-      <c r="CT373" t="inlineStr"/>
-      <c r="CU373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>cl:10308</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>cable</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr"/>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t>cl:10304</t>
-        </is>
-      </c>
-      <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr"/>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
-      <c r="M374" t="inlineStr"/>
-      <c r="N374" t="inlineStr"/>
-      <c r="O374" t="inlineStr"/>
-      <c r="P374" t="inlineStr"/>
-      <c r="Q374" t="inlineStr"/>
-      <c r="R374" t="inlineStr"/>
-      <c r="S374" t="inlineStr"/>
-      <c r="T374" t="inlineStr"/>
-      <c r="U374" t="inlineStr"/>
-      <c r="V374" t="inlineStr"/>
-      <c r="W374" t="inlineStr"/>
-      <c r="X374" t="inlineStr"/>
-      <c r="Y374" t="inlineStr"/>
-      <c r="Z374" t="inlineStr"/>
-      <c r="AA374" t="inlineStr"/>
-      <c r="AB374" t="inlineStr"/>
-      <c r="AC374" t="inlineStr"/>
-      <c r="AD374" t="inlineStr"/>
-      <c r="AE374" t="inlineStr"/>
-      <c r="AF374" t="inlineStr"/>
-      <c r="AG374" t="inlineStr"/>
-      <c r="AH374" t="inlineStr"/>
-      <c r="AI374" t="inlineStr"/>
-      <c r="AJ374" t="inlineStr"/>
-      <c r="AK374" t="inlineStr"/>
-      <c r="AL374" t="inlineStr"/>
-      <c r="AM374" t="inlineStr"/>
-      <c r="AN374" t="inlineStr"/>
-      <c r="AO374" t="inlineStr"/>
-      <c r="AP374" t="inlineStr"/>
-      <c r="AQ374" t="inlineStr"/>
-      <c r="AR374" t="inlineStr"/>
-      <c r="AS374" t="inlineStr"/>
-      <c r="AT374" t="inlineStr"/>
-      <c r="AU374" t="inlineStr"/>
-      <c r="AV374" t="inlineStr"/>
-      <c r="AW374" t="inlineStr"/>
-      <c r="AX374" t="inlineStr"/>
-      <c r="AY374" t="inlineStr"/>
-      <c r="AZ374" t="inlineStr"/>
-      <c r="BA374" t="inlineStr"/>
-      <c r="BB374" t="inlineStr"/>
-      <c r="BC374" t="inlineStr"/>
-      <c r="BD374" t="inlineStr"/>
-      <c r="BE374" t="inlineStr"/>
-      <c r="BF374" t="inlineStr"/>
-      <c r="BG374" t="inlineStr"/>
-      <c r="BH374" t="inlineStr"/>
-      <c r="BI374" t="inlineStr"/>
-      <c r="BJ374" t="inlineStr"/>
-      <c r="BK374" t="inlineStr"/>
-      <c r="BL374" t="inlineStr"/>
-      <c r="BM374" t="inlineStr"/>
-      <c r="BN374" t="inlineStr"/>
-      <c r="BO374" t="inlineStr"/>
-      <c r="BP374" t="inlineStr"/>
-      <c r="BQ374" t="inlineStr"/>
-      <c r="BR374" t="inlineStr"/>
-      <c r="BS374" t="inlineStr"/>
-      <c r="BT374" t="inlineStr"/>
-      <c r="BU374" t="inlineStr"/>
-      <c r="BV374" t="inlineStr"/>
-      <c r="BW374" t="inlineStr"/>
-      <c r="BX374" t="inlineStr"/>
-      <c r="BY374" t="inlineStr"/>
-      <c r="BZ374" t="inlineStr"/>
-      <c r="CA374" t="inlineStr"/>
-      <c r="CB374" t="inlineStr"/>
-      <c r="CC374" t="inlineStr"/>
-      <c r="CD374" t="inlineStr"/>
-      <c r="CE374" t="inlineStr"/>
-      <c r="CF374" t="inlineStr"/>
-      <c r="CG374" t="inlineStr"/>
-      <c r="CH374" t="inlineStr"/>
-      <c r="CI374" t="inlineStr"/>
-      <c r="CJ374" t="inlineStr"/>
-      <c r="CK374" t="inlineStr"/>
-      <c r="CL374" t="inlineStr"/>
-      <c r="CM374" t="inlineStr"/>
-      <c r="CN374" t="inlineStr"/>
-      <c r="CO374" t="inlineStr"/>
-      <c r="CP374" t="inlineStr"/>
-      <c r="CQ374" t="inlineStr"/>
-      <c r="CR374" t="inlineStr"/>
-      <c r="CS374" t="inlineStr"/>
-      <c r="CT374" t="inlineStr"/>
-      <c r="CU374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>cl:10309</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>generator</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr"/>
-      <c r="E375" t="inlineStr"/>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t>cl:10304</t>
-        </is>
-      </c>
-      <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr"/>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
-      <c r="M375" t="inlineStr"/>
-      <c r="N375" t="inlineStr"/>
-      <c r="O375" t="inlineStr"/>
-      <c r="P375" t="inlineStr"/>
-      <c r="Q375" t="inlineStr"/>
-      <c r="R375" t="inlineStr"/>
-      <c r="S375" t="inlineStr"/>
-      <c r="T375" t="inlineStr"/>
-      <c r="U375" t="inlineStr"/>
-      <c r="V375" t="inlineStr"/>
-      <c r="W375" t="inlineStr"/>
-      <c r="X375" t="inlineStr"/>
-      <c r="Y375" t="inlineStr"/>
-      <c r="Z375" t="inlineStr"/>
-      <c r="AA375" t="inlineStr"/>
-      <c r="AB375" t="inlineStr"/>
-      <c r="AC375" t="inlineStr"/>
-      <c r="AD375" t="inlineStr"/>
-      <c r="AE375" t="inlineStr"/>
-      <c r="AF375" t="inlineStr"/>
-      <c r="AG375" t="inlineStr"/>
-      <c r="AH375" t="inlineStr"/>
-      <c r="AI375" t="inlineStr"/>
-      <c r="AJ375" t="inlineStr"/>
-      <c r="AK375" t="inlineStr"/>
-      <c r="AL375" t="inlineStr"/>
-      <c r="AM375" t="inlineStr"/>
-      <c r="AN375" t="inlineStr"/>
-      <c r="AO375" t="inlineStr"/>
-      <c r="AP375" t="inlineStr"/>
-      <c r="AQ375" t="inlineStr"/>
-      <c r="AR375" t="inlineStr"/>
-      <c r="AS375" t="inlineStr"/>
-      <c r="AT375" t="inlineStr"/>
-      <c r="AU375" t="inlineStr"/>
-      <c r="AV375" t="inlineStr"/>
-      <c r="AW375" t="inlineStr"/>
-      <c r="AX375" t="inlineStr"/>
-      <c r="AY375" t="inlineStr"/>
-      <c r="AZ375" t="inlineStr"/>
-      <c r="BA375" t="inlineStr"/>
-      <c r="BB375" t="inlineStr"/>
-      <c r="BC375" t="inlineStr"/>
-      <c r="BD375" t="inlineStr"/>
-      <c r="BE375" t="inlineStr"/>
-      <c r="BF375" t="inlineStr"/>
-      <c r="BG375" t="inlineStr"/>
-      <c r="BH375" t="inlineStr"/>
-      <c r="BI375" t="inlineStr"/>
-      <c r="BJ375" t="inlineStr"/>
-      <c r="BK375" t="inlineStr"/>
-      <c r="BL375" t="inlineStr"/>
-      <c r="BM375" t="inlineStr"/>
-      <c r="BN375" t="inlineStr"/>
-      <c r="BO375" t="inlineStr"/>
-      <c r="BP375" t="inlineStr"/>
-      <c r="BQ375" t="inlineStr"/>
-      <c r="BR375" t="inlineStr"/>
-      <c r="BS375" t="inlineStr"/>
-      <c r="BT375" t="inlineStr"/>
-      <c r="BU375" t="inlineStr"/>
-      <c r="BV375" t="inlineStr"/>
-      <c r="BW375" t="inlineStr"/>
-      <c r="BX375" t="inlineStr"/>
-      <c r="BY375" t="inlineStr"/>
-      <c r="BZ375" t="inlineStr"/>
-      <c r="CA375" t="inlineStr"/>
-      <c r="CB375" t="inlineStr"/>
-      <c r="CC375" t="inlineStr"/>
-      <c r="CD375" t="inlineStr"/>
-      <c r="CE375" t="inlineStr"/>
-      <c r="CF375" t="inlineStr"/>
-      <c r="CG375" t="inlineStr"/>
-      <c r="CH375" t="inlineStr"/>
-      <c r="CI375" t="inlineStr"/>
-      <c r="CJ375" t="inlineStr"/>
-      <c r="CK375" t="inlineStr"/>
-      <c r="CL375" t="inlineStr"/>
-      <c r="CM375" t="inlineStr"/>
-      <c r="CN375" t="inlineStr"/>
-      <c r="CO375" t="inlineStr"/>
-      <c r="CP375" t="inlineStr"/>
-      <c r="CQ375" t="inlineStr"/>
-      <c r="CR375" t="inlineStr"/>
-      <c r="CS375" t="inlineStr"/>
-      <c r="CT375" t="inlineStr"/>
-      <c r="CU375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>cl:10310</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>other energy supply type</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr"/>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr">
-        <is>
-          <t>cl:10304</t>
-        </is>
-      </c>
-      <c r="G376" t="inlineStr"/>
-      <c r="H376" t="inlineStr"/>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
-      <c r="M376" t="inlineStr"/>
-      <c r="N376" t="inlineStr"/>
-      <c r="O376" t="inlineStr"/>
-      <c r="P376" t="inlineStr"/>
-      <c r="Q376" t="inlineStr"/>
-      <c r="R376" t="inlineStr"/>
-      <c r="S376" t="inlineStr"/>
-      <c r="T376" t="inlineStr"/>
-      <c r="U376" t="inlineStr"/>
-      <c r="V376" t="inlineStr"/>
-      <c r="W376" t="inlineStr"/>
-      <c r="X376" t="inlineStr"/>
-      <c r="Y376" t="inlineStr"/>
-      <c r="Z376" t="inlineStr"/>
-      <c r="AA376" t="inlineStr"/>
-      <c r="AB376" t="inlineStr"/>
-      <c r="AC376" t="inlineStr"/>
-      <c r="AD376" t="inlineStr"/>
-      <c r="AE376" t="inlineStr"/>
-      <c r="AF376" t="inlineStr"/>
-      <c r="AG376" t="inlineStr"/>
-      <c r="AH376" t="inlineStr"/>
-      <c r="AI376" t="inlineStr"/>
-      <c r="AJ376" t="inlineStr"/>
-      <c r="AK376" t="inlineStr"/>
-      <c r="AL376" t="inlineStr"/>
-      <c r="AM376" t="inlineStr"/>
-      <c r="AN376" t="inlineStr"/>
-      <c r="AO376" t="inlineStr"/>
-      <c r="AP376" t="inlineStr"/>
-      <c r="AQ376" t="inlineStr"/>
-      <c r="AR376" t="inlineStr"/>
-      <c r="AS376" t="inlineStr"/>
-      <c r="AT376" t="inlineStr"/>
-      <c r="AU376" t="inlineStr"/>
-      <c r="AV376" t="inlineStr"/>
-      <c r="AW376" t="inlineStr"/>
-      <c r="AX376" t="inlineStr"/>
-      <c r="AY376" t="inlineStr"/>
-      <c r="AZ376" t="inlineStr"/>
-      <c r="BA376" t="inlineStr"/>
-      <c r="BB376" t="inlineStr"/>
-      <c r="BC376" t="inlineStr"/>
-      <c r="BD376" t="inlineStr"/>
-      <c r="BE376" t="inlineStr"/>
-      <c r="BF376" t="inlineStr"/>
-      <c r="BG376" t="inlineStr"/>
-      <c r="BH376" t="inlineStr"/>
-      <c r="BI376" t="inlineStr"/>
-      <c r="BJ376" t="inlineStr"/>
-      <c r="BK376" t="inlineStr"/>
-      <c r="BL376" t="inlineStr"/>
-      <c r="BM376" t="inlineStr"/>
-      <c r="BN376" t="inlineStr"/>
-      <c r="BO376" t="inlineStr"/>
-      <c r="BP376" t="inlineStr"/>
-      <c r="BQ376" t="inlineStr"/>
-      <c r="BR376" t="inlineStr"/>
-      <c r="BS376" t="inlineStr"/>
-      <c r="BT376" t="inlineStr"/>
-      <c r="BU376" t="inlineStr"/>
-      <c r="BV376" t="inlineStr"/>
-      <c r="BW376" t="inlineStr"/>
-      <c r="BX376" t="inlineStr"/>
-      <c r="BY376" t="inlineStr"/>
-      <c r="BZ376" t="inlineStr"/>
-      <c r="CA376" t="inlineStr"/>
-      <c r="CB376" t="inlineStr"/>
-      <c r="CC376" t="inlineStr"/>
-      <c r="CD376" t="inlineStr"/>
-      <c r="CE376" t="inlineStr"/>
-      <c r="CF376" t="inlineStr"/>
-      <c r="CG376" t="inlineStr"/>
-      <c r="CH376" t="inlineStr"/>
-      <c r="CI376" t="inlineStr"/>
-      <c r="CJ376" t="inlineStr"/>
-      <c r="CK376" t="inlineStr"/>
-      <c r="CL376" t="inlineStr"/>
-      <c r="CM376" t="inlineStr"/>
-      <c r="CN376" t="inlineStr"/>
-      <c r="CO376" t="inlineStr"/>
-      <c r="CP376" t="inlineStr"/>
-      <c r="CQ376" t="inlineStr"/>
-      <c r="CR376" t="inlineStr"/>
-      <c r="CS376" t="inlineStr"/>
-      <c r="CT376" t="inlineStr"/>
-      <c r="CU376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>cl:10311</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>permanent energy supply</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr"/>
-      <c r="E377" t="inlineStr"/>
-      <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr"/>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
-      <c r="M377" t="inlineStr"/>
-      <c r="N377" t="inlineStr"/>
-      <c r="O377" t="inlineStr"/>
-      <c r="P377" t="inlineStr"/>
-      <c r="Q377" t="inlineStr"/>
-      <c r="R377" t="inlineStr"/>
-      <c r="S377" t="inlineStr"/>
-      <c r="T377" t="inlineStr"/>
-      <c r="U377" t="inlineStr"/>
-      <c r="V377" t="inlineStr"/>
-      <c r="W377" t="inlineStr"/>
-      <c r="X377" t="inlineStr"/>
-      <c r="Y377" t="inlineStr"/>
-      <c r="Z377" t="inlineStr"/>
-      <c r="AA377" t="inlineStr"/>
-      <c r="AB377" t="inlineStr"/>
-      <c r="AC377" t="inlineStr"/>
-      <c r="AD377" t="inlineStr"/>
-      <c r="AE377" t="inlineStr"/>
-      <c r="AF377" t="inlineStr"/>
-      <c r="AG377" t="inlineStr"/>
-      <c r="AH377" t="inlineStr"/>
-      <c r="AI377" t="inlineStr"/>
-      <c r="AJ377" t="inlineStr"/>
-      <c r="AK377" t="inlineStr"/>
-      <c r="AL377" t="inlineStr"/>
-      <c r="AM377" t="inlineStr"/>
-      <c r="AN377" t="inlineStr"/>
-      <c r="AO377" t="inlineStr"/>
-      <c r="AP377" t="inlineStr"/>
-      <c r="AQ377" t="inlineStr"/>
-      <c r="AR377" t="inlineStr"/>
-      <c r="AS377" t="inlineStr"/>
-      <c r="AT377" t="inlineStr"/>
-      <c r="AU377" t="inlineStr"/>
-      <c r="AV377" t="inlineStr"/>
-      <c r="AW377" t="inlineStr"/>
-      <c r="AX377" t="inlineStr"/>
-      <c r="AY377" t="inlineStr"/>
-      <c r="AZ377" t="inlineStr"/>
-      <c r="BA377" t="inlineStr"/>
-      <c r="BB377" t="inlineStr"/>
-      <c r="BC377" t="inlineStr"/>
-      <c r="BD377" t="inlineStr"/>
-      <c r="BE377" t="inlineStr"/>
-      <c r="BF377" t="inlineStr"/>
-      <c r="BG377" t="inlineStr"/>
-      <c r="BH377" t="inlineStr"/>
-      <c r="BI377" t="inlineStr"/>
-      <c r="BJ377" t="inlineStr"/>
-      <c r="BK377" t="inlineStr"/>
-      <c r="BL377" t="inlineStr"/>
-      <c r="BM377" t="inlineStr"/>
-      <c r="BN377" t="inlineStr"/>
-      <c r="BO377" t="inlineStr"/>
-      <c r="BP377" t="inlineStr"/>
-      <c r="BQ377" t="inlineStr"/>
-      <c r="BR377" t="inlineStr"/>
-      <c r="BS377" t="inlineStr"/>
-      <c r="BT377" t="inlineStr"/>
-      <c r="BU377" t="inlineStr"/>
-      <c r="BV377" t="inlineStr"/>
-      <c r="BW377" t="inlineStr"/>
-      <c r="BX377" t="inlineStr"/>
-      <c r="BY377" t="inlineStr"/>
-      <c r="BZ377" t="inlineStr"/>
-      <c r="CA377" t="inlineStr"/>
-      <c r="CB377" t="inlineStr"/>
-      <c r="CC377" t="inlineStr"/>
-      <c r="CD377" t="inlineStr"/>
-      <c r="CE377" t="inlineStr"/>
-      <c r="CF377" t="inlineStr"/>
-      <c r="CG377" t="inlineStr"/>
-      <c r="CH377" t="inlineStr"/>
-      <c r="CI377" t="inlineStr"/>
-      <c r="CJ377" t="inlineStr"/>
-      <c r="CK377" t="inlineStr"/>
-      <c r="CL377" t="inlineStr"/>
-      <c r="CM377" t="inlineStr"/>
-      <c r="CN377" t="inlineStr"/>
-      <c r="CO377" t="inlineStr"/>
-      <c r="CP377" t="inlineStr"/>
-      <c r="CQ377" t="inlineStr"/>
-      <c r="CR377" t="inlineStr"/>
-      <c r="CS377" t="inlineStr"/>
-      <c r="CT377" t="inlineStr"/>
-      <c r="CU377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>cl:10312</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>medium permanent energy supply</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr"/>
-      <c r="E378" t="inlineStr"/>
-      <c r="F378" t="inlineStr">
-        <is>
-          <t>cl:10311</t>
-        </is>
-      </c>
-      <c r="G378" t="inlineStr"/>
-      <c r="H378" t="inlineStr"/>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
-      <c r="M378" t="inlineStr"/>
-      <c r="N378" t="inlineStr"/>
-      <c r="O378" t="inlineStr"/>
-      <c r="P378" t="inlineStr"/>
-      <c r="Q378" t="inlineStr"/>
-      <c r="R378" t="inlineStr"/>
-      <c r="S378" t="inlineStr"/>
-      <c r="T378" t="inlineStr"/>
-      <c r="U378" t="inlineStr"/>
-      <c r="V378" t="inlineStr"/>
-      <c r="W378" t="inlineStr"/>
-      <c r="X378" t="inlineStr"/>
-      <c r="Y378" t="inlineStr"/>
-      <c r="Z378" t="inlineStr"/>
-      <c r="AA378" t="inlineStr"/>
-      <c r="AB378" t="inlineStr"/>
-      <c r="AC378" t="inlineStr"/>
-      <c r="AD378" t="inlineStr"/>
-      <c r="AE378" t="inlineStr"/>
-      <c r="AF378" t="inlineStr"/>
-      <c r="AG378" t="inlineStr"/>
-      <c r="AH378" t="inlineStr"/>
-      <c r="AI378" t="inlineStr"/>
-      <c r="AJ378" t="inlineStr"/>
-      <c r="AK378" t="inlineStr"/>
-      <c r="AL378" t="inlineStr"/>
-      <c r="AM378" t="inlineStr"/>
-      <c r="AN378" t="inlineStr"/>
-      <c r="AO378" t="inlineStr"/>
-      <c r="AP378" t="inlineStr"/>
-      <c r="AQ378" t="inlineStr"/>
-      <c r="AR378" t="inlineStr"/>
-      <c r="AS378" t="inlineStr"/>
-      <c r="AT378" t="inlineStr"/>
-      <c r="AU378" t="inlineStr"/>
-      <c r="AV378" t="inlineStr"/>
-      <c r="AW378" t="inlineStr"/>
-      <c r="AX378" t="inlineStr"/>
-      <c r="AY378" t="inlineStr"/>
-      <c r="AZ378" t="inlineStr"/>
-      <c r="BA378" t="inlineStr"/>
-      <c r="BB378" t="inlineStr"/>
-      <c r="BC378" t="inlineStr"/>
-      <c r="BD378" t="inlineStr"/>
-      <c r="BE378" t="inlineStr"/>
-      <c r="BF378" t="inlineStr"/>
-      <c r="BG378" t="inlineStr"/>
-      <c r="BH378" t="inlineStr"/>
-      <c r="BI378" t="inlineStr"/>
-      <c r="BJ378" t="inlineStr"/>
-      <c r="BK378" t="inlineStr"/>
-      <c r="BL378" t="inlineStr"/>
-      <c r="BM378" t="inlineStr"/>
-      <c r="BN378" t="inlineStr"/>
-      <c r="BO378" t="inlineStr"/>
-      <c r="BP378" t="inlineStr"/>
-      <c r="BQ378" t="inlineStr"/>
-      <c r="BR378" t="inlineStr"/>
-      <c r="BS378" t="inlineStr"/>
-      <c r="BT378" t="inlineStr"/>
-      <c r="BU378" t="inlineStr"/>
-      <c r="BV378" t="inlineStr"/>
-      <c r="BW378" t="inlineStr"/>
-      <c r="BX378" t="inlineStr"/>
-      <c r="BY378" t="inlineStr"/>
-      <c r="BZ378" t="inlineStr"/>
-      <c r="CA378" t="inlineStr"/>
-      <c r="CB378" t="inlineStr"/>
-      <c r="CC378" t="inlineStr"/>
-      <c r="CD378" t="inlineStr"/>
-      <c r="CE378" t="inlineStr"/>
-      <c r="CF378" t="inlineStr"/>
-      <c r="CG378" t="inlineStr"/>
-      <c r="CH378" t="inlineStr"/>
-      <c r="CI378" t="inlineStr"/>
-      <c r="CJ378" t="inlineStr"/>
-      <c r="CK378" t="inlineStr"/>
-      <c r="CL378" t="inlineStr"/>
-      <c r="CM378" t="inlineStr"/>
-      <c r="CN378" t="inlineStr"/>
-      <c r="CO378" t="inlineStr"/>
-      <c r="CP378" t="inlineStr"/>
-      <c r="CQ378" t="inlineStr"/>
-      <c r="CR378" t="inlineStr"/>
-      <c r="CS378" t="inlineStr"/>
-      <c r="CT378" t="inlineStr"/>
-      <c r="CU378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>cl:10313</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>low permanent energy supply</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr"/>
-      <c r="E379" t="inlineStr"/>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>cl:10311</t>
-        </is>
-      </c>
-      <c r="G379" t="inlineStr"/>
-      <c r="H379" t="inlineStr"/>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
-      <c r="M379" t="inlineStr"/>
-      <c r="N379" t="inlineStr"/>
-      <c r="O379" t="inlineStr"/>
-      <c r="P379" t="inlineStr"/>
-      <c r="Q379" t="inlineStr"/>
-      <c r="R379" t="inlineStr"/>
-      <c r="S379" t="inlineStr"/>
-      <c r="T379" t="inlineStr"/>
-      <c r="U379" t="inlineStr"/>
-      <c r="V379" t="inlineStr"/>
-      <c r="W379" t="inlineStr"/>
-      <c r="X379" t="inlineStr"/>
-      <c r="Y379" t="inlineStr"/>
-      <c r="Z379" t="inlineStr"/>
-      <c r="AA379" t="inlineStr"/>
-      <c r="AB379" t="inlineStr"/>
-      <c r="AC379" t="inlineStr"/>
-      <c r="AD379" t="inlineStr"/>
-      <c r="AE379" t="inlineStr"/>
-      <c r="AF379" t="inlineStr"/>
-      <c r="AG379" t="inlineStr"/>
-      <c r="AH379" t="inlineStr"/>
-      <c r="AI379" t="inlineStr"/>
-      <c r="AJ379" t="inlineStr"/>
-      <c r="AK379" t="inlineStr"/>
-      <c r="AL379" t="inlineStr"/>
-      <c r="AM379" t="inlineStr"/>
-      <c r="AN379" t="inlineStr"/>
-      <c r="AO379" t="inlineStr"/>
-      <c r="AP379" t="inlineStr"/>
-      <c r="AQ379" t="inlineStr"/>
-      <c r="AR379" t="inlineStr"/>
-      <c r="AS379" t="inlineStr"/>
-      <c r="AT379" t="inlineStr"/>
-      <c r="AU379" t="inlineStr"/>
-      <c r="AV379" t="inlineStr"/>
-      <c r="AW379" t="inlineStr"/>
-      <c r="AX379" t="inlineStr"/>
-      <c r="AY379" t="inlineStr"/>
-      <c r="AZ379" t="inlineStr"/>
-      <c r="BA379" t="inlineStr"/>
-      <c r="BB379" t="inlineStr"/>
-      <c r="BC379" t="inlineStr"/>
-      <c r="BD379" t="inlineStr"/>
-      <c r="BE379" t="inlineStr"/>
-      <c r="BF379" t="inlineStr"/>
-      <c r="BG379" t="inlineStr"/>
-      <c r="BH379" t="inlineStr"/>
-      <c r="BI379" t="inlineStr"/>
-      <c r="BJ379" t="inlineStr"/>
-      <c r="BK379" t="inlineStr"/>
-      <c r="BL379" t="inlineStr"/>
-      <c r="BM379" t="inlineStr"/>
-      <c r="BN379" t="inlineStr"/>
-      <c r="BO379" t="inlineStr"/>
-      <c r="BP379" t="inlineStr"/>
-      <c r="BQ379" t="inlineStr"/>
-      <c r="BR379" t="inlineStr"/>
-      <c r="BS379" t="inlineStr"/>
-      <c r="BT379" t="inlineStr"/>
-      <c r="BU379" t="inlineStr"/>
-      <c r="BV379" t="inlineStr"/>
-      <c r="BW379" t="inlineStr"/>
-      <c r="BX379" t="inlineStr"/>
-      <c r="BY379" t="inlineStr"/>
-      <c r="BZ379" t="inlineStr"/>
-      <c r="CA379" t="inlineStr"/>
-      <c r="CB379" t="inlineStr"/>
-      <c r="CC379" t="inlineStr"/>
-      <c r="CD379" t="inlineStr"/>
-      <c r="CE379" t="inlineStr"/>
-      <c r="CF379" t="inlineStr"/>
-      <c r="CG379" t="inlineStr"/>
-      <c r="CH379" t="inlineStr"/>
-      <c r="CI379" t="inlineStr"/>
-      <c r="CJ379" t="inlineStr"/>
-      <c r="CK379" t="inlineStr"/>
-      <c r="CL379" t="inlineStr"/>
-      <c r="CM379" t="inlineStr"/>
-      <c r="CN379" t="inlineStr"/>
-      <c r="CO379" t="inlineStr"/>
-      <c r="CP379" t="inlineStr"/>
-      <c r="CQ379" t="inlineStr"/>
-      <c r="CR379" t="inlineStr"/>
-      <c r="CS379" t="inlineStr"/>
-      <c r="CT379" t="inlineStr"/>
-      <c r="CU379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>cl:10314</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>large permanent energy supply</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="inlineStr"/>
-      <c r="E380" t="inlineStr"/>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t>cl:10311</t>
-        </is>
-      </c>
-      <c r="G380" t="inlineStr"/>
-      <c r="H380" t="inlineStr"/>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
-      <c r="M380" t="inlineStr"/>
-      <c r="N380" t="inlineStr"/>
-      <c r="O380" t="inlineStr"/>
-      <c r="P380" t="inlineStr"/>
-      <c r="Q380" t="inlineStr"/>
-      <c r="R380" t="inlineStr"/>
-      <c r="S380" t="inlineStr"/>
-      <c r="T380" t="inlineStr"/>
-      <c r="U380" t="inlineStr"/>
-      <c r="V380" t="inlineStr"/>
-      <c r="W380" t="inlineStr"/>
-      <c r="X380" t="inlineStr"/>
-      <c r="Y380" t="inlineStr"/>
-      <c r="Z380" t="inlineStr"/>
-      <c r="AA380" t="inlineStr"/>
-      <c r="AB380" t="inlineStr"/>
-      <c r="AC380" t="inlineStr"/>
-      <c r="AD380" t="inlineStr"/>
-      <c r="AE380" t="inlineStr"/>
-      <c r="AF380" t="inlineStr"/>
-      <c r="AG380" t="inlineStr"/>
-      <c r="AH380" t="inlineStr"/>
-      <c r="AI380" t="inlineStr"/>
-      <c r="AJ380" t="inlineStr"/>
-      <c r="AK380" t="inlineStr"/>
-      <c r="AL380" t="inlineStr"/>
-      <c r="AM380" t="inlineStr"/>
-      <c r="AN380" t="inlineStr"/>
-      <c r="AO380" t="inlineStr"/>
-      <c r="AP380" t="inlineStr"/>
-      <c r="AQ380" t="inlineStr"/>
-      <c r="AR380" t="inlineStr"/>
-      <c r="AS380" t="inlineStr"/>
-      <c r="AT380" t="inlineStr"/>
-      <c r="AU380" t="inlineStr"/>
-      <c r="AV380" t="inlineStr"/>
-      <c r="AW380" t="inlineStr"/>
-      <c r="AX380" t="inlineStr"/>
-      <c r="AY380" t="inlineStr"/>
-      <c r="AZ380" t="inlineStr"/>
-      <c r="BA380" t="inlineStr"/>
-      <c r="BB380" t="inlineStr"/>
-      <c r="BC380" t="inlineStr"/>
-      <c r="BD380" t="inlineStr"/>
-      <c r="BE380" t="inlineStr"/>
-      <c r="BF380" t="inlineStr"/>
-      <c r="BG380" t="inlineStr"/>
-      <c r="BH380" t="inlineStr"/>
-      <c r="BI380" t="inlineStr"/>
-      <c r="BJ380" t="inlineStr"/>
-      <c r="BK380" t="inlineStr"/>
-      <c r="BL380" t="inlineStr"/>
-      <c r="BM380" t="inlineStr"/>
-      <c r="BN380" t="inlineStr"/>
-      <c r="BO380" t="inlineStr"/>
-      <c r="BP380" t="inlineStr"/>
-      <c r="BQ380" t="inlineStr"/>
-      <c r="BR380" t="inlineStr"/>
-      <c r="BS380" t="inlineStr"/>
-      <c r="BT380" t="inlineStr"/>
-      <c r="BU380" t="inlineStr"/>
-      <c r="BV380" t="inlineStr"/>
-      <c r="BW380" t="inlineStr"/>
-      <c r="BX380" t="inlineStr"/>
-      <c r="BY380" t="inlineStr"/>
-      <c r="BZ380" t="inlineStr"/>
-      <c r="CA380" t="inlineStr"/>
-      <c r="CB380" t="inlineStr"/>
-      <c r="CC380" t="inlineStr"/>
-      <c r="CD380" t="inlineStr"/>
-      <c r="CE380" t="inlineStr"/>
-      <c r="CF380" t="inlineStr"/>
-      <c r="CG380" t="inlineStr"/>
-      <c r="CH380" t="inlineStr"/>
-      <c r="CI380" t="inlineStr"/>
-      <c r="CJ380" t="inlineStr"/>
-      <c r="CK380" t="inlineStr"/>
-      <c r="CL380" t="inlineStr"/>
-      <c r="CM380" t="inlineStr"/>
-      <c r="CN380" t="inlineStr"/>
-      <c r="CO380" t="inlineStr"/>
-      <c r="CP380" t="inlineStr"/>
-      <c r="CQ380" t="inlineStr"/>
-      <c r="CR380" t="inlineStr"/>
-      <c r="CS380" t="inlineStr"/>
-      <c r="CT380" t="inlineStr"/>
-      <c r="CU380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>cl:10315</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>maintenance infrastructure</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr"/>
-      <c r="E381" t="inlineStr"/>
-      <c r="F381" t="inlineStr"/>
-      <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr"/>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
-      <c r="M381" t="inlineStr"/>
-      <c r="N381" t="inlineStr"/>
-      <c r="O381" t="inlineStr"/>
-      <c r="P381" t="inlineStr"/>
-      <c r="Q381" t="inlineStr"/>
-      <c r="R381" t="inlineStr"/>
-      <c r="S381" t="inlineStr"/>
-      <c r="T381" t="inlineStr"/>
-      <c r="U381" t="inlineStr"/>
-      <c r="V381" t="inlineStr"/>
-      <c r="W381" t="inlineStr"/>
-      <c r="X381" t="inlineStr"/>
-      <c r="Y381" t="inlineStr"/>
-      <c r="Z381" t="inlineStr"/>
-      <c r="AA381" t="inlineStr"/>
-      <c r="AB381" t="inlineStr"/>
-      <c r="AC381" t="inlineStr"/>
-      <c r="AD381" t="inlineStr"/>
-      <c r="AE381" t="inlineStr"/>
-      <c r="AF381" t="inlineStr"/>
-      <c r="AG381" t="inlineStr"/>
-      <c r="AH381" t="inlineStr"/>
-      <c r="AI381" t="inlineStr"/>
-      <c r="AJ381" t="inlineStr"/>
-      <c r="AK381" t="inlineStr"/>
-      <c r="AL381" t="inlineStr"/>
-      <c r="AM381" t="inlineStr"/>
-      <c r="AN381" t="inlineStr"/>
-      <c r="AO381" t="inlineStr"/>
-      <c r="AP381" t="inlineStr"/>
-      <c r="AQ381" t="inlineStr"/>
-      <c r="AR381" t="inlineStr"/>
-      <c r="AS381" t="inlineStr"/>
-      <c r="AT381" t="inlineStr"/>
-      <c r="AU381" t="inlineStr"/>
-      <c r="AV381" t="inlineStr"/>
-      <c r="AW381" t="inlineStr"/>
-      <c r="AX381" t="inlineStr"/>
-      <c r="AY381" t="inlineStr"/>
-      <c r="AZ381" t="inlineStr"/>
-      <c r="BA381" t="inlineStr"/>
-      <c r="BB381" t="inlineStr"/>
-      <c r="BC381" t="inlineStr"/>
-      <c r="BD381" t="inlineStr"/>
-      <c r="BE381" t="inlineStr"/>
-      <c r="BF381" t="inlineStr"/>
-      <c r="BG381" t="inlineStr"/>
-      <c r="BH381" t="inlineStr"/>
-      <c r="BI381" t="inlineStr"/>
-      <c r="BJ381" t="inlineStr"/>
-      <c r="BK381" t="inlineStr"/>
-      <c r="BL381" t="inlineStr"/>
-      <c r="BM381" t="inlineStr"/>
-      <c r="BN381" t="inlineStr"/>
-      <c r="BO381" t="inlineStr"/>
-      <c r="BP381" t="inlineStr"/>
-      <c r="BQ381" t="inlineStr"/>
-      <c r="BR381" t="inlineStr"/>
-      <c r="BS381" t="inlineStr"/>
-      <c r="BT381" t="inlineStr"/>
-      <c r="BU381" t="inlineStr"/>
-      <c r="BV381" t="inlineStr"/>
-      <c r="BW381" t="inlineStr"/>
-      <c r="BX381" t="inlineStr"/>
-      <c r="BY381" t="inlineStr"/>
-      <c r="BZ381" t="inlineStr"/>
-      <c r="CA381" t="inlineStr"/>
-      <c r="CB381" t="inlineStr"/>
-      <c r="CC381" t="inlineStr"/>
-      <c r="CD381" t="inlineStr"/>
-      <c r="CE381" t="inlineStr"/>
-      <c r="CF381" t="inlineStr"/>
-      <c r="CG381" t="inlineStr"/>
-      <c r="CH381" t="inlineStr"/>
-      <c r="CI381" t="inlineStr"/>
-      <c r="CJ381" t="inlineStr"/>
-      <c r="CK381" t="inlineStr"/>
-      <c r="CL381" t="inlineStr"/>
-      <c r="CM381" t="inlineStr"/>
-      <c r="CN381" t="inlineStr"/>
-      <c r="CO381" t="inlineStr"/>
-      <c r="CP381" t="inlineStr"/>
-      <c r="CQ381" t="inlineStr"/>
-      <c r="CR381" t="inlineStr"/>
-      <c r="CS381" t="inlineStr"/>
-      <c r="CT381" t="inlineStr"/>
-      <c r="CU381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>cl:10316</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>snow clearing equipment</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="inlineStr"/>
-      <c r="E382" t="inlineStr"/>
-      <c r="F382" t="inlineStr">
-        <is>
-          <t>cl:10315</t>
-        </is>
-      </c>
-      <c r="G382" t="inlineStr"/>
-      <c r="H382" t="inlineStr"/>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
-      <c r="M382" t="inlineStr"/>
-      <c r="N382" t="inlineStr"/>
-      <c r="O382" t="inlineStr"/>
-      <c r="P382" t="inlineStr"/>
-      <c r="Q382" t="inlineStr"/>
-      <c r="R382" t="inlineStr"/>
-      <c r="S382" t="inlineStr"/>
-      <c r="T382" t="inlineStr"/>
-      <c r="U382" t="inlineStr"/>
-      <c r="V382" t="inlineStr"/>
-      <c r="W382" t="inlineStr"/>
-      <c r="X382" t="inlineStr"/>
-      <c r="Y382" t="inlineStr"/>
-      <c r="Z382" t="inlineStr"/>
-      <c r="AA382" t="inlineStr"/>
-      <c r="AB382" t="inlineStr"/>
-      <c r="AC382" t="inlineStr"/>
-      <c r="AD382" t="inlineStr"/>
-      <c r="AE382" t="inlineStr"/>
-      <c r="AF382" t="inlineStr"/>
-      <c r="AG382" t="inlineStr"/>
-      <c r="AH382" t="inlineStr"/>
-      <c r="AI382" t="inlineStr"/>
-      <c r="AJ382" t="inlineStr"/>
-      <c r="AK382" t="inlineStr"/>
-      <c r="AL382" t="inlineStr"/>
-      <c r="AM382" t="inlineStr"/>
-      <c r="AN382" t="inlineStr"/>
-      <c r="AO382" t="inlineStr"/>
-      <c r="AP382" t="inlineStr"/>
-      <c r="AQ382" t="inlineStr"/>
-      <c r="AR382" t="inlineStr"/>
-      <c r="AS382" t="inlineStr"/>
-      <c r="AT382" t="inlineStr"/>
-      <c r="AU382" t="inlineStr"/>
-      <c r="AV382" t="inlineStr"/>
-      <c r="AW382" t="inlineStr"/>
-      <c r="AX382" t="inlineStr"/>
-      <c r="AY382" t="inlineStr"/>
-      <c r="AZ382" t="inlineStr"/>
-      <c r="BA382" t="inlineStr"/>
-      <c r="BB382" t="inlineStr"/>
-      <c r="BC382" t="inlineStr"/>
-      <c r="BD382" t="inlineStr"/>
-      <c r="BE382" t="inlineStr"/>
-      <c r="BF382" t="inlineStr"/>
-      <c r="BG382" t="inlineStr"/>
-      <c r="BH382" t="inlineStr"/>
-      <c r="BI382" t="inlineStr"/>
-      <c r="BJ382" t="inlineStr"/>
-      <c r="BK382" t="inlineStr"/>
-      <c r="BL382" t="inlineStr"/>
-      <c r="BM382" t="inlineStr"/>
-      <c r="BN382" t="inlineStr"/>
-      <c r="BO382" t="inlineStr"/>
-      <c r="BP382" t="inlineStr"/>
-      <c r="BQ382" t="inlineStr"/>
-      <c r="BR382" t="inlineStr"/>
-      <c r="BS382" t="inlineStr"/>
-      <c r="BT382" t="inlineStr"/>
-      <c r="BU382" t="inlineStr"/>
-      <c r="BV382" t="inlineStr"/>
-      <c r="BW382" t="inlineStr"/>
-      <c r="BX382" t="inlineStr"/>
-      <c r="BY382" t="inlineStr"/>
-      <c r="BZ382" t="inlineStr"/>
-      <c r="CA382" t="inlineStr"/>
-      <c r="CB382" t="inlineStr"/>
-      <c r="CC382" t="inlineStr"/>
-      <c r="CD382" t="inlineStr"/>
-      <c r="CE382" t="inlineStr"/>
-      <c r="CF382" t="inlineStr"/>
-      <c r="CG382" t="inlineStr"/>
-      <c r="CH382" t="inlineStr"/>
-      <c r="CI382" t="inlineStr"/>
-      <c r="CJ382" t="inlineStr"/>
-      <c r="CK382" t="inlineStr"/>
-      <c r="CL382" t="inlineStr"/>
-      <c r="CM382" t="inlineStr"/>
-      <c r="CN382" t="inlineStr"/>
-      <c r="CO382" t="inlineStr"/>
-      <c r="CP382" t="inlineStr"/>
-      <c r="CQ382" t="inlineStr"/>
-      <c r="CR382" t="inlineStr"/>
-      <c r="CS382" t="inlineStr"/>
-      <c r="CT382" t="inlineStr"/>
-      <c r="CU382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>cl:10317</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>organisation design</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>Type of the site of platform according to their inner heterogeneity. Simple sites are classical LTER sites measuring ecosystem processes in one or a very limited number of habitats. Complex sites are classical LTSER sites investigating processes and fluxes on a landscape or regional level or form the bracket over a number of LTER or simple sites.</t>
-        </is>
-      </c>
-      <c r="E383" t="inlineStr"/>
-      <c r="F383" t="inlineStr"/>
-      <c r="G383" t="inlineStr"/>
-      <c r="H383" t="inlineStr"/>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
-      <c r="M383" t="inlineStr"/>
-      <c r="N383" t="inlineStr"/>
-      <c r="O383" t="inlineStr"/>
-      <c r="P383" t="inlineStr"/>
-      <c r="Q383" t="inlineStr"/>
-      <c r="R383" t="inlineStr"/>
-      <c r="S383" t="inlineStr"/>
-      <c r="T383" t="inlineStr"/>
-      <c r="U383" t="inlineStr"/>
-      <c r="V383" t="inlineStr"/>
-      <c r="W383" t="inlineStr"/>
-      <c r="X383" t="inlineStr"/>
-      <c r="Y383" t="inlineStr"/>
-      <c r="Z383" t="inlineStr"/>
-      <c r="AA383" t="inlineStr"/>
-      <c r="AB383" t="inlineStr"/>
-      <c r="AC383" t="inlineStr"/>
-      <c r="AD383" t="inlineStr"/>
-      <c r="AE383" t="inlineStr"/>
-      <c r="AF383" t="inlineStr"/>
-      <c r="AG383" t="inlineStr"/>
-      <c r="AH383" t="inlineStr"/>
-      <c r="AI383" t="inlineStr"/>
-      <c r="AJ383" t="inlineStr"/>
-      <c r="AK383" t="inlineStr"/>
-      <c r="AL383" t="inlineStr"/>
-      <c r="AM383" t="inlineStr"/>
-      <c r="AN383" t="inlineStr"/>
-      <c r="AO383" t="inlineStr"/>
-      <c r="AP383" t="inlineStr"/>
-      <c r="AQ383" t="inlineStr"/>
-      <c r="AR383" t="inlineStr"/>
-      <c r="AS383" t="inlineStr"/>
-      <c r="AT383" t="inlineStr"/>
-      <c r="AU383" t="inlineStr"/>
-      <c r="AV383" t="inlineStr"/>
-      <c r="AW383" t="inlineStr"/>
-      <c r="AX383" t="inlineStr"/>
-      <c r="AY383" t="inlineStr"/>
-      <c r="AZ383" t="inlineStr"/>
-      <c r="BA383" t="inlineStr"/>
-      <c r="BB383" t="inlineStr"/>
-      <c r="BC383" t="inlineStr"/>
-      <c r="BD383" t="inlineStr"/>
-      <c r="BE383" t="inlineStr"/>
-      <c r="BF383" t="inlineStr"/>
-      <c r="BG383" t="inlineStr"/>
-      <c r="BH383" t="inlineStr"/>
-      <c r="BI383" t="inlineStr"/>
-      <c r="BJ383" t="inlineStr"/>
-      <c r="BK383" t="inlineStr"/>
-      <c r="BL383" t="inlineStr"/>
-      <c r="BM383" t="inlineStr"/>
-      <c r="BN383" t="inlineStr"/>
-      <c r="BO383" t="inlineStr"/>
-      <c r="BP383" t="inlineStr"/>
-      <c r="BQ383" t="inlineStr"/>
-      <c r="BR383" t="inlineStr"/>
-      <c r="BS383" t="inlineStr"/>
-      <c r="BT383" t="inlineStr"/>
-      <c r="BU383" t="inlineStr"/>
-      <c r="BV383" t="inlineStr"/>
-      <c r="BW383" t="inlineStr"/>
-      <c r="BX383" t="inlineStr"/>
-      <c r="BY383" t="inlineStr"/>
-      <c r="BZ383" t="inlineStr"/>
-      <c r="CA383" t="inlineStr"/>
-      <c r="CB383" t="inlineStr"/>
-      <c r="CC383" t="inlineStr"/>
-      <c r="CD383" t="inlineStr"/>
-      <c r="CE383" t="inlineStr"/>
-      <c r="CF383" t="inlineStr"/>
-      <c r="CG383" t="inlineStr"/>
-      <c r="CH383" t="inlineStr"/>
-      <c r="CI383" t="inlineStr"/>
-      <c r="CJ383" t="inlineStr"/>
-      <c r="CK383" t="inlineStr"/>
-      <c r="CL383" t="inlineStr"/>
-      <c r="CM383" t="inlineStr"/>
-      <c r="CN383" t="inlineStr"/>
-      <c r="CO383" t="inlineStr"/>
-      <c r="CP383" t="inlineStr"/>
-      <c r="CQ383" t="inlineStr"/>
-      <c r="CR383" t="inlineStr"/>
-      <c r="CS383" t="inlineStr"/>
-      <c r="CT383" t="inlineStr"/>
-      <c r="CU383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>cl:10318</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>a local or regional socio-ecological complex, containing – natural, man-controlled and man-created and dominated ecosystems –, provides not only a multi-site research platform where inter and trans-disciplinary knowledge are produced, a space where the operational infrastructure, policies and adaptive management plans for sustainability can be designed, developed and tested. , "[http://www.lter-europe.net/sites-platforms/categories] (Long-Term Socio-Ecological Research): Modular LTER-facility consisting of sites which are located in an area with defined boundaries. Besides this physical component, LTSER-Platforms provide multiple services like the networking of client groups (e.g. research, local stakeholders), data management, communication and representation (management component). The elements of LTSER Platforms represent the main habitats, land use forms and practices relevant for the broader region (up to 10000 km²) and cover all scales and levels relevant for LTSER (from local to landscape). LTSER-Platforms should represent economic and social units or coincide/overlap with such units where adequate information on land use history, economy and demography is available to allow for socio-ecological research.</t>
-        </is>
-      </c>
-      <c r="E384" t="inlineStr"/>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>cl:10317</t>
-        </is>
-      </c>
-      <c r="G384" t="inlineStr"/>
-      <c r="H384" t="inlineStr"/>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
-      <c r="M384" t="inlineStr"/>
-      <c r="N384" t="inlineStr"/>
-      <c r="O384" t="inlineStr"/>
-      <c r="P384" t="inlineStr"/>
-      <c r="Q384" t="inlineStr"/>
-      <c r="R384" t="inlineStr"/>
-      <c r="S384" t="inlineStr"/>
-      <c r="T384" t="inlineStr"/>
-      <c r="U384" t="inlineStr"/>
-      <c r="V384" t="inlineStr"/>
-      <c r="W384" t="inlineStr"/>
-      <c r="X384" t="inlineStr"/>
-      <c r="Y384" t="inlineStr"/>
-      <c r="Z384" t="inlineStr"/>
-      <c r="AA384" t="inlineStr"/>
-      <c r="AB384" t="inlineStr"/>
-      <c r="AC384" t="inlineStr"/>
-      <c r="AD384" t="inlineStr"/>
-      <c r="AE384" t="inlineStr"/>
-      <c r="AF384" t="inlineStr"/>
-      <c r="AG384" t="inlineStr"/>
-      <c r="AH384" t="inlineStr"/>
-      <c r="AI384" t="inlineStr"/>
-      <c r="AJ384" t="inlineStr"/>
-      <c r="AK384" t="inlineStr"/>
-      <c r="AL384" t="inlineStr"/>
-      <c r="AM384" t="inlineStr"/>
-      <c r="AN384" t="inlineStr"/>
-      <c r="AO384" t="inlineStr"/>
-      <c r="AP384" t="inlineStr"/>
-      <c r="AQ384" t="inlineStr"/>
-      <c r="AR384" t="inlineStr"/>
-      <c r="AS384" t="inlineStr"/>
-      <c r="AT384" t="inlineStr"/>
-      <c r="AU384" t="inlineStr"/>
-      <c r="AV384" t="inlineStr"/>
-      <c r="AW384" t="inlineStr"/>
-      <c r="AX384" t="inlineStr"/>
-      <c r="AY384" t="inlineStr"/>
-      <c r="AZ384" t="inlineStr"/>
-      <c r="BA384" t="inlineStr"/>
-      <c r="BB384" t="inlineStr"/>
-      <c r="BC384" t="inlineStr"/>
-      <c r="BD384" t="inlineStr"/>
-      <c r="BE384" t="inlineStr"/>
-      <c r="BF384" t="inlineStr"/>
-      <c r="BG384" t="inlineStr"/>
-      <c r="BH384" t="inlineStr"/>
-      <c r="BI384" t="inlineStr"/>
-      <c r="BJ384" t="inlineStr"/>
-      <c r="BK384" t="inlineStr"/>
-      <c r="BL384" t="inlineStr"/>
-      <c r="BM384" t="inlineStr"/>
-      <c r="BN384" t="inlineStr"/>
-      <c r="BO384" t="inlineStr"/>
-      <c r="BP384" t="inlineStr"/>
-      <c r="BQ384" t="inlineStr"/>
-      <c r="BR384" t="inlineStr"/>
-      <c r="BS384" t="inlineStr"/>
-      <c r="BT384" t="inlineStr"/>
-      <c r="BU384" t="inlineStr"/>
-      <c r="BV384" t="inlineStr"/>
-      <c r="BW384" t="inlineStr"/>
-      <c r="BX384" t="inlineStr"/>
-      <c r="BY384" t="inlineStr"/>
-      <c r="BZ384" t="inlineStr"/>
-      <c r="CA384" t="inlineStr"/>
-      <c r="CB384" t="inlineStr"/>
-      <c r="CC384" t="inlineStr"/>
-      <c r="CD384" t="inlineStr"/>
-      <c r="CE384" t="inlineStr"/>
-      <c r="CF384" t="inlineStr"/>
-      <c r="CG384" t="inlineStr"/>
-      <c r="CH384" t="inlineStr"/>
-      <c r="CI384" t="inlineStr"/>
-      <c r="CJ384" t="inlineStr"/>
-      <c r="CK384" t="inlineStr"/>
-      <c r="CL384" t="inlineStr"/>
-      <c r="CM384" t="inlineStr"/>
-      <c r="CN384" t="inlineStr"/>
-      <c r="CO384" t="inlineStr"/>
-      <c r="CP384" t="inlineStr"/>
-      <c r="CQ384" t="inlineStr"/>
-      <c r="CR384" t="inlineStr"/>
-      <c r="CS384" t="inlineStr"/>
-      <c r="CT384" t="inlineStr"/>
-      <c r="CU384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>cl:10319</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>plot</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="inlineStr"/>
-      <c r="E385" t="inlineStr"/>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>cl:10317</t>
-        </is>
-      </c>
-      <c r="G385" t="inlineStr"/>
-      <c r="H385" t="inlineStr"/>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
-      <c r="M385" t="inlineStr"/>
-      <c r="N385" t="inlineStr"/>
-      <c r="O385" t="inlineStr"/>
-      <c r="P385" t="inlineStr"/>
-      <c r="Q385" t="inlineStr"/>
-      <c r="R385" t="inlineStr"/>
-      <c r="S385" t="inlineStr"/>
-      <c r="T385" t="inlineStr"/>
-      <c r="U385" t="inlineStr"/>
-      <c r="V385" t="inlineStr"/>
-      <c r="W385" t="inlineStr"/>
-      <c r="X385" t="inlineStr"/>
-      <c r="Y385" t="inlineStr"/>
-      <c r="Z385" t="inlineStr"/>
-      <c r="AA385" t="inlineStr"/>
-      <c r="AB385" t="inlineStr"/>
-      <c r="AC385" t="inlineStr"/>
-      <c r="AD385" t="inlineStr"/>
-      <c r="AE385" t="inlineStr"/>
-      <c r="AF385" t="inlineStr"/>
-      <c r="AG385" t="inlineStr"/>
-      <c r="AH385" t="inlineStr"/>
-      <c r="AI385" t="inlineStr"/>
-      <c r="AJ385" t="inlineStr"/>
-      <c r="AK385" t="inlineStr"/>
-      <c r="AL385" t="inlineStr"/>
-      <c r="AM385" t="inlineStr"/>
-      <c r="AN385" t="inlineStr"/>
-      <c r="AO385" t="inlineStr"/>
-      <c r="AP385" t="inlineStr"/>
-      <c r="AQ385" t="inlineStr"/>
-      <c r="AR385" t="inlineStr"/>
-      <c r="AS385" t="inlineStr"/>
-      <c r="AT385" t="inlineStr"/>
-      <c r="AU385" t="inlineStr"/>
-      <c r="AV385" t="inlineStr"/>
-      <c r="AW385" t="inlineStr"/>
-      <c r="AX385" t="inlineStr"/>
-      <c r="AY385" t="inlineStr"/>
-      <c r="AZ385" t="inlineStr"/>
-      <c r="BA385" t="inlineStr"/>
-      <c r="BB385" t="inlineStr"/>
-      <c r="BC385" t="inlineStr"/>
-      <c r="BD385" t="inlineStr"/>
-      <c r="BE385" t="inlineStr"/>
-      <c r="BF385" t="inlineStr"/>
-      <c r="BG385" t="inlineStr"/>
-      <c r="BH385" t="inlineStr"/>
-      <c r="BI385" t="inlineStr"/>
-      <c r="BJ385" t="inlineStr"/>
-      <c r="BK385" t="inlineStr"/>
-      <c r="BL385" t="inlineStr"/>
-      <c r="BM385" t="inlineStr"/>
-      <c r="BN385" t="inlineStr"/>
-      <c r="BO385" t="inlineStr"/>
-      <c r="BP385" t="inlineStr"/>
-      <c r="BQ385" t="inlineStr"/>
-      <c r="BR385" t="inlineStr"/>
-      <c r="BS385" t="inlineStr"/>
-      <c r="BT385" t="inlineStr"/>
-      <c r="BU385" t="inlineStr"/>
-      <c r="BV385" t="inlineStr"/>
-      <c r="BW385" t="inlineStr"/>
-      <c r="BX385" t="inlineStr"/>
-      <c r="BY385" t="inlineStr"/>
-      <c r="BZ385" t="inlineStr"/>
-      <c r="CA385" t="inlineStr"/>
-      <c r="CB385" t="inlineStr"/>
-      <c r="CC385" t="inlineStr"/>
-      <c r="CD385" t="inlineStr"/>
-      <c r="CE385" t="inlineStr"/>
-      <c r="CF385" t="inlineStr"/>
-      <c r="CG385" t="inlineStr"/>
-      <c r="CH385" t="inlineStr"/>
-      <c r="CI385" t="inlineStr"/>
-      <c r="CJ385" t="inlineStr"/>
-      <c r="CK385" t="inlineStr"/>
-      <c r="CL385" t="inlineStr"/>
-      <c r="CM385" t="inlineStr"/>
-      <c r="CN385" t="inlineStr"/>
-      <c r="CO385" t="inlineStr"/>
-      <c r="CP385" t="inlineStr"/>
-      <c r="CQ385" t="inlineStr"/>
-      <c r="CR385" t="inlineStr"/>
-      <c r="CS385" t="inlineStr"/>
-      <c r="CT385" t="inlineStr"/>
-      <c r="CU385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>cl:10320</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>complex site</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr"/>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>cl:10317</t>
-        </is>
-      </c>
-      <c r="G386" t="inlineStr"/>
-      <c r="H386" t="inlineStr"/>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
-      <c r="M386" t="inlineStr"/>
-      <c r="N386" t="inlineStr"/>
-      <c r="O386" t="inlineStr"/>
-      <c r="P386" t="inlineStr"/>
-      <c r="Q386" t="inlineStr"/>
-      <c r="R386" t="inlineStr"/>
-      <c r="S386" t="inlineStr"/>
-      <c r="T386" t="inlineStr"/>
-      <c r="U386" t="inlineStr"/>
-      <c r="V386" t="inlineStr"/>
-      <c r="W386" t="inlineStr"/>
-      <c r="X386" t="inlineStr"/>
-      <c r="Y386" t="inlineStr"/>
-      <c r="Z386" t="inlineStr"/>
-      <c r="AA386" t="inlineStr"/>
-      <c r="AB386" t="inlineStr"/>
-      <c r="AC386" t="inlineStr"/>
-      <c r="AD386" t="inlineStr"/>
-      <c r="AE386" t="inlineStr"/>
-      <c r="AF386" t="inlineStr"/>
-      <c r="AG386" t="inlineStr"/>
-      <c r="AH386" t="inlineStr"/>
-      <c r="AI386" t="inlineStr"/>
-      <c r="AJ386" t="inlineStr"/>
-      <c r="AK386" t="inlineStr"/>
-      <c r="AL386" t="inlineStr"/>
-      <c r="AM386" t="inlineStr"/>
-      <c r="AN386" t="inlineStr"/>
-      <c r="AO386" t="inlineStr"/>
-      <c r="AP386" t="inlineStr"/>
-      <c r="AQ386" t="inlineStr"/>
-      <c r="AR386" t="inlineStr"/>
-      <c r="AS386" t="inlineStr"/>
-      <c r="AT386" t="inlineStr"/>
-      <c r="AU386" t="inlineStr"/>
-      <c r="AV386" t="inlineStr"/>
-      <c r="AW386" t="inlineStr"/>
-      <c r="AX386" t="inlineStr"/>
-      <c r="AY386" t="inlineStr"/>
-      <c r="AZ386" t="inlineStr"/>
-      <c r="BA386" t="inlineStr"/>
-      <c r="BB386" t="inlineStr"/>
-      <c r="BC386" t="inlineStr"/>
-      <c r="BD386" t="inlineStr"/>
-      <c r="BE386" t="inlineStr"/>
-      <c r="BF386" t="inlineStr"/>
-      <c r="BG386" t="inlineStr"/>
-      <c r="BH386" t="inlineStr"/>
-      <c r="BI386" t="inlineStr"/>
-      <c r="BJ386" t="inlineStr"/>
-      <c r="BK386" t="inlineStr"/>
-      <c r="BL386" t="inlineStr"/>
-      <c r="BM386" t="inlineStr"/>
-      <c r="BN386" t="inlineStr"/>
-      <c r="BO386" t="inlineStr"/>
-      <c r="BP386" t="inlineStr"/>
-      <c r="BQ386" t="inlineStr"/>
-      <c r="BR386" t="inlineStr"/>
-      <c r="BS386" t="inlineStr"/>
-      <c r="BT386" t="inlineStr"/>
-      <c r="BU386" t="inlineStr"/>
-      <c r="BV386" t="inlineStr"/>
-      <c r="BW386" t="inlineStr"/>
-      <c r="BX386" t="inlineStr"/>
-      <c r="BY386" t="inlineStr"/>
-      <c r="BZ386" t="inlineStr"/>
-      <c r="CA386" t="inlineStr"/>
-      <c r="CB386" t="inlineStr"/>
-      <c r="CC386" t="inlineStr"/>
-      <c r="CD386" t="inlineStr"/>
-      <c r="CE386" t="inlineStr"/>
-      <c r="CF386" t="inlineStr"/>
-      <c r="CG386" t="inlineStr"/>
-      <c r="CH386" t="inlineStr"/>
-      <c r="CI386" t="inlineStr"/>
-      <c r="CJ386" t="inlineStr"/>
-      <c r="CK386" t="inlineStr"/>
-      <c r="CL386" t="inlineStr"/>
-      <c r="CM386" t="inlineStr"/>
-      <c r="CN386" t="inlineStr"/>
-      <c r="CO386" t="inlineStr"/>
-      <c r="CP386" t="inlineStr"/>
-      <c r="CQ386" t="inlineStr"/>
-      <c r="CR386" t="inlineStr"/>
-      <c r="CS386" t="inlineStr"/>
-      <c r="CT386" t="inlineStr"/>
-      <c r="CU386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>cl:10321</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>sub site</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr"/>
-      <c r="E387" t="inlineStr"/>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>cl:10317</t>
-        </is>
-      </c>
-      <c r="G387" t="inlineStr"/>
-      <c r="H387" t="inlineStr"/>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
-      <c r="M387" t="inlineStr"/>
-      <c r="N387" t="inlineStr"/>
-      <c r="O387" t="inlineStr"/>
-      <c r="P387" t="inlineStr"/>
-      <c r="Q387" t="inlineStr"/>
-      <c r="R387" t="inlineStr"/>
-      <c r="S387" t="inlineStr"/>
-      <c r="T387" t="inlineStr"/>
-      <c r="U387" t="inlineStr"/>
-      <c r="V387" t="inlineStr"/>
-      <c r="W387" t="inlineStr"/>
-      <c r="X387" t="inlineStr"/>
-      <c r="Y387" t="inlineStr"/>
-      <c r="Z387" t="inlineStr"/>
-      <c r="AA387" t="inlineStr"/>
-      <c r="AB387" t="inlineStr"/>
-      <c r="AC387" t="inlineStr"/>
-      <c r="AD387" t="inlineStr"/>
-      <c r="AE387" t="inlineStr"/>
-      <c r="AF387" t="inlineStr"/>
-      <c r="AG387" t="inlineStr"/>
-      <c r="AH387" t="inlineStr"/>
-      <c r="AI387" t="inlineStr"/>
-      <c r="AJ387" t="inlineStr"/>
-      <c r="AK387" t="inlineStr"/>
-      <c r="AL387" t="inlineStr"/>
-      <c r="AM387" t="inlineStr"/>
-      <c r="AN387" t="inlineStr"/>
-      <c r="AO387" t="inlineStr"/>
-      <c r="AP387" t="inlineStr"/>
-      <c r="AQ387" t="inlineStr"/>
-      <c r="AR387" t="inlineStr"/>
-      <c r="AS387" t="inlineStr"/>
-      <c r="AT387" t="inlineStr"/>
-      <c r="AU387" t="inlineStr"/>
-      <c r="AV387" t="inlineStr"/>
-      <c r="AW387" t="inlineStr"/>
-      <c r="AX387" t="inlineStr"/>
-      <c r="AY387" t="inlineStr"/>
-      <c r="AZ387" t="inlineStr"/>
-      <c r="BA387" t="inlineStr"/>
-      <c r="BB387" t="inlineStr"/>
-      <c r="BC387" t="inlineStr"/>
-      <c r="BD387" t="inlineStr"/>
-      <c r="BE387" t="inlineStr"/>
-      <c r="BF387" t="inlineStr"/>
-      <c r="BG387" t="inlineStr"/>
-      <c r="BH387" t="inlineStr"/>
-      <c r="BI387" t="inlineStr"/>
-      <c r="BJ387" t="inlineStr"/>
-      <c r="BK387" t="inlineStr"/>
-      <c r="BL387" t="inlineStr"/>
-      <c r="BM387" t="inlineStr"/>
-      <c r="BN387" t="inlineStr"/>
-      <c r="BO387" t="inlineStr"/>
-      <c r="BP387" t="inlineStr"/>
-      <c r="BQ387" t="inlineStr"/>
-      <c r="BR387" t="inlineStr"/>
-      <c r="BS387" t="inlineStr"/>
-      <c r="BT387" t="inlineStr"/>
-      <c r="BU387" t="inlineStr"/>
-      <c r="BV387" t="inlineStr"/>
-      <c r="BW387" t="inlineStr"/>
-      <c r="BX387" t="inlineStr"/>
-      <c r="BY387" t="inlineStr"/>
-      <c r="BZ387" t="inlineStr"/>
-      <c r="CA387" t="inlineStr"/>
-      <c r="CB387" t="inlineStr"/>
-      <c r="CC387" t="inlineStr"/>
-      <c r="CD387" t="inlineStr"/>
-      <c r="CE387" t="inlineStr"/>
-      <c r="CF387" t="inlineStr"/>
-      <c r="CG387" t="inlineStr"/>
-      <c r="CH387" t="inlineStr"/>
-      <c r="CI387" t="inlineStr"/>
-      <c r="CJ387" t="inlineStr"/>
-      <c r="CK387" t="inlineStr"/>
-      <c r="CL387" t="inlineStr"/>
-      <c r="CM387" t="inlineStr"/>
-      <c r="CN387" t="inlineStr"/>
-      <c r="CO387" t="inlineStr"/>
-      <c r="CP387" t="inlineStr"/>
-      <c r="CQ387" t="inlineStr"/>
-      <c r="CR387" t="inlineStr"/>
-      <c r="CS387" t="inlineStr"/>
-      <c r="CT387" t="inlineStr"/>
-      <c r="CU387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>cl:10322</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>simple site</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="inlineStr"/>
-      <c r="E388" t="inlineStr"/>
-      <c r="F388" t="inlineStr">
-        <is>
-          <t>cl:10317</t>
-        </is>
-      </c>
-      <c r="G388" t="inlineStr"/>
-      <c r="H388" t="inlineStr"/>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
-      <c r="M388" t="inlineStr"/>
-      <c r="N388" t="inlineStr"/>
-      <c r="O388" t="inlineStr"/>
-      <c r="P388" t="inlineStr"/>
-      <c r="Q388" t="inlineStr"/>
-      <c r="R388" t="inlineStr"/>
-      <c r="S388" t="inlineStr"/>
-      <c r="T388" t="inlineStr"/>
-      <c r="U388" t="inlineStr"/>
-      <c r="V388" t="inlineStr"/>
-      <c r="W388" t="inlineStr"/>
-      <c r="X388" t="inlineStr"/>
-      <c r="Y388" t="inlineStr"/>
-      <c r="Z388" t="inlineStr"/>
-      <c r="AA388" t="inlineStr"/>
-      <c r="AB388" t="inlineStr"/>
-      <c r="AC388" t="inlineStr"/>
-      <c r="AD388" t="inlineStr"/>
-      <c r="AE388" t="inlineStr"/>
-      <c r="AF388" t="inlineStr"/>
-      <c r="AG388" t="inlineStr"/>
-      <c r="AH388" t="inlineStr"/>
-      <c r="AI388" t="inlineStr"/>
-      <c r="AJ388" t="inlineStr"/>
-      <c r="AK388" t="inlineStr"/>
-      <c r="AL388" t="inlineStr"/>
-      <c r="AM388" t="inlineStr"/>
-      <c r="AN388" t="inlineStr"/>
-      <c r="AO388" t="inlineStr"/>
-      <c r="AP388" t="inlineStr"/>
-      <c r="AQ388" t="inlineStr"/>
-      <c r="AR388" t="inlineStr"/>
-      <c r="AS388" t="inlineStr"/>
-      <c r="AT388" t="inlineStr"/>
-      <c r="AU388" t="inlineStr"/>
-      <c r="AV388" t="inlineStr"/>
-      <c r="AW388" t="inlineStr"/>
-      <c r="AX388" t="inlineStr"/>
-      <c r="AY388" t="inlineStr"/>
-      <c r="AZ388" t="inlineStr"/>
-      <c r="BA388" t="inlineStr"/>
-      <c r="BB388" t="inlineStr"/>
-      <c r="BC388" t="inlineStr"/>
-      <c r="BD388" t="inlineStr"/>
-      <c r="BE388" t="inlineStr"/>
-      <c r="BF388" t="inlineStr"/>
-      <c r="BG388" t="inlineStr"/>
-      <c r="BH388" t="inlineStr"/>
-      <c r="BI388" t="inlineStr"/>
-      <c r="BJ388" t="inlineStr"/>
-      <c r="BK388" t="inlineStr"/>
-      <c r="BL388" t="inlineStr"/>
-      <c r="BM388" t="inlineStr"/>
-      <c r="BN388" t="inlineStr"/>
-      <c r="BO388" t="inlineStr"/>
-      <c r="BP388" t="inlineStr"/>
-      <c r="BQ388" t="inlineStr"/>
-      <c r="BR388" t="inlineStr"/>
-      <c r="BS388" t="inlineStr"/>
-      <c r="BT388" t="inlineStr"/>
-      <c r="BU388" t="inlineStr"/>
-      <c r="BV388" t="inlineStr"/>
-      <c r="BW388" t="inlineStr"/>
-      <c r="BX388" t="inlineStr"/>
-      <c r="BY388" t="inlineStr"/>
-      <c r="BZ388" t="inlineStr"/>
-      <c r="CA388" t="inlineStr"/>
-      <c r="CB388" t="inlineStr"/>
-      <c r="CC388" t="inlineStr"/>
-      <c r="CD388" t="inlineStr"/>
-      <c r="CE388" t="inlineStr"/>
-      <c r="CF388" t="inlineStr"/>
-      <c r="CG388" t="inlineStr"/>
-      <c r="CH388" t="inlineStr"/>
-      <c r="CI388" t="inlineStr"/>
-      <c r="CJ388" t="inlineStr"/>
-      <c r="CK388" t="inlineStr"/>
-      <c r="CL388" t="inlineStr"/>
-      <c r="CM388" t="inlineStr"/>
-      <c r="CN388" t="inlineStr"/>
-      <c r="CO388" t="inlineStr"/>
-      <c r="CP388" t="inlineStr"/>
-      <c r="CQ388" t="inlineStr"/>
-      <c r="CR388" t="inlineStr"/>
-      <c r="CS388" t="inlineStr"/>
-      <c r="CT388" t="inlineStr"/>
-      <c r="CU388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>cl:10323</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>Sensor</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>cl:10317</t>
-        </is>
-      </c>
-      <c r="G389" t="inlineStr"/>
-      <c r="H389" t="inlineStr"/>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
-      <c r="M389" t="inlineStr"/>
-      <c r="N389" t="inlineStr"/>
-      <c r="O389" t="inlineStr"/>
-      <c r="P389" t="inlineStr"/>
-      <c r="Q389" t="inlineStr"/>
-      <c r="R389" t="inlineStr"/>
-      <c r="S389" t="inlineStr"/>
-      <c r="T389" t="inlineStr"/>
-      <c r="U389" t="inlineStr"/>
-      <c r="V389" t="inlineStr"/>
-      <c r="W389" t="inlineStr"/>
-      <c r="X389" t="inlineStr"/>
-      <c r="Y389" t="inlineStr"/>
-      <c r="Z389" t="inlineStr"/>
-      <c r="AA389" t="inlineStr"/>
-      <c r="AB389" t="inlineStr"/>
-      <c r="AC389" t="inlineStr"/>
-      <c r="AD389" t="inlineStr"/>
-      <c r="AE389" t="inlineStr"/>
-      <c r="AF389" t="inlineStr"/>
-      <c r="AG389" t="inlineStr"/>
-      <c r="AH389" t="inlineStr"/>
-      <c r="AI389" t="inlineStr"/>
-      <c r="AJ389" t="inlineStr"/>
-      <c r="AK389" t="inlineStr"/>
-      <c r="AL389" t="inlineStr"/>
-      <c r="AM389" t="inlineStr"/>
-      <c r="AN389" t="inlineStr"/>
-      <c r="AO389" t="inlineStr"/>
-      <c r="AP389" t="inlineStr"/>
-      <c r="AQ389" t="inlineStr"/>
-      <c r="AR389" t="inlineStr"/>
-      <c r="AS389" t="inlineStr"/>
-      <c r="AT389" t="inlineStr"/>
-      <c r="AU389" t="inlineStr"/>
-      <c r="AV389" t="inlineStr"/>
-      <c r="AW389" t="inlineStr"/>
-      <c r="AX389" t="inlineStr"/>
-      <c r="AY389" t="inlineStr"/>
-      <c r="AZ389" t="inlineStr"/>
-      <c r="BA389" t="inlineStr"/>
-      <c r="BB389" t="inlineStr"/>
-      <c r="BC389" t="inlineStr"/>
-      <c r="BD389" t="inlineStr"/>
-      <c r="BE389" t="inlineStr"/>
-      <c r="BF389" t="inlineStr"/>
-      <c r="BG389" t="inlineStr"/>
-      <c r="BH389" t="inlineStr"/>
-      <c r="BI389" t="inlineStr"/>
-      <c r="BJ389" t="inlineStr"/>
-      <c r="BK389" t="inlineStr"/>
-      <c r="BL389" t="inlineStr"/>
-      <c r="BM389" t="inlineStr"/>
-      <c r="BN389" t="inlineStr"/>
-      <c r="BO389" t="inlineStr"/>
-      <c r="BP389" t="inlineStr"/>
-      <c r="BQ389" t="inlineStr"/>
-      <c r="BR389" t="inlineStr"/>
-      <c r="BS389" t="inlineStr"/>
-      <c r="BT389" t="inlineStr"/>
-      <c r="BU389" t="inlineStr"/>
-      <c r="BV389" t="inlineStr"/>
-      <c r="BW389" t="inlineStr"/>
-      <c r="BX389" t="inlineStr"/>
-      <c r="BY389" t="inlineStr"/>
-      <c r="BZ389" t="inlineStr"/>
-      <c r="CA389" t="inlineStr"/>
-      <c r="CB389" t="inlineStr"/>
-      <c r="CC389" t="inlineStr"/>
-      <c r="CD389" t="inlineStr"/>
-      <c r="CE389" t="inlineStr"/>
-      <c r="CF389" t="inlineStr"/>
-      <c r="CG389" t="inlineStr"/>
-      <c r="CH389" t="inlineStr"/>
-      <c r="CI389" t="inlineStr"/>
-      <c r="CJ389" t="inlineStr"/>
-      <c r="CK389" t="inlineStr"/>
-      <c r="CL389" t="inlineStr"/>
-      <c r="CM389" t="inlineStr"/>
-      <c r="CN389" t="inlineStr"/>
-      <c r="CO389" t="inlineStr"/>
-      <c r="CP389" t="inlineStr"/>
-      <c r="CQ389" t="inlineStr"/>
-      <c r="CR389" t="inlineStr"/>
-      <c r="CS389" t="inlineStr"/>
-      <c r="CT389" t="inlineStr"/>
-      <c r="CU389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>cl:10324</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>network</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr"/>
-      <c r="E390" t="inlineStr"/>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>cl:10317</t>
-        </is>
-      </c>
-      <c r="G390" t="inlineStr"/>
-      <c r="H390" t="inlineStr"/>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
-      <c r="M390" t="inlineStr"/>
-      <c r="N390" t="inlineStr"/>
-      <c r="O390" t="inlineStr"/>
-      <c r="P390" t="inlineStr"/>
-      <c r="Q390" t="inlineStr"/>
-      <c r="R390" t="inlineStr"/>
-      <c r="S390" t="inlineStr"/>
-      <c r="T390" t="inlineStr"/>
-      <c r="U390" t="inlineStr"/>
-      <c r="V390" t="inlineStr"/>
-      <c r="W390" t="inlineStr"/>
-      <c r="X390" t="inlineStr"/>
-      <c r="Y390" t="inlineStr"/>
-      <c r="Z390" t="inlineStr"/>
-      <c r="AA390" t="inlineStr"/>
-      <c r="AB390" t="inlineStr"/>
-      <c r="AC390" t="inlineStr"/>
-      <c r="AD390" t="inlineStr"/>
-      <c r="AE390" t="inlineStr"/>
-      <c r="AF390" t="inlineStr"/>
-      <c r="AG390" t="inlineStr"/>
-      <c r="AH390" t="inlineStr"/>
-      <c r="AI390" t="inlineStr"/>
-      <c r="AJ390" t="inlineStr"/>
-      <c r="AK390" t="inlineStr"/>
-      <c r="AL390" t="inlineStr"/>
-      <c r="AM390" t="inlineStr"/>
-      <c r="AN390" t="inlineStr"/>
-      <c r="AO390" t="inlineStr"/>
-      <c r="AP390" t="inlineStr"/>
-      <c r="AQ390" t="inlineStr"/>
-      <c r="AR390" t="inlineStr"/>
-      <c r="AS390" t="inlineStr"/>
-      <c r="AT390" t="inlineStr"/>
-      <c r="AU390" t="inlineStr"/>
-      <c r="AV390" t="inlineStr"/>
-      <c r="AW390" t="inlineStr"/>
-      <c r="AX390" t="inlineStr"/>
-      <c r="AY390" t="inlineStr"/>
-      <c r="AZ390" t="inlineStr"/>
-      <c r="BA390" t="inlineStr"/>
-      <c r="BB390" t="inlineStr"/>
-      <c r="BC390" t="inlineStr"/>
-      <c r="BD390" t="inlineStr"/>
-      <c r="BE390" t="inlineStr"/>
-      <c r="BF390" t="inlineStr"/>
-      <c r="BG390" t="inlineStr"/>
-      <c r="BH390" t="inlineStr"/>
-      <c r="BI390" t="inlineStr"/>
-      <c r="BJ390" t="inlineStr"/>
-      <c r="BK390" t="inlineStr"/>
-      <c r="BL390" t="inlineStr"/>
-      <c r="BM390" t="inlineStr"/>
-      <c r="BN390" t="inlineStr"/>
-      <c r="BO390" t="inlineStr"/>
-      <c r="BP390" t="inlineStr"/>
-      <c r="BQ390" t="inlineStr"/>
-      <c r="BR390" t="inlineStr"/>
-      <c r="BS390" t="inlineStr"/>
-      <c r="BT390" t="inlineStr"/>
-      <c r="BU390" t="inlineStr"/>
-      <c r="BV390" t="inlineStr"/>
-      <c r="BW390" t="inlineStr"/>
-      <c r="BX390" t="inlineStr"/>
-      <c r="BY390" t="inlineStr"/>
-      <c r="BZ390" t="inlineStr"/>
-      <c r="CA390" t="inlineStr"/>
-      <c r="CB390" t="inlineStr"/>
-      <c r="CC390" t="inlineStr"/>
-      <c r="CD390" t="inlineStr"/>
-      <c r="CE390" t="inlineStr"/>
-      <c r="CF390" t="inlineStr"/>
-      <c r="CG390" t="inlineStr"/>
-      <c r="CH390" t="inlineStr"/>
-      <c r="CI390" t="inlineStr"/>
-      <c r="CJ390" t="inlineStr"/>
-      <c r="CK390" t="inlineStr"/>
-      <c r="CL390" t="inlineStr"/>
-      <c r="CM390" t="inlineStr"/>
-      <c r="CN390" t="inlineStr"/>
-      <c r="CO390" t="inlineStr"/>
-      <c r="CP390" t="inlineStr"/>
-      <c r="CQ390" t="inlineStr"/>
-      <c r="CR390" t="inlineStr"/>
-      <c r="CS390" t="inlineStr"/>
-      <c r="CT390" t="inlineStr"/>
-      <c r="CU390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>cl:10325</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>lodging</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="inlineStr"/>
-      <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr"/>
-      <c r="H391" t="inlineStr"/>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
-      <c r="M391" t="inlineStr"/>
-      <c r="N391" t="inlineStr"/>
-      <c r="O391" t="inlineStr"/>
-      <c r="P391" t="inlineStr"/>
-      <c r="Q391" t="inlineStr"/>
-      <c r="R391" t="inlineStr"/>
-      <c r="S391" t="inlineStr"/>
-      <c r="T391" t="inlineStr"/>
-      <c r="U391" t="inlineStr"/>
-      <c r="V391" t="inlineStr"/>
-      <c r="W391" t="inlineStr"/>
-      <c r="X391" t="inlineStr"/>
-      <c r="Y391" t="inlineStr"/>
-      <c r="Z391" t="inlineStr"/>
-      <c r="AA391" t="inlineStr"/>
-      <c r="AB391" t="inlineStr"/>
-      <c r="AC391" t="inlineStr"/>
-      <c r="AD391" t="inlineStr"/>
-      <c r="AE391" t="inlineStr"/>
-      <c r="AF391" t="inlineStr"/>
-      <c r="AG391" t="inlineStr"/>
-      <c r="AH391" t="inlineStr"/>
-      <c r="AI391" t="inlineStr"/>
-      <c r="AJ391" t="inlineStr"/>
-      <c r="AK391" t="inlineStr"/>
-      <c r="AL391" t="inlineStr"/>
-      <c r="AM391" t="inlineStr"/>
-      <c r="AN391" t="inlineStr"/>
-      <c r="AO391" t="inlineStr"/>
-      <c r="AP391" t="inlineStr"/>
-      <c r="AQ391" t="inlineStr"/>
-      <c r="AR391" t="inlineStr"/>
-      <c r="AS391" t="inlineStr"/>
-      <c r="AT391" t="inlineStr"/>
-      <c r="AU391" t="inlineStr"/>
-      <c r="AV391" t="inlineStr"/>
-      <c r="AW391" t="inlineStr"/>
-      <c r="AX391" t="inlineStr"/>
-      <c r="AY391" t="inlineStr"/>
-      <c r="AZ391" t="inlineStr"/>
-      <c r="BA391" t="inlineStr"/>
-      <c r="BB391" t="inlineStr"/>
-      <c r="BC391" t="inlineStr"/>
-      <c r="BD391" t="inlineStr"/>
-      <c r="BE391" t="inlineStr"/>
-      <c r="BF391" t="inlineStr"/>
-      <c r="BG391" t="inlineStr"/>
-      <c r="BH391" t="inlineStr"/>
-      <c r="BI391" t="inlineStr"/>
-      <c r="BJ391" t="inlineStr"/>
-      <c r="BK391" t="inlineStr"/>
-      <c r="BL391" t="inlineStr"/>
-      <c r="BM391" t="inlineStr"/>
-      <c r="BN391" t="inlineStr"/>
-      <c r="BO391" t="inlineStr"/>
-      <c r="BP391" t="inlineStr"/>
-      <c r="BQ391" t="inlineStr"/>
-      <c r="BR391" t="inlineStr"/>
-      <c r="BS391" t="inlineStr"/>
-      <c r="BT391" t="inlineStr"/>
-      <c r="BU391" t="inlineStr"/>
-      <c r="BV391" t="inlineStr"/>
-      <c r="BW391" t="inlineStr"/>
-      <c r="BX391" t="inlineStr"/>
-      <c r="BY391" t="inlineStr"/>
-      <c r="BZ391" t="inlineStr"/>
-      <c r="CA391" t="inlineStr"/>
-      <c r="CB391" t="inlineStr"/>
-      <c r="CC391" t="inlineStr"/>
-      <c r="CD391" t="inlineStr"/>
-      <c r="CE391" t="inlineStr"/>
-      <c r="CF391" t="inlineStr"/>
-      <c r="CG391" t="inlineStr"/>
-      <c r="CH391" t="inlineStr"/>
-      <c r="CI391" t="inlineStr"/>
-      <c r="CJ391" t="inlineStr"/>
-      <c r="CK391" t="inlineStr"/>
-      <c r="CL391" t="inlineStr"/>
-      <c r="CM391" t="inlineStr"/>
-      <c r="CN391" t="inlineStr"/>
-      <c r="CO391" t="inlineStr"/>
-      <c r="CP391" t="inlineStr"/>
-      <c r="CQ391" t="inlineStr"/>
-      <c r="CR391" t="inlineStr"/>
-      <c r="CS391" t="inlineStr"/>
-      <c r="CT391" t="inlineStr"/>
-      <c r="CU391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>cl:10326</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>no lodging</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="inlineStr"/>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>cl:10325</t>
-        </is>
-      </c>
-      <c r="G392" t="inlineStr"/>
-      <c r="H392" t="inlineStr"/>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
-      <c r="M392" t="inlineStr"/>
-      <c r="N392" t="inlineStr"/>
-      <c r="O392" t="inlineStr"/>
-      <c r="P392" t="inlineStr"/>
-      <c r="Q392" t="inlineStr"/>
-      <c r="R392" t="inlineStr"/>
-      <c r="S392" t="inlineStr"/>
-      <c r="T392" t="inlineStr"/>
-      <c r="U392" t="inlineStr"/>
-      <c r="V392" t="inlineStr"/>
-      <c r="W392" t="inlineStr"/>
-      <c r="X392" t="inlineStr"/>
-      <c r="Y392" t="inlineStr"/>
-      <c r="Z392" t="inlineStr"/>
-      <c r="AA392" t="inlineStr"/>
-      <c r="AB392" t="inlineStr"/>
-      <c r="AC392" t="inlineStr"/>
-      <c r="AD392" t="inlineStr"/>
-      <c r="AE392" t="inlineStr"/>
-      <c r="AF392" t="inlineStr"/>
-      <c r="AG392" t="inlineStr"/>
-      <c r="AH392" t="inlineStr"/>
-      <c r="AI392" t="inlineStr"/>
-      <c r="AJ392" t="inlineStr"/>
-      <c r="AK392" t="inlineStr"/>
-      <c r="AL392" t="inlineStr"/>
-      <c r="AM392" t="inlineStr"/>
-      <c r="AN392" t="inlineStr"/>
-      <c r="AO392" t="inlineStr"/>
-      <c r="AP392" t="inlineStr"/>
-      <c r="AQ392" t="inlineStr"/>
-      <c r="AR392" t="inlineStr"/>
-      <c r="AS392" t="inlineStr"/>
-      <c r="AT392" t="inlineStr"/>
-      <c r="AU392" t="inlineStr"/>
-      <c r="AV392" t="inlineStr"/>
-      <c r="AW392" t="inlineStr"/>
-      <c r="AX392" t="inlineStr"/>
-      <c r="AY392" t="inlineStr"/>
-      <c r="AZ392" t="inlineStr"/>
-      <c r="BA392" t="inlineStr"/>
-      <c r="BB392" t="inlineStr"/>
-      <c r="BC392" t="inlineStr"/>
-      <c r="BD392" t="inlineStr"/>
-      <c r="BE392" t="inlineStr"/>
-      <c r="BF392" t="inlineStr"/>
-      <c r="BG392" t="inlineStr"/>
-      <c r="BH392" t="inlineStr"/>
-      <c r="BI392" t="inlineStr"/>
-      <c r="BJ392" t="inlineStr"/>
-      <c r="BK392" t="inlineStr"/>
-      <c r="BL392" t="inlineStr"/>
-      <c r="BM392" t="inlineStr"/>
-      <c r="BN392" t="inlineStr"/>
-      <c r="BO392" t="inlineStr"/>
-      <c r="BP392" t="inlineStr"/>
-      <c r="BQ392" t="inlineStr"/>
-      <c r="BR392" t="inlineStr"/>
-      <c r="BS392" t="inlineStr"/>
-      <c r="BT392" t="inlineStr"/>
-      <c r="BU392" t="inlineStr"/>
-      <c r="BV392" t="inlineStr"/>
-      <c r="BW392" t="inlineStr"/>
-      <c r="BX392" t="inlineStr"/>
-      <c r="BY392" t="inlineStr"/>
-      <c r="BZ392" t="inlineStr"/>
-      <c r="CA392" t="inlineStr"/>
-      <c r="CB392" t="inlineStr"/>
-      <c r="CC392" t="inlineStr"/>
-      <c r="CD392" t="inlineStr"/>
-      <c r="CE392" t="inlineStr"/>
-      <c r="CF392" t="inlineStr"/>
-      <c r="CG392" t="inlineStr"/>
-      <c r="CH392" t="inlineStr"/>
-      <c r="CI392" t="inlineStr"/>
-      <c r="CJ392" t="inlineStr"/>
-      <c r="CK392" t="inlineStr"/>
-      <c r="CL392" t="inlineStr"/>
-      <c r="CM392" t="inlineStr"/>
-      <c r="CN392" t="inlineStr"/>
-      <c r="CO392" t="inlineStr"/>
-      <c r="CP392" t="inlineStr"/>
-      <c r="CQ392" t="inlineStr"/>
-      <c r="CR392" t="inlineStr"/>
-      <c r="CS392" t="inlineStr"/>
-      <c r="CT392" t="inlineStr"/>
-      <c r="CU392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>cl:10327</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>medium size lodging</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr"/>
-      <c r="E393" t="inlineStr"/>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>cl:10325</t>
-        </is>
-      </c>
-      <c r="G393" t="inlineStr"/>
-      <c r="H393" t="inlineStr"/>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
-      <c r="M393" t="inlineStr"/>
-      <c r="N393" t="inlineStr"/>
-      <c r="O393" t="inlineStr"/>
-      <c r="P393" t="inlineStr"/>
-      <c r="Q393" t="inlineStr"/>
-      <c r="R393" t="inlineStr"/>
-      <c r="S393" t="inlineStr"/>
-      <c r="T393" t="inlineStr"/>
-      <c r="U393" t="inlineStr"/>
-      <c r="V393" t="inlineStr"/>
-      <c r="W393" t="inlineStr"/>
-      <c r="X393" t="inlineStr"/>
-      <c r="Y393" t="inlineStr"/>
-      <c r="Z393" t="inlineStr"/>
-      <c r="AA393" t="inlineStr"/>
-      <c r="AB393" t="inlineStr"/>
-      <c r="AC393" t="inlineStr"/>
-      <c r="AD393" t="inlineStr"/>
-      <c r="AE393" t="inlineStr"/>
-      <c r="AF393" t="inlineStr"/>
-      <c r="AG393" t="inlineStr"/>
-      <c r="AH393" t="inlineStr"/>
-      <c r="AI393" t="inlineStr"/>
-      <c r="AJ393" t="inlineStr"/>
-      <c r="AK393" t="inlineStr"/>
-      <c r="AL393" t="inlineStr"/>
-      <c r="AM393" t="inlineStr"/>
-      <c r="AN393" t="inlineStr"/>
-      <c r="AO393" t="inlineStr"/>
-      <c r="AP393" t="inlineStr"/>
-      <c r="AQ393" t="inlineStr"/>
-      <c r="AR393" t="inlineStr"/>
-      <c r="AS393" t="inlineStr"/>
-      <c r="AT393" t="inlineStr"/>
-      <c r="AU393" t="inlineStr"/>
-      <c r="AV393" t="inlineStr"/>
-      <c r="AW393" t="inlineStr"/>
-      <c r="AX393" t="inlineStr"/>
-      <c r="AY393" t="inlineStr"/>
-      <c r="AZ393" t="inlineStr"/>
-      <c r="BA393" t="inlineStr"/>
-      <c r="BB393" t="inlineStr"/>
-      <c r="BC393" t="inlineStr"/>
-      <c r="BD393" t="inlineStr"/>
-      <c r="BE393" t="inlineStr"/>
-      <c r="BF393" t="inlineStr"/>
-      <c r="BG393" t="inlineStr"/>
-      <c r="BH393" t="inlineStr"/>
-      <c r="BI393" t="inlineStr"/>
-      <c r="BJ393" t="inlineStr"/>
-      <c r="BK393" t="inlineStr"/>
-      <c r="BL393" t="inlineStr"/>
-      <c r="BM393" t="inlineStr"/>
-      <c r="BN393" t="inlineStr"/>
-      <c r="BO393" t="inlineStr"/>
-      <c r="BP393" t="inlineStr"/>
-      <c r="BQ393" t="inlineStr"/>
-      <c r="BR393" t="inlineStr"/>
-      <c r="BS393" t="inlineStr"/>
-      <c r="BT393" t="inlineStr"/>
-      <c r="BU393" t="inlineStr"/>
-      <c r="BV393" t="inlineStr"/>
-      <c r="BW393" t="inlineStr"/>
-      <c r="BX393" t="inlineStr"/>
-      <c r="BY393" t="inlineStr"/>
-      <c r="BZ393" t="inlineStr"/>
-      <c r="CA393" t="inlineStr"/>
-      <c r="CB393" t="inlineStr"/>
-      <c r="CC393" t="inlineStr"/>
-      <c r="CD393" t="inlineStr"/>
-      <c r="CE393" t="inlineStr"/>
-      <c r="CF393" t="inlineStr"/>
-      <c r="CG393" t="inlineStr"/>
-      <c r="CH393" t="inlineStr"/>
-      <c r="CI393" t="inlineStr"/>
-      <c r="CJ393" t="inlineStr"/>
-      <c r="CK393" t="inlineStr"/>
-      <c r="CL393" t="inlineStr"/>
-      <c r="CM393" t="inlineStr"/>
-      <c r="CN393" t="inlineStr"/>
-      <c r="CO393" t="inlineStr"/>
-      <c r="CP393" t="inlineStr"/>
-      <c r="CQ393" t="inlineStr"/>
-      <c r="CR393" t="inlineStr"/>
-      <c r="CS393" t="inlineStr"/>
-      <c r="CT393" t="inlineStr"/>
-      <c r="CU393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>cl:10328</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>unknown number of beds</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>cl:10325</t>
-        </is>
-      </c>
-      <c r="G394" t="inlineStr"/>
-      <c r="H394" t="inlineStr"/>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
-      <c r="M394" t="inlineStr"/>
-      <c r="N394" t="inlineStr"/>
-      <c r="O394" t="inlineStr"/>
-      <c r="P394" t="inlineStr"/>
-      <c r="Q394" t="inlineStr"/>
-      <c r="R394" t="inlineStr"/>
-      <c r="S394" t="inlineStr"/>
-      <c r="T394" t="inlineStr"/>
-      <c r="U394" t="inlineStr"/>
-      <c r="V394" t="inlineStr"/>
-      <c r="W394" t="inlineStr"/>
-      <c r="X394" t="inlineStr"/>
-      <c r="Y394" t="inlineStr"/>
-      <c r="Z394" t="inlineStr"/>
-      <c r="AA394" t="inlineStr"/>
-      <c r="AB394" t="inlineStr"/>
-      <c r="AC394" t="inlineStr"/>
-      <c r="AD394" t="inlineStr"/>
-      <c r="AE394" t="inlineStr"/>
-      <c r="AF394" t="inlineStr"/>
-      <c r="AG394" t="inlineStr"/>
-      <c r="AH394" t="inlineStr"/>
-      <c r="AI394" t="inlineStr"/>
-      <c r="AJ394" t="inlineStr"/>
-      <c r="AK394" t="inlineStr"/>
-      <c r="AL394" t="inlineStr"/>
-      <c r="AM394" t="inlineStr"/>
-      <c r="AN394" t="inlineStr"/>
-      <c r="AO394" t="inlineStr"/>
-      <c r="AP394" t="inlineStr"/>
-      <c r="AQ394" t="inlineStr"/>
-      <c r="AR394" t="inlineStr"/>
-      <c r="AS394" t="inlineStr"/>
-      <c r="AT394" t="inlineStr"/>
-      <c r="AU394" t="inlineStr"/>
-      <c r="AV394" t="inlineStr"/>
-      <c r="AW394" t="inlineStr"/>
-      <c r="AX394" t="inlineStr"/>
-      <c r="AY394" t="inlineStr"/>
-      <c r="AZ394" t="inlineStr"/>
-      <c r="BA394" t="inlineStr"/>
-      <c r="BB394" t="inlineStr"/>
-      <c r="BC394" t="inlineStr"/>
-      <c r="BD394" t="inlineStr"/>
-      <c r="BE394" t="inlineStr"/>
-      <c r="BF394" t="inlineStr"/>
-      <c r="BG394" t="inlineStr"/>
-      <c r="BH394" t="inlineStr"/>
-      <c r="BI394" t="inlineStr"/>
-      <c r="BJ394" t="inlineStr"/>
-      <c r="BK394" t="inlineStr"/>
-      <c r="BL394" t="inlineStr"/>
-      <c r="BM394" t="inlineStr"/>
-      <c r="BN394" t="inlineStr"/>
-      <c r="BO394" t="inlineStr"/>
-      <c r="BP394" t="inlineStr"/>
-      <c r="BQ394" t="inlineStr"/>
-      <c r="BR394" t="inlineStr"/>
-      <c r="BS394" t="inlineStr"/>
-      <c r="BT394" t="inlineStr"/>
-      <c r="BU394" t="inlineStr"/>
-      <c r="BV394" t="inlineStr"/>
-      <c r="BW394" t="inlineStr"/>
-      <c r="BX394" t="inlineStr"/>
-      <c r="BY394" t="inlineStr"/>
-      <c r="BZ394" t="inlineStr"/>
-      <c r="CA394" t="inlineStr"/>
-      <c r="CB394" t="inlineStr"/>
-      <c r="CC394" t="inlineStr"/>
-      <c r="CD394" t="inlineStr"/>
-      <c r="CE394" t="inlineStr"/>
-      <c r="CF394" t="inlineStr"/>
-      <c r="CG394" t="inlineStr"/>
-      <c r="CH394" t="inlineStr"/>
-      <c r="CI394" t="inlineStr"/>
-      <c r="CJ394" t="inlineStr"/>
-      <c r="CK394" t="inlineStr"/>
-      <c r="CL394" t="inlineStr"/>
-      <c r="CM394" t="inlineStr"/>
-      <c r="CN394" t="inlineStr"/>
-      <c r="CO394" t="inlineStr"/>
-      <c r="CP394" t="inlineStr"/>
-      <c r="CQ394" t="inlineStr"/>
-      <c r="CR394" t="inlineStr"/>
-      <c r="CS394" t="inlineStr"/>
-      <c r="CT394" t="inlineStr"/>
-      <c r="CU394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>cl:10329</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>small size lodging</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr"/>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>cl:10325</t>
-        </is>
-      </c>
-      <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr"/>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
-      <c r="M395" t="inlineStr"/>
-      <c r="N395" t="inlineStr"/>
-      <c r="O395" t="inlineStr"/>
-      <c r="P395" t="inlineStr"/>
-      <c r="Q395" t="inlineStr"/>
-      <c r="R395" t="inlineStr"/>
-      <c r="S395" t="inlineStr"/>
-      <c r="T395" t="inlineStr"/>
-      <c r="U395" t="inlineStr"/>
-      <c r="V395" t="inlineStr"/>
-      <c r="W395" t="inlineStr"/>
-      <c r="X395" t="inlineStr"/>
-      <c r="Y395" t="inlineStr"/>
-      <c r="Z395" t="inlineStr"/>
-      <c r="AA395" t="inlineStr"/>
-      <c r="AB395" t="inlineStr"/>
-      <c r="AC395" t="inlineStr"/>
-      <c r="AD395" t="inlineStr"/>
-      <c r="AE395" t="inlineStr"/>
-      <c r="AF395" t="inlineStr"/>
-      <c r="AG395" t="inlineStr"/>
-      <c r="AH395" t="inlineStr"/>
-      <c r="AI395" t="inlineStr"/>
-      <c r="AJ395" t="inlineStr"/>
-      <c r="AK395" t="inlineStr"/>
-      <c r="AL395" t="inlineStr"/>
-      <c r="AM395" t="inlineStr"/>
-      <c r="AN395" t="inlineStr"/>
-      <c r="AO395" t="inlineStr"/>
-      <c r="AP395" t="inlineStr"/>
-      <c r="AQ395" t="inlineStr"/>
-      <c r="AR395" t="inlineStr"/>
-      <c r="AS395" t="inlineStr"/>
-      <c r="AT395" t="inlineStr"/>
-      <c r="AU395" t="inlineStr"/>
-      <c r="AV395" t="inlineStr"/>
-      <c r="AW395" t="inlineStr"/>
-      <c r="AX395" t="inlineStr"/>
-      <c r="AY395" t="inlineStr"/>
-      <c r="AZ395" t="inlineStr"/>
-      <c r="BA395" t="inlineStr"/>
-      <c r="BB395" t="inlineStr"/>
-      <c r="BC395" t="inlineStr"/>
-      <c r="BD395" t="inlineStr"/>
-      <c r="BE395" t="inlineStr"/>
-      <c r="BF395" t="inlineStr"/>
-      <c r="BG395" t="inlineStr"/>
-      <c r="BH395" t="inlineStr"/>
-      <c r="BI395" t="inlineStr"/>
-      <c r="BJ395" t="inlineStr"/>
-      <c r="BK395" t="inlineStr"/>
-      <c r="BL395" t="inlineStr"/>
-      <c r="BM395" t="inlineStr"/>
-      <c r="BN395" t="inlineStr"/>
-      <c r="BO395" t="inlineStr"/>
-      <c r="BP395" t="inlineStr"/>
-      <c r="BQ395" t="inlineStr"/>
-      <c r="BR395" t="inlineStr"/>
-      <c r="BS395" t="inlineStr"/>
-      <c r="BT395" t="inlineStr"/>
-      <c r="BU395" t="inlineStr"/>
-      <c r="BV395" t="inlineStr"/>
-      <c r="BW395" t="inlineStr"/>
-      <c r="BX395" t="inlineStr"/>
-      <c r="BY395" t="inlineStr"/>
-      <c r="BZ395" t="inlineStr"/>
-      <c r="CA395" t="inlineStr"/>
-      <c r="CB395" t="inlineStr"/>
-      <c r="CC395" t="inlineStr"/>
-      <c r="CD395" t="inlineStr"/>
-      <c r="CE395" t="inlineStr"/>
-      <c r="CF395" t="inlineStr"/>
-      <c r="CG395" t="inlineStr"/>
-      <c r="CH395" t="inlineStr"/>
-      <c r="CI395" t="inlineStr"/>
-      <c r="CJ395" t="inlineStr"/>
-      <c r="CK395" t="inlineStr"/>
-      <c r="CL395" t="inlineStr"/>
-      <c r="CM395" t="inlineStr"/>
-      <c r="CN395" t="inlineStr"/>
-      <c r="CO395" t="inlineStr"/>
-      <c r="CP395" t="inlineStr"/>
-      <c r="CQ395" t="inlineStr"/>
-      <c r="CR395" t="inlineStr"/>
-      <c r="CS395" t="inlineStr"/>
-      <c r="CT395" t="inlineStr"/>
-      <c r="CU395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>cl:10330</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>large size lodging</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr"/>
-      <c r="E396" t="inlineStr"/>
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>cl:10325</t>
-        </is>
-      </c>
-      <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr"/>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
-      <c r="M396" t="inlineStr"/>
-      <c r="N396" t="inlineStr"/>
-      <c r="O396" t="inlineStr"/>
-      <c r="P396" t="inlineStr"/>
-      <c r="Q396" t="inlineStr"/>
-      <c r="R396" t="inlineStr"/>
-      <c r="S396" t="inlineStr"/>
-      <c r="T396" t="inlineStr"/>
-      <c r="U396" t="inlineStr"/>
-      <c r="V396" t="inlineStr"/>
-      <c r="W396" t="inlineStr"/>
-      <c r="X396" t="inlineStr"/>
-      <c r="Y396" t="inlineStr"/>
-      <c r="Z396" t="inlineStr"/>
-      <c r="AA396" t="inlineStr"/>
-      <c r="AB396" t="inlineStr"/>
-      <c r="AC396" t="inlineStr"/>
-      <c r="AD396" t="inlineStr"/>
-      <c r="AE396" t="inlineStr"/>
-      <c r="AF396" t="inlineStr"/>
-      <c r="AG396" t="inlineStr"/>
-      <c r="AH396" t="inlineStr"/>
-      <c r="AI396" t="inlineStr"/>
-      <c r="AJ396" t="inlineStr"/>
-      <c r="AK396" t="inlineStr"/>
-      <c r="AL396" t="inlineStr"/>
-      <c r="AM396" t="inlineStr"/>
-      <c r="AN396" t="inlineStr"/>
-      <c r="AO396" t="inlineStr"/>
-      <c r="AP396" t="inlineStr"/>
-      <c r="AQ396" t="inlineStr"/>
-      <c r="AR396" t="inlineStr"/>
-      <c r="AS396" t="inlineStr"/>
-      <c r="AT396" t="inlineStr"/>
-      <c r="AU396" t="inlineStr"/>
-      <c r="AV396" t="inlineStr"/>
-      <c r="AW396" t="inlineStr"/>
-      <c r="AX396" t="inlineStr"/>
-      <c r="AY396" t="inlineStr"/>
-      <c r="AZ396" t="inlineStr"/>
-      <c r="BA396" t="inlineStr"/>
-      <c r="BB396" t="inlineStr"/>
-      <c r="BC396" t="inlineStr"/>
-      <c r="BD396" t="inlineStr"/>
-      <c r="BE396" t="inlineStr"/>
-      <c r="BF396" t="inlineStr"/>
-      <c r="BG396" t="inlineStr"/>
-      <c r="BH396" t="inlineStr"/>
-      <c r="BI396" t="inlineStr"/>
-      <c r="BJ396" t="inlineStr"/>
-      <c r="BK396" t="inlineStr"/>
-      <c r="BL396" t="inlineStr"/>
-      <c r="BM396" t="inlineStr"/>
-      <c r="BN396" t="inlineStr"/>
-      <c r="BO396" t="inlineStr"/>
-      <c r="BP396" t="inlineStr"/>
-      <c r="BQ396" t="inlineStr"/>
-      <c r="BR396" t="inlineStr"/>
-      <c r="BS396" t="inlineStr"/>
-      <c r="BT396" t="inlineStr"/>
-      <c r="BU396" t="inlineStr"/>
-      <c r="BV396" t="inlineStr"/>
-      <c r="BW396" t="inlineStr"/>
-      <c r="BX396" t="inlineStr"/>
-      <c r="BY396" t="inlineStr"/>
-      <c r="BZ396" t="inlineStr"/>
-      <c r="CA396" t="inlineStr"/>
-      <c r="CB396" t="inlineStr"/>
-      <c r="CC396" t="inlineStr"/>
-      <c r="CD396" t="inlineStr"/>
-      <c r="CE396" t="inlineStr"/>
-      <c r="CF396" t="inlineStr"/>
-      <c r="CG396" t="inlineStr"/>
-      <c r="CH396" t="inlineStr"/>
-      <c r="CI396" t="inlineStr"/>
-      <c r="CJ396" t="inlineStr"/>
-      <c r="CK396" t="inlineStr"/>
-      <c r="CL396" t="inlineStr"/>
-      <c r="CM396" t="inlineStr"/>
-      <c r="CN396" t="inlineStr"/>
-      <c r="CO396" t="inlineStr"/>
-      <c r="CP396" t="inlineStr"/>
-      <c r="CQ396" t="inlineStr"/>
-      <c r="CR396" t="inlineStr"/>
-      <c r="CS396" t="inlineStr"/>
-      <c r="CT396" t="inlineStr"/>
-      <c r="CU396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>cl:10331</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>staff room</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>The data type 'Staff room and lodging' describes availability of a working space and lodging at the research site.</t>
-        </is>
-      </c>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr"/>
-      <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr"/>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
-      <c r="M397" t="inlineStr"/>
-      <c r="N397" t="inlineStr"/>
-      <c r="O397" t="inlineStr"/>
-      <c r="P397" t="inlineStr"/>
-      <c r="Q397" t="inlineStr"/>
-      <c r="R397" t="inlineStr"/>
-      <c r="S397" t="inlineStr"/>
-      <c r="T397" t="inlineStr"/>
-      <c r="U397" t="inlineStr"/>
-      <c r="V397" t="inlineStr"/>
-      <c r="W397" t="inlineStr"/>
-      <c r="X397" t="inlineStr"/>
-      <c r="Y397" t="inlineStr"/>
-      <c r="Z397" t="inlineStr"/>
-      <c r="AA397" t="inlineStr"/>
-      <c r="AB397" t="inlineStr"/>
-      <c r="AC397" t="inlineStr"/>
-      <c r="AD397" t="inlineStr"/>
-      <c r="AE397" t="inlineStr"/>
-      <c r="AF397" t="inlineStr"/>
-      <c r="AG397" t="inlineStr"/>
-      <c r="AH397" t="inlineStr"/>
-      <c r="AI397" t="inlineStr"/>
-      <c r="AJ397" t="inlineStr"/>
-      <c r="AK397" t="inlineStr"/>
-      <c r="AL397" t="inlineStr"/>
-      <c r="AM397" t="inlineStr"/>
-      <c r="AN397" t="inlineStr"/>
-      <c r="AO397" t="inlineStr"/>
-      <c r="AP397" t="inlineStr"/>
-      <c r="AQ397" t="inlineStr"/>
-      <c r="AR397" t="inlineStr"/>
-      <c r="AS397" t="inlineStr"/>
-      <c r="AT397" t="inlineStr"/>
-      <c r="AU397" t="inlineStr"/>
-      <c r="AV397" t="inlineStr"/>
-      <c r="AW397" t="inlineStr"/>
-      <c r="AX397" t="inlineStr"/>
-      <c r="AY397" t="inlineStr"/>
-      <c r="AZ397" t="inlineStr"/>
-      <c r="BA397" t="inlineStr"/>
-      <c r="BB397" t="inlineStr"/>
-      <c r="BC397" t="inlineStr"/>
-      <c r="BD397" t="inlineStr"/>
-      <c r="BE397" t="inlineStr"/>
-      <c r="BF397" t="inlineStr"/>
-      <c r="BG397" t="inlineStr"/>
-      <c r="BH397" t="inlineStr"/>
-      <c r="BI397" t="inlineStr"/>
-      <c r="BJ397" t="inlineStr"/>
-      <c r="BK397" t="inlineStr"/>
-      <c r="BL397" t="inlineStr"/>
-      <c r="BM397" t="inlineStr"/>
-      <c r="BN397" t="inlineStr"/>
-      <c r="BO397" t="inlineStr"/>
-      <c r="BP397" t="inlineStr"/>
-      <c r="BQ397" t="inlineStr"/>
-      <c r="BR397" t="inlineStr"/>
-      <c r="BS397" t="inlineStr"/>
-      <c r="BT397" t="inlineStr"/>
-      <c r="BU397" t="inlineStr"/>
-      <c r="BV397" t="inlineStr"/>
-      <c r="BW397" t="inlineStr"/>
-      <c r="BX397" t="inlineStr"/>
-      <c r="BY397" t="inlineStr"/>
-      <c r="BZ397" t="inlineStr"/>
-      <c r="CA397" t="inlineStr"/>
-      <c r="CB397" t="inlineStr"/>
-      <c r="CC397" t="inlineStr"/>
-      <c r="CD397" t="inlineStr"/>
-      <c r="CE397" t="inlineStr"/>
-      <c r="CF397" t="inlineStr"/>
-      <c r="CG397" t="inlineStr"/>
-      <c r="CH397" t="inlineStr"/>
-      <c r="CI397" t="inlineStr"/>
-      <c r="CJ397" t="inlineStr"/>
-      <c r="CK397" t="inlineStr"/>
-      <c r="CL397" t="inlineStr"/>
-      <c r="CM397" t="inlineStr"/>
-      <c r="CN397" t="inlineStr"/>
-      <c r="CO397" t="inlineStr"/>
-      <c r="CP397" t="inlineStr"/>
-      <c r="CQ397" t="inlineStr"/>
-      <c r="CR397" t="inlineStr"/>
-      <c r="CS397" t="inlineStr"/>
-      <c r="CT397" t="inlineStr"/>
-      <c r="CU397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>cl:10332</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>small size staff room</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr"/>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>cl:10331</t>
-        </is>
-      </c>
-      <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr"/>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
-      <c r="M398" t="inlineStr"/>
-      <c r="N398" t="inlineStr"/>
-      <c r="O398" t="inlineStr"/>
-      <c r="P398" t="inlineStr"/>
-      <c r="Q398" t="inlineStr"/>
-      <c r="R398" t="inlineStr"/>
-      <c r="S398" t="inlineStr"/>
-      <c r="T398" t="inlineStr"/>
-      <c r="U398" t="inlineStr"/>
-      <c r="V398" t="inlineStr"/>
-      <c r="W398" t="inlineStr"/>
-      <c r="X398" t="inlineStr"/>
-      <c r="Y398" t="inlineStr"/>
-      <c r="Z398" t="inlineStr"/>
-      <c r="AA398" t="inlineStr"/>
-      <c r="AB398" t="inlineStr"/>
-      <c r="AC398" t="inlineStr"/>
-      <c r="AD398" t="inlineStr"/>
-      <c r="AE398" t="inlineStr"/>
-      <c r="AF398" t="inlineStr"/>
-      <c r="AG398" t="inlineStr"/>
-      <c r="AH398" t="inlineStr"/>
-      <c r="AI398" t="inlineStr"/>
-      <c r="AJ398" t="inlineStr"/>
-      <c r="AK398" t="inlineStr"/>
-      <c r="AL398" t="inlineStr"/>
-      <c r="AM398" t="inlineStr"/>
-      <c r="AN398" t="inlineStr"/>
-      <c r="AO398" t="inlineStr"/>
-      <c r="AP398" t="inlineStr"/>
-      <c r="AQ398" t="inlineStr"/>
-      <c r="AR398" t="inlineStr"/>
-      <c r="AS398" t="inlineStr"/>
-      <c r="AT398" t="inlineStr"/>
-      <c r="AU398" t="inlineStr"/>
-      <c r="AV398" t="inlineStr"/>
-      <c r="AW398" t="inlineStr"/>
-      <c r="AX398" t="inlineStr"/>
-      <c r="AY398" t="inlineStr"/>
-      <c r="AZ398" t="inlineStr"/>
-      <c r="BA398" t="inlineStr"/>
-      <c r="BB398" t="inlineStr"/>
-      <c r="BC398" t="inlineStr"/>
-      <c r="BD398" t="inlineStr"/>
-      <c r="BE398" t="inlineStr"/>
-      <c r="BF398" t="inlineStr"/>
-      <c r="BG398" t="inlineStr"/>
-      <c r="BH398" t="inlineStr"/>
-      <c r="BI398" t="inlineStr"/>
-      <c r="BJ398" t="inlineStr"/>
-      <c r="BK398" t="inlineStr"/>
-      <c r="BL398" t="inlineStr"/>
-      <c r="BM398" t="inlineStr"/>
-      <c r="BN398" t="inlineStr"/>
-      <c r="BO398" t="inlineStr"/>
-      <c r="BP398" t="inlineStr"/>
-      <c r="BQ398" t="inlineStr"/>
-      <c r="BR398" t="inlineStr"/>
-      <c r="BS398" t="inlineStr"/>
-      <c r="BT398" t="inlineStr"/>
-      <c r="BU398" t="inlineStr"/>
-      <c r="BV398" t="inlineStr"/>
-      <c r="BW398" t="inlineStr"/>
-      <c r="BX398" t="inlineStr"/>
-      <c r="BY398" t="inlineStr"/>
-      <c r="BZ398" t="inlineStr"/>
-      <c r="CA398" t="inlineStr"/>
-      <c r="CB398" t="inlineStr"/>
-      <c r="CC398" t="inlineStr"/>
-      <c r="CD398" t="inlineStr"/>
-      <c r="CE398" t="inlineStr"/>
-      <c r="CF398" t="inlineStr"/>
-      <c r="CG398" t="inlineStr"/>
-      <c r="CH398" t="inlineStr"/>
-      <c r="CI398" t="inlineStr"/>
-      <c r="CJ398" t="inlineStr"/>
-      <c r="CK398" t="inlineStr"/>
-      <c r="CL398" t="inlineStr"/>
-      <c r="CM398" t="inlineStr"/>
-      <c r="CN398" t="inlineStr"/>
-      <c r="CO398" t="inlineStr"/>
-      <c r="CP398" t="inlineStr"/>
-      <c r="CQ398" t="inlineStr"/>
-      <c r="CR398" t="inlineStr"/>
-      <c r="CS398" t="inlineStr"/>
-      <c r="CT398" t="inlineStr"/>
-      <c r="CU398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>cl:10333</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>large size staff room</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr"/>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>cl:10331</t>
-        </is>
-      </c>
-      <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr"/>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
-      <c r="M399" t="inlineStr"/>
-      <c r="N399" t="inlineStr"/>
-      <c r="O399" t="inlineStr"/>
-      <c r="P399" t="inlineStr"/>
-      <c r="Q399" t="inlineStr"/>
-      <c r="R399" t="inlineStr"/>
-      <c r="S399" t="inlineStr"/>
-      <c r="T399" t="inlineStr"/>
-      <c r="U399" t="inlineStr"/>
-      <c r="V399" t="inlineStr"/>
-      <c r="W399" t="inlineStr"/>
-      <c r="X399" t="inlineStr"/>
-      <c r="Y399" t="inlineStr"/>
-      <c r="Z399" t="inlineStr"/>
-      <c r="AA399" t="inlineStr"/>
-      <c r="AB399" t="inlineStr"/>
-      <c r="AC399" t="inlineStr"/>
-      <c r="AD399" t="inlineStr"/>
-      <c r="AE399" t="inlineStr"/>
-      <c r="AF399" t="inlineStr"/>
-      <c r="AG399" t="inlineStr"/>
-      <c r="AH399" t="inlineStr"/>
-      <c r="AI399" t="inlineStr"/>
-      <c r="AJ399" t="inlineStr"/>
-      <c r="AK399" t="inlineStr"/>
-      <c r="AL399" t="inlineStr"/>
-      <c r="AM399" t="inlineStr"/>
-      <c r="AN399" t="inlineStr"/>
-      <c r="AO399" t="inlineStr"/>
-      <c r="AP399" t="inlineStr"/>
-      <c r="AQ399" t="inlineStr"/>
-      <c r="AR399" t="inlineStr"/>
-      <c r="AS399" t="inlineStr"/>
-      <c r="AT399" t="inlineStr"/>
-      <c r="AU399" t="inlineStr"/>
-      <c r="AV399" t="inlineStr"/>
-      <c r="AW399" t="inlineStr"/>
-      <c r="AX399" t="inlineStr"/>
-      <c r="AY399" t="inlineStr"/>
-      <c r="AZ399" t="inlineStr"/>
-      <c r="BA399" t="inlineStr"/>
-      <c r="BB399" t="inlineStr"/>
-      <c r="BC399" t="inlineStr"/>
-      <c r="BD399" t="inlineStr"/>
-      <c r="BE399" t="inlineStr"/>
-      <c r="BF399" t="inlineStr"/>
-      <c r="BG399" t="inlineStr"/>
-      <c r="BH399" t="inlineStr"/>
-      <c r="BI399" t="inlineStr"/>
-      <c r="BJ399" t="inlineStr"/>
-      <c r="BK399" t="inlineStr"/>
-      <c r="BL399" t="inlineStr"/>
-      <c r="BM399" t="inlineStr"/>
-      <c r="BN399" t="inlineStr"/>
-      <c r="BO399" t="inlineStr"/>
-      <c r="BP399" t="inlineStr"/>
-      <c r="BQ399" t="inlineStr"/>
-      <c r="BR399" t="inlineStr"/>
-      <c r="BS399" t="inlineStr"/>
-      <c r="BT399" t="inlineStr"/>
-      <c r="BU399" t="inlineStr"/>
-      <c r="BV399" t="inlineStr"/>
-      <c r="BW399" t="inlineStr"/>
-      <c r="BX399" t="inlineStr"/>
-      <c r="BY399" t="inlineStr"/>
-      <c r="BZ399" t="inlineStr"/>
-      <c r="CA399" t="inlineStr"/>
-      <c r="CB399" t="inlineStr"/>
-      <c r="CC399" t="inlineStr"/>
-      <c r="CD399" t="inlineStr"/>
-      <c r="CE399" t="inlineStr"/>
-      <c r="CF399" t="inlineStr"/>
-      <c r="CG399" t="inlineStr"/>
-      <c r="CH399" t="inlineStr"/>
-      <c r="CI399" t="inlineStr"/>
-      <c r="CJ399" t="inlineStr"/>
-      <c r="CK399" t="inlineStr"/>
-      <c r="CL399" t="inlineStr"/>
-      <c r="CM399" t="inlineStr"/>
-      <c r="CN399" t="inlineStr"/>
-      <c r="CO399" t="inlineStr"/>
-      <c r="CP399" t="inlineStr"/>
-      <c r="CQ399" t="inlineStr"/>
-      <c r="CR399" t="inlineStr"/>
-      <c r="CS399" t="inlineStr"/>
-      <c r="CT399" t="inlineStr"/>
-      <c r="CU399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>cl:10334</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>no staff room</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr"/>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>cl:10331</t>
-        </is>
-      </c>
-      <c r="G400" t="inlineStr"/>
-      <c r="H400" t="inlineStr"/>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
-      <c r="M400" t="inlineStr"/>
-      <c r="N400" t="inlineStr"/>
-      <c r="O400" t="inlineStr"/>
-      <c r="P400" t="inlineStr"/>
-      <c r="Q400" t="inlineStr"/>
-      <c r="R400" t="inlineStr"/>
-      <c r="S400" t="inlineStr"/>
-      <c r="T400" t="inlineStr"/>
-      <c r="U400" t="inlineStr"/>
-      <c r="V400" t="inlineStr"/>
-      <c r="W400" t="inlineStr"/>
-      <c r="X400" t="inlineStr"/>
-      <c r="Y400" t="inlineStr"/>
-      <c r="Z400" t="inlineStr"/>
-      <c r="AA400" t="inlineStr"/>
-      <c r="AB400" t="inlineStr"/>
-      <c r="AC400" t="inlineStr"/>
-      <c r="AD400" t="inlineStr"/>
-      <c r="AE400" t="inlineStr"/>
-      <c r="AF400" t="inlineStr"/>
-      <c r="AG400" t="inlineStr"/>
-      <c r="AH400" t="inlineStr"/>
-      <c r="AI400" t="inlineStr"/>
-      <c r="AJ400" t="inlineStr"/>
-      <c r="AK400" t="inlineStr"/>
-      <c r="AL400" t="inlineStr"/>
-      <c r="AM400" t="inlineStr"/>
-      <c r="AN400" t="inlineStr"/>
-      <c r="AO400" t="inlineStr"/>
-      <c r="AP400" t="inlineStr"/>
-      <c r="AQ400" t="inlineStr"/>
-      <c r="AR400" t="inlineStr"/>
-      <c r="AS400" t="inlineStr"/>
-      <c r="AT400" t="inlineStr"/>
-      <c r="AU400" t="inlineStr"/>
-      <c r="AV400" t="inlineStr"/>
-      <c r="AW400" t="inlineStr"/>
-      <c r="AX400" t="inlineStr"/>
-      <c r="AY400" t="inlineStr"/>
-      <c r="AZ400" t="inlineStr"/>
-      <c r="BA400" t="inlineStr"/>
-      <c r="BB400" t="inlineStr"/>
-      <c r="BC400" t="inlineStr"/>
-      <c r="BD400" t="inlineStr"/>
-      <c r="BE400" t="inlineStr"/>
-      <c r="BF400" t="inlineStr"/>
-      <c r="BG400" t="inlineStr"/>
-      <c r="BH400" t="inlineStr"/>
-      <c r="BI400" t="inlineStr"/>
-      <c r="BJ400" t="inlineStr"/>
-      <c r="BK400" t="inlineStr"/>
-      <c r="BL400" t="inlineStr"/>
-      <c r="BM400" t="inlineStr"/>
-      <c r="BN400" t="inlineStr"/>
-      <c r="BO400" t="inlineStr"/>
-      <c r="BP400" t="inlineStr"/>
-      <c r="BQ400" t="inlineStr"/>
-      <c r="BR400" t="inlineStr"/>
-      <c r="BS400" t="inlineStr"/>
-      <c r="BT400" t="inlineStr"/>
-      <c r="BU400" t="inlineStr"/>
-      <c r="BV400" t="inlineStr"/>
-      <c r="BW400" t="inlineStr"/>
-      <c r="BX400" t="inlineStr"/>
-      <c r="BY400" t="inlineStr"/>
-      <c r="BZ400" t="inlineStr"/>
-      <c r="CA400" t="inlineStr"/>
-      <c r="CB400" t="inlineStr"/>
-      <c r="CC400" t="inlineStr"/>
-      <c r="CD400" t="inlineStr"/>
-      <c r="CE400" t="inlineStr"/>
-      <c r="CF400" t="inlineStr"/>
-      <c r="CG400" t="inlineStr"/>
-      <c r="CH400" t="inlineStr"/>
-      <c r="CI400" t="inlineStr"/>
-      <c r="CJ400" t="inlineStr"/>
-      <c r="CK400" t="inlineStr"/>
-      <c r="CL400" t="inlineStr"/>
-      <c r="CM400" t="inlineStr"/>
-      <c r="CN400" t="inlineStr"/>
-      <c r="CO400" t="inlineStr"/>
-      <c r="CP400" t="inlineStr"/>
-      <c r="CQ400" t="inlineStr"/>
-      <c r="CR400" t="inlineStr"/>
-      <c r="CS400" t="inlineStr"/>
-      <c r="CT400" t="inlineStr"/>
-      <c r="CU400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>cl:10335</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>unknown number of places</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>cl:10331</t>
-        </is>
-      </c>
-      <c r="G401" t="inlineStr"/>
-      <c r="H401" t="inlineStr"/>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
-      <c r="M401" t="inlineStr"/>
-      <c r="N401" t="inlineStr"/>
-      <c r="O401" t="inlineStr"/>
-      <c r="P401" t="inlineStr"/>
-      <c r="Q401" t="inlineStr"/>
-      <c r="R401" t="inlineStr"/>
-      <c r="S401" t="inlineStr"/>
-      <c r="T401" t="inlineStr"/>
-      <c r="U401" t="inlineStr"/>
-      <c r="V401" t="inlineStr"/>
-      <c r="W401" t="inlineStr"/>
-      <c r="X401" t="inlineStr"/>
-      <c r="Y401" t="inlineStr"/>
-      <c r="Z401" t="inlineStr"/>
-      <c r="AA401" t="inlineStr"/>
-      <c r="AB401" t="inlineStr"/>
-      <c r="AC401" t="inlineStr"/>
-      <c r="AD401" t="inlineStr"/>
-      <c r="AE401" t="inlineStr"/>
-      <c r="AF401" t="inlineStr"/>
-      <c r="AG401" t="inlineStr"/>
-      <c r="AH401" t="inlineStr"/>
-      <c r="AI401" t="inlineStr"/>
-      <c r="AJ401" t="inlineStr"/>
-      <c r="AK401" t="inlineStr"/>
-      <c r="AL401" t="inlineStr"/>
-      <c r="AM401" t="inlineStr"/>
-      <c r="AN401" t="inlineStr"/>
-      <c r="AO401" t="inlineStr"/>
-      <c r="AP401" t="inlineStr"/>
-      <c r="AQ401" t="inlineStr"/>
-      <c r="AR401" t="inlineStr"/>
-      <c r="AS401" t="inlineStr"/>
-      <c r="AT401" t="inlineStr"/>
-      <c r="AU401" t="inlineStr"/>
-      <c r="AV401" t="inlineStr"/>
-      <c r="AW401" t="inlineStr"/>
-      <c r="AX401" t="inlineStr"/>
-      <c r="AY401" t="inlineStr"/>
-      <c r="AZ401" t="inlineStr"/>
-      <c r="BA401" t="inlineStr"/>
-      <c r="BB401" t="inlineStr"/>
-      <c r="BC401" t="inlineStr"/>
-      <c r="BD401" t="inlineStr"/>
-      <c r="BE401" t="inlineStr"/>
-      <c r="BF401" t="inlineStr"/>
-      <c r="BG401" t="inlineStr"/>
-      <c r="BH401" t="inlineStr"/>
-      <c r="BI401" t="inlineStr"/>
-      <c r="BJ401" t="inlineStr"/>
-      <c r="BK401" t="inlineStr"/>
-      <c r="BL401" t="inlineStr"/>
-      <c r="BM401" t="inlineStr"/>
-      <c r="BN401" t="inlineStr"/>
-      <c r="BO401" t="inlineStr"/>
-      <c r="BP401" t="inlineStr"/>
-      <c r="BQ401" t="inlineStr"/>
-      <c r="BR401" t="inlineStr"/>
-      <c r="BS401" t="inlineStr"/>
-      <c r="BT401" t="inlineStr"/>
-      <c r="BU401" t="inlineStr"/>
-      <c r="BV401" t="inlineStr"/>
-      <c r="BW401" t="inlineStr"/>
-      <c r="BX401" t="inlineStr"/>
-      <c r="BY401" t="inlineStr"/>
-      <c r="BZ401" t="inlineStr"/>
-      <c r="CA401" t="inlineStr"/>
-      <c r="CB401" t="inlineStr"/>
-      <c r="CC401" t="inlineStr"/>
-      <c r="CD401" t="inlineStr"/>
-      <c r="CE401" t="inlineStr"/>
-      <c r="CF401" t="inlineStr"/>
-      <c r="CG401" t="inlineStr"/>
-      <c r="CH401" t="inlineStr"/>
-      <c r="CI401" t="inlineStr"/>
-      <c r="CJ401" t="inlineStr"/>
-      <c r="CK401" t="inlineStr"/>
-      <c r="CL401" t="inlineStr"/>
-      <c r="CM401" t="inlineStr"/>
-      <c r="CN401" t="inlineStr"/>
-      <c r="CO401" t="inlineStr"/>
-      <c r="CP401" t="inlineStr"/>
-      <c r="CQ401" t="inlineStr"/>
-      <c r="CR401" t="inlineStr"/>
-      <c r="CS401" t="inlineStr"/>
-      <c r="CT401" t="inlineStr"/>
-      <c r="CU401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>cl:10336</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>medium size staff room</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr"/>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>cl:10331</t>
-        </is>
-      </c>
-      <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr"/>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
-      <c r="M402" t="inlineStr"/>
-      <c r="N402" t="inlineStr"/>
-      <c r="O402" t="inlineStr"/>
-      <c r="P402" t="inlineStr"/>
-      <c r="Q402" t="inlineStr"/>
-      <c r="R402" t="inlineStr"/>
-      <c r="S402" t="inlineStr"/>
-      <c r="T402" t="inlineStr"/>
-      <c r="U402" t="inlineStr"/>
-      <c r="V402" t="inlineStr"/>
-      <c r="W402" t="inlineStr"/>
-      <c r="X402" t="inlineStr"/>
-      <c r="Y402" t="inlineStr"/>
-      <c r="Z402" t="inlineStr"/>
-      <c r="AA402" t="inlineStr"/>
-      <c r="AB402" t="inlineStr"/>
-      <c r="AC402" t="inlineStr"/>
-      <c r="AD402" t="inlineStr"/>
-      <c r="AE402" t="inlineStr"/>
-      <c r="AF402" t="inlineStr"/>
-      <c r="AG402" t="inlineStr"/>
-      <c r="AH402" t="inlineStr"/>
-      <c r="AI402" t="inlineStr"/>
-      <c r="AJ402" t="inlineStr"/>
-      <c r="AK402" t="inlineStr"/>
-      <c r="AL402" t="inlineStr"/>
-      <c r="AM402" t="inlineStr"/>
-      <c r="AN402" t="inlineStr"/>
-      <c r="AO402" t="inlineStr"/>
-      <c r="AP402" t="inlineStr"/>
-      <c r="AQ402" t="inlineStr"/>
-      <c r="AR402" t="inlineStr"/>
-      <c r="AS402" t="inlineStr"/>
-      <c r="AT402" t="inlineStr"/>
-      <c r="AU402" t="inlineStr"/>
-      <c r="AV402" t="inlineStr"/>
-      <c r="AW402" t="inlineStr"/>
-      <c r="AX402" t="inlineStr"/>
-      <c r="AY402" t="inlineStr"/>
-      <c r="AZ402" t="inlineStr"/>
-      <c r="BA402" t="inlineStr"/>
-      <c r="BB402" t="inlineStr"/>
-      <c r="BC402" t="inlineStr"/>
-      <c r="BD402" t="inlineStr"/>
-      <c r="BE402" t="inlineStr"/>
-      <c r="BF402" t="inlineStr"/>
-      <c r="BG402" t="inlineStr"/>
-      <c r="BH402" t="inlineStr"/>
-      <c r="BI402" t="inlineStr"/>
-      <c r="BJ402" t="inlineStr"/>
-      <c r="BK402" t="inlineStr"/>
-      <c r="BL402" t="inlineStr"/>
-      <c r="BM402" t="inlineStr"/>
-      <c r="BN402" t="inlineStr"/>
-      <c r="BO402" t="inlineStr"/>
-      <c r="BP402" t="inlineStr"/>
-      <c r="BQ402" t="inlineStr"/>
-      <c r="BR402" t="inlineStr"/>
-      <c r="BS402" t="inlineStr"/>
-      <c r="BT402" t="inlineStr"/>
-      <c r="BU402" t="inlineStr"/>
-      <c r="BV402" t="inlineStr"/>
-      <c r="BW402" t="inlineStr"/>
-      <c r="BX402" t="inlineStr"/>
-      <c r="BY402" t="inlineStr"/>
-      <c r="BZ402" t="inlineStr"/>
-      <c r="CA402" t="inlineStr"/>
-      <c r="CB402" t="inlineStr"/>
-      <c r="CC402" t="inlineStr"/>
-      <c r="CD402" t="inlineStr"/>
-      <c r="CE402" t="inlineStr"/>
-      <c r="CF402" t="inlineStr"/>
-      <c r="CG402" t="inlineStr"/>
-      <c r="CH402" t="inlineStr"/>
-      <c r="CI402" t="inlineStr"/>
-      <c r="CJ402" t="inlineStr"/>
-      <c r="CK402" t="inlineStr"/>
-      <c r="CL402" t="inlineStr"/>
-      <c r="CM402" t="inlineStr"/>
-      <c r="CN402" t="inlineStr"/>
-      <c r="CO402" t="inlineStr"/>
-      <c r="CP402" t="inlineStr"/>
-      <c r="CQ402" t="inlineStr"/>
-      <c r="CR402" t="inlineStr"/>
-      <c r="CS402" t="inlineStr"/>
-      <c r="CT402" t="inlineStr"/>
-      <c r="CU402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>cl:10337</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr"/>
-      <c r="E403" t="inlineStr"/>
-      <c r="F403" t="inlineStr"/>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_02000125</t>
-        </is>
-      </c>
-      <c r="H403" t="inlineStr"/>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
-      <c r="M403" t="inlineStr"/>
-      <c r="N403" t="inlineStr"/>
-      <c r="O403" t="inlineStr"/>
-      <c r="P403" t="inlineStr"/>
-      <c r="Q403" t="inlineStr"/>
-      <c r="R403" t="inlineStr"/>
-      <c r="S403" t="inlineStr"/>
-      <c r="T403" t="inlineStr"/>
-      <c r="U403" t="inlineStr"/>
-      <c r="V403" t="inlineStr"/>
-      <c r="W403" t="inlineStr"/>
-      <c r="X403" t="inlineStr"/>
-      <c r="Y403" t="inlineStr"/>
-      <c r="Z403" t="inlineStr"/>
-      <c r="AA403" t="inlineStr"/>
-      <c r="AB403" t="inlineStr"/>
-      <c r="AC403" t="inlineStr"/>
-      <c r="AD403" t="inlineStr"/>
-      <c r="AE403" t="inlineStr"/>
-      <c r="AF403" t="inlineStr"/>
-      <c r="AG403" t="inlineStr"/>
-      <c r="AH403" t="inlineStr"/>
-      <c r="AI403" t="inlineStr"/>
-      <c r="AJ403" t="inlineStr"/>
-      <c r="AK403" t="inlineStr"/>
-      <c r="AL403" t="inlineStr"/>
-      <c r="AM403" t="inlineStr"/>
-      <c r="AN403" t="inlineStr"/>
-      <c r="AO403" t="inlineStr"/>
-      <c r="AP403" t="inlineStr"/>
-      <c r="AQ403" t="inlineStr"/>
-      <c r="AR403" t="inlineStr"/>
-      <c r="AS403" t="inlineStr"/>
-      <c r="AT403" t="inlineStr"/>
-      <c r="AU403" t="inlineStr"/>
-      <c r="AV403" t="inlineStr"/>
-      <c r="AW403" t="inlineStr"/>
-      <c r="AX403" t="inlineStr"/>
-      <c r="AY403" t="inlineStr"/>
-      <c r="AZ403" t="inlineStr"/>
-      <c r="BA403" t="inlineStr"/>
-      <c r="BB403" t="inlineStr"/>
-      <c r="BC403" t="inlineStr"/>
-      <c r="BD403" t="inlineStr"/>
-      <c r="BE403" t="inlineStr"/>
-      <c r="BF403" t="inlineStr"/>
-      <c r="BG403" t="inlineStr"/>
-      <c r="BH403" t="inlineStr"/>
-      <c r="BI403" t="inlineStr"/>
-      <c r="BJ403" t="inlineStr"/>
-      <c r="BK403" t="inlineStr"/>
-      <c r="BL403" t="inlineStr"/>
-      <c r="BM403" t="inlineStr"/>
-      <c r="BN403" t="inlineStr"/>
-      <c r="BO403" t="inlineStr"/>
-      <c r="BP403" t="inlineStr"/>
-      <c r="BQ403" t="inlineStr"/>
-      <c r="BR403" t="inlineStr"/>
-      <c r="BS403" t="inlineStr"/>
-      <c r="BT403" t="inlineStr"/>
-      <c r="BU403" t="inlineStr"/>
-      <c r="BV403" t="inlineStr"/>
-      <c r="BW403" t="inlineStr"/>
-      <c r="BX403" t="inlineStr"/>
-      <c r="BY403" t="inlineStr"/>
-      <c r="BZ403" t="inlineStr"/>
-      <c r="CA403" t="inlineStr"/>
-      <c r="CB403" t="inlineStr"/>
-      <c r="CC403" t="inlineStr"/>
-      <c r="CD403" t="inlineStr"/>
-      <c r="CE403" t="inlineStr"/>
-      <c r="CF403" t="inlineStr"/>
-      <c r="CG403" t="inlineStr"/>
-      <c r="CH403" t="inlineStr"/>
-      <c r="CI403" t="inlineStr"/>
-      <c r="CJ403" t="inlineStr"/>
-      <c r="CK403" t="inlineStr"/>
-      <c r="CL403" t="inlineStr"/>
-      <c r="CM403" t="inlineStr"/>
-      <c r="CN403" t="inlineStr"/>
-      <c r="CO403" t="inlineStr"/>
-      <c r="CP403" t="inlineStr"/>
-      <c r="CQ403" t="inlineStr"/>
-      <c r="CR403" t="inlineStr"/>
-      <c r="CS403" t="inlineStr"/>
-      <c r="CT403" t="inlineStr"/>
-      <c r="CU403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>cl:10338</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>snow mobile</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr"/>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>cl:10337</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr"/>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
-      <c r="M404" t="inlineStr"/>
-      <c r="N404" t="inlineStr"/>
-      <c r="O404" t="inlineStr"/>
-      <c r="P404" t="inlineStr"/>
-      <c r="Q404" t="inlineStr"/>
-      <c r="R404" t="inlineStr"/>
-      <c r="S404" t="inlineStr"/>
-      <c r="T404" t="inlineStr"/>
-      <c r="U404" t="inlineStr"/>
-      <c r="V404" t="inlineStr"/>
-      <c r="W404" t="inlineStr"/>
-      <c r="X404" t="inlineStr"/>
-      <c r="Y404" t="inlineStr"/>
-      <c r="Z404" t="inlineStr"/>
-      <c r="AA404" t="inlineStr"/>
-      <c r="AB404" t="inlineStr"/>
-      <c r="AC404" t="inlineStr"/>
-      <c r="AD404" t="inlineStr"/>
-      <c r="AE404" t="inlineStr"/>
-      <c r="AF404" t="inlineStr"/>
-      <c r="AG404" t="inlineStr"/>
-      <c r="AH404" t="inlineStr"/>
-      <c r="AI404" t="inlineStr"/>
-      <c r="AJ404" t="inlineStr"/>
-      <c r="AK404" t="inlineStr"/>
-      <c r="AL404" t="inlineStr"/>
-      <c r="AM404" t="inlineStr"/>
-      <c r="AN404" t="inlineStr"/>
-      <c r="AO404" t="inlineStr"/>
-      <c r="AP404" t="inlineStr"/>
-      <c r="AQ404" t="inlineStr"/>
-      <c r="AR404" t="inlineStr"/>
-      <c r="AS404" t="inlineStr"/>
-      <c r="AT404" t="inlineStr"/>
-      <c r="AU404" t="inlineStr"/>
-      <c r="AV404" t="inlineStr"/>
-      <c r="AW404" t="inlineStr"/>
-      <c r="AX404" t="inlineStr"/>
-      <c r="AY404" t="inlineStr"/>
-      <c r="AZ404" t="inlineStr"/>
-      <c r="BA404" t="inlineStr"/>
-      <c r="BB404" t="inlineStr"/>
-      <c r="BC404" t="inlineStr"/>
-      <c r="BD404" t="inlineStr"/>
-      <c r="BE404" t="inlineStr"/>
-      <c r="BF404" t="inlineStr"/>
-      <c r="BG404" t="inlineStr"/>
-      <c r="BH404" t="inlineStr"/>
-      <c r="BI404" t="inlineStr"/>
-      <c r="BJ404" t="inlineStr"/>
-      <c r="BK404" t="inlineStr"/>
-      <c r="BL404" t="inlineStr"/>
-      <c r="BM404" t="inlineStr"/>
-      <c r="BN404" t="inlineStr"/>
-      <c r="BO404" t="inlineStr"/>
-      <c r="BP404" t="inlineStr"/>
-      <c r="BQ404" t="inlineStr"/>
-      <c r="BR404" t="inlineStr"/>
-      <c r="BS404" t="inlineStr"/>
-      <c r="BT404" t="inlineStr"/>
-      <c r="BU404" t="inlineStr"/>
-      <c r="BV404" t="inlineStr"/>
-      <c r="BW404" t="inlineStr"/>
-      <c r="BX404" t="inlineStr"/>
-      <c r="BY404" t="inlineStr"/>
-      <c r="BZ404" t="inlineStr"/>
-      <c r="CA404" t="inlineStr"/>
-      <c r="CB404" t="inlineStr"/>
-      <c r="CC404" t="inlineStr"/>
-      <c r="CD404" t="inlineStr"/>
-      <c r="CE404" t="inlineStr"/>
-      <c r="CF404" t="inlineStr"/>
-      <c r="CG404" t="inlineStr"/>
-      <c r="CH404" t="inlineStr"/>
-      <c r="CI404" t="inlineStr"/>
-      <c r="CJ404" t="inlineStr"/>
-      <c r="CK404" t="inlineStr"/>
-      <c r="CL404" t="inlineStr"/>
-      <c r="CM404" t="inlineStr"/>
-      <c r="CN404" t="inlineStr"/>
-      <c r="CO404" t="inlineStr"/>
-      <c r="CP404" t="inlineStr"/>
-      <c r="CQ404" t="inlineStr"/>
-      <c r="CR404" t="inlineStr"/>
-      <c r="CS404" t="inlineStr"/>
-      <c r="CT404" t="inlineStr"/>
-      <c r="CU404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>cl:10339</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>vehicle 4WD</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="inlineStr"/>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>cl:10337</t>
-        </is>
-      </c>
-      <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr"/>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
-      <c r="M405" t="inlineStr"/>
-      <c r="N405" t="inlineStr"/>
-      <c r="O405" t="inlineStr"/>
-      <c r="P405" t="inlineStr"/>
-      <c r="Q405" t="inlineStr"/>
-      <c r="R405" t="inlineStr"/>
-      <c r="S405" t="inlineStr"/>
-      <c r="T405" t="inlineStr"/>
-      <c r="U405" t="inlineStr"/>
-      <c r="V405" t="inlineStr"/>
-      <c r="W405" t="inlineStr"/>
-      <c r="X405" t="inlineStr"/>
-      <c r="Y405" t="inlineStr"/>
-      <c r="Z405" t="inlineStr"/>
-      <c r="AA405" t="inlineStr"/>
-      <c r="AB405" t="inlineStr"/>
-      <c r="AC405" t="inlineStr"/>
-      <c r="AD405" t="inlineStr"/>
-      <c r="AE405" t="inlineStr"/>
-      <c r="AF405" t="inlineStr"/>
-      <c r="AG405" t="inlineStr"/>
-      <c r="AH405" t="inlineStr"/>
-      <c r="AI405" t="inlineStr"/>
-      <c r="AJ405" t="inlineStr"/>
-      <c r="AK405" t="inlineStr"/>
-      <c r="AL405" t="inlineStr"/>
-      <c r="AM405" t="inlineStr"/>
-      <c r="AN405" t="inlineStr"/>
-      <c r="AO405" t="inlineStr"/>
-      <c r="AP405" t="inlineStr"/>
-      <c r="AQ405" t="inlineStr"/>
-      <c r="AR405" t="inlineStr"/>
-      <c r="AS405" t="inlineStr"/>
-      <c r="AT405" t="inlineStr"/>
-      <c r="AU405" t="inlineStr"/>
-      <c r="AV405" t="inlineStr"/>
-      <c r="AW405" t="inlineStr"/>
-      <c r="AX405" t="inlineStr"/>
-      <c r="AY405" t="inlineStr"/>
-      <c r="AZ405" t="inlineStr"/>
-      <c r="BA405" t="inlineStr"/>
-      <c r="BB405" t="inlineStr"/>
-      <c r="BC405" t="inlineStr"/>
-      <c r="BD405" t="inlineStr"/>
-      <c r="BE405" t="inlineStr"/>
-      <c r="BF405" t="inlineStr"/>
-      <c r="BG405" t="inlineStr"/>
-      <c r="BH405" t="inlineStr"/>
-      <c r="BI405" t="inlineStr"/>
-      <c r="BJ405" t="inlineStr"/>
-      <c r="BK405" t="inlineStr"/>
-      <c r="BL405" t="inlineStr"/>
-      <c r="BM405" t="inlineStr"/>
-      <c r="BN405" t="inlineStr"/>
-      <c r="BO405" t="inlineStr"/>
-      <c r="BP405" t="inlineStr"/>
-      <c r="BQ405" t="inlineStr"/>
-      <c r="BR405" t="inlineStr"/>
-      <c r="BS405" t="inlineStr"/>
-      <c r="BT405" t="inlineStr"/>
-      <c r="BU405" t="inlineStr"/>
-      <c r="BV405" t="inlineStr"/>
-      <c r="BW405" t="inlineStr"/>
-      <c r="BX405" t="inlineStr"/>
-      <c r="BY405" t="inlineStr"/>
-      <c r="BZ405" t="inlineStr"/>
-      <c r="CA405" t="inlineStr"/>
-      <c r="CB405" t="inlineStr"/>
-      <c r="CC405" t="inlineStr"/>
-      <c r="CD405" t="inlineStr"/>
-      <c r="CE405" t="inlineStr"/>
-      <c r="CF405" t="inlineStr"/>
-      <c r="CG405" t="inlineStr"/>
-      <c r="CH405" t="inlineStr"/>
-      <c r="CI405" t="inlineStr"/>
-      <c r="CJ405" t="inlineStr"/>
-      <c r="CK405" t="inlineStr"/>
-      <c r="CL405" t="inlineStr"/>
-      <c r="CM405" t="inlineStr"/>
-      <c r="CN405" t="inlineStr"/>
-      <c r="CO405" t="inlineStr"/>
-      <c r="CP405" t="inlineStr"/>
-      <c r="CQ405" t="inlineStr"/>
-      <c r="CR405" t="inlineStr"/>
-      <c r="CS405" t="inlineStr"/>
-      <c r="CT405" t="inlineStr"/>
-      <c r="CU405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>cl:10340</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>boat</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr"/>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>cl:10337</t>
-        </is>
-      </c>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_01000608</t>
-        </is>
-      </c>
-      <c r="H406" t="inlineStr"/>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
-      <c r="M406" t="inlineStr"/>
-      <c r="N406" t="inlineStr"/>
-      <c r="O406" t="inlineStr"/>
-      <c r="P406" t="inlineStr"/>
-      <c r="Q406" t="inlineStr"/>
-      <c r="R406" t="inlineStr"/>
-      <c r="S406" t="inlineStr"/>
-      <c r="T406" t="inlineStr"/>
-      <c r="U406" t="inlineStr"/>
-      <c r="V406" t="inlineStr"/>
-      <c r="W406" t="inlineStr"/>
-      <c r="X406" t="inlineStr"/>
-      <c r="Y406" t="inlineStr"/>
-      <c r="Z406" t="inlineStr"/>
-      <c r="AA406" t="inlineStr"/>
-      <c r="AB406" t="inlineStr"/>
-      <c r="AC406" t="inlineStr"/>
-      <c r="AD406" t="inlineStr"/>
-      <c r="AE406" t="inlineStr"/>
-      <c r="AF406" t="inlineStr"/>
-      <c r="AG406" t="inlineStr"/>
-      <c r="AH406" t="inlineStr"/>
-      <c r="AI406" t="inlineStr"/>
-      <c r="AJ406" t="inlineStr"/>
-      <c r="AK406" t="inlineStr"/>
-      <c r="AL406" t="inlineStr"/>
-      <c r="AM406" t="inlineStr"/>
-      <c r="AN406" t="inlineStr"/>
-      <c r="AO406" t="inlineStr"/>
-      <c r="AP406" t="inlineStr"/>
-      <c r="AQ406" t="inlineStr"/>
-      <c r="AR406" t="inlineStr"/>
-      <c r="AS406" t="inlineStr"/>
-      <c r="AT406" t="inlineStr"/>
-      <c r="AU406" t="inlineStr"/>
-      <c r="AV406" t="inlineStr"/>
-      <c r="AW406" t="inlineStr"/>
-      <c r="AX406" t="inlineStr"/>
-      <c r="AY406" t="inlineStr"/>
-      <c r="AZ406" t="inlineStr"/>
-      <c r="BA406" t="inlineStr"/>
-      <c r="BB406" t="inlineStr"/>
-      <c r="BC406" t="inlineStr"/>
-      <c r="BD406" t="inlineStr"/>
-      <c r="BE406" t="inlineStr"/>
-      <c r="BF406" t="inlineStr"/>
-      <c r="BG406" t="inlineStr"/>
-      <c r="BH406" t="inlineStr"/>
-      <c r="BI406" t="inlineStr"/>
-      <c r="BJ406" t="inlineStr"/>
-      <c r="BK406" t="inlineStr"/>
-      <c r="BL406" t="inlineStr"/>
-      <c r="BM406" t="inlineStr"/>
-      <c r="BN406" t="inlineStr"/>
-      <c r="BO406" t="inlineStr"/>
-      <c r="BP406" t="inlineStr"/>
-      <c r="BQ406" t="inlineStr"/>
-      <c r="BR406" t="inlineStr"/>
-      <c r="BS406" t="inlineStr"/>
-      <c r="BT406" t="inlineStr"/>
-      <c r="BU406" t="inlineStr"/>
-      <c r="BV406" t="inlineStr"/>
-      <c r="BW406" t="inlineStr"/>
-      <c r="BX406" t="inlineStr"/>
-      <c r="BY406" t="inlineStr"/>
-      <c r="BZ406" t="inlineStr"/>
-      <c r="CA406" t="inlineStr"/>
-      <c r="CB406" t="inlineStr"/>
-      <c r="CC406" t="inlineStr"/>
-      <c r="CD406" t="inlineStr"/>
-      <c r="CE406" t="inlineStr"/>
-      <c r="CF406" t="inlineStr"/>
-      <c r="CG406" t="inlineStr"/>
-      <c r="CH406" t="inlineStr"/>
-      <c r="CI406" t="inlineStr"/>
-      <c r="CJ406" t="inlineStr"/>
-      <c r="CK406" t="inlineStr"/>
-      <c r="CL406" t="inlineStr"/>
-      <c r="CM406" t="inlineStr"/>
-      <c r="CN406" t="inlineStr"/>
-      <c r="CO406" t="inlineStr"/>
-      <c r="CP406" t="inlineStr"/>
-      <c r="CQ406" t="inlineStr"/>
-      <c r="CR406" t="inlineStr"/>
-      <c r="CS406" t="inlineStr"/>
-      <c r="CT406" t="inlineStr"/>
-      <c r="CU406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>cl:10341</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>helicopter</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr"/>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>cl:10337</t>
-        </is>
-      </c>
-      <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr"/>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
-      <c r="M407" t="inlineStr"/>
-      <c r="N407" t="inlineStr"/>
-      <c r="O407" t="inlineStr"/>
-      <c r="P407" t="inlineStr"/>
-      <c r="Q407" t="inlineStr"/>
-      <c r="R407" t="inlineStr"/>
-      <c r="S407" t="inlineStr"/>
-      <c r="T407" t="inlineStr"/>
-      <c r="U407" t="inlineStr"/>
-      <c r="V407" t="inlineStr"/>
-      <c r="W407" t="inlineStr"/>
-      <c r="X407" t="inlineStr"/>
-      <c r="Y407" t="inlineStr"/>
-      <c r="Z407" t="inlineStr"/>
-      <c r="AA407" t="inlineStr"/>
-      <c r="AB407" t="inlineStr"/>
-      <c r="AC407" t="inlineStr"/>
-      <c r="AD407" t="inlineStr"/>
-      <c r="AE407" t="inlineStr"/>
-      <c r="AF407" t="inlineStr"/>
-      <c r="AG407" t="inlineStr"/>
-      <c r="AH407" t="inlineStr"/>
-      <c r="AI407" t="inlineStr"/>
-      <c r="AJ407" t="inlineStr"/>
-      <c r="AK407" t="inlineStr"/>
-      <c r="AL407" t="inlineStr"/>
-      <c r="AM407" t="inlineStr"/>
-      <c r="AN407" t="inlineStr"/>
-      <c r="AO407" t="inlineStr"/>
-      <c r="AP407" t="inlineStr"/>
-      <c r="AQ407" t="inlineStr"/>
-      <c r="AR407" t="inlineStr"/>
-      <c r="AS407" t="inlineStr"/>
-      <c r="AT407" t="inlineStr"/>
-      <c r="AU407" t="inlineStr"/>
-      <c r="AV407" t="inlineStr"/>
-      <c r="AW407" t="inlineStr"/>
-      <c r="AX407" t="inlineStr"/>
-      <c r="AY407" t="inlineStr"/>
-      <c r="AZ407" t="inlineStr"/>
-      <c r="BA407" t="inlineStr"/>
-      <c r="BB407" t="inlineStr"/>
-      <c r="BC407" t="inlineStr"/>
-      <c r="BD407" t="inlineStr"/>
-      <c r="BE407" t="inlineStr"/>
-      <c r="BF407" t="inlineStr"/>
-      <c r="BG407" t="inlineStr"/>
-      <c r="BH407" t="inlineStr"/>
-      <c r="BI407" t="inlineStr"/>
-      <c r="BJ407" t="inlineStr"/>
-      <c r="BK407" t="inlineStr"/>
-      <c r="BL407" t="inlineStr"/>
-      <c r="BM407" t="inlineStr"/>
-      <c r="BN407" t="inlineStr"/>
-      <c r="BO407" t="inlineStr"/>
-      <c r="BP407" t="inlineStr"/>
-      <c r="BQ407" t="inlineStr"/>
-      <c r="BR407" t="inlineStr"/>
-      <c r="BS407" t="inlineStr"/>
-      <c r="BT407" t="inlineStr"/>
-      <c r="BU407" t="inlineStr"/>
-      <c r="BV407" t="inlineStr"/>
-      <c r="BW407" t="inlineStr"/>
-      <c r="BX407" t="inlineStr"/>
-      <c r="BY407" t="inlineStr"/>
-      <c r="BZ407" t="inlineStr"/>
-      <c r="CA407" t="inlineStr"/>
-      <c r="CB407" t="inlineStr"/>
-      <c r="CC407" t="inlineStr"/>
-      <c r="CD407" t="inlineStr"/>
-      <c r="CE407" t="inlineStr"/>
-      <c r="CF407" t="inlineStr"/>
-      <c r="CG407" t="inlineStr"/>
-      <c r="CH407" t="inlineStr"/>
-      <c r="CI407" t="inlineStr"/>
-      <c r="CJ407" t="inlineStr"/>
-      <c r="CK407" t="inlineStr"/>
-      <c r="CL407" t="inlineStr"/>
-      <c r="CM407" t="inlineStr"/>
-      <c r="CN407" t="inlineStr"/>
-      <c r="CO407" t="inlineStr"/>
-      <c r="CP407" t="inlineStr"/>
-      <c r="CQ407" t="inlineStr"/>
-      <c r="CR407" t="inlineStr"/>
-      <c r="CS407" t="inlineStr"/>
-      <c r="CT407" t="inlineStr"/>
-      <c r="CU407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>cl:10342</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>vehicle 2WD</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr"/>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>cl:10337</t>
-        </is>
-      </c>
-      <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr"/>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
-      <c r="M408" t="inlineStr"/>
-      <c r="N408" t="inlineStr"/>
-      <c r="O408" t="inlineStr"/>
-      <c r="P408" t="inlineStr"/>
-      <c r="Q408" t="inlineStr"/>
-      <c r="R408" t="inlineStr"/>
-      <c r="S408" t="inlineStr"/>
-      <c r="T408" t="inlineStr"/>
-      <c r="U408" t="inlineStr"/>
-      <c r="V408" t="inlineStr"/>
-      <c r="W408" t="inlineStr"/>
-      <c r="X408" t="inlineStr"/>
-      <c r="Y408" t="inlineStr"/>
-      <c r="Z408" t="inlineStr"/>
-      <c r="AA408" t="inlineStr"/>
-      <c r="AB408" t="inlineStr"/>
-      <c r="AC408" t="inlineStr"/>
-      <c r="AD408" t="inlineStr"/>
-      <c r="AE408" t="inlineStr"/>
-      <c r="AF408" t="inlineStr"/>
-      <c r="AG408" t="inlineStr"/>
-      <c r="AH408" t="inlineStr"/>
-      <c r="AI408" t="inlineStr"/>
-      <c r="AJ408" t="inlineStr"/>
-      <c r="AK408" t="inlineStr"/>
-      <c r="AL408" t="inlineStr"/>
-      <c r="AM408" t="inlineStr"/>
-      <c r="AN408" t="inlineStr"/>
-      <c r="AO408" t="inlineStr"/>
-      <c r="AP408" t="inlineStr"/>
-      <c r="AQ408" t="inlineStr"/>
-      <c r="AR408" t="inlineStr"/>
-      <c r="AS408" t="inlineStr"/>
-      <c r="AT408" t="inlineStr"/>
-      <c r="AU408" t="inlineStr"/>
-      <c r="AV408" t="inlineStr"/>
-      <c r="AW408" t="inlineStr"/>
-      <c r="AX408" t="inlineStr"/>
-      <c r="AY408" t="inlineStr"/>
-      <c r="AZ408" t="inlineStr"/>
-      <c r="BA408" t="inlineStr"/>
-      <c r="BB408" t="inlineStr"/>
-      <c r="BC408" t="inlineStr"/>
-      <c r="BD408" t="inlineStr"/>
-      <c r="BE408" t="inlineStr"/>
-      <c r="BF408" t="inlineStr"/>
-      <c r="BG408" t="inlineStr"/>
-      <c r="BH408" t="inlineStr"/>
-      <c r="BI408" t="inlineStr"/>
-      <c r="BJ408" t="inlineStr"/>
-      <c r="BK408" t="inlineStr"/>
-      <c r="BL408" t="inlineStr"/>
-      <c r="BM408" t="inlineStr"/>
-      <c r="BN408" t="inlineStr"/>
-      <c r="BO408" t="inlineStr"/>
-      <c r="BP408" t="inlineStr"/>
-      <c r="BQ408" t="inlineStr"/>
-      <c r="BR408" t="inlineStr"/>
-      <c r="BS408" t="inlineStr"/>
-      <c r="BT408" t="inlineStr"/>
-      <c r="BU408" t="inlineStr"/>
-      <c r="BV408" t="inlineStr"/>
-      <c r="BW408" t="inlineStr"/>
-      <c r="BX408" t="inlineStr"/>
-      <c r="BY408" t="inlineStr"/>
-      <c r="BZ408" t="inlineStr"/>
-      <c r="CA408" t="inlineStr"/>
-      <c r="CB408" t="inlineStr"/>
-      <c r="CC408" t="inlineStr"/>
-      <c r="CD408" t="inlineStr"/>
-      <c r="CE408" t="inlineStr"/>
-      <c r="CF408" t="inlineStr"/>
-      <c r="CG408" t="inlineStr"/>
-      <c r="CH408" t="inlineStr"/>
-      <c r="CI408" t="inlineStr"/>
-      <c r="CJ408" t="inlineStr"/>
-      <c r="CK408" t="inlineStr"/>
-      <c r="CL408" t="inlineStr"/>
-      <c r="CM408" t="inlineStr"/>
-      <c r="CN408" t="inlineStr"/>
-      <c r="CO408" t="inlineStr"/>
-      <c r="CP408" t="inlineStr"/>
-      <c r="CQ408" t="inlineStr"/>
-      <c r="CR408" t="inlineStr"/>
-      <c r="CS408" t="inlineStr"/>
-      <c r="CT408" t="inlineStr"/>
-      <c r="CU408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>cl:10343</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>workplace</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>working environment for researcher</t>
-        </is>
-      </c>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr"/>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>http://www.eionet.europa.eu/gemet/concept/9375</t>
-        </is>
-      </c>
-      <c r="H409" t="inlineStr"/>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
-      <c r="M409" t="inlineStr"/>
-      <c r="N409" t="inlineStr"/>
-      <c r="O409" t="inlineStr"/>
-      <c r="P409" t="inlineStr"/>
-      <c r="Q409" t="inlineStr"/>
-      <c r="R409" t="inlineStr"/>
-      <c r="S409" t="inlineStr"/>
-      <c r="T409" t="inlineStr"/>
-      <c r="U409" t="inlineStr"/>
-      <c r="V409" t="inlineStr"/>
-      <c r="W409" t="inlineStr"/>
-      <c r="X409" t="inlineStr"/>
-      <c r="Y409" t="inlineStr"/>
-      <c r="Z409" t="inlineStr"/>
-      <c r="AA409" t="inlineStr"/>
-      <c r="AB409" t="inlineStr"/>
-      <c r="AC409" t="inlineStr"/>
-      <c r="AD409" t="inlineStr"/>
-      <c r="AE409" t="inlineStr"/>
-      <c r="AF409" t="inlineStr"/>
-      <c r="AG409" t="inlineStr"/>
-      <c r="AH409" t="inlineStr"/>
-      <c r="AI409" t="inlineStr"/>
-      <c r="AJ409" t="inlineStr"/>
-      <c r="AK409" t="inlineStr"/>
-      <c r="AL409" t="inlineStr"/>
-      <c r="AM409" t="inlineStr"/>
-      <c r="AN409" t="inlineStr"/>
-      <c r="AO409" t="inlineStr"/>
-      <c r="AP409" t="inlineStr"/>
-      <c r="AQ409" t="inlineStr"/>
-      <c r="AR409" t="inlineStr"/>
-      <c r="AS409" t="inlineStr"/>
-      <c r="AT409" t="inlineStr"/>
-      <c r="AU409" t="inlineStr"/>
-      <c r="AV409" t="inlineStr"/>
-      <c r="AW409" t="inlineStr"/>
-      <c r="AX409" t="inlineStr"/>
-      <c r="AY409" t="inlineStr"/>
-      <c r="AZ409" t="inlineStr"/>
-      <c r="BA409" t="inlineStr"/>
-      <c r="BB409" t="inlineStr"/>
-      <c r="BC409" t="inlineStr"/>
-      <c r="BD409" t="inlineStr"/>
-      <c r="BE409" t="inlineStr"/>
-      <c r="BF409" t="inlineStr"/>
-      <c r="BG409" t="inlineStr"/>
-      <c r="BH409" t="inlineStr"/>
-      <c r="BI409" t="inlineStr"/>
-      <c r="BJ409" t="inlineStr"/>
-      <c r="BK409" t="inlineStr"/>
-      <c r="BL409" t="inlineStr"/>
-      <c r="BM409" t="inlineStr"/>
-      <c r="BN409" t="inlineStr"/>
-      <c r="BO409" t="inlineStr"/>
-      <c r="BP409" t="inlineStr"/>
-      <c r="BQ409" t="inlineStr"/>
-      <c r="BR409" t="inlineStr"/>
-      <c r="BS409" t="inlineStr"/>
-      <c r="BT409" t="inlineStr"/>
-      <c r="BU409" t="inlineStr"/>
-      <c r="BV409" t="inlineStr"/>
-      <c r="BW409" t="inlineStr"/>
-      <c r="BX409" t="inlineStr"/>
-      <c r="BY409" t="inlineStr"/>
-      <c r="BZ409" t="inlineStr"/>
-      <c r="CA409" t="inlineStr"/>
-      <c r="CB409" t="inlineStr"/>
-      <c r="CC409" t="inlineStr"/>
-      <c r="CD409" t="inlineStr"/>
-      <c r="CE409" t="inlineStr"/>
-      <c r="CF409" t="inlineStr"/>
-      <c r="CG409" t="inlineStr"/>
-      <c r="CH409" t="inlineStr"/>
-      <c r="CI409" t="inlineStr"/>
-      <c r="CJ409" t="inlineStr"/>
-      <c r="CK409" t="inlineStr"/>
-      <c r="CL409" t="inlineStr"/>
-      <c r="CM409" t="inlineStr"/>
-      <c r="CN409" t="inlineStr"/>
-      <c r="CO409" t="inlineStr"/>
-      <c r="CP409" t="inlineStr"/>
-      <c r="CQ409" t="inlineStr"/>
-      <c r="CR409" t="inlineStr"/>
-      <c r="CS409" t="inlineStr"/>
-      <c r="CT409" t="inlineStr"/>
-      <c r="CU409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>cl:10344</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>laboratory</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr"/>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>cl:10343</t>
-        </is>
-      </c>
-      <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr"/>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
-      <c r="M410" t="inlineStr"/>
-      <c r="N410" t="inlineStr"/>
-      <c r="O410" t="inlineStr"/>
-      <c r="P410" t="inlineStr"/>
-      <c r="Q410" t="inlineStr"/>
-      <c r="R410" t="inlineStr"/>
-      <c r="S410" t="inlineStr"/>
-      <c r="T410" t="inlineStr"/>
-      <c r="U410" t="inlineStr"/>
-      <c r="V410" t="inlineStr"/>
-      <c r="W410" t="inlineStr"/>
-      <c r="X410" t="inlineStr"/>
-      <c r="Y410" t="inlineStr"/>
-      <c r="Z410" t="inlineStr"/>
-      <c r="AA410" t="inlineStr"/>
-      <c r="AB410" t="inlineStr"/>
-      <c r="AC410" t="inlineStr"/>
-      <c r="AD410" t="inlineStr"/>
-      <c r="AE410" t="inlineStr"/>
-      <c r="AF410" t="inlineStr"/>
-      <c r="AG410" t="inlineStr"/>
-      <c r="AH410" t="inlineStr"/>
-      <c r="AI410" t="inlineStr"/>
-      <c r="AJ410" t="inlineStr"/>
-      <c r="AK410" t="inlineStr"/>
-      <c r="AL410" t="inlineStr"/>
-      <c r="AM410" t="inlineStr"/>
-      <c r="AN410" t="inlineStr"/>
-      <c r="AO410" t="inlineStr"/>
-      <c r="AP410" t="inlineStr"/>
-      <c r="AQ410" t="inlineStr"/>
-      <c r="AR410" t="inlineStr"/>
-      <c r="AS410" t="inlineStr"/>
-      <c r="AT410" t="inlineStr"/>
-      <c r="AU410" t="inlineStr"/>
-      <c r="AV410" t="inlineStr"/>
-      <c r="AW410" t="inlineStr"/>
-      <c r="AX410" t="inlineStr"/>
-      <c r="AY410" t="inlineStr"/>
-      <c r="AZ410" t="inlineStr"/>
-      <c r="BA410" t="inlineStr"/>
-      <c r="BB410" t="inlineStr"/>
-      <c r="BC410" t="inlineStr"/>
-      <c r="BD410" t="inlineStr"/>
-      <c r="BE410" t="inlineStr"/>
-      <c r="BF410" t="inlineStr"/>
-      <c r="BG410" t="inlineStr"/>
-      <c r="BH410" t="inlineStr"/>
-      <c r="BI410" t="inlineStr"/>
-      <c r="BJ410" t="inlineStr"/>
-      <c r="BK410" t="inlineStr"/>
-      <c r="BL410" t="inlineStr"/>
-      <c r="BM410" t="inlineStr"/>
-      <c r="BN410" t="inlineStr"/>
-      <c r="BO410" t="inlineStr"/>
-      <c r="BP410" t="inlineStr"/>
-      <c r="BQ410" t="inlineStr"/>
-      <c r="BR410" t="inlineStr"/>
-      <c r="BS410" t="inlineStr"/>
-      <c r="BT410" t="inlineStr"/>
-      <c r="BU410" t="inlineStr"/>
-      <c r="BV410" t="inlineStr"/>
-      <c r="BW410" t="inlineStr"/>
-      <c r="BX410" t="inlineStr"/>
-      <c r="BY410" t="inlineStr"/>
-      <c r="BZ410" t="inlineStr"/>
-      <c r="CA410" t="inlineStr"/>
-      <c r="CB410" t="inlineStr"/>
-      <c r="CC410" t="inlineStr"/>
-      <c r="CD410" t="inlineStr"/>
-      <c r="CE410" t="inlineStr"/>
-      <c r="CF410" t="inlineStr"/>
-      <c r="CG410" t="inlineStr"/>
-      <c r="CH410" t="inlineStr"/>
-      <c r="CI410" t="inlineStr"/>
-      <c r="CJ410" t="inlineStr"/>
-      <c r="CK410" t="inlineStr"/>
-      <c r="CL410" t="inlineStr"/>
-      <c r="CM410" t="inlineStr"/>
-      <c r="CN410" t="inlineStr"/>
-      <c r="CO410" t="inlineStr"/>
-      <c r="CP410" t="inlineStr"/>
-      <c r="CQ410" t="inlineStr"/>
-      <c r="CR410" t="inlineStr"/>
-      <c r="CS410" t="inlineStr"/>
-      <c r="CT410" t="inlineStr"/>
-      <c r="CU410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>cl:10345</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>field laboratory</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>cl:10343</t>
-        </is>
-      </c>
-      <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr"/>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
-      <c r="M411" t="inlineStr"/>
-      <c r="N411" t="inlineStr"/>
-      <c r="O411" t="inlineStr"/>
-      <c r="P411" t="inlineStr"/>
-      <c r="Q411" t="inlineStr"/>
-      <c r="R411" t="inlineStr"/>
-      <c r="S411" t="inlineStr"/>
-      <c r="T411" t="inlineStr"/>
-      <c r="U411" t="inlineStr"/>
-      <c r="V411" t="inlineStr"/>
-      <c r="W411" t="inlineStr"/>
-      <c r="X411" t="inlineStr"/>
-      <c r="Y411" t="inlineStr"/>
-      <c r="Z411" t="inlineStr"/>
-      <c r="AA411" t="inlineStr"/>
-      <c r="AB411" t="inlineStr"/>
-      <c r="AC411" t="inlineStr"/>
-      <c r="AD411" t="inlineStr"/>
-      <c r="AE411" t="inlineStr"/>
-      <c r="AF411" t="inlineStr"/>
-      <c r="AG411" t="inlineStr"/>
-      <c r="AH411" t="inlineStr"/>
-      <c r="AI411" t="inlineStr"/>
-      <c r="AJ411" t="inlineStr"/>
-      <c r="AK411" t="inlineStr"/>
-      <c r="AL411" t="inlineStr"/>
-      <c r="AM411" t="inlineStr"/>
-      <c r="AN411" t="inlineStr"/>
-      <c r="AO411" t="inlineStr"/>
-      <c r="AP411" t="inlineStr"/>
-      <c r="AQ411" t="inlineStr"/>
-      <c r="AR411" t="inlineStr"/>
-      <c r="AS411" t="inlineStr"/>
-      <c r="AT411" t="inlineStr"/>
-      <c r="AU411" t="inlineStr"/>
-      <c r="AV411" t="inlineStr"/>
-      <c r="AW411" t="inlineStr"/>
-      <c r="AX411" t="inlineStr"/>
-      <c r="AY411" t="inlineStr"/>
-      <c r="AZ411" t="inlineStr"/>
-      <c r="BA411" t="inlineStr"/>
-      <c r="BB411" t="inlineStr"/>
-      <c r="BC411" t="inlineStr"/>
-      <c r="BD411" t="inlineStr"/>
-      <c r="BE411" t="inlineStr"/>
-      <c r="BF411" t="inlineStr"/>
-      <c r="BG411" t="inlineStr"/>
-      <c r="BH411" t="inlineStr"/>
-      <c r="BI411" t="inlineStr"/>
-      <c r="BJ411" t="inlineStr"/>
-      <c r="BK411" t="inlineStr"/>
-      <c r="BL411" t="inlineStr"/>
-      <c r="BM411" t="inlineStr"/>
-      <c r="BN411" t="inlineStr"/>
-      <c r="BO411" t="inlineStr"/>
-      <c r="BP411" t="inlineStr"/>
-      <c r="BQ411" t="inlineStr"/>
-      <c r="BR411" t="inlineStr"/>
-      <c r="BS411" t="inlineStr"/>
-      <c r="BT411" t="inlineStr"/>
-      <c r="BU411" t="inlineStr"/>
-      <c r="BV411" t="inlineStr"/>
-      <c r="BW411" t="inlineStr"/>
-      <c r="BX411" t="inlineStr"/>
-      <c r="BY411" t="inlineStr"/>
-      <c r="BZ411" t="inlineStr"/>
-      <c r="CA411" t="inlineStr"/>
-      <c r="CB411" t="inlineStr"/>
-      <c r="CC411" t="inlineStr"/>
-      <c r="CD411" t="inlineStr"/>
-      <c r="CE411" t="inlineStr"/>
-      <c r="CF411" t="inlineStr"/>
-      <c r="CG411" t="inlineStr"/>
-      <c r="CH411" t="inlineStr"/>
-      <c r="CI411" t="inlineStr"/>
-      <c r="CJ411" t="inlineStr"/>
-      <c r="CK411" t="inlineStr"/>
-      <c r="CL411" t="inlineStr"/>
-      <c r="CM411" t="inlineStr"/>
-      <c r="CN411" t="inlineStr"/>
-      <c r="CO411" t="inlineStr"/>
-      <c r="CP411" t="inlineStr"/>
-      <c r="CQ411" t="inlineStr"/>
-      <c r="CR411" t="inlineStr"/>
-      <c r="CS411" t="inlineStr"/>
-      <c r="CT411" t="inlineStr"/>
-      <c r="CU411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>This concept addresses spatial (e.g. plot, landscape scale) and temporal (e.g. day, year) scales of research projects.</t>
-        </is>
-      </c>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>http://mimi.case.edu/ontologies/2009/1/UnitsOntology#scale</t>
-        </is>
-      </c>
-      <c r="H412" t="inlineStr"/>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
-      <c r="M412" t="inlineStr"/>
-      <c r="N412" t="inlineStr"/>
-      <c r="O412" t="inlineStr"/>
-      <c r="P412" t="inlineStr"/>
-      <c r="Q412" t="inlineStr"/>
-      <c r="R412" t="inlineStr"/>
-      <c r="S412" t="inlineStr"/>
-      <c r="T412" t="inlineStr"/>
-      <c r="U412" t="inlineStr"/>
-      <c r="V412" t="inlineStr"/>
-      <c r="W412" t="inlineStr"/>
-      <c r="X412" t="inlineStr"/>
-      <c r="Y412" t="inlineStr"/>
-      <c r="Z412" t="inlineStr"/>
-      <c r="AA412" t="inlineStr"/>
-      <c r="AB412" t="inlineStr"/>
-      <c r="AC412" t="inlineStr"/>
-      <c r="AD412" t="inlineStr"/>
-      <c r="AE412" t="inlineStr"/>
-      <c r="AF412" t="inlineStr"/>
-      <c r="AG412" t="inlineStr"/>
-      <c r="AH412" t="inlineStr"/>
-      <c r="AI412" t="inlineStr"/>
-      <c r="AJ412" t="inlineStr"/>
-      <c r="AK412" t="inlineStr"/>
-      <c r="AL412" t="inlineStr"/>
-      <c r="AM412" t="inlineStr"/>
-      <c r="AN412" t="inlineStr"/>
-      <c r="AO412" t="inlineStr"/>
-      <c r="AP412" t="inlineStr"/>
-      <c r="AQ412" t="inlineStr"/>
-      <c r="AR412" t="inlineStr"/>
-      <c r="AS412" t="inlineStr"/>
-      <c r="AT412" t="inlineStr"/>
-      <c r="AU412" t="inlineStr"/>
-      <c r="AV412" t="inlineStr"/>
-      <c r="AW412" t="inlineStr"/>
-      <c r="AX412" t="inlineStr"/>
-      <c r="AY412" t="inlineStr"/>
-      <c r="AZ412" t="inlineStr"/>
-      <c r="BA412" t="inlineStr"/>
-      <c r="BB412" t="inlineStr"/>
-      <c r="BC412" t="inlineStr"/>
-      <c r="BD412" t="inlineStr"/>
-      <c r="BE412" t="inlineStr"/>
-      <c r="BF412" t="inlineStr"/>
-      <c r="BG412" t="inlineStr"/>
-      <c r="BH412" t="inlineStr"/>
-      <c r="BI412" t="inlineStr"/>
-      <c r="BJ412" t="inlineStr"/>
-      <c r="BK412" t="inlineStr"/>
-      <c r="BL412" t="inlineStr"/>
-      <c r="BM412" t="inlineStr"/>
-      <c r="BN412" t="inlineStr"/>
-      <c r="BO412" t="inlineStr"/>
-      <c r="BP412" t="inlineStr"/>
-      <c r="BQ412" t="inlineStr"/>
-      <c r="BR412" t="inlineStr"/>
-      <c r="BS412" t="inlineStr"/>
-      <c r="BT412" t="inlineStr"/>
-      <c r="BU412" t="inlineStr"/>
-      <c r="BV412" t="inlineStr"/>
-      <c r="BW412" t="inlineStr"/>
-      <c r="BX412" t="inlineStr"/>
-      <c r="BY412" t="inlineStr"/>
-      <c r="BZ412" t="inlineStr"/>
-      <c r="CA412" t="inlineStr"/>
-      <c r="CB412" t="inlineStr"/>
-      <c r="CC412" t="inlineStr"/>
-      <c r="CD412" t="inlineStr"/>
-      <c r="CE412" t="inlineStr"/>
-      <c r="CF412" t="inlineStr"/>
-      <c r="CG412" t="inlineStr"/>
-      <c r="CH412" t="inlineStr"/>
-      <c r="CI412" t="inlineStr"/>
-      <c r="CJ412" t="inlineStr"/>
-      <c r="CK412" t="inlineStr"/>
-      <c r="CL412" t="inlineStr"/>
-      <c r="CM412" t="inlineStr"/>
-      <c r="CN412" t="inlineStr"/>
-      <c r="CO412" t="inlineStr"/>
-      <c r="CP412" t="inlineStr"/>
-      <c r="CQ412" t="inlineStr"/>
-      <c r="CR412" t="inlineStr"/>
-      <c r="CS412" t="inlineStr"/>
-      <c r="CT412" t="inlineStr"/>
-      <c r="CU412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>cl:10347</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>scaling up</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr"/>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>[Robert J. Beichner] SCALE-UP is an extension of the highly successful IMPEC project (Integrated Math, Physics, Engineering, and Chemistry), one of NC State's curricular reform efforts undertaken as part of the SUCCEED coalition...</t>
-        </is>
-      </c>
-      <c r="E413" t="inlineStr"/>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G413" t="inlineStr"/>
-      <c r="H413" t="inlineStr"/>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
-      <c r="M413" t="inlineStr"/>
-      <c r="N413" t="inlineStr"/>
-      <c r="O413" t="inlineStr"/>
-      <c r="P413" t="inlineStr"/>
-      <c r="Q413" t="inlineStr"/>
-      <c r="R413" t="inlineStr"/>
-      <c r="S413" t="inlineStr"/>
-      <c r="T413" t="inlineStr"/>
-      <c r="U413" t="inlineStr"/>
-      <c r="V413" t="inlineStr"/>
-      <c r="W413" t="inlineStr"/>
-      <c r="X413" t="inlineStr"/>
-      <c r="Y413" t="inlineStr"/>
-      <c r="Z413" t="inlineStr"/>
-      <c r="AA413" t="inlineStr"/>
-      <c r="AB413" t="inlineStr"/>
-      <c r="AC413" t="inlineStr"/>
-      <c r="AD413" t="inlineStr"/>
-      <c r="AE413" t="inlineStr"/>
-      <c r="AF413" t="inlineStr"/>
-      <c r="AG413" t="inlineStr"/>
-      <c r="AH413" t="inlineStr"/>
-      <c r="AI413" t="inlineStr"/>
-      <c r="AJ413" t="inlineStr"/>
-      <c r="AK413" t="inlineStr"/>
-      <c r="AL413" t="inlineStr"/>
-      <c r="AM413" t="inlineStr"/>
-      <c r="AN413" t="inlineStr"/>
-      <c r="AO413" t="inlineStr"/>
-      <c r="AP413" t="inlineStr"/>
-      <c r="AQ413" t="inlineStr"/>
-      <c r="AR413" t="inlineStr"/>
-      <c r="AS413" t="inlineStr"/>
-      <c r="AT413" t="inlineStr"/>
-      <c r="AU413" t="inlineStr"/>
-      <c r="AV413" t="inlineStr"/>
-      <c r="AW413" t="inlineStr"/>
-      <c r="AX413" t="inlineStr"/>
-      <c r="AY413" t="inlineStr"/>
-      <c r="AZ413" t="inlineStr"/>
-      <c r="BA413" t="inlineStr"/>
-      <c r="BB413" t="inlineStr"/>
-      <c r="BC413" t="inlineStr"/>
-      <c r="BD413" t="inlineStr"/>
-      <c r="BE413" t="inlineStr"/>
-      <c r="BF413" t="inlineStr"/>
-      <c r="BG413" t="inlineStr"/>
-      <c r="BH413" t="inlineStr"/>
-      <c r="BI413" t="inlineStr"/>
-      <c r="BJ413" t="inlineStr"/>
-      <c r="BK413" t="inlineStr"/>
-      <c r="BL413" t="inlineStr"/>
-      <c r="BM413" t="inlineStr"/>
-      <c r="BN413" t="inlineStr"/>
-      <c r="BO413" t="inlineStr"/>
-      <c r="BP413" t="inlineStr"/>
-      <c r="BQ413" t="inlineStr"/>
-      <c r="BR413" t="inlineStr"/>
-      <c r="BS413" t="inlineStr"/>
-      <c r="BT413" t="inlineStr"/>
-      <c r="BU413" t="inlineStr"/>
-      <c r="BV413" t="inlineStr"/>
-      <c r="BW413" t="inlineStr"/>
-      <c r="BX413" t="inlineStr"/>
-      <c r="BY413" t="inlineStr"/>
-      <c r="BZ413" t="inlineStr"/>
-      <c r="CA413" t="inlineStr"/>
-      <c r="CB413" t="inlineStr"/>
-      <c r="CC413" t="inlineStr"/>
-      <c r="CD413" t="inlineStr"/>
-      <c r="CE413" t="inlineStr"/>
-      <c r="CF413" t="inlineStr"/>
-      <c r="CG413" t="inlineStr"/>
-      <c r="CH413" t="inlineStr"/>
-      <c r="CI413" t="inlineStr"/>
-      <c r="CJ413" t="inlineStr"/>
-      <c r="CK413" t="inlineStr"/>
-      <c r="CL413" t="inlineStr"/>
-      <c r="CM413" t="inlineStr"/>
-      <c r="CN413" t="inlineStr"/>
-      <c r="CO413" t="inlineStr"/>
-      <c r="CP413" t="inlineStr"/>
-      <c r="CQ413" t="inlineStr"/>
-      <c r="CR413" t="inlineStr"/>
-      <c r="CS413" t="inlineStr"/>
-      <c r="CT413" t="inlineStr"/>
-      <c r="CU413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>cl:10348</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>spatial scale</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>[Siquan Tian] Spatial scale is an important factor that needs to be considered in data collection and analysis in ecological studies. Studies focusing on the quantitative evaluation of impacts of spatial scales are, however, limited in fisheries...</t>
-        </is>
-      </c>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G414" t="inlineStr"/>
-      <c r="H414" t="inlineStr"/>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
-      <c r="M414" t="inlineStr"/>
-      <c r="N414" t="inlineStr"/>
-      <c r="O414" t="inlineStr"/>
-      <c r="P414" t="inlineStr"/>
-      <c r="Q414" t="inlineStr"/>
-      <c r="R414" t="inlineStr"/>
-      <c r="S414" t="inlineStr"/>
-      <c r="T414" t="inlineStr"/>
-      <c r="U414" t="inlineStr"/>
-      <c r="V414" t="inlineStr"/>
-      <c r="W414" t="inlineStr"/>
-      <c r="X414" t="inlineStr"/>
-      <c r="Y414" t="inlineStr"/>
-      <c r="Z414" t="inlineStr"/>
-      <c r="AA414" t="inlineStr"/>
-      <c r="AB414" t="inlineStr"/>
-      <c r="AC414" t="inlineStr"/>
-      <c r="AD414" t="inlineStr"/>
-      <c r="AE414" t="inlineStr"/>
-      <c r="AF414" t="inlineStr"/>
-      <c r="AG414" t="inlineStr"/>
-      <c r="AH414" t="inlineStr"/>
-      <c r="AI414" t="inlineStr"/>
-      <c r="AJ414" t="inlineStr"/>
-      <c r="AK414" t="inlineStr"/>
-      <c r="AL414" t="inlineStr"/>
-      <c r="AM414" t="inlineStr"/>
-      <c r="AN414" t="inlineStr"/>
-      <c r="AO414" t="inlineStr"/>
-      <c r="AP414" t="inlineStr"/>
-      <c r="AQ414" t="inlineStr"/>
-      <c r="AR414" t="inlineStr"/>
-      <c r="AS414" t="inlineStr"/>
-      <c r="AT414" t="inlineStr"/>
-      <c r="AU414" t="inlineStr"/>
-      <c r="AV414" t="inlineStr"/>
-      <c r="AW414" t="inlineStr"/>
-      <c r="AX414" t="inlineStr"/>
-      <c r="AY414" t="inlineStr"/>
-      <c r="AZ414" t="inlineStr"/>
-      <c r="BA414" t="inlineStr"/>
-      <c r="BB414" t="inlineStr"/>
-      <c r="BC414" t="inlineStr"/>
-      <c r="BD414" t="inlineStr"/>
-      <c r="BE414" t="inlineStr"/>
-      <c r="BF414" t="inlineStr"/>
-      <c r="BG414" t="inlineStr"/>
-      <c r="BH414" t="inlineStr"/>
-      <c r="BI414" t="inlineStr"/>
-      <c r="BJ414" t="inlineStr"/>
-      <c r="BK414" t="inlineStr"/>
-      <c r="BL414" t="inlineStr"/>
-      <c r="BM414" t="inlineStr"/>
-      <c r="BN414" t="inlineStr"/>
-      <c r="BO414" t="inlineStr"/>
-      <c r="BP414" t="inlineStr"/>
-      <c r="BQ414" t="inlineStr"/>
-      <c r="BR414" t="inlineStr"/>
-      <c r="BS414" t="inlineStr"/>
-      <c r="BT414" t="inlineStr"/>
-      <c r="BU414" t="inlineStr"/>
-      <c r="BV414" t="inlineStr"/>
-      <c r="BW414" t="inlineStr"/>
-      <c r="BX414" t="inlineStr"/>
-      <c r="BY414" t="inlineStr"/>
-      <c r="BZ414" t="inlineStr"/>
-      <c r="CA414" t="inlineStr"/>
-      <c r="CB414" t="inlineStr"/>
-      <c r="CC414" t="inlineStr"/>
-      <c r="CD414" t="inlineStr"/>
-      <c r="CE414" t="inlineStr"/>
-      <c r="CF414" t="inlineStr"/>
-      <c r="CG414" t="inlineStr"/>
-      <c r="CH414" t="inlineStr"/>
-      <c r="CI414" t="inlineStr"/>
-      <c r="CJ414" t="inlineStr"/>
-      <c r="CK414" t="inlineStr"/>
-      <c r="CL414" t="inlineStr"/>
-      <c r="CM414" t="inlineStr"/>
-      <c r="CN414" t="inlineStr"/>
-      <c r="CO414" t="inlineStr"/>
-      <c r="CP414" t="inlineStr"/>
-      <c r="CQ414" t="inlineStr"/>
-      <c r="CR414" t="inlineStr"/>
-      <c r="CS414" t="inlineStr"/>
-      <c r="CT414" t="inlineStr"/>
-      <c r="CU414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>cl:10349</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>temporal scale</t>
-        </is>
-      </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>temporal scales</t>
-        </is>
-      </c>
-      <c r="D415" t="inlineStr"/>
-      <c r="E415" t="inlineStr"/>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G415" t="inlineStr"/>
-      <c r="H415" t="inlineStr"/>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
-      <c r="M415" t="inlineStr"/>
-      <c r="N415" t="inlineStr"/>
-      <c r="O415" t="inlineStr"/>
-      <c r="P415" t="inlineStr"/>
-      <c r="Q415" t="inlineStr"/>
-      <c r="R415" t="inlineStr"/>
-      <c r="S415" t="inlineStr"/>
-      <c r="T415" t="inlineStr"/>
-      <c r="U415" t="inlineStr"/>
-      <c r="V415" t="inlineStr"/>
-      <c r="W415" t="inlineStr"/>
-      <c r="X415" t="inlineStr"/>
-      <c r="Y415" t="inlineStr"/>
-      <c r="Z415" t="inlineStr"/>
-      <c r="AA415" t="inlineStr"/>
-      <c r="AB415" t="inlineStr"/>
-      <c r="AC415" t="inlineStr"/>
-      <c r="AD415" t="inlineStr"/>
-      <c r="AE415" t="inlineStr"/>
-      <c r="AF415" t="inlineStr"/>
-      <c r="AG415" t="inlineStr"/>
-      <c r="AH415" t="inlineStr"/>
-      <c r="AI415" t="inlineStr"/>
-      <c r="AJ415" t="inlineStr"/>
-      <c r="AK415" t="inlineStr"/>
-      <c r="AL415" t="inlineStr"/>
-      <c r="AM415" t="inlineStr"/>
-      <c r="AN415" t="inlineStr"/>
-      <c r="AO415" t="inlineStr"/>
-      <c r="AP415" t="inlineStr"/>
-      <c r="AQ415" t="inlineStr"/>
-      <c r="AR415" t="inlineStr"/>
-      <c r="AS415" t="inlineStr"/>
-      <c r="AT415" t="inlineStr"/>
-      <c r="AU415" t="inlineStr"/>
-      <c r="AV415" t="inlineStr"/>
-      <c r="AW415" t="inlineStr"/>
-      <c r="AX415" t="inlineStr"/>
-      <c r="AY415" t="inlineStr"/>
-      <c r="AZ415" t="inlineStr"/>
-      <c r="BA415" t="inlineStr"/>
-      <c r="BB415" t="inlineStr"/>
-      <c r="BC415" t="inlineStr"/>
-      <c r="BD415" t="inlineStr"/>
-      <c r="BE415" t="inlineStr"/>
-      <c r="BF415" t="inlineStr"/>
-      <c r="BG415" t="inlineStr"/>
-      <c r="BH415" t="inlineStr"/>
-      <c r="BI415" t="inlineStr"/>
-      <c r="BJ415" t="inlineStr"/>
-      <c r="BK415" t="inlineStr"/>
-      <c r="BL415" t="inlineStr"/>
-      <c r="BM415" t="inlineStr"/>
-      <c r="BN415" t="inlineStr"/>
-      <c r="BO415" t="inlineStr"/>
-      <c r="BP415" t="inlineStr"/>
-      <c r="BQ415" t="inlineStr"/>
-      <c r="BR415" t="inlineStr"/>
-      <c r="BS415" t="inlineStr"/>
-      <c r="BT415" t="inlineStr"/>
-      <c r="BU415" t="inlineStr"/>
-      <c r="BV415" t="inlineStr"/>
-      <c r="BW415" t="inlineStr"/>
-      <c r="BX415" t="inlineStr"/>
-      <c r="BY415" t="inlineStr"/>
-      <c r="BZ415" t="inlineStr"/>
-      <c r="CA415" t="inlineStr"/>
-      <c r="CB415" t="inlineStr"/>
-      <c r="CC415" t="inlineStr"/>
-      <c r="CD415" t="inlineStr"/>
-      <c r="CE415" t="inlineStr"/>
-      <c r="CF415" t="inlineStr"/>
-      <c r="CG415" t="inlineStr"/>
-      <c r="CH415" t="inlineStr"/>
-      <c r="CI415" t="inlineStr"/>
-      <c r="CJ415" t="inlineStr"/>
-      <c r="CK415" t="inlineStr"/>
-      <c r="CL415" t="inlineStr"/>
-      <c r="CM415" t="inlineStr"/>
-      <c r="CN415" t="inlineStr"/>
-      <c r="CO415" t="inlineStr"/>
-      <c r="CP415" t="inlineStr"/>
-      <c r="CQ415" t="inlineStr"/>
-      <c r="CR415" t="inlineStr"/>
-      <c r="CS415" t="inlineStr"/>
-      <c r="CT415" t="inlineStr"/>
-      <c r="CU415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>cl:10350</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>scale dependence</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr"/>
-      <c r="D416" t="inlineStr"/>
-      <c r="E416" t="inlineStr"/>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G416" t="inlineStr"/>
-      <c r="H416" t="inlineStr"/>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
-      <c r="M416" t="inlineStr"/>
-      <c r="N416" t="inlineStr"/>
-      <c r="O416" t="inlineStr"/>
-      <c r="P416" t="inlineStr"/>
-      <c r="Q416" t="inlineStr"/>
-      <c r="R416" t="inlineStr"/>
-      <c r="S416" t="inlineStr"/>
-      <c r="T416" t="inlineStr"/>
-      <c r="U416" t="inlineStr"/>
-      <c r="V416" t="inlineStr"/>
-      <c r="W416" t="inlineStr"/>
-      <c r="X416" t="inlineStr"/>
-      <c r="Y416" t="inlineStr"/>
-      <c r="Z416" t="inlineStr"/>
-      <c r="AA416" t="inlineStr"/>
-      <c r="AB416" t="inlineStr"/>
-      <c r="AC416" t="inlineStr"/>
-      <c r="AD416" t="inlineStr"/>
-      <c r="AE416" t="inlineStr"/>
-      <c r="AF416" t="inlineStr"/>
-      <c r="AG416" t="inlineStr"/>
-      <c r="AH416" t="inlineStr"/>
-      <c r="AI416" t="inlineStr"/>
-      <c r="AJ416" t="inlineStr"/>
-      <c r="AK416" t="inlineStr"/>
-      <c r="AL416" t="inlineStr"/>
-      <c r="AM416" t="inlineStr"/>
-      <c r="AN416" t="inlineStr"/>
-      <c r="AO416" t="inlineStr"/>
-      <c r="AP416" t="inlineStr"/>
-      <c r="AQ416" t="inlineStr"/>
-      <c r="AR416" t="inlineStr"/>
-      <c r="AS416" t="inlineStr"/>
-      <c r="AT416" t="inlineStr"/>
-      <c r="AU416" t="inlineStr"/>
-      <c r="AV416" t="inlineStr"/>
-      <c r="AW416" t="inlineStr"/>
-      <c r="AX416" t="inlineStr"/>
-      <c r="AY416" t="inlineStr"/>
-      <c r="AZ416" t="inlineStr"/>
-      <c r="BA416" t="inlineStr"/>
-      <c r="BB416" t="inlineStr"/>
-      <c r="BC416" t="inlineStr"/>
-      <c r="BD416" t="inlineStr"/>
-      <c r="BE416" t="inlineStr"/>
-      <c r="BF416" t="inlineStr"/>
-      <c r="BG416" t="inlineStr"/>
-      <c r="BH416" t="inlineStr"/>
-      <c r="BI416" t="inlineStr"/>
-      <c r="BJ416" t="inlineStr"/>
-      <c r="BK416" t="inlineStr"/>
-      <c r="BL416" t="inlineStr"/>
-      <c r="BM416" t="inlineStr"/>
-      <c r="BN416" t="inlineStr"/>
-      <c r="BO416" t="inlineStr"/>
-      <c r="BP416" t="inlineStr"/>
-      <c r="BQ416" t="inlineStr"/>
-      <c r="BR416" t="inlineStr"/>
-      <c r="BS416" t="inlineStr"/>
-      <c r="BT416" t="inlineStr"/>
-      <c r="BU416" t="inlineStr"/>
-      <c r="BV416" t="inlineStr"/>
-      <c r="BW416" t="inlineStr"/>
-      <c r="BX416" t="inlineStr"/>
-      <c r="BY416" t="inlineStr"/>
-      <c r="BZ416" t="inlineStr"/>
-      <c r="CA416" t="inlineStr"/>
-      <c r="CB416" t="inlineStr"/>
-      <c r="CC416" t="inlineStr"/>
-      <c r="CD416" t="inlineStr"/>
-      <c r="CE416" t="inlineStr"/>
-      <c r="CF416" t="inlineStr"/>
-      <c r="CG416" t="inlineStr"/>
-      <c r="CH416" t="inlineStr"/>
-      <c r="CI416" t="inlineStr"/>
-      <c r="CJ416" t="inlineStr"/>
-      <c r="CK416" t="inlineStr"/>
-      <c r="CL416" t="inlineStr"/>
-      <c r="CM416" t="inlineStr"/>
-      <c r="CN416" t="inlineStr"/>
-      <c r="CO416" t="inlineStr"/>
-      <c r="CP416" t="inlineStr"/>
-      <c r="CQ416" t="inlineStr"/>
-      <c r="CR416" t="inlineStr"/>
-      <c r="CS416" t="inlineStr"/>
-      <c r="CT416" t="inlineStr"/>
-      <c r="CU416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>cl:10351</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>ecosystem approach</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr"/>
-      <c r="D417" t="inlineStr"/>
-      <c r="E417" t="inlineStr"/>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G417" t="inlineStr"/>
-      <c r="H417" t="inlineStr"/>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
-      <c r="M417" t="inlineStr"/>
-      <c r="N417" t="inlineStr"/>
-      <c r="O417" t="inlineStr"/>
-      <c r="P417" t="inlineStr"/>
-      <c r="Q417" t="inlineStr"/>
-      <c r="R417" t="inlineStr"/>
-      <c r="S417" t="inlineStr"/>
-      <c r="T417" t="inlineStr"/>
-      <c r="U417" t="inlineStr"/>
-      <c r="V417" t="inlineStr"/>
-      <c r="W417" t="inlineStr"/>
-      <c r="X417" t="inlineStr"/>
-      <c r="Y417" t="inlineStr"/>
-      <c r="Z417" t="inlineStr"/>
-      <c r="AA417" t="inlineStr"/>
-      <c r="AB417" t="inlineStr"/>
-      <c r="AC417" t="inlineStr"/>
-      <c r="AD417" t="inlineStr"/>
-      <c r="AE417" t="inlineStr"/>
-      <c r="AF417" t="inlineStr"/>
-      <c r="AG417" t="inlineStr"/>
-      <c r="AH417" t="inlineStr"/>
-      <c r="AI417" t="inlineStr"/>
-      <c r="AJ417" t="inlineStr"/>
-      <c r="AK417" t="inlineStr"/>
-      <c r="AL417" t="inlineStr"/>
-      <c r="AM417" t="inlineStr"/>
-      <c r="AN417" t="inlineStr"/>
-      <c r="AO417" t="inlineStr"/>
-      <c r="AP417" t="inlineStr"/>
-      <c r="AQ417" t="inlineStr"/>
-      <c r="AR417" t="inlineStr"/>
-      <c r="AS417" t="inlineStr"/>
-      <c r="AT417" t="inlineStr"/>
-      <c r="AU417" t="inlineStr"/>
-      <c r="AV417" t="inlineStr"/>
-      <c r="AW417" t="inlineStr"/>
-      <c r="AX417" t="inlineStr"/>
-      <c r="AY417" t="inlineStr"/>
-      <c r="AZ417" t="inlineStr"/>
-      <c r="BA417" t="inlineStr"/>
-      <c r="BB417" t="inlineStr"/>
-      <c r="BC417" t="inlineStr"/>
-      <c r="BD417" t="inlineStr"/>
-      <c r="BE417" t="inlineStr"/>
-      <c r="BF417" t="inlineStr"/>
-      <c r="BG417" t="inlineStr"/>
-      <c r="BH417" t="inlineStr"/>
-      <c r="BI417" t="inlineStr"/>
-      <c r="BJ417" t="inlineStr"/>
-      <c r="BK417" t="inlineStr"/>
-      <c r="BL417" t="inlineStr"/>
-      <c r="BM417" t="inlineStr"/>
-      <c r="BN417" t="inlineStr"/>
-      <c r="BO417" t="inlineStr"/>
-      <c r="BP417" t="inlineStr"/>
-      <c r="BQ417" t="inlineStr"/>
-      <c r="BR417" t="inlineStr"/>
-      <c r="BS417" t="inlineStr"/>
-      <c r="BT417" t="inlineStr"/>
-      <c r="BU417" t="inlineStr"/>
-      <c r="BV417" t="inlineStr"/>
-      <c r="BW417" t="inlineStr"/>
-      <c r="BX417" t="inlineStr"/>
-      <c r="BY417" t="inlineStr"/>
-      <c r="BZ417" t="inlineStr"/>
-      <c r="CA417" t="inlineStr"/>
-      <c r="CB417" t="inlineStr"/>
-      <c r="CC417" t="inlineStr"/>
-      <c r="CD417" t="inlineStr"/>
-      <c r="CE417" t="inlineStr"/>
-      <c r="CF417" t="inlineStr"/>
-      <c r="CG417" t="inlineStr"/>
-      <c r="CH417" t="inlineStr"/>
-      <c r="CI417" t="inlineStr"/>
-      <c r="CJ417" t="inlineStr"/>
-      <c r="CK417" t="inlineStr"/>
-      <c r="CL417" t="inlineStr"/>
-      <c r="CM417" t="inlineStr"/>
-      <c r="CN417" t="inlineStr"/>
-      <c r="CO417" t="inlineStr"/>
-      <c r="CP417" t="inlineStr"/>
-      <c r="CQ417" t="inlineStr"/>
-      <c r="CR417" t="inlineStr"/>
-      <c r="CS417" t="inlineStr"/>
-      <c r="CT417" t="inlineStr"/>
-      <c r="CU417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>cl:10352</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>local scale</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr"/>
-      <c r="D418" t="inlineStr"/>
-      <c r="E418" t="inlineStr"/>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G418" t="inlineStr"/>
-      <c r="H418" t="inlineStr"/>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
-      <c r="M418" t="inlineStr"/>
-      <c r="N418" t="inlineStr"/>
-      <c r="O418" t="inlineStr"/>
-      <c r="P418" t="inlineStr"/>
-      <c r="Q418" t="inlineStr"/>
-      <c r="R418" t="inlineStr"/>
-      <c r="S418" t="inlineStr"/>
-      <c r="T418" t="inlineStr"/>
-      <c r="U418" t="inlineStr"/>
-      <c r="V418" t="inlineStr"/>
-      <c r="W418" t="inlineStr"/>
-      <c r="X418" t="inlineStr"/>
-      <c r="Y418" t="inlineStr"/>
-      <c r="Z418" t="inlineStr"/>
-      <c r="AA418" t="inlineStr"/>
-      <c r="AB418" t="inlineStr"/>
-      <c r="AC418" t="inlineStr"/>
-      <c r="AD418" t="inlineStr"/>
-      <c r="AE418" t="inlineStr"/>
-      <c r="AF418" t="inlineStr"/>
-      <c r="AG418" t="inlineStr"/>
-      <c r="AH418" t="inlineStr"/>
-      <c r="AI418" t="inlineStr"/>
-      <c r="AJ418" t="inlineStr"/>
-      <c r="AK418" t="inlineStr"/>
-      <c r="AL418" t="inlineStr"/>
-      <c r="AM418" t="inlineStr"/>
-      <c r="AN418" t="inlineStr"/>
-      <c r="AO418" t="inlineStr"/>
-      <c r="AP418" t="inlineStr"/>
-      <c r="AQ418" t="inlineStr"/>
-      <c r="AR418" t="inlineStr"/>
-      <c r="AS418" t="inlineStr"/>
-      <c r="AT418" t="inlineStr"/>
-      <c r="AU418" t="inlineStr"/>
-      <c r="AV418" t="inlineStr"/>
-      <c r="AW418" t="inlineStr"/>
-      <c r="AX418" t="inlineStr"/>
-      <c r="AY418" t="inlineStr"/>
-      <c r="AZ418" t="inlineStr"/>
-      <c r="BA418" t="inlineStr"/>
-      <c r="BB418" t="inlineStr"/>
-      <c r="BC418" t="inlineStr"/>
-      <c r="BD418" t="inlineStr"/>
-      <c r="BE418" t="inlineStr"/>
-      <c r="BF418" t="inlineStr"/>
-      <c r="BG418" t="inlineStr"/>
-      <c r="BH418" t="inlineStr"/>
-      <c r="BI418" t="inlineStr"/>
-      <c r="BJ418" t="inlineStr"/>
-      <c r="BK418" t="inlineStr"/>
-      <c r="BL418" t="inlineStr"/>
-      <c r="BM418" t="inlineStr"/>
-      <c r="BN418" t="inlineStr"/>
-      <c r="BO418" t="inlineStr"/>
-      <c r="BP418" t="inlineStr"/>
-      <c r="BQ418" t="inlineStr"/>
-      <c r="BR418" t="inlineStr"/>
-      <c r="BS418" t="inlineStr"/>
-      <c r="BT418" t="inlineStr"/>
-      <c r="BU418" t="inlineStr"/>
-      <c r="BV418" t="inlineStr"/>
-      <c r="BW418" t="inlineStr"/>
-      <c r="BX418" t="inlineStr"/>
-      <c r="BY418" t="inlineStr"/>
-      <c r="BZ418" t="inlineStr"/>
-      <c r="CA418" t="inlineStr"/>
-      <c r="CB418" t="inlineStr"/>
-      <c r="CC418" t="inlineStr"/>
-      <c r="CD418" t="inlineStr"/>
-      <c r="CE418" t="inlineStr"/>
-      <c r="CF418" t="inlineStr"/>
-      <c r="CG418" t="inlineStr"/>
-      <c r="CH418" t="inlineStr"/>
-      <c r="CI418" t="inlineStr"/>
-      <c r="CJ418" t="inlineStr"/>
-      <c r="CK418" t="inlineStr"/>
-      <c r="CL418" t="inlineStr"/>
-      <c r="CM418" t="inlineStr"/>
-      <c r="CN418" t="inlineStr"/>
-      <c r="CO418" t="inlineStr"/>
-      <c r="CP418" t="inlineStr"/>
-      <c r="CQ418" t="inlineStr"/>
-      <c r="CR418" t="inlineStr"/>
-      <c r="CS418" t="inlineStr"/>
-      <c r="CT418" t="inlineStr"/>
-      <c r="CU418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>cl:10353</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>global scale</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr"/>
-      <c r="E419" t="inlineStr"/>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G419" t="inlineStr"/>
-      <c r="H419" t="inlineStr"/>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
-      <c r="M419" t="inlineStr"/>
-      <c r="N419" t="inlineStr"/>
-      <c r="O419" t="inlineStr"/>
-      <c r="P419" t="inlineStr"/>
-      <c r="Q419" t="inlineStr"/>
-      <c r="R419" t="inlineStr"/>
-      <c r="S419" t="inlineStr"/>
-      <c r="T419" t="inlineStr"/>
-      <c r="U419" t="inlineStr"/>
-      <c r="V419" t="inlineStr"/>
-      <c r="W419" t="inlineStr"/>
-      <c r="X419" t="inlineStr"/>
-      <c r="Y419" t="inlineStr"/>
-      <c r="Z419" t="inlineStr"/>
-      <c r="AA419" t="inlineStr"/>
-      <c r="AB419" t="inlineStr"/>
-      <c r="AC419" t="inlineStr"/>
-      <c r="AD419" t="inlineStr"/>
-      <c r="AE419" t="inlineStr"/>
-      <c r="AF419" t="inlineStr"/>
-      <c r="AG419" t="inlineStr"/>
-      <c r="AH419" t="inlineStr"/>
-      <c r="AI419" t="inlineStr"/>
-      <c r="AJ419" t="inlineStr"/>
-      <c r="AK419" t="inlineStr"/>
-      <c r="AL419" t="inlineStr"/>
-      <c r="AM419" t="inlineStr"/>
-      <c r="AN419" t="inlineStr"/>
-      <c r="AO419" t="inlineStr"/>
-      <c r="AP419" t="inlineStr"/>
-      <c r="AQ419" t="inlineStr"/>
-      <c r="AR419" t="inlineStr"/>
-      <c r="AS419" t="inlineStr"/>
-      <c r="AT419" t="inlineStr"/>
-      <c r="AU419" t="inlineStr"/>
-      <c r="AV419" t="inlineStr"/>
-      <c r="AW419" t="inlineStr"/>
-      <c r="AX419" t="inlineStr"/>
-      <c r="AY419" t="inlineStr"/>
-      <c r="AZ419" t="inlineStr"/>
-      <c r="BA419" t="inlineStr"/>
-      <c r="BB419" t="inlineStr"/>
-      <c r="BC419" t="inlineStr"/>
-      <c r="BD419" t="inlineStr"/>
-      <c r="BE419" t="inlineStr"/>
-      <c r="BF419" t="inlineStr"/>
-      <c r="BG419" t="inlineStr"/>
-      <c r="BH419" t="inlineStr"/>
-      <c r="BI419" t="inlineStr"/>
-      <c r="BJ419" t="inlineStr"/>
-      <c r="BK419" t="inlineStr"/>
-      <c r="BL419" t="inlineStr"/>
-      <c r="BM419" t="inlineStr"/>
-      <c r="BN419" t="inlineStr"/>
-      <c r="BO419" t="inlineStr"/>
-      <c r="BP419" t="inlineStr"/>
-      <c r="BQ419" t="inlineStr"/>
-      <c r="BR419" t="inlineStr"/>
-      <c r="BS419" t="inlineStr"/>
-      <c r="BT419" t="inlineStr"/>
-      <c r="BU419" t="inlineStr"/>
-      <c r="BV419" t="inlineStr"/>
-      <c r="BW419" t="inlineStr"/>
-      <c r="BX419" t="inlineStr"/>
-      <c r="BY419" t="inlineStr"/>
-      <c r="BZ419" t="inlineStr"/>
-      <c r="CA419" t="inlineStr"/>
-      <c r="CB419" t="inlineStr"/>
-      <c r="CC419" t="inlineStr"/>
-      <c r="CD419" t="inlineStr"/>
-      <c r="CE419" t="inlineStr"/>
-      <c r="CF419" t="inlineStr"/>
-      <c r="CG419" t="inlineStr"/>
-      <c r="CH419" t="inlineStr"/>
-      <c r="CI419" t="inlineStr"/>
-      <c r="CJ419" t="inlineStr"/>
-      <c r="CK419" t="inlineStr"/>
-      <c r="CL419" t="inlineStr"/>
-      <c r="CM419" t="inlineStr"/>
-      <c r="CN419" t="inlineStr"/>
-      <c r="CO419" t="inlineStr"/>
-      <c r="CP419" t="inlineStr"/>
-      <c r="CQ419" t="inlineStr"/>
-      <c r="CR419" t="inlineStr"/>
-      <c r="CS419" t="inlineStr"/>
-      <c r="CT419" t="inlineStr"/>
-      <c r="CU419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>cl:10354</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>regional scale</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr"/>
-      <c r="D420" t="inlineStr"/>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G420" t="inlineStr"/>
-      <c r="H420" t="inlineStr"/>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
-      <c r="M420" t="inlineStr"/>
-      <c r="N420" t="inlineStr"/>
-      <c r="O420" t="inlineStr"/>
-      <c r="P420" t="inlineStr"/>
-      <c r="Q420" t="inlineStr"/>
-      <c r="R420" t="inlineStr"/>
-      <c r="S420" t="inlineStr"/>
-      <c r="T420" t="inlineStr"/>
-      <c r="U420" t="inlineStr"/>
-      <c r="V420" t="inlineStr"/>
-      <c r="W420" t="inlineStr"/>
-      <c r="X420" t="inlineStr"/>
-      <c r="Y420" t="inlineStr"/>
-      <c r="Z420" t="inlineStr"/>
-      <c r="AA420" t="inlineStr"/>
-      <c r="AB420" t="inlineStr"/>
-      <c r="AC420" t="inlineStr"/>
-      <c r="AD420" t="inlineStr"/>
-      <c r="AE420" t="inlineStr"/>
-      <c r="AF420" t="inlineStr"/>
-      <c r="AG420" t="inlineStr"/>
-      <c r="AH420" t="inlineStr"/>
-      <c r="AI420" t="inlineStr"/>
-      <c r="AJ420" t="inlineStr"/>
-      <c r="AK420" t="inlineStr"/>
-      <c r="AL420" t="inlineStr"/>
-      <c r="AM420" t="inlineStr"/>
-      <c r="AN420" t="inlineStr"/>
-      <c r="AO420" t="inlineStr"/>
-      <c r="AP420" t="inlineStr"/>
-      <c r="AQ420" t="inlineStr"/>
-      <c r="AR420" t="inlineStr"/>
-      <c r="AS420" t="inlineStr"/>
-      <c r="AT420" t="inlineStr"/>
-      <c r="AU420" t="inlineStr"/>
-      <c r="AV420" t="inlineStr"/>
-      <c r="AW420" t="inlineStr"/>
-      <c r="AX420" t="inlineStr"/>
-      <c r="AY420" t="inlineStr"/>
-      <c r="AZ420" t="inlineStr"/>
-      <c r="BA420" t="inlineStr"/>
-      <c r="BB420" t="inlineStr"/>
-      <c r="BC420" t="inlineStr"/>
-      <c r="BD420" t="inlineStr"/>
-      <c r="BE420" t="inlineStr"/>
-      <c r="BF420" t="inlineStr"/>
-      <c r="BG420" t="inlineStr"/>
-      <c r="BH420" t="inlineStr"/>
-      <c r="BI420" t="inlineStr"/>
-      <c r="BJ420" t="inlineStr"/>
-      <c r="BK420" t="inlineStr"/>
-      <c r="BL420" t="inlineStr"/>
-      <c r="BM420" t="inlineStr"/>
-      <c r="BN420" t="inlineStr"/>
-      <c r="BO420" t="inlineStr"/>
-      <c r="BP420" t="inlineStr"/>
-      <c r="BQ420" t="inlineStr"/>
-      <c r="BR420" t="inlineStr"/>
-      <c r="BS420" t="inlineStr"/>
-      <c r="BT420" t="inlineStr"/>
-      <c r="BU420" t="inlineStr"/>
-      <c r="BV420" t="inlineStr"/>
-      <c r="BW420" t="inlineStr"/>
-      <c r="BX420" t="inlineStr"/>
-      <c r="BY420" t="inlineStr"/>
-      <c r="BZ420" t="inlineStr"/>
-      <c r="CA420" t="inlineStr"/>
-      <c r="CB420" t="inlineStr"/>
-      <c r="CC420" t="inlineStr"/>
-      <c r="CD420" t="inlineStr"/>
-      <c r="CE420" t="inlineStr"/>
-      <c r="CF420" t="inlineStr"/>
-      <c r="CG420" t="inlineStr"/>
-      <c r="CH420" t="inlineStr"/>
-      <c r="CI420" t="inlineStr"/>
-      <c r="CJ420" t="inlineStr"/>
-      <c r="CK420" t="inlineStr"/>
-      <c r="CL420" t="inlineStr"/>
-      <c r="CM420" t="inlineStr"/>
-      <c r="CN420" t="inlineStr"/>
-      <c r="CO420" t="inlineStr"/>
-      <c r="CP420" t="inlineStr"/>
-      <c r="CQ420" t="inlineStr"/>
-      <c r="CR420" t="inlineStr"/>
-      <c r="CS420" t="inlineStr"/>
-      <c r="CT420" t="inlineStr"/>
-      <c r="CU420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>cl:10355</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>national scale</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr"/>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G421" t="inlineStr"/>
-      <c r="H421" t="inlineStr"/>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
-      <c r="M421" t="inlineStr"/>
-      <c r="N421" t="inlineStr"/>
-      <c r="O421" t="inlineStr"/>
-      <c r="P421" t="inlineStr"/>
-      <c r="Q421" t="inlineStr"/>
-      <c r="R421" t="inlineStr"/>
-      <c r="S421" t="inlineStr"/>
-      <c r="T421" t="inlineStr"/>
-      <c r="U421" t="inlineStr"/>
-      <c r="V421" t="inlineStr"/>
-      <c r="W421" t="inlineStr"/>
-      <c r="X421" t="inlineStr"/>
-      <c r="Y421" t="inlineStr"/>
-      <c r="Z421" t="inlineStr"/>
-      <c r="AA421" t="inlineStr"/>
-      <c r="AB421" t="inlineStr"/>
-      <c r="AC421" t="inlineStr"/>
-      <c r="AD421" t="inlineStr"/>
-      <c r="AE421" t="inlineStr"/>
-      <c r="AF421" t="inlineStr"/>
-      <c r="AG421" t="inlineStr"/>
-      <c r="AH421" t="inlineStr"/>
-      <c r="AI421" t="inlineStr"/>
-      <c r="AJ421" t="inlineStr"/>
-      <c r="AK421" t="inlineStr"/>
-      <c r="AL421" t="inlineStr"/>
-      <c r="AM421" t="inlineStr"/>
-      <c r="AN421" t="inlineStr"/>
-      <c r="AO421" t="inlineStr"/>
-      <c r="AP421" t="inlineStr"/>
-      <c r="AQ421" t="inlineStr"/>
-      <c r="AR421" t="inlineStr"/>
-      <c r="AS421" t="inlineStr"/>
-      <c r="AT421" t="inlineStr"/>
-      <c r="AU421" t="inlineStr"/>
-      <c r="AV421" t="inlineStr"/>
-      <c r="AW421" t="inlineStr"/>
-      <c r="AX421" t="inlineStr"/>
-      <c r="AY421" t="inlineStr"/>
-      <c r="AZ421" t="inlineStr"/>
-      <c r="BA421" t="inlineStr"/>
-      <c r="BB421" t="inlineStr"/>
-      <c r="BC421" t="inlineStr"/>
-      <c r="BD421" t="inlineStr"/>
-      <c r="BE421" t="inlineStr"/>
-      <c r="BF421" t="inlineStr"/>
-      <c r="BG421" t="inlineStr"/>
-      <c r="BH421" t="inlineStr"/>
-      <c r="BI421" t="inlineStr"/>
-      <c r="BJ421" t="inlineStr"/>
-      <c r="BK421" t="inlineStr"/>
-      <c r="BL421" t="inlineStr"/>
-      <c r="BM421" t="inlineStr"/>
-      <c r="BN421" t="inlineStr"/>
-      <c r="BO421" t="inlineStr"/>
-      <c r="BP421" t="inlineStr"/>
-      <c r="BQ421" t="inlineStr"/>
-      <c r="BR421" t="inlineStr"/>
-      <c r="BS421" t="inlineStr"/>
-      <c r="BT421" t="inlineStr"/>
-      <c r="BU421" t="inlineStr"/>
-      <c r="BV421" t="inlineStr"/>
-      <c r="BW421" t="inlineStr"/>
-      <c r="BX421" t="inlineStr"/>
-      <c r="BY421" t="inlineStr"/>
-      <c r="BZ421" t="inlineStr"/>
-      <c r="CA421" t="inlineStr"/>
-      <c r="CB421" t="inlineStr"/>
-      <c r="CC421" t="inlineStr"/>
-      <c r="CD421" t="inlineStr"/>
-      <c r="CE421" t="inlineStr"/>
-      <c r="CF421" t="inlineStr"/>
-      <c r="CG421" t="inlineStr"/>
-      <c r="CH421" t="inlineStr"/>
-      <c r="CI421" t="inlineStr"/>
-      <c r="CJ421" t="inlineStr"/>
-      <c r="CK421" t="inlineStr"/>
-      <c r="CL421" t="inlineStr"/>
-      <c r="CM421" t="inlineStr"/>
-      <c r="CN421" t="inlineStr"/>
-      <c r="CO421" t="inlineStr"/>
-      <c r="CP421" t="inlineStr"/>
-      <c r="CQ421" t="inlineStr"/>
-      <c r="CR421" t="inlineStr"/>
-      <c r="CS421" t="inlineStr"/>
-      <c r="CT421" t="inlineStr"/>
-      <c r="CU421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>cl:10356</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>field scale</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr"/>
-      <c r="E422" t="inlineStr"/>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G422" t="inlineStr"/>
-      <c r="H422" t="inlineStr"/>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
-      <c r="M422" t="inlineStr"/>
-      <c r="N422" t="inlineStr"/>
-      <c r="O422" t="inlineStr"/>
-      <c r="P422" t="inlineStr"/>
-      <c r="Q422" t="inlineStr"/>
-      <c r="R422" t="inlineStr"/>
-      <c r="S422" t="inlineStr"/>
-      <c r="T422" t="inlineStr"/>
-      <c r="U422" t="inlineStr"/>
-      <c r="V422" t="inlineStr"/>
-      <c r="W422" t="inlineStr"/>
-      <c r="X422" t="inlineStr"/>
-      <c r="Y422" t="inlineStr"/>
-      <c r="Z422" t="inlineStr"/>
-      <c r="AA422" t="inlineStr"/>
-      <c r="AB422" t="inlineStr"/>
-      <c r="AC422" t="inlineStr"/>
-      <c r="AD422" t="inlineStr"/>
-      <c r="AE422" t="inlineStr"/>
-      <c r="AF422" t="inlineStr"/>
-      <c r="AG422" t="inlineStr"/>
-      <c r="AH422" t="inlineStr"/>
-      <c r="AI422" t="inlineStr"/>
-      <c r="AJ422" t="inlineStr"/>
-      <c r="AK422" t="inlineStr"/>
-      <c r="AL422" t="inlineStr"/>
-      <c r="AM422" t="inlineStr"/>
-      <c r="AN422" t="inlineStr"/>
-      <c r="AO422" t="inlineStr"/>
-      <c r="AP422" t="inlineStr"/>
-      <c r="AQ422" t="inlineStr"/>
-      <c r="AR422" t="inlineStr"/>
-      <c r="AS422" t="inlineStr"/>
-      <c r="AT422" t="inlineStr"/>
-      <c r="AU422" t="inlineStr"/>
-      <c r="AV422" t="inlineStr"/>
-      <c r="AW422" t="inlineStr"/>
-      <c r="AX422" t="inlineStr"/>
-      <c r="AY422" t="inlineStr"/>
-      <c r="AZ422" t="inlineStr"/>
-      <c r="BA422" t="inlineStr"/>
-      <c r="BB422" t="inlineStr"/>
-      <c r="BC422" t="inlineStr"/>
-      <c r="BD422" t="inlineStr"/>
-      <c r="BE422" t="inlineStr"/>
-      <c r="BF422" t="inlineStr"/>
-      <c r="BG422" t="inlineStr"/>
-      <c r="BH422" t="inlineStr"/>
-      <c r="BI422" t="inlineStr"/>
-      <c r="BJ422" t="inlineStr"/>
-      <c r="BK422" t="inlineStr"/>
-      <c r="BL422" t="inlineStr"/>
-      <c r="BM422" t="inlineStr"/>
-      <c r="BN422" t="inlineStr"/>
-      <c r="BO422" t="inlineStr"/>
-      <c r="BP422" t="inlineStr"/>
-      <c r="BQ422" t="inlineStr"/>
-      <c r="BR422" t="inlineStr"/>
-      <c r="BS422" t="inlineStr"/>
-      <c r="BT422" t="inlineStr"/>
-      <c r="BU422" t="inlineStr"/>
-      <c r="BV422" t="inlineStr"/>
-      <c r="BW422" t="inlineStr"/>
-      <c r="BX422" t="inlineStr"/>
-      <c r="BY422" t="inlineStr"/>
-      <c r="BZ422" t="inlineStr"/>
-      <c r="CA422" t="inlineStr"/>
-      <c r="CB422" t="inlineStr"/>
-      <c r="CC422" t="inlineStr"/>
-      <c r="CD422" t="inlineStr"/>
-      <c r="CE422" t="inlineStr"/>
-      <c r="CF422" t="inlineStr"/>
-      <c r="CG422" t="inlineStr"/>
-      <c r="CH422" t="inlineStr"/>
-      <c r="CI422" t="inlineStr"/>
-      <c r="CJ422" t="inlineStr"/>
-      <c r="CK422" t="inlineStr"/>
-      <c r="CL422" t="inlineStr"/>
-      <c r="CM422" t="inlineStr"/>
-      <c r="CN422" t="inlineStr"/>
-      <c r="CO422" t="inlineStr"/>
-      <c r="CP422" t="inlineStr"/>
-      <c r="CQ422" t="inlineStr"/>
-      <c r="CR422" t="inlineStr"/>
-      <c r="CS422" t="inlineStr"/>
-      <c r="CT422" t="inlineStr"/>
-      <c r="CU422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>cl:10357</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>subcatchment scale</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr"/>
-      <c r="E423" t="inlineStr"/>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G423" t="inlineStr"/>
-      <c r="H423" t="inlineStr"/>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
-      <c r="M423" t="inlineStr"/>
-      <c r="N423" t="inlineStr"/>
-      <c r="O423" t="inlineStr"/>
-      <c r="P423" t="inlineStr"/>
-      <c r="Q423" t="inlineStr"/>
-      <c r="R423" t="inlineStr"/>
-      <c r="S423" t="inlineStr"/>
-      <c r="T423" t="inlineStr"/>
-      <c r="U423" t="inlineStr"/>
-      <c r="V423" t="inlineStr"/>
-      <c r="W423" t="inlineStr"/>
-      <c r="X423" t="inlineStr"/>
-      <c r="Y423" t="inlineStr"/>
-      <c r="Z423" t="inlineStr"/>
-      <c r="AA423" t="inlineStr"/>
-      <c r="AB423" t="inlineStr"/>
-      <c r="AC423" t="inlineStr"/>
-      <c r="AD423" t="inlineStr"/>
-      <c r="AE423" t="inlineStr"/>
-      <c r="AF423" t="inlineStr"/>
-      <c r="AG423" t="inlineStr"/>
-      <c r="AH423" t="inlineStr"/>
-      <c r="AI423" t="inlineStr"/>
-      <c r="AJ423" t="inlineStr"/>
-      <c r="AK423" t="inlineStr"/>
-      <c r="AL423" t="inlineStr"/>
-      <c r="AM423" t="inlineStr"/>
-      <c r="AN423" t="inlineStr"/>
-      <c r="AO423" t="inlineStr"/>
-      <c r="AP423" t="inlineStr"/>
-      <c r="AQ423" t="inlineStr"/>
-      <c r="AR423" t="inlineStr"/>
-      <c r="AS423" t="inlineStr"/>
-      <c r="AT423" t="inlineStr"/>
-      <c r="AU423" t="inlineStr"/>
-      <c r="AV423" t="inlineStr"/>
-      <c r="AW423" t="inlineStr"/>
-      <c r="AX423" t="inlineStr"/>
-      <c r="AY423" t="inlineStr"/>
-      <c r="AZ423" t="inlineStr"/>
-      <c r="BA423" t="inlineStr"/>
-      <c r="BB423" t="inlineStr"/>
-      <c r="BC423" t="inlineStr"/>
-      <c r="BD423" t="inlineStr"/>
-      <c r="BE423" t="inlineStr"/>
-      <c r="BF423" t="inlineStr"/>
-      <c r="BG423" t="inlineStr"/>
-      <c r="BH423" t="inlineStr"/>
-      <c r="BI423" t="inlineStr"/>
-      <c r="BJ423" t="inlineStr"/>
-      <c r="BK423" t="inlineStr"/>
-      <c r="BL423" t="inlineStr"/>
-      <c r="BM423" t="inlineStr"/>
-      <c r="BN423" t="inlineStr"/>
-      <c r="BO423" t="inlineStr"/>
-      <c r="BP423" t="inlineStr"/>
-      <c r="BQ423" t="inlineStr"/>
-      <c r="BR423" t="inlineStr"/>
-      <c r="BS423" t="inlineStr"/>
-      <c r="BT423" t="inlineStr"/>
-      <c r="BU423" t="inlineStr"/>
-      <c r="BV423" t="inlineStr"/>
-      <c r="BW423" t="inlineStr"/>
-      <c r="BX423" t="inlineStr"/>
-      <c r="BY423" t="inlineStr"/>
-      <c r="BZ423" t="inlineStr"/>
-      <c r="CA423" t="inlineStr"/>
-      <c r="CB423" t="inlineStr"/>
-      <c r="CC423" t="inlineStr"/>
-      <c r="CD423" t="inlineStr"/>
-      <c r="CE423" t="inlineStr"/>
-      <c r="CF423" t="inlineStr"/>
-      <c r="CG423" t="inlineStr"/>
-      <c r="CH423" t="inlineStr"/>
-      <c r="CI423" t="inlineStr"/>
-      <c r="CJ423" t="inlineStr"/>
-      <c r="CK423" t="inlineStr"/>
-      <c r="CL423" t="inlineStr"/>
-      <c r="CM423" t="inlineStr"/>
-      <c r="CN423" t="inlineStr"/>
-      <c r="CO423" t="inlineStr"/>
-      <c r="CP423" t="inlineStr"/>
-      <c r="CQ423" t="inlineStr"/>
-      <c r="CR423" t="inlineStr"/>
-      <c r="CS423" t="inlineStr"/>
-      <c r="CT423" t="inlineStr"/>
-      <c r="CU423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>cl:10358</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>continental scale</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr"/>
-      <c r="E424" t="inlineStr"/>
-      <c r="F424" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G424" t="inlineStr"/>
-      <c r="H424" t="inlineStr"/>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
-      <c r="M424" t="inlineStr"/>
-      <c r="N424" t="inlineStr"/>
-      <c r="O424" t="inlineStr"/>
-      <c r="P424" t="inlineStr"/>
-      <c r="Q424" t="inlineStr"/>
-      <c r="R424" t="inlineStr"/>
-      <c r="S424" t="inlineStr"/>
-      <c r="T424" t="inlineStr"/>
-      <c r="U424" t="inlineStr"/>
-      <c r="V424" t="inlineStr"/>
-      <c r="W424" t="inlineStr"/>
-      <c r="X424" t="inlineStr"/>
-      <c r="Y424" t="inlineStr"/>
-      <c r="Z424" t="inlineStr"/>
-      <c r="AA424" t="inlineStr"/>
-      <c r="AB424" t="inlineStr"/>
-      <c r="AC424" t="inlineStr"/>
-      <c r="AD424" t="inlineStr"/>
-      <c r="AE424" t="inlineStr"/>
-      <c r="AF424" t="inlineStr"/>
-      <c r="AG424" t="inlineStr"/>
-      <c r="AH424" t="inlineStr"/>
-      <c r="AI424" t="inlineStr"/>
-      <c r="AJ424" t="inlineStr"/>
-      <c r="AK424" t="inlineStr"/>
-      <c r="AL424" t="inlineStr"/>
-      <c r="AM424" t="inlineStr"/>
-      <c r="AN424" t="inlineStr"/>
-      <c r="AO424" t="inlineStr"/>
-      <c r="AP424" t="inlineStr"/>
-      <c r="AQ424" t="inlineStr"/>
-      <c r="AR424" t="inlineStr"/>
-      <c r="AS424" t="inlineStr"/>
-      <c r="AT424" t="inlineStr"/>
-      <c r="AU424" t="inlineStr"/>
-      <c r="AV424" t="inlineStr"/>
-      <c r="AW424" t="inlineStr"/>
-      <c r="AX424" t="inlineStr"/>
-      <c r="AY424" t="inlineStr"/>
-      <c r="AZ424" t="inlineStr"/>
-      <c r="BA424" t="inlineStr"/>
-      <c r="BB424" t="inlineStr"/>
-      <c r="BC424" t="inlineStr"/>
-      <c r="BD424" t="inlineStr"/>
-      <c r="BE424" t="inlineStr"/>
-      <c r="BF424" t="inlineStr"/>
-      <c r="BG424" t="inlineStr"/>
-      <c r="BH424" t="inlineStr"/>
-      <c r="BI424" t="inlineStr"/>
-      <c r="BJ424" t="inlineStr"/>
-      <c r="BK424" t="inlineStr"/>
-      <c r="BL424" t="inlineStr"/>
-      <c r="BM424" t="inlineStr"/>
-      <c r="BN424" t="inlineStr"/>
-      <c r="BO424" t="inlineStr"/>
-      <c r="BP424" t="inlineStr"/>
-      <c r="BQ424" t="inlineStr"/>
-      <c r="BR424" t="inlineStr"/>
-      <c r="BS424" t="inlineStr"/>
-      <c r="BT424" t="inlineStr"/>
-      <c r="BU424" t="inlineStr"/>
-      <c r="BV424" t="inlineStr"/>
-      <c r="BW424" t="inlineStr"/>
-      <c r="BX424" t="inlineStr"/>
-      <c r="BY424" t="inlineStr"/>
-      <c r="BZ424" t="inlineStr"/>
-      <c r="CA424" t="inlineStr"/>
-      <c r="CB424" t="inlineStr"/>
-      <c r="CC424" t="inlineStr"/>
-      <c r="CD424" t="inlineStr"/>
-      <c r="CE424" t="inlineStr"/>
-      <c r="CF424" t="inlineStr"/>
-      <c r="CG424" t="inlineStr"/>
-      <c r="CH424" t="inlineStr"/>
-      <c r="CI424" t="inlineStr"/>
-      <c r="CJ424" t="inlineStr"/>
-      <c r="CK424" t="inlineStr"/>
-      <c r="CL424" t="inlineStr"/>
-      <c r="CM424" t="inlineStr"/>
-      <c r="CN424" t="inlineStr"/>
-      <c r="CO424" t="inlineStr"/>
-      <c r="CP424" t="inlineStr"/>
-      <c r="CQ424" t="inlineStr"/>
-      <c r="CR424" t="inlineStr"/>
-      <c r="CS424" t="inlineStr"/>
-      <c r="CT424" t="inlineStr"/>
-      <c r="CU424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>cl:10359</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>catchment scale</t>
-        </is>
-      </c>
-      <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr"/>
-      <c r="E425" t="inlineStr"/>
-      <c r="F425" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G425" t="inlineStr"/>
-      <c r="H425" t="inlineStr"/>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
-      <c r="M425" t="inlineStr"/>
-      <c r="N425" t="inlineStr"/>
-      <c r="O425" t="inlineStr"/>
-      <c r="P425" t="inlineStr"/>
-      <c r="Q425" t="inlineStr"/>
-      <c r="R425" t="inlineStr"/>
-      <c r="S425" t="inlineStr"/>
-      <c r="T425" t="inlineStr"/>
-      <c r="U425" t="inlineStr"/>
-      <c r="V425" t="inlineStr"/>
-      <c r="W425" t="inlineStr"/>
-      <c r="X425" t="inlineStr"/>
-      <c r="Y425" t="inlineStr"/>
-      <c r="Z425" t="inlineStr"/>
-      <c r="AA425" t="inlineStr"/>
-      <c r="AB425" t="inlineStr"/>
-      <c r="AC425" t="inlineStr"/>
-      <c r="AD425" t="inlineStr"/>
-      <c r="AE425" t="inlineStr"/>
-      <c r="AF425" t="inlineStr"/>
-      <c r="AG425" t="inlineStr"/>
-      <c r="AH425" t="inlineStr"/>
-      <c r="AI425" t="inlineStr"/>
-      <c r="AJ425" t="inlineStr"/>
-      <c r="AK425" t="inlineStr"/>
-      <c r="AL425" t="inlineStr"/>
-      <c r="AM425" t="inlineStr"/>
-      <c r="AN425" t="inlineStr"/>
-      <c r="AO425" t="inlineStr"/>
-      <c r="AP425" t="inlineStr"/>
-      <c r="AQ425" t="inlineStr"/>
-      <c r="AR425" t="inlineStr"/>
-      <c r="AS425" t="inlineStr"/>
-      <c r="AT425" t="inlineStr"/>
-      <c r="AU425" t="inlineStr"/>
-      <c r="AV425" t="inlineStr"/>
-      <c r="AW425" t="inlineStr"/>
-      <c r="AX425" t="inlineStr"/>
-      <c r="AY425" t="inlineStr"/>
-      <c r="AZ425" t="inlineStr"/>
-      <c r="BA425" t="inlineStr"/>
-      <c r="BB425" t="inlineStr"/>
-      <c r="BC425" t="inlineStr"/>
-      <c r="BD425" t="inlineStr"/>
-      <c r="BE425" t="inlineStr"/>
-      <c r="BF425" t="inlineStr"/>
-      <c r="BG425" t="inlineStr"/>
-      <c r="BH425" t="inlineStr"/>
-      <c r="BI425" t="inlineStr"/>
-      <c r="BJ425" t="inlineStr"/>
-      <c r="BK425" t="inlineStr"/>
-      <c r="BL425" t="inlineStr"/>
-      <c r="BM425" t="inlineStr"/>
-      <c r="BN425" t="inlineStr"/>
-      <c r="BO425" t="inlineStr"/>
-      <c r="BP425" t="inlineStr"/>
-      <c r="BQ425" t="inlineStr"/>
-      <c r="BR425" t="inlineStr"/>
-      <c r="BS425" t="inlineStr"/>
-      <c r="BT425" t="inlineStr"/>
-      <c r="BU425" t="inlineStr"/>
-      <c r="BV425" t="inlineStr"/>
-      <c r="BW425" t="inlineStr"/>
-      <c r="BX425" t="inlineStr"/>
-      <c r="BY425" t="inlineStr"/>
-      <c r="BZ425" t="inlineStr"/>
-      <c r="CA425" t="inlineStr"/>
-      <c r="CB425" t="inlineStr"/>
-      <c r="CC425" t="inlineStr"/>
-      <c r="CD425" t="inlineStr"/>
-      <c r="CE425" t="inlineStr"/>
-      <c r="CF425" t="inlineStr"/>
-      <c r="CG425" t="inlineStr"/>
-      <c r="CH425" t="inlineStr"/>
-      <c r="CI425" t="inlineStr"/>
-      <c r="CJ425" t="inlineStr"/>
-      <c r="CK425" t="inlineStr"/>
-      <c r="CL425" t="inlineStr"/>
-      <c r="CM425" t="inlineStr"/>
-      <c r="CN425" t="inlineStr"/>
-      <c r="CO425" t="inlineStr"/>
-      <c r="CP425" t="inlineStr"/>
-      <c r="CQ425" t="inlineStr"/>
-      <c r="CR425" t="inlineStr"/>
-      <c r="CS425" t="inlineStr"/>
-      <c r="CT425" t="inlineStr"/>
-      <c r="CU425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>cl:10360</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>plot scale</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr"/>
-      <c r="D426" t="inlineStr"/>
-      <c r="E426" t="inlineStr"/>
-      <c r="F426" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G426" t="inlineStr"/>
-      <c r="H426" t="inlineStr"/>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
-      <c r="M426" t="inlineStr"/>
-      <c r="N426" t="inlineStr"/>
-      <c r="O426" t="inlineStr"/>
-      <c r="P426" t="inlineStr"/>
-      <c r="Q426" t="inlineStr"/>
-      <c r="R426" t="inlineStr"/>
-      <c r="S426" t="inlineStr"/>
-      <c r="T426" t="inlineStr"/>
-      <c r="U426" t="inlineStr"/>
-      <c r="V426" t="inlineStr"/>
-      <c r="W426" t="inlineStr"/>
-      <c r="X426" t="inlineStr"/>
-      <c r="Y426" t="inlineStr"/>
-      <c r="Z426" t="inlineStr"/>
-      <c r="AA426" t="inlineStr"/>
-      <c r="AB426" t="inlineStr"/>
-      <c r="AC426" t="inlineStr"/>
-      <c r="AD426" t="inlineStr"/>
-      <c r="AE426" t="inlineStr"/>
-      <c r="AF426" t="inlineStr"/>
-      <c r="AG426" t="inlineStr"/>
-      <c r="AH426" t="inlineStr"/>
-      <c r="AI426" t="inlineStr"/>
-      <c r="AJ426" t="inlineStr"/>
-      <c r="AK426" t="inlineStr"/>
-      <c r="AL426" t="inlineStr"/>
-      <c r="AM426" t="inlineStr"/>
-      <c r="AN426" t="inlineStr"/>
-      <c r="AO426" t="inlineStr"/>
-      <c r="AP426" t="inlineStr"/>
-      <c r="AQ426" t="inlineStr"/>
-      <c r="AR426" t="inlineStr"/>
-      <c r="AS426" t="inlineStr"/>
-      <c r="AT426" t="inlineStr"/>
-      <c r="AU426" t="inlineStr"/>
-      <c r="AV426" t="inlineStr"/>
-      <c r="AW426" t="inlineStr"/>
-      <c r="AX426" t="inlineStr"/>
-      <c r="AY426" t="inlineStr"/>
-      <c r="AZ426" t="inlineStr"/>
-      <c r="BA426" t="inlineStr"/>
-      <c r="BB426" t="inlineStr"/>
-      <c r="BC426" t="inlineStr"/>
-      <c r="BD426" t="inlineStr"/>
-      <c r="BE426" t="inlineStr"/>
-      <c r="BF426" t="inlineStr"/>
-      <c r="BG426" t="inlineStr"/>
-      <c r="BH426" t="inlineStr"/>
-      <c r="BI426" t="inlineStr"/>
-      <c r="BJ426" t="inlineStr"/>
-      <c r="BK426" t="inlineStr"/>
-      <c r="BL426" t="inlineStr"/>
-      <c r="BM426" t="inlineStr"/>
-      <c r="BN426" t="inlineStr"/>
-      <c r="BO426" t="inlineStr"/>
-      <c r="BP426" t="inlineStr"/>
-      <c r="BQ426" t="inlineStr"/>
-      <c r="BR426" t="inlineStr"/>
-      <c r="BS426" t="inlineStr"/>
-      <c r="BT426" t="inlineStr"/>
-      <c r="BU426" t="inlineStr"/>
-      <c r="BV426" t="inlineStr"/>
-      <c r="BW426" t="inlineStr"/>
-      <c r="BX426" t="inlineStr"/>
-      <c r="BY426" t="inlineStr"/>
-      <c r="BZ426" t="inlineStr"/>
-      <c r="CA426" t="inlineStr"/>
-      <c r="CB426" t="inlineStr"/>
-      <c r="CC426" t="inlineStr"/>
-      <c r="CD426" t="inlineStr"/>
-      <c r="CE426" t="inlineStr"/>
-      <c r="CF426" t="inlineStr"/>
-      <c r="CG426" t="inlineStr"/>
-      <c r="CH426" t="inlineStr"/>
-      <c r="CI426" t="inlineStr"/>
-      <c r="CJ426" t="inlineStr"/>
-      <c r="CK426" t="inlineStr"/>
-      <c r="CL426" t="inlineStr"/>
-      <c r="CM426" t="inlineStr"/>
-      <c r="CN426" t="inlineStr"/>
-      <c r="CO426" t="inlineStr"/>
-      <c r="CP426" t="inlineStr"/>
-      <c r="CQ426" t="inlineStr"/>
-      <c r="CR426" t="inlineStr"/>
-      <c r="CS426" t="inlineStr"/>
-      <c r="CT426" t="inlineStr"/>
-      <c r="CU426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>cl:10361</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>ecotron scale</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr"/>
-      <c r="D427" t="inlineStr"/>
-      <c r="E427" t="inlineStr"/>
-      <c r="F427" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G427" t="inlineStr"/>
-      <c r="H427" t="inlineStr"/>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
-      <c r="M427" t="inlineStr"/>
-      <c r="N427" t="inlineStr"/>
-      <c r="O427" t="inlineStr"/>
-      <c r="P427" t="inlineStr"/>
-      <c r="Q427" t="inlineStr"/>
-      <c r="R427" t="inlineStr"/>
-      <c r="S427" t="inlineStr"/>
-      <c r="T427" t="inlineStr"/>
-      <c r="U427" t="inlineStr"/>
-      <c r="V427" t="inlineStr"/>
-      <c r="W427" t="inlineStr"/>
-      <c r="X427" t="inlineStr"/>
-      <c r="Y427" t="inlineStr"/>
-      <c r="Z427" t="inlineStr"/>
-      <c r="AA427" t="inlineStr"/>
-      <c r="AB427" t="inlineStr"/>
-      <c r="AC427" t="inlineStr"/>
-      <c r="AD427" t="inlineStr"/>
-      <c r="AE427" t="inlineStr"/>
-      <c r="AF427" t="inlineStr"/>
-      <c r="AG427" t="inlineStr"/>
-      <c r="AH427" t="inlineStr"/>
-      <c r="AI427" t="inlineStr"/>
-      <c r="AJ427" t="inlineStr"/>
-      <c r="AK427" t="inlineStr"/>
-      <c r="AL427" t="inlineStr"/>
-      <c r="AM427" t="inlineStr"/>
-      <c r="AN427" t="inlineStr"/>
-      <c r="AO427" t="inlineStr"/>
-      <c r="AP427" t="inlineStr"/>
-      <c r="AQ427" t="inlineStr"/>
-      <c r="AR427" t="inlineStr"/>
-      <c r="AS427" t="inlineStr"/>
-      <c r="AT427" t="inlineStr"/>
-      <c r="AU427" t="inlineStr"/>
-      <c r="AV427" t="inlineStr"/>
-      <c r="AW427" t="inlineStr"/>
-      <c r="AX427" t="inlineStr"/>
-      <c r="AY427" t="inlineStr"/>
-      <c r="AZ427" t="inlineStr"/>
-      <c r="BA427" t="inlineStr"/>
-      <c r="BB427" t="inlineStr"/>
-      <c r="BC427" t="inlineStr"/>
-      <c r="BD427" t="inlineStr"/>
-      <c r="BE427" t="inlineStr"/>
-      <c r="BF427" t="inlineStr"/>
-      <c r="BG427" t="inlineStr"/>
-      <c r="BH427" t="inlineStr"/>
-      <c r="BI427" t="inlineStr"/>
-      <c r="BJ427" t="inlineStr"/>
-      <c r="BK427" t="inlineStr"/>
-      <c r="BL427" t="inlineStr"/>
-      <c r="BM427" t="inlineStr"/>
-      <c r="BN427" t="inlineStr"/>
-      <c r="BO427" t="inlineStr"/>
-      <c r="BP427" t="inlineStr"/>
-      <c r="BQ427" t="inlineStr"/>
-      <c r="BR427" t="inlineStr"/>
-      <c r="BS427" t="inlineStr"/>
-      <c r="BT427" t="inlineStr"/>
-      <c r="BU427" t="inlineStr"/>
-      <c r="BV427" t="inlineStr"/>
-      <c r="BW427" t="inlineStr"/>
-      <c r="BX427" t="inlineStr"/>
-      <c r="BY427" t="inlineStr"/>
-      <c r="BZ427" t="inlineStr"/>
-      <c r="CA427" t="inlineStr"/>
-      <c r="CB427" t="inlineStr"/>
-      <c r="CC427" t="inlineStr"/>
-      <c r="CD427" t="inlineStr"/>
-      <c r="CE427" t="inlineStr"/>
-      <c r="CF427" t="inlineStr"/>
-      <c r="CG427" t="inlineStr"/>
-      <c r="CH427" t="inlineStr"/>
-      <c r="CI427" t="inlineStr"/>
-      <c r="CJ427" t="inlineStr"/>
-      <c r="CK427" t="inlineStr"/>
-      <c r="CL427" t="inlineStr"/>
-      <c r="CM427" t="inlineStr"/>
-      <c r="CN427" t="inlineStr"/>
-      <c r="CO427" t="inlineStr"/>
-      <c r="CP427" t="inlineStr"/>
-      <c r="CQ427" t="inlineStr"/>
-      <c r="CR427" t="inlineStr"/>
-      <c r="CS427" t="inlineStr"/>
-      <c r="CT427" t="inlineStr"/>
-      <c r="CU427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>cl:10362</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>beyond catchment scale</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr"/>
-      <c r="D428" t="inlineStr"/>
-      <c r="E428" t="inlineStr"/>
-      <c r="F428" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G428" t="inlineStr"/>
-      <c r="H428" t="inlineStr"/>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
-      <c r="M428" t="inlineStr"/>
-      <c r="N428" t="inlineStr"/>
-      <c r="O428" t="inlineStr"/>
-      <c r="P428" t="inlineStr"/>
-      <c r="Q428" t="inlineStr"/>
-      <c r="R428" t="inlineStr"/>
-      <c r="S428" t="inlineStr"/>
-      <c r="T428" t="inlineStr"/>
-      <c r="U428" t="inlineStr"/>
-      <c r="V428" t="inlineStr"/>
-      <c r="W428" t="inlineStr"/>
-      <c r="X428" t="inlineStr"/>
-      <c r="Y428" t="inlineStr"/>
-      <c r="Z428" t="inlineStr"/>
-      <c r="AA428" t="inlineStr"/>
-      <c r="AB428" t="inlineStr"/>
-      <c r="AC428" t="inlineStr"/>
-      <c r="AD428" t="inlineStr"/>
-      <c r="AE428" t="inlineStr"/>
-      <c r="AF428" t="inlineStr"/>
-      <c r="AG428" t="inlineStr"/>
-      <c r="AH428" t="inlineStr"/>
-      <c r="AI428" t="inlineStr"/>
-      <c r="AJ428" t="inlineStr"/>
-      <c r="AK428" t="inlineStr"/>
-      <c r="AL428" t="inlineStr"/>
-      <c r="AM428" t="inlineStr"/>
-      <c r="AN428" t="inlineStr"/>
-      <c r="AO428" t="inlineStr"/>
-      <c r="AP428" t="inlineStr"/>
-      <c r="AQ428" t="inlineStr"/>
-      <c r="AR428" t="inlineStr"/>
-      <c r="AS428" t="inlineStr"/>
-      <c r="AT428" t="inlineStr"/>
-      <c r="AU428" t="inlineStr"/>
-      <c r="AV428" t="inlineStr"/>
-      <c r="AW428" t="inlineStr"/>
-      <c r="AX428" t="inlineStr"/>
-      <c r="AY428" t="inlineStr"/>
-      <c r="AZ428" t="inlineStr"/>
-      <c r="BA428" t="inlineStr"/>
-      <c r="BB428" t="inlineStr"/>
-      <c r="BC428" t="inlineStr"/>
-      <c r="BD428" t="inlineStr"/>
-      <c r="BE428" t="inlineStr"/>
-      <c r="BF428" t="inlineStr"/>
-      <c r="BG428" t="inlineStr"/>
-      <c r="BH428" t="inlineStr"/>
-      <c r="BI428" t="inlineStr"/>
-      <c r="BJ428" t="inlineStr"/>
-      <c r="BK428" t="inlineStr"/>
-      <c r="BL428" t="inlineStr"/>
-      <c r="BM428" t="inlineStr"/>
-      <c r="BN428" t="inlineStr"/>
-      <c r="BO428" t="inlineStr"/>
-      <c r="BP428" t="inlineStr"/>
-      <c r="BQ428" t="inlineStr"/>
-      <c r="BR428" t="inlineStr"/>
-      <c r="BS428" t="inlineStr"/>
-      <c r="BT428" t="inlineStr"/>
-      <c r="BU428" t="inlineStr"/>
-      <c r="BV428" t="inlineStr"/>
-      <c r="BW428" t="inlineStr"/>
-      <c r="BX428" t="inlineStr"/>
-      <c r="BY428" t="inlineStr"/>
-      <c r="BZ428" t="inlineStr"/>
-      <c r="CA428" t="inlineStr"/>
-      <c r="CB428" t="inlineStr"/>
-      <c r="CC428" t="inlineStr"/>
-      <c r="CD428" t="inlineStr"/>
-      <c r="CE428" t="inlineStr"/>
-      <c r="CF428" t="inlineStr"/>
-      <c r="CG428" t="inlineStr"/>
-      <c r="CH428" t="inlineStr"/>
-      <c r="CI428" t="inlineStr"/>
-      <c r="CJ428" t="inlineStr"/>
-      <c r="CK428" t="inlineStr"/>
-      <c r="CL428" t="inlineStr"/>
-      <c r="CM428" t="inlineStr"/>
-      <c r="CN428" t="inlineStr"/>
-      <c r="CO428" t="inlineStr"/>
-      <c r="CP428" t="inlineStr"/>
-      <c r="CQ428" t="inlineStr"/>
-      <c r="CR428" t="inlineStr"/>
-      <c r="CS428" t="inlineStr"/>
-      <c r="CT428" t="inlineStr"/>
-      <c r="CU428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>cl:10363</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>micro site scale</t>
-        </is>
-      </c>
-      <c r="C429" t="inlineStr"/>
-      <c r="D429" t="inlineStr"/>
-      <c r="E429" t="inlineStr"/>
-      <c r="F429" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G429" t="inlineStr"/>
-      <c r="H429" t="inlineStr"/>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
-      <c r="M429" t="inlineStr"/>
-      <c r="N429" t="inlineStr"/>
-      <c r="O429" t="inlineStr"/>
-      <c r="P429" t="inlineStr"/>
-      <c r="Q429" t="inlineStr"/>
-      <c r="R429" t="inlineStr"/>
-      <c r="S429" t="inlineStr"/>
-      <c r="T429" t="inlineStr"/>
-      <c r="U429" t="inlineStr"/>
-      <c r="V429" t="inlineStr"/>
-      <c r="W429" t="inlineStr"/>
-      <c r="X429" t="inlineStr"/>
-      <c r="Y429" t="inlineStr"/>
-      <c r="Z429" t="inlineStr"/>
-      <c r="AA429" t="inlineStr"/>
-      <c r="AB429" t="inlineStr"/>
-      <c r="AC429" t="inlineStr"/>
-      <c r="AD429" t="inlineStr"/>
-      <c r="AE429" t="inlineStr"/>
-      <c r="AF429" t="inlineStr"/>
-      <c r="AG429" t="inlineStr"/>
-      <c r="AH429" t="inlineStr"/>
-      <c r="AI429" t="inlineStr"/>
-      <c r="AJ429" t="inlineStr"/>
-      <c r="AK429" t="inlineStr"/>
-      <c r="AL429" t="inlineStr"/>
-      <c r="AM429" t="inlineStr"/>
-      <c r="AN429" t="inlineStr"/>
-      <c r="AO429" t="inlineStr"/>
-      <c r="AP429" t="inlineStr"/>
-      <c r="AQ429" t="inlineStr"/>
-      <c r="AR429" t="inlineStr"/>
-      <c r="AS429" t="inlineStr"/>
-      <c r="AT429" t="inlineStr"/>
-      <c r="AU429" t="inlineStr"/>
-      <c r="AV429" t="inlineStr"/>
-      <c r="AW429" t="inlineStr"/>
-      <c r="AX429" t="inlineStr"/>
-      <c r="AY429" t="inlineStr"/>
-      <c r="AZ429" t="inlineStr"/>
-      <c r="BA429" t="inlineStr"/>
-      <c r="BB429" t="inlineStr"/>
-      <c r="BC429" t="inlineStr"/>
-      <c r="BD429" t="inlineStr"/>
-      <c r="BE429" t="inlineStr"/>
-      <c r="BF429" t="inlineStr"/>
-      <c r="BG429" t="inlineStr"/>
-      <c r="BH429" t="inlineStr"/>
-      <c r="BI429" t="inlineStr"/>
-      <c r="BJ429" t="inlineStr"/>
-      <c r="BK429" t="inlineStr"/>
-      <c r="BL429" t="inlineStr"/>
-      <c r="BM429" t="inlineStr"/>
-      <c r="BN429" t="inlineStr"/>
-      <c r="BO429" t="inlineStr"/>
-      <c r="BP429" t="inlineStr"/>
-      <c r="BQ429" t="inlineStr"/>
-      <c r="BR429" t="inlineStr"/>
-      <c r="BS429" t="inlineStr"/>
-      <c r="BT429" t="inlineStr"/>
-      <c r="BU429" t="inlineStr"/>
-      <c r="BV429" t="inlineStr"/>
-      <c r="BW429" t="inlineStr"/>
-      <c r="BX429" t="inlineStr"/>
-      <c r="BY429" t="inlineStr"/>
-      <c r="BZ429" t="inlineStr"/>
-      <c r="CA429" t="inlineStr"/>
-      <c r="CB429" t="inlineStr"/>
-      <c r="CC429" t="inlineStr"/>
-      <c r="CD429" t="inlineStr"/>
-      <c r="CE429" t="inlineStr"/>
-      <c r="CF429" t="inlineStr"/>
-      <c r="CG429" t="inlineStr"/>
-      <c r="CH429" t="inlineStr"/>
-      <c r="CI429" t="inlineStr"/>
-      <c r="CJ429" t="inlineStr"/>
-      <c r="CK429" t="inlineStr"/>
-      <c r="CL429" t="inlineStr"/>
-      <c r="CM429" t="inlineStr"/>
-      <c r="CN429" t="inlineStr"/>
-      <c r="CO429" t="inlineStr"/>
-      <c r="CP429" t="inlineStr"/>
-      <c r="CQ429" t="inlineStr"/>
-      <c r="CR429" t="inlineStr"/>
-      <c r="CS429" t="inlineStr"/>
-      <c r="CT429" t="inlineStr"/>
-      <c r="CU429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>cl:10364</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>landscape scale</t>
-        </is>
-      </c>
-      <c r="C430" t="inlineStr"/>
-      <c r="D430" t="inlineStr"/>
-      <c r="E430" t="inlineStr"/>
-      <c r="F430" t="inlineStr">
-        <is>
-          <t>cl:10346</t>
-        </is>
-      </c>
-      <c r="G430" t="inlineStr"/>
-      <c r="H430" t="inlineStr"/>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
-      <c r="M430" t="inlineStr"/>
-      <c r="N430" t="inlineStr"/>
-      <c r="O430" t="inlineStr"/>
-      <c r="P430" t="inlineStr"/>
-      <c r="Q430" t="inlineStr"/>
-      <c r="R430" t="inlineStr"/>
-      <c r="S430" t="inlineStr"/>
-      <c r="T430" t="inlineStr"/>
-      <c r="U430" t="inlineStr"/>
-      <c r="V430" t="inlineStr"/>
-      <c r="W430" t="inlineStr"/>
-      <c r="X430" t="inlineStr"/>
-      <c r="Y430" t="inlineStr"/>
-      <c r="Z430" t="inlineStr"/>
-      <c r="AA430" t="inlineStr"/>
-      <c r="AB430" t="inlineStr"/>
-      <c r="AC430" t="inlineStr"/>
-      <c r="AD430" t="inlineStr"/>
-      <c r="AE430" t="inlineStr"/>
-      <c r="AF430" t="inlineStr"/>
-      <c r="AG430" t="inlineStr"/>
-      <c r="AH430" t="inlineStr"/>
-      <c r="AI430" t="inlineStr"/>
-      <c r="AJ430" t="inlineStr"/>
-      <c r="AK430" t="inlineStr"/>
-      <c r="AL430" t="inlineStr"/>
-      <c r="AM430" t="inlineStr"/>
-      <c r="AN430" t="inlineStr"/>
-      <c r="AO430" t="inlineStr"/>
-      <c r="AP430" t="inlineStr"/>
-      <c r="AQ430" t="inlineStr"/>
-      <c r="AR430" t="inlineStr"/>
-      <c r="AS430" t="inlineStr"/>
-      <c r="AT430" t="inlineStr"/>
-      <c r="AU430" t="inlineStr"/>
-      <c r="AV430" t="inlineStr"/>
-      <c r="AW430" t="inlineStr"/>
-      <c r="AX430" t="inlineStr"/>
-      <c r="AY430" t="inlineStr"/>
-      <c r="AZ430" t="inlineStr"/>
-      <c r="BA430" t="inlineStr"/>
-      <c r="BB430" t="inlineStr"/>
-      <c r="BC430" t="inlineStr"/>
-      <c r="BD430" t="inlineStr"/>
-      <c r="BE430" t="inlineStr"/>
-      <c r="BF430" t="inlineStr"/>
-      <c r="BG430" t="inlineStr"/>
-      <c r="BH430" t="inlineStr"/>
-      <c r="BI430" t="inlineStr"/>
-      <c r="BJ430" t="inlineStr"/>
-      <c r="BK430" t="inlineStr"/>
-      <c r="BL430" t="inlineStr"/>
-      <c r="BM430" t="inlineStr"/>
-      <c r="BN430" t="inlineStr"/>
-      <c r="BO430" t="inlineStr"/>
-      <c r="BP430" t="inlineStr"/>
-      <c r="BQ430" t="inlineStr"/>
-      <c r="BR430" t="inlineStr"/>
-      <c r="BS430" t="inlineStr"/>
-      <c r="BT430" t="inlineStr"/>
-      <c r="BU430" t="inlineStr"/>
-      <c r="BV430" t="inlineStr"/>
-      <c r="BW430" t="inlineStr"/>
-      <c r="BX430" t="inlineStr"/>
-      <c r="BY430" t="inlineStr"/>
-      <c r="BZ430" t="inlineStr"/>
-      <c r="CA430" t="inlineStr"/>
-      <c r="CB430" t="inlineStr"/>
-      <c r="CC430" t="inlineStr"/>
-      <c r="CD430" t="inlineStr"/>
-      <c r="CE430" t="inlineStr"/>
-      <c r="CF430" t="inlineStr"/>
-      <c r="CG430" t="inlineStr"/>
-      <c r="CH430" t="inlineStr"/>
-      <c r="CI430" t="inlineStr"/>
-      <c r="CJ430" t="inlineStr"/>
-      <c r="CK430" t="inlineStr"/>
-      <c r="CL430" t="inlineStr"/>
-      <c r="CM430" t="inlineStr"/>
-      <c r="CN430" t="inlineStr"/>
-      <c r="CO430" t="inlineStr"/>
-      <c r="CP430" t="inlineStr"/>
-      <c r="CQ430" t="inlineStr"/>
-      <c r="CR430" t="inlineStr"/>
-      <c r="CS430" t="inlineStr"/>
-      <c r="CT430" t="inlineStr"/>
-      <c r="CU430" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -3320,7 +3320,7 @@
       </c>
       <c r="CI22" t="inlineStr">
         <is>
-          <t>dct:modifier</t>
+          <t>dct:modified</t>
         </is>
       </c>
       <c r="CJ22" t="inlineStr"/>
